--- a/data/25년_수확량 통계.xlsx
+++ b/data/25년_수확량 통계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\분석프로젝트\rice_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://godaedong.sharepoint.com/sites/msteams_568ebf/Shared Documents/General/3. 정밀농업서비스 개발 관련 자료/데이터 분석/25년_필지분석/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DD049F-65EA-4D9E-A1EE-F9EB929BBC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="13_ncr:1_{F8FA6735-A609-4EE7-8805-16A4814DCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB2886F-DF4C-4260-8EF7-16CF4D9DDB6D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
+    <workbookView xWindow="19680" yWindow="0" windowWidth="32025" windowHeight="20985" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{FFD974FE-6107-456F-98C9-5C08D6F210C5}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{FFD974FE-6107-456F-98C9-5C08D6F210C5}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="179">
   <si>
     <t>김제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -369,6 +369,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>배선문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상린(호영찬)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,15 +476,276 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수확량(kg/10a)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밑거름 살포량(kg/10a)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웃거름 살포량(kg/10a)</t>
+    <t>구례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1154-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양홍식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-02</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1154-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-03</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1154-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-04</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1155-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-05</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1155-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-06</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1155-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-07</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1155-17,1155-18,1155-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-08</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1162-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-09</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1162-9,1162-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 중방리 688-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 중방리 688-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 중방리 688-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새청무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건중량(kg)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-60</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 용성리 22-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-61</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-62</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 12-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-63</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 12-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-64</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 12-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 미달, 웃거름 변량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 정량, 웃거름 변량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든퀸 3호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 관행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농진청 조사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 과다, 웃거름 변량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 미달, 웃거름 관행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 정량, 웃거름 관행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 과다, 웃거름 관행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1144-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 구례군 용방면 신도리 1145-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조 수확량(kg/10a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-23</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 18-13,18-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-25</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 19-11</t>
+  </si>
+  <si>
+    <t>GJ-26</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 19-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-27</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신두리 102,102-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-29</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 20-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-30</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 20-8,20-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-31</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 20-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-32</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 20-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJ-35</t>
+  </si>
+  <si>
+    <t>전라북도 김제시 부량면 신용리 21-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 과다, 웃거름 미살포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,11 +753,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +816,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -587,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -623,33 +904,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,7 +945,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -665,9 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,23 +972,118 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="쉼표" xfId="2" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1037,3111 +1417,6583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E909C495-F45E-40B7-8FCD-B2FFDFF6E4E4}">
-  <dimension ref="A1:AP25"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="7.75" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="6.75" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="7.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="8.375" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="19" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.25" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" customWidth="1"/>
-    <col min="26" max="26" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.875" customWidth="1"/>
-    <col min="28" max="28" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="19.25" customWidth="1"/>
-    <col min="34" max="34" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.5" customWidth="1"/>
-    <col min="36" max="36" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.875" customWidth="1"/>
-    <col min="39" max="39" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.875" customWidth="1"/>
-    <col min="41" max="41" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="7.75" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="8.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.25" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="6.75" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="7.75" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="8.375" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
+    <col min="32" max="32" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="19.25" customWidth="1"/>
+    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.875" customWidth="1"/>
+    <col min="42" max="42" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="4">
         <v>4000</v>
       </c>
-      <c r="F2" s="8">
-        <f t="shared" ref="F2:F23" si="0">E2/3.3058</f>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G53" si="0">F2/3.3058</f>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="5">
         <v>6.7200000000000006</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="5">
         <v>0.26999999999999991</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="23">
         <v>25.1</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="5">
         <v>25</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="5">
         <v>403</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="5">
         <v>0.10761000000000003</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="5">
         <v>7.1801109999999992</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="5">
         <v>1.6336835999999999</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="5">
         <v>2.052</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="5">
         <v>1.9779999999999998</v>
       </c>
-      <c r="T2" s="1">
+      <c r="V2" s="5">
         <v>24.7</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5">
         <v>1.5896000000000001</v>
       </c>
-      <c r="W2" s="11">
+      <c r="Y2" s="16">
         <v>2775.8960000000002</v>
       </c>
-      <c r="X2" s="1">
-        <f t="shared" ref="X2:X25" si="1">W2/F2</f>
-        <v>2.2941392492000001</v>
-      </c>
-      <c r="Y2" s="1">
-        <f>W2*302.5/F2</f>
-        <v>693.97712288299999</v>
-      </c>
-      <c r="Z2" s="2">
-        <f t="shared" ref="Z2:Z11" si="2">9.14-(0.109*L2)+(0.02*N2)</f>
+      <c r="Z2" s="24">
+        <v>24.7</v>
+      </c>
+      <c r="AA2" s="25">
+        <f t="shared" ref="AA2:AA25" si="1">Y2*(100-Z2)/(100-15)</f>
+        <v>2459.1172799999999</v>
+      </c>
+      <c r="AB2" s="26">
+        <f>AA2/G2</f>
+        <v>2.032337476056</v>
+      </c>
+      <c r="AC2" s="26">
+        <f>AA2*302.5/G2</f>
+        <v>614.78208650693989</v>
+      </c>
+      <c r="AD2" s="23">
+        <f t="shared" ref="AD2:AD11" si="2">9.14-(0.109*N2)+(0.02*P2)</f>
         <v>14.464100000000002</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AE2" s="23">
         <v>13</v>
       </c>
-      <c r="AB2" s="5">
-        <f t="shared" ref="AB2:AB11" si="3">IF(Z2&lt;AA2, Z2*F2/302.5, AA2*F2/302.5)</f>
+      <c r="AF2" s="27">
+        <f t="shared" ref="AF2:AF11" si="3">IF(AD2&lt;AE2, AD2*G2/302.5, AE2*G2/302.5)</f>
         <v>51.999766001052997</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AG2" s="5">
         <v>0.33</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AH2" s="7">
         <v>11</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AI2" s="5">
         <v>11</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AJ2" s="5">
         <v>15</v>
       </c>
-      <c r="AG2" s="1">
-        <f>AF2*AC2</f>
+      <c r="AK2" s="5">
+        <f>AJ2*AG2</f>
         <v>4.95</v>
       </c>
-      <c r="AH2" s="1">
-        <f>AG2*AE2</f>
+      <c r="AL2" s="5">
+        <f>AK2*AI2</f>
         <v>54.45</v>
       </c>
-      <c r="AI2" s="5">
-        <f>AH2*302.5/F2</f>
-        <v>13.612561256249998</v>
-      </c>
-      <c r="AJ2" s="1">
+      <c r="AM2" s="5">
         <v>3</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AN2" s="5">
         <v>20</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AO2" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM2" s="1">
-        <f>AJ2*AK2*AL2</f>
+      <c r="AP2" s="5">
+        <f>AM2*AN2*AO2</f>
         <v>27.6</v>
       </c>
-      <c r="AN2" s="5">
-        <f>AM2*302.5/F2</f>
-        <v>6.9000310499999999</v>
-      </c>
-      <c r="AO2" s="1">
-        <f>AH2+AM2</f>
+      <c r="AQ2" s="5">
+        <f>AL2+AP2</f>
         <v>82.050000000000011</v>
       </c>
-      <c r="AP2" s="5">
-        <f t="shared" ref="AP2:AP23" si="4">AO2*302.5/F2</f>
+      <c r="AR2" s="27">
+        <f t="shared" ref="AR2:AR23" si="4">AQ2*302.5/G2</f>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="4">
         <v>4000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="5">
         <v>6.92</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="5">
         <v>0.3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="5">
         <v>21.5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="5">
         <v>361.5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="5">
         <v>0.14866499999999999</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="5">
         <v>7.3817070000000005</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="5">
         <v>1.6460226000000002</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="5">
         <v>2.214</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="5">
         <v>2.0489999999999999</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="5">
         <v>24.263333332999999</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1">
+      <c r="W3" s="5"/>
+      <c r="X3" s="5">
         <v>1.9521000000000002</v>
       </c>
-      <c r="W3" s="11">
+      <c r="Y3" s="16">
         <v>3189.5210000000002</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="28">
+        <v>24.26</v>
+      </c>
+      <c r="AA3" s="25">
         <f t="shared" si="1"/>
-        <v>2.6359796304500001</v>
-      </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y25" si="5">W3*302.5/F3</f>
-        <v>797.38383821112495</v>
-      </c>
-      <c r="Z3" s="2">
+        <v>2842.0508298823529</v>
+      </c>
+      <c r="AB3" s="26">
+        <f t="shared" ref="AB3:AB37" si="5">AA3/G3</f>
+        <v>2.3488129083562703</v>
+      </c>
+      <c r="AC3" s="26">
+        <f t="shared" ref="AC3:AC37" si="6">AA3*302.5/G3</f>
+        <v>710.51590477777177</v>
+      </c>
+      <c r="AD3" s="23">
         <f t="shared" si="2"/>
         <v>14.0265</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AE3" s="23">
         <v>13</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AF3" s="27">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AG3" s="5">
         <v>0.33</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AH3" s="7">
         <v>11</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AI3" s="5">
         <v>11</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AJ3" s="5">
         <v>15</v>
       </c>
-      <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AG11" si="6">AF3*AC3</f>
+      <c r="AK3" s="5">
+        <f t="shared" ref="AK3:AK11" si="7">AJ3*AG3</f>
         <v>4.95</v>
       </c>
-      <c r="AH3" s="1">
-        <f t="shared" ref="AH3:AH11" si="7">AG3*AE3</f>
+      <c r="AL3" s="5">
+        <f t="shared" ref="AL3:AL11" si="8">AK3*AI3</f>
         <v>54.45</v>
       </c>
-      <c r="AI3" s="5">
-        <f t="shared" ref="AI3:AI25" si="8">AH3*302.5/F3</f>
-        <v>13.612561256249998</v>
-      </c>
-      <c r="AJ3" s="1">
+      <c r="AM3" s="5">
         <v>3</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AN3" s="5">
         <v>20</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AO3" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM3" s="1">
-        <f t="shared" ref="AM3:AM11" si="9">AJ3*AK3*AL3</f>
+      <c r="AP3" s="5">
+        <f t="shared" ref="AP3:AP11" si="9">AM3*AN3*AO3</f>
         <v>27.6</v>
       </c>
-      <c r="AN3" s="5">
-        <f t="shared" ref="AN3:AN25" si="10">AM3*302.5/F3</f>
-        <v>6.9000310499999999</v>
-      </c>
-      <c r="AO3" s="1">
-        <f t="shared" ref="AO3:AO11" si="11">AH3+AM3</f>
+      <c r="AQ3" s="5">
+        <f t="shared" ref="AQ3:AQ11" si="10">AL3+AP3</f>
         <v>82.050000000000011</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AR3" s="27">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="4">
         <v>4000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="5">
         <v>7.08</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="5">
         <v>0.3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="5">
         <v>23.2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="5">
         <v>26.4</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="5">
         <v>388.4</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="5">
         <v>0.13871999999999998</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="5">
         <v>7.7125439999999994</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="5">
         <v>1.9396907999999999</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="5">
         <v>1.95</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="5">
         <v>1.796</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="5">
         <v>23.906666666</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5">
         <v>1.7538</v>
       </c>
-      <c r="W4" s="11">
+      <c r="Y4" s="16">
         <v>2688.7689999999998</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="28">
+        <v>23.91</v>
+      </c>
+      <c r="AA4" s="25">
         <f t="shared" si="1"/>
-        <v>2.2221331400499995</v>
-      </c>
-      <c r="Y4" s="1">
+        <v>2406.9227436470587</v>
+      </c>
+      <c r="AB4" s="26">
         <f t="shared" si="5"/>
-        <v>672.19527486512493</v>
-      </c>
-      <c r="Z4" s="2">
+        <v>1.9892013014871115</v>
+      </c>
+      <c r="AC4" s="26">
+        <f t="shared" si="6"/>
+        <v>601.73339369985126</v>
+      </c>
+      <c r="AD4" s="23">
         <f t="shared" si="2"/>
         <v>14.379200000000001</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AE4" s="23">
         <v>13</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AF4" s="27">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AG4" s="5">
         <v>0.33</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AH4" s="7">
         <v>11</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AI4" s="5">
         <v>11</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AJ4" s="5">
         <v>15</v>
       </c>
-      <c r="AG4" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK4" s="5">
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL4" s="5">
+        <f t="shared" si="8"/>
         <v>54.45</v>
       </c>
-      <c r="AI4" s="5">
-        <f t="shared" si="8"/>
-        <v>13.612561256249998</v>
-      </c>
-      <c r="AJ4" s="1">
+      <c r="AM4" s="5">
         <v>3</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AN4" s="5">
         <v>20</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AO4" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AP4" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AQ4" s="5">
         <f t="shared" si="10"/>
-        <v>6.9000310499999999</v>
-      </c>
-      <c r="AO4" s="1">
-        <f t="shared" si="11"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AR4" s="27">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="4">
         <v>3980</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>1203.9445822493799</v>
       </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="5">
         <v>7.1399999999999988</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="5">
         <v>0.34</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="5">
         <v>25</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="5">
         <v>37.200000000000003</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="5">
         <v>470.6</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="5">
         <v>0.15861</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="5">
         <v>8.5788080000000004</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="5">
         <v>2.1914064</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="5">
         <v>1.8519999999999999</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="5">
         <v>1.8219999999999998</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="5">
         <v>23.833333333999995</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
         <v>1.8239999999999998</v>
       </c>
-      <c r="W5" s="11">
+      <c r="Y5" s="16">
         <v>2959.12</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="28">
+        <v>23.83</v>
+      </c>
+      <c r="AA5" s="25">
         <f t="shared" si="1"/>
-        <v>2.4578539939698492</v>
-      </c>
-      <c r="Y5" s="1">
+        <v>2651.7196517647058</v>
+      </c>
+      <c r="AB5" s="26">
         <f t="shared" si="5"/>
-        <v>743.50083317587928</v>
-      </c>
-      <c r="Z5" s="2">
+        <v>2.2025263378903932</v>
+      </c>
+      <c r="AC5" s="26">
+        <f t="shared" si="6"/>
+        <v>666.26421721184397</v>
+      </c>
+      <c r="AD5" s="23">
         <f t="shared" si="2"/>
         <v>15.827000000000002</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AE5" s="23">
         <v>13</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AF5" s="27">
         <f t="shared" si="3"/>
         <v>51.739767171047731</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AG5" s="5">
         <v>0.33</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AH5" s="7">
         <v>10</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AI5" s="5">
         <v>10</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AJ5" s="5">
         <v>15</v>
       </c>
-      <c r="AG5" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK5" s="5">
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL5" s="5">
+        <f t="shared" si="8"/>
         <v>49.5</v>
       </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="8"/>
-        <v>12.437241896984924</v>
-      </c>
-      <c r="AJ5" s="1">
+      <c r="AM5" s="5">
         <v>3</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AN5" s="5">
         <v>20</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AO5" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AP5" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="10"/>
-        <v>6.9347045728643213</v>
-      </c>
-      <c r="AO5" s="1">
-        <f t="shared" si="11"/>
         <v>77.099999999999994</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AR5" s="27">
         <f t="shared" si="4"/>
         <v>19.371946469849245</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="4">
         <v>4000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="5">
         <v>6.6599999999999993</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="5">
         <v>0.32</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="5">
         <v>22</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="5">
         <v>40</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="5">
         <v>406.8</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="5">
         <v>0.13362000000000002</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="5">
         <v>7.6606480000000001</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="5">
         <v>1.9298195999999996</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="5">
         <v>2.0259999999999998</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="5">
         <v>1.8960000000000001</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="5">
         <v>23.999999998</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
         <v>1.6042000000000001</v>
       </c>
-      <c r="W6" s="11">
+      <c r="Y6" s="16">
         <v>2798.0210000000002</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="28">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="25">
         <f t="shared" si="1"/>
-        <v>2.31242445545</v>
-      </c>
-      <c r="Y6" s="1">
+        <v>2501.7599529411768</v>
+      </c>
+      <c r="AB6" s="26">
         <f t="shared" si="5"/>
-        <v>699.50839777362501</v>
-      </c>
-      <c r="Z6" s="2">
+        <v>2.0675795131082353</v>
+      </c>
+      <c r="AC6" s="26">
+        <f t="shared" si="6"/>
+        <v>625.44280271524121</v>
+      </c>
+      <c r="AD6" s="23">
         <f t="shared" si="2"/>
         <v>14.878000000000002</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AE6" s="23">
         <v>13</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AF6" s="27">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AG6" s="5">
         <v>0.33</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AH6" s="7">
         <v>11</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AI6" s="5">
         <v>11</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AJ6" s="5">
         <v>15</v>
       </c>
-      <c r="AG6" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK6" s="5">
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL6" s="5">
+        <f t="shared" si="8"/>
         <v>54.45</v>
       </c>
-      <c r="AI6" s="5">
-        <f t="shared" si="8"/>
-        <v>13.612561256249998</v>
-      </c>
-      <c r="AJ6" s="1">
+      <c r="AM6" s="5">
         <v>3</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AN6" s="5">
         <v>20</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AO6" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AP6" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AQ6" s="5">
         <f t="shared" si="10"/>
-        <v>6.9000310499999999</v>
-      </c>
-      <c r="AO6" s="1">
-        <f t="shared" si="11"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AR6" s="27">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="4">
         <v>4000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="5">
         <v>6.7200000000000006</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="5">
         <v>25.4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="5">
         <v>21.6</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="5">
         <v>391.6</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="5">
         <v>0.16728000000000001</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="5">
         <v>7.7035619999999998</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="5">
         <v>1.9183031999999998</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="5">
         <v>2.04</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="5">
         <v>24.326666666000001</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1">
+      <c r="W7" s="5"/>
+      <c r="X7" s="5">
         <v>1.8839999999999999</v>
       </c>
-      <c r="W7" s="11">
+      <c r="Y7" s="16">
         <v>3029.42</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="28">
+        <v>24.3</v>
+      </c>
+      <c r="AA7" s="25">
         <f t="shared" si="1"/>
-        <v>2.5036641589999999</v>
-      </c>
-      <c r="Y7" s="1">
+        <v>2697.9658117647059</v>
+      </c>
+      <c r="AB7" s="26">
         <f t="shared" si="5"/>
-        <v>757.35840809750005</v>
-      </c>
-      <c r="Z7" s="2">
+        <v>2.2297338451329409</v>
+      </c>
+      <c r="AC7" s="26">
+        <f t="shared" si="6"/>
+        <v>674.49448815271467</v>
+      </c>
+      <c r="AD7" s="23">
         <f t="shared" si="2"/>
         <v>14.203400000000002</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AE7" s="23">
         <v>13</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AF7" s="27">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AG7" s="5">
         <v>0.33</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AH7" s="7">
         <v>11</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AI7" s="5">
         <v>11</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AJ7" s="5">
         <v>15</v>
       </c>
-      <c r="AG7" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK7" s="5">
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL7" s="5">
+        <f t="shared" si="8"/>
         <v>54.45</v>
       </c>
-      <c r="AI7" s="5">
-        <f t="shared" si="8"/>
-        <v>13.612561256249998</v>
-      </c>
-      <c r="AJ7" s="1">
+      <c r="AM7" s="5">
         <v>3</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AN7" s="5">
         <v>20</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AO7" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AP7" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AQ7" s="5">
         <f t="shared" si="10"/>
-        <v>6.9000310499999999</v>
-      </c>
-      <c r="AO7" s="1">
-        <f t="shared" si="11"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AR7" s="27">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="4">
         <v>4000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="5">
         <v>6.3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="5">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="5">
         <v>16</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="5">
         <v>12</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="5">
         <v>180</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="5">
         <v>0.13515000000000002</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="5">
         <v>5.9031700000000003</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="5">
         <v>2.1634379999999998</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="11">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="16">
         <v>2700</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Z8" s="29">
+        <v>24.17</v>
+      </c>
+      <c r="AA8" s="25">
         <f t="shared" si="1"/>
-        <v>2.2314149999999997</v>
-      </c>
-      <c r="Y8" s="1">
+        <v>2408.7176470588233</v>
+      </c>
+      <c r="AB8" s="26">
         <f t="shared" si="5"/>
-        <v>675.0030375</v>
-      </c>
-      <c r="Z8" s="2">
+        <v>1.9906846994117644</v>
+      </c>
+      <c r="AC8" s="26">
+        <f t="shared" si="6"/>
+        <v>602.1821215720588</v>
+      </c>
+      <c r="AD8" s="23">
         <f t="shared" si="2"/>
         <v>10.996</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AE8" s="23">
         <v>13</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AF8" s="27">
         <f t="shared" si="3"/>
         <v>43.983802072890676</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AG8" s="5">
         <v>0.22</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AH8" s="7">
         <v>10</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AI8" s="5">
         <v>9</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AJ8" s="5">
         <v>20</v>
       </c>
-      <c r="AG8" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK8" s="5">
+        <f t="shared" si="7"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL8" s="5">
+        <f t="shared" si="8"/>
         <v>39.6</v>
       </c>
-      <c r="AI8" s="5">
-        <f t="shared" si="8"/>
-        <v>9.9000445499999987</v>
-      </c>
-      <c r="AJ8" s="1">
+      <c r="AM8" s="5">
         <v>2</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AN8" s="5">
         <v>20</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AO8" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AP8" s="5">
         <f t="shared" si="9"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AQ8" s="5">
         <f t="shared" si="10"/>
-        <v>4.6000207000000009</v>
-      </c>
-      <c r="AO8" s="1">
-        <f t="shared" si="11"/>
         <v>58</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AR8" s="27">
         <f t="shared" si="4"/>
         <v>14.500065249999999</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="4">
         <v>4000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G9" s="8">
-        <v>3</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="K9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="5">
         <v>6.1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="5">
         <v>0.3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="5">
         <v>33</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="5">
         <v>30</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="5">
         <v>173</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="5">
         <v>0.10965</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="5">
         <v>6.1626500000000002</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="5">
         <v>2.2127940000000001</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="11">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="16">
         <v>2950</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Z9" s="29">
+        <v>24.17</v>
+      </c>
+      <c r="AA9" s="25">
         <f t="shared" si="1"/>
-        <v>2.4380275</v>
-      </c>
-      <c r="Y9" s="1">
+        <v>2631.7470588235292</v>
+      </c>
+      <c r="AB9" s="26">
         <f t="shared" si="5"/>
-        <v>737.50331874999995</v>
-      </c>
-      <c r="Z9" s="2">
+        <v>2.1750073567647057</v>
+      </c>
+      <c r="AC9" s="26">
+        <f t="shared" si="6"/>
+        <v>657.93972542132349</v>
+      </c>
+      <c r="AD9" s="23">
         <f t="shared" si="2"/>
         <v>9.0030000000000001</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AE9" s="23">
         <v>13</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AF9" s="27">
         <f t="shared" si="3"/>
         <v>36.011837946729237</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AG9" s="5">
         <v>0.22</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AH9" s="7">
         <v>8</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AI9" s="5">
         <v>8</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AJ9" s="5">
         <v>20</v>
       </c>
-      <c r="AG9" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK9" s="5">
+        <f t="shared" si="7"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL9" s="5">
+        <f t="shared" si="8"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="AI9" s="5">
-        <f t="shared" si="8"/>
-        <v>8.8000395999999999</v>
-      </c>
-      <c r="AJ9" s="1">
+      <c r="AM9" s="5">
         <v>2</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AN9" s="5">
         <v>20</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AO9" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AP9" s="5">
         <f t="shared" si="9"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AQ9" s="5">
         <f t="shared" si="10"/>
-        <v>4.6000207000000009</v>
-      </c>
-      <c r="AO9" s="1">
-        <f t="shared" si="11"/>
         <v>53.600000000000009</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AR9" s="27">
         <f t="shared" si="4"/>
         <v>13.400060300000002</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="4">
         <v>2520</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>762.29656966543644</v>
       </c>
-      <c r="G10" s="8">
-        <v>3</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="5">
         <v>6.4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="5">
         <v>0.4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="5">
         <v>18</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="5">
         <v>46</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="5">
         <v>196</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="5">
         <v>0.13005</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="5">
         <v>7.1406900000000002</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="5">
         <v>2.0482740000000002</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="2">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="23">
         <f t="shared" si="2"/>
         <v>11.098000000000001</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AE10" s="23">
         <v>13</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AF10" s="27">
         <f t="shared" si="3"/>
         <v>27.966834149246328</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AG10" s="5">
         <v>0.3</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AH10" s="7">
         <v>5</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AI10" s="5">
         <v>6</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AJ10" s="5">
         <v>20</v>
       </c>
-      <c r="AG10" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK10" s="5">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL10" s="5">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AI10" s="5">
-        <f t="shared" si="8"/>
-        <v>14.285778571428573</v>
-      </c>
-      <c r="AJ10" s="1">
+      <c r="AM10" s="5">
         <v>2</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AN10" s="5">
         <v>20</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AO10" s="5">
         <v>0.21</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AP10" s="5">
         <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AQ10" s="5">
         <f t="shared" si="10"/>
-        <v>3.3333483333333338</v>
-      </c>
-      <c r="AO10" s="1">
-        <f t="shared" si="11"/>
         <v>44.4</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AR10" s="27">
         <f t="shared" si="4"/>
         <v>17.619126904761906</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="4">
         <v>4000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G11" s="8">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="5">
         <v>7.1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="5">
         <v>0.6</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="5">
         <v>35</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="5">
         <v>80</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="5">
         <v>628</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="5">
         <v>0.81090000000000007</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="5">
         <v>9.1616400000000002</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="5">
         <v>2.3855399999999998</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="2">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="23">
         <f t="shared" si="2"/>
         <v>17.885000000000002</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AE11" s="23">
         <v>13</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AF11" s="27">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AG11" s="5">
         <v>0.3</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AH11" s="7">
         <v>9</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AI11" s="5">
         <v>9</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AJ11" s="5">
         <v>20</v>
       </c>
-      <c r="AG11" s="1">
-        <f t="shared" si="6"/>
+      <c r="AK11" s="5">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="7"/>
+      <c r="AL11" s="5">
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="AI11" s="5">
-        <f t="shared" si="8"/>
-        <v>13.500060749999999</v>
-      </c>
-      <c r="AJ11" s="1">
+      <c r="AM11" s="5">
         <v>2</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AN11" s="5">
         <v>20</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AO11" s="5">
         <v>0.21</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AP11" s="5">
         <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AQ11" s="5">
         <f t="shared" si="10"/>
-        <v>2.1000094499999999</v>
-      </c>
-      <c r="AO11" s="1">
-        <f t="shared" si="11"/>
         <v>62.4</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AR11" s="27">
         <f t="shared" si="4"/>
         <v>15.600070199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="4">
         <v>5500</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>1663.7425131586908</v>
       </c>
-      <c r="G12" s="8">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="K12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="11">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="16">
         <v>4150</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="25">
         <f t="shared" si="1"/>
-        <v>2.4943763636363636</v>
-      </c>
-      <c r="Y12" s="1">
+        <v>4882.3529411764703</v>
+      </c>
+      <c r="AB12" s="26">
         <f t="shared" si="5"/>
-        <v>754.54885000000002</v>
-      </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="5">
+        <v>2.9345604278074862</v>
+      </c>
+      <c r="AC12" s="26">
+        <f t="shared" si="6"/>
+        <v>887.70452941176461</v>
+      </c>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="4">
         <v>4000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="G13" s="8">
-        <v>3</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="11">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="16">
         <v>2570</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="25">
         <f t="shared" si="1"/>
-        <v>2.1239764999999999</v>
-      </c>
-      <c r="Y13" s="1">
+        <v>3023.5294117647059</v>
+      </c>
+      <c r="AB13" s="26">
         <f t="shared" si="5"/>
-        <v>642.50289124999995</v>
-      </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="5">
+        <v>2.4987958823529408</v>
+      </c>
+      <c r="AC13" s="26">
+        <f t="shared" si="6"/>
+        <v>755.88575441176465</v>
+      </c>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="4">
         <v>5155</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>1559.3804827878275</v>
       </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="K14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="5">
         <v>7.4375</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="5">
         <v>2.88625</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="5">
         <v>21.237499999999997</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="5">
         <v>53.625</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="5">
         <v>319.625</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="5">
         <v>1.2775000000000001</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="5">
         <v>4.59375</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="5">
         <v>5.2662499999999994</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="5">
         <v>2.2687499999999998</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="5">
         <v>1.7037500000000001</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="5">
         <v>23.779166668750001</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1">
+      <c r="W14" s="5"/>
+      <c r="X14" s="5">
         <v>2.4672499999999999</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="5">
         <v>4860.7380000000003</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="30">
+        <v>23.8</v>
+      </c>
+      <c r="AA14" s="25">
         <f t="shared" si="1"/>
-        <v>3.1170955733074686</v>
-      </c>
-      <c r="Y14" s="1">
+        <v>4357.508654117647</v>
+      </c>
+      <c r="AB14" s="26">
         <f t="shared" si="5"/>
-        <v>942.92141092550924</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" ref="Z14:Z23" si="12">9.14-(0.109*L14)+(0.02*N14)</f>
+        <v>2.7943845021885774</v>
+      </c>
+      <c r="AC14" s="26">
+        <f t="shared" si="6"/>
+        <v>845.30131191204475</v>
+      </c>
+      <c r="AD14" s="23">
+        <f t="shared" ref="AD14:AD44" si="11">9.14-(0.109*N14)+(0.02*P14)</f>
         <v>13.217612500000001</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AE14" s="23">
         <v>13</v>
       </c>
-      <c r="AB14" s="5">
-        <f t="shared" ref="AB14:AB23" si="13">IF(Z14&lt;AA14, Z14*F14/302.5, AA14*F14/302.5)</f>
+      <c r="AF14" s="27">
+        <f t="shared" ref="AF14:AF44" si="12">IF(AD14&lt;AE14, AD14*G14/302.5, AE14*G14/302.5)</f>
         <v>67.014698433857049</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AG14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AH14" s="7">
         <v>12</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AI14" s="5">
         <v>12</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AJ14" s="5">
         <v>20</v>
       </c>
-      <c r="AG14" s="1">
-        <f t="shared" ref="AG14:AG23" si="14">AF14*AC14</f>
+      <c r="AK14" s="5">
+        <f t="shared" ref="AK14:AK23" si="13">AJ14*AG14</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AH14" s="1">
-        <f t="shared" ref="AH14:AH23" si="15">AG14*AE14</f>
+      <c r="AL14" s="5">
+        <f t="shared" ref="AL14:AL23" si="14">AK14*AI14</f>
         <v>67.2</v>
       </c>
-      <c r="AI14" s="5">
-        <f t="shared" si="8"/>
-        <v>13.035946149369543</v>
-      </c>
-      <c r="AJ14" s="1">
+      <c r="AM14" s="5">
         <v>3</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AN14" s="5">
         <v>20</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AO14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM14" s="1">
-        <f t="shared" ref="AM14:AM21" si="16">AJ14*AK14*AL14</f>
+      <c r="AP14" s="5">
+        <f t="shared" ref="AP14:AP21" si="15">AM14*AN14*AO14</f>
         <v>16.8</v>
       </c>
-      <c r="AN14" s="5">
-        <f t="shared" si="10"/>
-        <v>3.2589865373423859</v>
-      </c>
-      <c r="AO14" s="1">
-        <f t="shared" ref="AO14:AO21" si="17">AH14+AM14</f>
+      <c r="AQ14" s="5">
+        <f t="shared" ref="AQ14:AQ21" si="16">AL14+AP14</f>
         <v>84</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AR14" s="27">
         <f t="shared" si="4"/>
         <v>16.294932686711931</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="4">
         <v>4996</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>1511.2831992256035</v>
       </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="K15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="5">
         <v>7.5750000000000011</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="5">
         <v>2.3787499999999997</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="5">
         <v>19.3125</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="5">
         <v>56.75</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="5">
         <v>405.75</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="5">
         <v>1.1074999999999999</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="5">
         <v>5.3362499999999997</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="5">
         <v>5.1325000000000003</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="5">
         <v>1.9762499999999998</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="5">
         <v>1.7250000000000001</v>
       </c>
-      <c r="T15" s="1">
+      <c r="V15" s="5">
         <v>23.429166667499999</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1">
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
         <v>2.5220000000000002</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="5">
         <v>4811.1760000000004</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="AA15" s="25">
         <f t="shared" si="1"/>
-        <v>3.1835039273018415</v>
-      </c>
-      <c r="Y15" s="1">
+        <v>4335.7186070588232</v>
+      </c>
+      <c r="AB15" s="26">
         <f t="shared" si="5"/>
-        <v>963.00993800880713</v>
-      </c>
-      <c r="Z15" s="2">
+        <v>2.8688988333096592</v>
+      </c>
+      <c r="AC15" s="26">
+        <f t="shared" si="6"/>
+        <v>867.8418970761719</v>
+      </c>
+      <c r="AD15" s="23">
+        <f t="shared" si="11"/>
+        <v>15.1499375</v>
+      </c>
+      <c r="AE15" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="27">
         <f t="shared" si="12"/>
-        <v>15.1499375</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="5">
+        <v>64.947707735315191</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK15" s="5">
         <f t="shared" si="13"/>
-        <v>64.947707735315191</v>
-      </c>
-      <c r="AC15" s="1">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AL15" s="5">
+        <f t="shared" si="14"/>
+        <v>67.2</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>20</v>
+      </c>
+      <c r="AO15" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD15" s="12">
-        <v>12</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>20</v>
-      </c>
-      <c r="AG15" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AH15" s="1">
+      <c r="AP15" s="5">
         <f t="shared" si="15"/>
-        <v>67.2</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="8"/>
-        <v>13.450821136909527</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AM15" s="1">
+        <v>19.040000000000003</v>
+      </c>
+      <c r="AQ15" s="5">
         <f t="shared" si="16"/>
-        <v>19.040000000000003</v>
-      </c>
-      <c r="AN15" s="5">
-        <f t="shared" si="10"/>
-        <v>3.8110659887910328</v>
-      </c>
-      <c r="AO15" s="1">
-        <f t="shared" si="17"/>
         <v>86.240000000000009</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AR15" s="27">
         <f t="shared" si="4"/>
         <v>17.261887125700561</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="4">
         <v>4911</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>1485.5708149313327</v>
       </c>
-      <c r="G16" s="18">
-        <v>2</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="K16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="5">
         <v>8.32</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="5">
         <v>1.6219999999999999</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="5">
         <v>12.860000000000003</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="5">
         <v>67.8</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="5">
         <v>460</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="5">
         <v>1.1120000000000001</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="5">
         <v>5.0540000000000003</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="5">
         <v>5.1179999999999994</v>
       </c>
-      <c r="R16" s="1">
+      <c r="T16" s="5">
         <v>3.008</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="5">
         <v>1.8640000000000001</v>
       </c>
-      <c r="T16" s="1">
+      <c r="V16" s="5">
         <v>22.919999999999995</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1">
+      <c r="W16" s="5"/>
+      <c r="X16" s="5">
         <v>2.6686000000000001</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Y16" s="5">
         <v>4654.3429999999998</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Z16" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="AA16" s="25">
         <f t="shared" si="1"/>
-        <v>3.1330334126247199</v>
-      </c>
-      <c r="Y16" s="1">
+        <v>4221.7628858823527</v>
+      </c>
+      <c r="AB16" s="26">
         <f t="shared" si="5"/>
-        <v>947.74260731897789</v>
-      </c>
-      <c r="Z16" s="2">
+        <v>2.8418456013337168</v>
+      </c>
+      <c r="AC16" s="26">
+        <f t="shared" si="6"/>
+        <v>859.6582944034493</v>
+      </c>
+      <c r="AD16" s="23">
+        <f t="shared" si="11"/>
+        <v>16.93826</v>
+      </c>
+      <c r="AE16" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="27">
         <f t="shared" si="12"/>
-        <v>16.93826</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="5">
+        <v>63.842712707792813</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>18</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>9</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK16" s="5">
         <f t="shared" si="13"/>
-        <v>63.842712707792813</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>18</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>9</v>
-      </c>
-      <c r="AF16" s="1">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AL16" s="5">
+        <f t="shared" si="14"/>
+        <v>32.4</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="5">
         <v>20</v>
       </c>
-      <c r="AG16" s="1">
-        <f t="shared" si="14"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="AH16" s="1">
+      <c r="AO16" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP16" s="5">
         <f t="shared" si="15"/>
-        <v>32.4</v>
-      </c>
-      <c r="AI16" s="5">
-        <f t="shared" si="8"/>
-        <v>6.5974640195479539</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AM16" s="1">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AQ16" s="5">
         <f t="shared" si="16"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AN16" s="5">
-        <f t="shared" si="10"/>
-        <v>1.1403024231317453</v>
-      </c>
-      <c r="AO16" s="1">
-        <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AR16" s="27">
         <f t="shared" si="4"/>
         <v>7.7377664426796988</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="4">
         <v>4929</v>
       </c>
-      <c r="F17" s="8">
-        <f>E17/3.3058</f>
+      <c r="G17" s="4">
+        <f>F17/3.3058</f>
         <v>1491.0157904289431</v>
       </c>
-      <c r="G17" s="18">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="K17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="5">
         <v>8.1</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="5">
         <v>2.02</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="5">
         <v>18.2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="5">
         <v>94</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="5">
         <v>409</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="5">
         <v>1.31</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="5">
         <v>5.73</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="5">
         <v>5.1100000000000003</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1">
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5">
         <v>5070</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Z17" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="AA17" s="25">
         <f t="shared" si="1"/>
-        <v>3.4003664029214851</v>
-      </c>
-      <c r="Y17" s="1">
+        <v>4598.7882352941178</v>
+      </c>
+      <c r="AB17" s="26">
         <f t="shared" si="5"/>
-        <v>1028.6108368837492</v>
-      </c>
-      <c r="Z17" s="2">
+        <v>3.0843323490029002</v>
+      </c>
+      <c r="AC17" s="26">
+        <f t="shared" si="6"/>
+        <v>933.0105355733773</v>
+      </c>
+      <c r="AD17" s="23">
+        <f t="shared" si="11"/>
+        <v>15.3362</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="27">
         <f t="shared" si="12"/>
-        <v>15.3362</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="5">
+        <v>64.076711654797549</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>18</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK17" s="5">
         <f t="shared" si="13"/>
-        <v>64.076711654797549</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>18</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF17" s="1">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AL17" s="5">
+        <f t="shared" si="14"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5">
         <v>20</v>
       </c>
-      <c r="AG17" s="1">
-        <f t="shared" si="14"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="AH17" s="1">
+      <c r="AO17" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP17" s="5">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="5">
+        <f t="shared" si="16"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="AI17" s="5">
-        <f t="shared" si="8"/>
-        <v>8.7644947048082766</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AM17" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN17" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1">
-        <f t="shared" si="17"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="AP17" s="5">
+      <c r="AR17" s="27">
         <f t="shared" si="4"/>
         <v>8.7644947048082766</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="4">
         <v>4917</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>1487.3858067638696</v>
       </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="5">
         <v>6.8</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="5">
         <v>4.8120000000000003</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="5">
         <v>22.140000000000004</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="5">
         <v>522.79999999999995</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="5">
         <v>0.83399999999999996</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="5">
         <v>4.4260000000000002</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="5">
         <v>3.3920000000000003</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="5">
         <v>2.4820000000000002</v>
       </c>
-      <c r="S18" s="1">
+      <c r="U18" s="5">
         <v>2.0859999999999999</v>
       </c>
-      <c r="T18" s="1">
+      <c r="V18" s="5">
         <v>23.006666664000001</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1">
+      <c r="W18" s="5"/>
+      <c r="X18" s="5">
         <v>2.3647999999999998</v>
       </c>
-      <c r="W18" s="1">
+      <c r="Y18" s="5">
         <v>4632.8239999999996</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Z18" s="30">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="25">
         <f t="shared" si="1"/>
-        <v>3.1147426437258487</v>
-      </c>
-      <c r="Y18" s="1">
+        <v>4196.7935058823523</v>
+      </c>
+      <c r="AB18" s="26">
         <f t="shared" si="5"/>
-        <v>942.20964972706918</v>
-      </c>
-      <c r="Z18" s="2">
+        <v>2.8215903949045922</v>
+      </c>
+      <c r="AC18" s="26">
+        <f t="shared" si="6"/>
+        <v>853.53109445863913</v>
+      </c>
+      <c r="AD18" s="23">
+        <f t="shared" si="11"/>
+        <v>17.182739999999999</v>
+      </c>
+      <c r="AE18" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="27">
         <f t="shared" si="12"/>
-        <v>17.182739999999999</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="5">
+        <v>63.920712356794397</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>11</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>11</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK18" s="5">
         <f t="shared" si="13"/>
-        <v>63.920712356794397</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>11</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>11</v>
-      </c>
-      <c r="AF18" s="1">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AL18" s="5">
+        <f t="shared" si="14"/>
+        <v>61.600000000000009</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="5">
         <v>20</v>
       </c>
-      <c r="AG18" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AH18" s="1">
+      <c r="AO18" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AP18" s="5">
         <f t="shared" si="15"/>
-        <v>61.600000000000009</v>
-      </c>
-      <c r="AI18" s="5">
-        <f t="shared" si="8"/>
-        <v>12.528020581655483</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AM18" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="AQ18" s="5">
         <f t="shared" si="16"/>
-        <v>27.6</v>
-      </c>
-      <c r="AN18" s="5">
-        <f t="shared" si="10"/>
-        <v>5.6132040268456374</v>
-      </c>
-      <c r="AO18" s="1">
-        <f t="shared" si="17"/>
         <v>89.200000000000017</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AR18" s="27">
         <f t="shared" si="4"/>
         <v>18.141224608501119</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="4">
         <v>4799</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>1451.6909673906466</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="N19" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="O19" s="5">
+        <v>106</v>
+      </c>
+      <c r="P19" s="5">
+        <v>216</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="R19" s="5">
+        <v>5.68</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2.83</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5">
+        <v>4470</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA19" s="25">
+        <f t="shared" si="1"/>
+        <v>4201.8</v>
+      </c>
+      <c r="AB19" s="26">
+        <f t="shared" si="5"/>
+        <v>2.8944176786830593</v>
+      </c>
+      <c r="AC19" s="26">
+        <f t="shared" si="6"/>
+        <v>875.5613478016254</v>
+      </c>
+      <c r="AD19" s="23">
+        <f t="shared" si="11"/>
+        <v>10.7895</v>
+      </c>
+      <c r="AE19" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="27">
+        <f t="shared" si="12"/>
+        <v>51.778577496401262</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK19" s="5">
+        <f t="shared" si="13"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AL19" s="5">
+        <f t="shared" si="14"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AM19" s="5">
         <v>3</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.82</v>
-      </c>
-      <c r="L19" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>106</v>
-      </c>
-      <c r="N19" s="1">
-        <v>216</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P19" s="1">
-        <v>5.68</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2.83</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1">
-        <v>4470</v>
-      </c>
-      <c r="X19" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0791677432798501</v>
-      </c>
-      <c r="Y19" s="1">
-        <f t="shared" si="5"/>
-        <v>931.44824234215469</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="12"/>
-        <v>10.7895</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="5">
-        <f t="shared" si="13"/>
-        <v>51.778577496401262</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>9</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="AF19" s="1">
+      <c r="AN19" s="5">
         <v>20</v>
       </c>
-      <c r="AG19" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AH19" s="1">
+      <c r="AO19" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AP19" s="5">
         <f t="shared" si="15"/>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AI19" s="5">
-        <f t="shared" si="8"/>
-        <v>13.419522775578246</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AM19" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="AQ19" s="5">
         <f t="shared" si="16"/>
-        <v>27.6</v>
-      </c>
-      <c r="AN19" s="5">
-        <f t="shared" si="10"/>
-        <v>5.7512240466763913</v>
-      </c>
-      <c r="AO19" s="1">
-        <f t="shared" si="17"/>
         <v>92</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AR19" s="27">
         <f t="shared" si="4"/>
         <v>19.170746822254639</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="4">
         <v>5111</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>1546.070542682558</v>
       </c>
-      <c r="G20" s="8">
-        <v>2</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="K20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="5">
         <v>7.3</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="5">
         <v>2.1239999999999997</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="5">
         <v>20.9</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="5">
         <v>81.8</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="5">
         <v>465</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="5">
         <v>0.748</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="5">
         <v>4.9980000000000002</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="5">
         <v>2.4040000000000004</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="5">
         <v>2.3959999999999999</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="5">
         <v>2.1919999999999997</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="5">
         <v>24.12</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1">
+      <c r="W20" s="5"/>
+      <c r="X20" s="5">
         <v>2.3730000000000002</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Y20" s="5">
         <v>4732.8649999999998</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Z20" s="30">
+        <v>24.1</v>
+      </c>
+      <c r="AA20" s="25">
         <f t="shared" si="1"/>
-        <v>3.0612218972803755</v>
-      </c>
-      <c r="Y20" s="1">
+        <v>4226.1700411764705</v>
+      </c>
+      <c r="AB20" s="26">
         <f t="shared" si="5"/>
-        <v>926.01962392731355</v>
-      </c>
-      <c r="Z20" s="2">
+        <v>2.7334910823950649</v>
+      </c>
+      <c r="AC20" s="26">
+        <f t="shared" si="6"/>
+        <v>826.88105242450706</v>
+      </c>
+      <c r="AD20" s="23">
+        <f t="shared" si="11"/>
+        <v>16.161900000000003</v>
+      </c>
+      <c r="AE20" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF20" s="27">
         <f t="shared" si="12"/>
-        <v>16.161900000000003</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="5">
+        <v>66.442701007845471</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK20" s="5">
         <f t="shared" si="13"/>
-        <v>66.442701007845471</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>12</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF20" s="1">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AL20" s="5">
+        <f t="shared" si="14"/>
+        <v>67.2</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="5">
         <v>20</v>
       </c>
-      <c r="AG20" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AH20" s="1">
+      <c r="AO20" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AP20" s="5">
         <f t="shared" si="15"/>
-        <v>67.2</v>
-      </c>
-      <c r="AI20" s="5">
-        <f t="shared" si="8"/>
-        <v>13.148171081980042</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AM20" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="AQ20" s="5">
         <f t="shared" si="16"/>
-        <v>27.6</v>
-      </c>
-      <c r="AN20" s="5">
-        <f t="shared" si="10"/>
-        <v>5.4001416943846605</v>
-      </c>
-      <c r="AO20" s="1">
-        <f t="shared" si="17"/>
         <v>94.800000000000011</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AR20" s="27">
         <f t="shared" si="4"/>
         <v>18.548312776364707</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="4">
         <v>4980</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>1506.4432210055054</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="N21" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="O21" s="5">
+        <v>67</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1671</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="R21" s="5">
+        <v>4.99</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5">
+        <v>5540</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>21.1</v>
+      </c>
+      <c r="AA21" s="25">
+        <f t="shared" si="1"/>
+        <v>5142.4235294117652</v>
+      </c>
+      <c r="AB21" s="26">
+        <f t="shared" si="5"/>
+        <v>3.4136192175761875</v>
+      </c>
+      <c r="AC21" s="26">
+        <f t="shared" si="6"/>
+        <v>1032.6198133167968</v>
+      </c>
+      <c r="AD21" s="23">
+        <f t="shared" si="11"/>
+        <v>40.238300000000002</v>
+      </c>
+      <c r="AE21" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF21" s="27">
+        <f t="shared" si="12"/>
+        <v>64.739708671310979</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>11</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK21" s="5">
+        <f t="shared" si="13"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AL21" s="5">
+        <f t="shared" si="14"/>
+        <v>61.600000000000009</v>
+      </c>
+      <c r="AM21" s="5">
         <v>3</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2.68</v>
-      </c>
-      <c r="L21" s="1">
-        <v>21.3</v>
-      </c>
-      <c r="M21" s="1">
-        <v>67</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1671</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="P21" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>2.36</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1">
-        <v>5540</v>
-      </c>
-      <c r="X21" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6775365461847391</v>
-      </c>
-      <c r="Y21" s="1">
-        <f t="shared" si="5"/>
-        <v>1112.4548052208836</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="12"/>
-        <v>40.238300000000002</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="5">
-        <f t="shared" si="13"/>
-        <v>64.739708671310979</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD21" s="12">
-        <v>12</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>11</v>
-      </c>
-      <c r="AF21" s="1">
+      <c r="AN21" s="5">
         <v>20</v>
       </c>
-      <c r="AG21" s="1">
-        <f t="shared" si="14"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="AH21" s="1">
+      <c r="AO21" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AP21" s="5">
         <f t="shared" si="15"/>
-        <v>61.600000000000009</v>
-      </c>
-      <c r="AI21" s="5">
-        <f t="shared" si="8"/>
-        <v>12.369533574297192</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AM21" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="AQ21" s="5">
         <f t="shared" si="16"/>
-        <v>27.6</v>
-      </c>
-      <c r="AN21" s="5">
-        <f t="shared" si="10"/>
-        <v>5.5421936144578314</v>
-      </c>
-      <c r="AO21" s="1">
-        <f t="shared" si="17"/>
         <v>89.200000000000017</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AR21" s="27">
         <f t="shared" si="4"/>
         <v>17.911727188755023</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="4">
         <v>5180</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>1566.9429487567306</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="5">
+        <v>7.1599999999999993</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="N22" s="5">
+        <v>14.419999999999998</v>
+      </c>
+      <c r="O22" s="5">
+        <v>60</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1158</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="R22" s="5">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="S22" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="T22" s="5">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="U22" s="5">
+        <v>2.2220000000000004</v>
+      </c>
+      <c r="V22" s="5">
+        <v>23.680000002</v>
+      </c>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5">
+        <v>1.8473999999999999</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>4580.2370000000001</v>
+      </c>
+      <c r="Z22" s="30">
+        <v>21.1</v>
+      </c>
+      <c r="AA22" s="25">
+        <f t="shared" si="1"/>
+        <v>4251.53763882353</v>
+      </c>
+      <c r="AB22" s="26">
+        <f t="shared" si="5"/>
+        <v>2.7132689433248696</v>
+      </c>
+      <c r="AC22" s="26">
+        <f t="shared" si="6"/>
+        <v>820.7638553557731</v>
+      </c>
+      <c r="AD22" s="23">
+        <f t="shared" si="11"/>
+        <v>30.72822</v>
+      </c>
+      <c r="AE22" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF22" s="27">
+        <f t="shared" si="12"/>
+        <v>67.339696971363622</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>15</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK22" s="5">
+        <f t="shared" si="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL22" s="5">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="AM22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1">
-        <v>7.1599999999999993</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.58</v>
-      </c>
-      <c r="L22" s="1">
-        <v>14.419999999999998</v>
-      </c>
-      <c r="M22" s="1">
-        <v>60</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1158</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="P22" s="1">
-        <v>4.1479999999999997</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>2.82</v>
-      </c>
-      <c r="R22" s="1">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="S22" s="1">
-        <v>2.2220000000000004</v>
-      </c>
-      <c r="T22" s="1">
-        <v>23.680000002</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1">
-        <v>1.8473999999999999</v>
-      </c>
-      <c r="W22" s="1">
-        <v>4580.2370000000001</v>
-      </c>
-      <c r="X22" s="1">
-        <f t="shared" si="1"/>
-        <v>2.923040053011583</v>
-      </c>
-      <c r="Y22" s="1">
-        <f t="shared" si="5"/>
-        <v>884.21961603600391</v>
-      </c>
-      <c r="Z22" s="2">
-        <f t="shared" si="12"/>
-        <v>30.72822</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="5">
-        <f t="shared" si="13"/>
-        <v>67.339696971363622</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="AD22" s="12">
-        <v>15</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF22" s="1">
+      <c r="AN22" s="5">
         <v>20</v>
       </c>
-      <c r="AG22" s="1">
-        <f t="shared" si="14"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH22" s="1">
-        <f t="shared" si="15"/>
-        <v>44</v>
-      </c>
-      <c r="AI22" s="5">
-        <f t="shared" si="8"/>
-        <v>8.4942467181467176</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL22" s="1">
+      <c r="AO22" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM22" s="1">
-        <f t="shared" ref="AM22:AM23" si="18">AJ22*AK22*AL22</f>
+      <c r="AP22" s="5">
+        <f t="shared" ref="AP22:AP23" si="17">AM22*AN22*AO22</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="AN22" s="5">
-        <f t="shared" si="10"/>
-        <v>3.5521395366795372</v>
-      </c>
-      <c r="AO22" s="1">
-        <f t="shared" ref="AO22:AO23" si="19">AH22+AM22</f>
+      <c r="AQ22" s="5">
+        <f t="shared" ref="AQ22:AQ37" si="18">AL22+AP22</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AR22" s="27">
         <f t="shared" si="4"/>
         <v>12.046386254826254</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="20">
+      <c r="F23" s="14">
         <v>5027</v>
       </c>
-      <c r="F23" s="20">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>1520.6606570270433</v>
       </c>
-      <c r="G23" s="20">
-        <v>3</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="K23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="5">
         <v>7</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="5">
         <v>1.59</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="5">
         <v>15.1</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="5">
         <v>47</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="5">
         <v>758</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="5">
         <v>0.54</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="5">
         <v>4.07</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="S23" s="5">
         <v>2.92</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="4">
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="6">
         <v>4340</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Z23" s="31">
+        <v>21.5</v>
+      </c>
+      <c r="AA23" s="25">
         <f t="shared" si="1"/>
-        <v>2.8540226775412774</v>
-      </c>
-      <c r="Y23" s="1">
+        <v>4008.1176470588234</v>
+      </c>
+      <c r="AB23" s="26">
         <f t="shared" si="5"/>
-        <v>863.34185995623636</v>
-      </c>
-      <c r="Z23" s="2">
+        <v>2.6357738845528265</v>
+      </c>
+      <c r="AC23" s="26">
+        <f t="shared" si="6"/>
+        <v>797.32160007722996</v>
+      </c>
+      <c r="AD23" s="23">
+        <f t="shared" si="11"/>
+        <v>22.6541</v>
+      </c>
+      <c r="AE23" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF23" s="27">
         <f t="shared" si="12"/>
-        <v>22.6541</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="5">
+        <v>65.350705921823348</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>15</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK23" s="5">
         <f t="shared" si="13"/>
-        <v>65.350705921823348</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>15</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF23" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL23" s="5">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="5">
         <v>20</v>
       </c>
-      <c r="AG23" s="1">
-        <f t="shared" si="14"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH23" s="1">
-        <f t="shared" si="15"/>
-        <v>44</v>
-      </c>
-      <c r="AI23" s="5">
-        <f t="shared" si="8"/>
-        <v>8.7527746170678338</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL23" s="1">
+      <c r="AO23" s="5">
         <v>0.46</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AP23" s="5">
+        <f t="shared" si="17"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AQ23" s="5">
         <f t="shared" si="18"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AN23" s="5">
-        <f t="shared" si="10"/>
-        <v>3.6602512035010948</v>
-      </c>
-      <c r="AO23" s="1">
-        <f t="shared" si="19"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AR23" s="27">
         <f t="shared" si="4"/>
         <v>12.413025820568929</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22">
-        <v>1495</v>
-      </c>
-      <c r="G24" s="22">
+      <c r="F24" s="16">
+        <v>4945</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>1495.855768649041</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5">
+        <v>5030</v>
+      </c>
+      <c r="Z24" s="30">
+        <v>22.3</v>
+      </c>
+      <c r="AA24" s="25">
+        <f t="shared" si="1"/>
+        <v>4598.0117647058823</v>
+      </c>
+      <c r="AB24" s="26">
+        <f t="shared" si="5"/>
+        <v>3.0738336282638437</v>
+      </c>
+      <c r="AC24" s="26">
+        <f t="shared" si="6"/>
+        <v>929.83467254981269</v>
+      </c>
+      <c r="AD24" s="23">
+        <f t="shared" si="11"/>
+        <v>9.14</v>
+      </c>
+      <c r="AE24" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF24" s="27">
+        <f t="shared" si="12"/>
+        <v>45.197096613065241</v>
+      </c>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="16">
+        <v>3623</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>1095.9525682134431</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5">
+        <v>3420</v>
+      </c>
+      <c r="Z25" s="30">
+        <v>22.3</v>
+      </c>
+      <c r="AA25" s="25">
+        <f t="shared" si="1"/>
+        <v>3126.2823529411767</v>
+      </c>
+      <c r="AB25" s="26">
+        <f t="shared" si="5"/>
+        <v>2.8525708535337957</v>
+      </c>
+      <c r="AC25" s="26">
+        <f t="shared" si="6"/>
+        <v>862.90268319397308</v>
+      </c>
+      <c r="AD25" s="23">
+        <f t="shared" si="11"/>
+        <v>9.14</v>
+      </c>
+      <c r="AE25" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF25" s="27">
+        <f t="shared" si="12"/>
+        <v>33.114070986680566</v>
+      </c>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="5"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2202</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>666.10200254098856</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <v>41.52</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
+        <v>118.4</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="25">
+        <v>1298</v>
+      </c>
+      <c r="Z26" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA26" s="25">
+        <f t="shared" ref="AA26:AA44" si="19">Y26*(100-Z26)/(100-15)</f>
+        <v>1290.3647058823528</v>
+      </c>
+      <c r="AB26" s="26">
+        <f t="shared" si="5"/>
+        <v>1.9371878495485386</v>
+      </c>
+      <c r="AC26" s="26">
+        <f t="shared" si="6"/>
+        <v>585.99932448843299</v>
+      </c>
+      <c r="AD26" s="23">
+        <f t="shared" si="11"/>
+        <v>6.9823200000000005</v>
+      </c>
+      <c r="AE26" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="27">
+        <f t="shared" si="12"/>
+        <v>15.374999452502463</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="7">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK26" s="5">
+        <f t="shared" ref="AK26:AK37" si="20">AJ26*AG26</f>
+        <v>4</v>
+      </c>
+      <c r="AL26" s="5">
+        <f t="shared" ref="AL26:AL37" si="21">AK26*AI26</f>
+        <v>16</v>
+      </c>
+      <c r="AM26" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="AN26" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO26" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP26" s="5">
+        <f t="shared" ref="AP26:AP37" si="22">AM26*AN26*AO26</f>
+        <v>7.82</v>
+      </c>
+      <c r="AQ26" s="5">
+        <f t="shared" si="18"/>
+        <v>23.82</v>
+      </c>
+      <c r="AR26" s="27">
+        <f>AQ26*302.5/G26</f>
+        <v>10.817487370572207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1431</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>432.87555206001571</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5">
+        <v>175.1</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="35">
+        <v>885</v>
+      </c>
+      <c r="Z27" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA27" s="25">
+        <f t="shared" si="19"/>
+        <v>879.79411764705878</v>
+      </c>
+      <c r="AB27" s="26">
+        <f t="shared" si="5"/>
+        <v>2.0324412257984954</v>
+      </c>
+      <c r="AC27" s="26">
+        <f t="shared" si="6"/>
+        <v>614.81347080404498</v>
+      </c>
+      <c r="AD27" s="23">
+        <f t="shared" si="11"/>
+        <v>8.5762999999999998</v>
+      </c>
+      <c r="AE27" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF27" s="27">
+        <f t="shared" si="12"/>
+        <v>12.27263007316467</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH27" s="7">
         <v>3</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="AI27" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK27" s="5">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="1">
-        <v>5030</v>
-      </c>
-      <c r="X24" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3645484949832776</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="AL27" s="5">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AM27" s="34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AN27" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO27" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP27" s="5">
+        <f t="shared" si="22"/>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="AQ27" s="5">
+        <f t="shared" si="18"/>
+        <v>17.060000000000002</v>
+      </c>
+      <c r="AR27" s="27">
+        <f>AQ27*302.5/G27</f>
+        <v>11.921786701607269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4625</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>1399.0562042470808</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>41.12</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5">
+        <v>170.8</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="36">
+        <v>2592</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA28" s="25">
+        <f t="shared" si="19"/>
+        <v>2576.7529411764708</v>
+      </c>
+      <c r="AB28" s="26">
         <f t="shared" si="5"/>
-        <v>1017.7759197324415</v>
-      </c>
-      <c r="AA24" s="2"/>
-      <c r="AI24" s="5">
-        <f t="shared" si="8"/>
+        <v>1.8417794319872816</v>
+      </c>
+      <c r="AC28" s="26">
+        <f t="shared" si="6"/>
+        <v>557.13827817615265</v>
+      </c>
+      <c r="AD28" s="23">
+        <f t="shared" si="11"/>
+        <v>8.0739200000000011</v>
+      </c>
+      <c r="AE28" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF28" s="27">
+        <f t="shared" si="12"/>
+        <v>37.341711962296174</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH28" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI28" s="7">
+        <v>9</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK28" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL28" s="5">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="AM28" s="34">
+        <v>1.75</v>
+      </c>
+      <c r="AN28" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO28" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP28" s="5">
+        <f t="shared" si="22"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AQ28" s="5">
+        <f t="shared" si="18"/>
+        <v>52.1</v>
+      </c>
+      <c r="AR28" s="27">
+        <f>AQ28*302.5/G28</f>
+        <v>11.264915556756756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3484</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>1053.9052574263414</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
+        <v>194.8</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="36">
+        <v>1900</v>
+      </c>
+      <c r="Z29" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA29" s="25">
+        <f t="shared" si="19"/>
+        <v>1888.8235294117646</v>
+      </c>
+      <c r="AB29" s="26">
+        <f t="shared" si="5"/>
+        <v>1.7922137840210712</v>
+      </c>
+      <c r="AC29" s="26">
+        <f t="shared" si="6"/>
+        <v>542.14466966637406</v>
+      </c>
+      <c r="AD29" s="23">
+        <f t="shared" si="11"/>
+        <v>9.3627000000000002</v>
+      </c>
+      <c r="AE29" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="27">
+        <f t="shared" si="12"/>
+        <v>32.619500012249944</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH29" s="7">
+        <v>8</v>
+      </c>
+      <c r="AI29" s="7">
+        <v>8</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK29" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL29" s="5">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="AM29" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="AN29" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO29" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP29" s="5">
+        <f t="shared" si="22"/>
+        <v>11.96</v>
+      </c>
+      <c r="AQ29" s="5">
+        <f t="shared" si="18"/>
+        <v>43.96</v>
+      </c>
+      <c r="AR29" s="27">
+        <f>AQ29*302.5/G29</f>
+        <v>12.617737606199771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2520</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>762.29656966543644</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5">
+        <v>82.6</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="36">
+        <v>1350</v>
+      </c>
+      <c r="Z30" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA30" s="25">
+        <f t="shared" si="19"/>
+        <v>1342.0588235294117</v>
+      </c>
+      <c r="AB30" s="26">
+        <f t="shared" si="5"/>
+        <v>1.760546848739496</v>
+      </c>
+      <c r="AC30" s="26">
+        <f t="shared" si="6"/>
+        <v>532.56542174369747</v>
+      </c>
+      <c r="AD30" s="23">
+        <f t="shared" si="11"/>
+        <v>6.7699000000000007</v>
+      </c>
+      <c r="AE30" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF30" s="27">
+        <f t="shared" si="12"/>
+        <v>17.060071229679465</v>
+      </c>
+      <c r="AG30" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK30" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL30" s="5">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="AM30" s="34">
+        <v>0.95</v>
+      </c>
+      <c r="AN30" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO30" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP30" s="5">
+        <f t="shared" si="22"/>
+        <v>8.74</v>
+      </c>
+      <c r="AQ30" s="5">
+        <f t="shared" si="18"/>
+        <v>24.740000000000002</v>
+      </c>
+      <c r="AR30" s="27">
+        <f>AQ30*302.5/G30</f>
+        <v>9.8175044960317468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2694</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>814.93133280900236</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5">
+        <v>31.78</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5">
+        <v>192.5</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="36">
+        <v>1614</v>
+      </c>
+      <c r="Z31" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA31" s="25">
+        <f t="shared" si="19"/>
+        <v>1604.5058823529412</v>
+      </c>
+      <c r="AB31" s="26">
+        <f t="shared" si="5"/>
+        <v>1.9688847609065898</v>
+      </c>
+      <c r="AC31" s="26">
+        <f t="shared" si="6"/>
+        <v>595.58764017424346</v>
+      </c>
+      <c r="AD31" s="23">
+        <f t="shared" si="11"/>
+        <v>9.5259800000000006</v>
+      </c>
+      <c r="AE31" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF31" s="27">
+        <f t="shared" si="12"/>
+        <v>25.662874637064135</v>
+      </c>
+      <c r="AG31" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH31" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI31" s="7">
+        <v>6</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK31" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL31" s="5">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="AM31" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO31" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP31" s="5">
+        <f t="shared" si="22"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="AQ31" s="5">
+        <f t="shared" si="18"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AR31" s="27">
+        <f>AQ31*302.5/G31</f>
+        <v>12.323737713437268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4301</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>1301.0466452900962</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
+        <v>27.64</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5">
+        <v>112.8</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="36">
+        <v>2404</v>
+      </c>
+      <c r="Z32" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA32" s="25">
+        <f t="shared" si="19"/>
+        <v>2389.8588235294119</v>
+      </c>
+      <c r="AB32" s="26">
+        <f t="shared" si="5"/>
+        <v>1.8368740522723854</v>
+      </c>
+      <c r="AC32" s="26">
+        <f t="shared" si="6"/>
+        <v>555.6544008123966</v>
+      </c>
+      <c r="AD32" s="23">
+        <f t="shared" si="11"/>
+        <v>8.3832400000000007</v>
+      </c>
+      <c r="AE32" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF32" s="27">
+        <f t="shared" si="12"/>
+        <v>36.056152987311563</v>
+      </c>
+      <c r="AG32" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>9</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK32" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="AM32" s="34">
+        <v>1.65</v>
+      </c>
+      <c r="AN32" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO32" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP32" s="5">
+        <f t="shared" si="22"/>
+        <v>15.180000000000001</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f t="shared" si="18"/>
+        <v>51.18</v>
+      </c>
+      <c r="AR32" s="27">
+        <f>AQ32*302.5/G32</f>
+        <v>11.89961179028133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4112</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>1243.8744025651883</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <v>38.21</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5">
+        <v>266.2</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="36">
+        <v>2109</v>
+      </c>
+      <c r="Z33" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA33" s="25">
+        <f t="shared" si="19"/>
+        <v>2096.5941176470587</v>
+      </c>
+      <c r="AB33" s="26">
+        <f t="shared" si="5"/>
+        <v>1.6855352223048754</v>
+      </c>
+      <c r="AC33" s="26">
+        <f t="shared" si="6"/>
+        <v>509.87440474722484</v>
+      </c>
+      <c r="AD33" s="23">
+        <f t="shared" si="11"/>
+        <v>10.299110000000001</v>
+      </c>
+      <c r="AE33" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF33" s="27">
+        <f t="shared" si="12"/>
+        <v>42.349749746126143</v>
+      </c>
+      <c r="AG33" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>10</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>10</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL33" s="5">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="AM33" s="34">
+        <v>1.55</v>
+      </c>
+      <c r="AN33" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO33" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP33" s="5">
+        <f t="shared" si="22"/>
+        <v>14.26</v>
+      </c>
+      <c r="AQ33" s="5">
+        <f t="shared" si="18"/>
+        <v>54.26</v>
+      </c>
+      <c r="AR33" s="27">
+        <f>AQ33*302.5/G33</f>
+        <v>13.195584671692606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3029</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>916.26837679230437</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
+        <v>37.86</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5">
+        <v>157.9</v>
+      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="36">
+        <v>1685</v>
+      </c>
+      <c r="Z34" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA34" s="25">
+        <f t="shared" si="19"/>
+        <v>1675.0882352941176</v>
+      </c>
+      <c r="AB34" s="26">
+        <f t="shared" si="5"/>
+        <v>1.828163317344105</v>
+      </c>
+      <c r="AC34" s="26">
+        <f t="shared" si="6"/>
+        <v>553.01940349659174</v>
+      </c>
+      <c r="AD34" s="23">
+        <f t="shared" si="11"/>
+        <v>8.1712600000000002</v>
+      </c>
+      <c r="AE34" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF34" s="27">
+        <f t="shared" si="12"/>
+        <v>24.750635162141769</v>
+      </c>
+      <c r="AG34" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>6</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>6</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK34" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL34" s="5">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="AM34" s="34">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN34" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO34" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP34" s="5">
+        <f t="shared" si="22"/>
+        <v>10.58</v>
+      </c>
+      <c r="AQ34" s="5">
+        <f t="shared" si="18"/>
+        <v>34.58</v>
+      </c>
+      <c r="AR34" s="27">
+        <f>AQ34*302.5/G34</f>
+        <v>11.416360386266094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2129</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>644.01960191179137</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <v>31.35</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5">
+        <v>250.7</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="36">
+        <v>1341</v>
+      </c>
+      <c r="Z35" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA35" s="25">
+        <f t="shared" si="19"/>
+        <v>1333.1117647058823</v>
+      </c>
+      <c r="AB35" s="26">
+        <f t="shared" si="5"/>
+        <v>2.0699863183488518</v>
+      </c>
+      <c r="AC35" s="26">
+        <f t="shared" si="6"/>
+        <v>626.17086130052769</v>
+      </c>
+      <c r="AD35" s="23">
+        <f t="shared" si="11"/>
+        <v>10.73685</v>
+      </c>
+      <c r="AE35" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF35" s="27">
+        <f t="shared" si="12"/>
+        <v>22.858650786071461</v>
+      </c>
+      <c r="AG35" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK35" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL35" s="5">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="AM35" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="AN35" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO35" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP35" s="5">
+        <f t="shared" si="22"/>
+        <v>7.36</v>
+      </c>
+      <c r="AQ35" s="5">
+        <f t="shared" si="18"/>
+        <v>27.36</v>
+      </c>
+      <c r="AR35" s="27">
+        <f>AQ35*302.5/G35</f>
+        <v>12.851161634570222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3002</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>908.10091354588906</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <v>37.42</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5">
+        <v>380.7</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="36">
+        <v>1804</v>
+      </c>
+      <c r="Z36" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA36" s="25">
+        <f t="shared" si="19"/>
+        <v>1793.3882352941177</v>
+      </c>
+      <c r="AB36" s="26">
+        <f t="shared" si="5"/>
+        <v>1.9748776909511307</v>
+      </c>
+      <c r="AC36" s="26">
+        <f t="shared" si="6"/>
+        <v>597.40050151271703</v>
+      </c>
+      <c r="AD36" s="23">
+        <f t="shared" si="11"/>
+        <v>12.675219999999999</v>
+      </c>
+      <c r="AE36" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF36" s="27">
+        <f t="shared" si="12"/>
+        <v>38.050839211223547</v>
+      </c>
+      <c r="AG36" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>9</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK36" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL36" s="5">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="AM36" s="34">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AN36" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO36" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP36" s="5">
+        <f t="shared" si="22"/>
+        <v>10.58</v>
+      </c>
+      <c r="AQ36" s="5">
+        <f t="shared" si="18"/>
+        <v>46.58</v>
+      </c>
+      <c r="AR36" s="27">
+        <f>AQ36*302.5/G36</f>
+        <v>15.516392275149899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2380</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>719.94676023957891</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <v>39.18</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5">
+        <v>63.2</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="36">
+        <v>1448</v>
+      </c>
+      <c r="Z37" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA37" s="25">
+        <f t="shared" si="19"/>
+        <v>1439.4823529411765</v>
+      </c>
+      <c r="AB37" s="26">
+        <f t="shared" si="5"/>
+        <v>1.9994288917449334</v>
+      </c>
+      <c r="AC37" s="26">
+        <f t="shared" si="6"/>
+        <v>604.82723975284239</v>
+      </c>
+      <c r="AD37" s="23">
+        <f t="shared" si="11"/>
+        <v>6.1333800000000007</v>
+      </c>
+      <c r="AE37" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF37" s="27">
+        <f t="shared" si="12"/>
+        <v>14.597378711795798</v>
+      </c>
+      <c r="AG37" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK37" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AL37" s="5">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AM37" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="AN37" s="32">
+        <v>20</v>
+      </c>
+      <c r="AO37" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AP37" s="5">
+        <f t="shared" si="22"/>
+        <v>8.2800000000000011</v>
+      </c>
+      <c r="AQ37" s="5">
+        <f t="shared" si="18"/>
+        <v>20.28</v>
+      </c>
+      <c r="AR37" s="27">
+        <f>AQ37*302.5/G37</f>
+        <v>8.5210467478991614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1683</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>509.10520902655935</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="36">
+        <v>1167</v>
+      </c>
+      <c r="Z38" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA38" s="25">
+        <f t="shared" si="19"/>
+        <v>1160.1352941176472</v>
+      </c>
+      <c r="AB38" s="26">
+        <f t="shared" ref="AB38:AB39" si="23">AA38/G38</f>
+        <v>2.2787731760511694</v>
+      </c>
+      <c r="AC38" s="26">
+        <f t="shared" ref="AC38:AC39" si="24">AA38*302.5/G38</f>
+        <v>689.32888575547872</v>
+      </c>
+      <c r="AD38" s="23">
+        <f t="shared" si="11"/>
+        <v>9.14</v>
+      </c>
+      <c r="AE38" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF38" s="27">
+        <f t="shared" si="12"/>
+        <v>15.382550778521496</v>
+      </c>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="14">
+        <v>2000</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>604.99727751225123</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="36">
+        <v>1403</v>
+      </c>
+      <c r="Z39" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="AA39" s="25">
+        <f t="shared" si="19"/>
+        <v>1394.7470588235294</v>
+      </c>
+      <c r="AB39" s="26">
+        <f t="shared" si="23"/>
+        <v>2.3053774135294116</v>
+      </c>
+      <c r="AC39" s="26">
+        <f t="shared" si="24"/>
+        <v>697.37666759264698</v>
+      </c>
+      <c r="AD39" s="23">
+        <f t="shared" si="11"/>
+        <v>9.14</v>
+      </c>
+      <c r="AE39" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF39" s="27">
+        <f t="shared" si="12"/>
+        <v>18.27991774037017</v>
+      </c>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AN24" s="5">
-        <f t="shared" si="10"/>
+      <c r="B40" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="41">
+        <v>6.7</v>
+      </c>
+      <c r="M40" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="N40" s="42">
+        <v>21</v>
+      </c>
+      <c r="O40" s="42">
+        <v>33</v>
+      </c>
+      <c r="P40" s="42">
+        <v>553</v>
+      </c>
+      <c r="Q40" s="43">
+        <v>0.13</v>
+      </c>
+      <c r="R40" s="41">
+        <v>7.4</v>
+      </c>
+      <c r="S40" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="16">
+        <v>2868</v>
+      </c>
+      <c r="Z40" s="44">
+        <v>25</v>
+      </c>
+      <c r="AA40" s="25">
+        <f t="shared" si="19"/>
+        <v>2530.5882352941176</v>
+      </c>
+      <c r="AB40" s="26">
+        <f t="shared" ref="AB40:AB44" si="25">AA40/G40</f>
+        <v>2.0914046470588232</v>
+      </c>
+      <c r="AC40" s="26">
+        <f t="shared" ref="AC40:AC44" si="26">AA40*302.5/G40</f>
+        <v>632.64990573529406</v>
+      </c>
+      <c r="AD40" s="23">
+        <f t="shared" si="11"/>
+        <v>17.911000000000001</v>
+      </c>
+      <c r="AE40" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF40" s="27">
+        <f t="shared" si="12"/>
+        <v>51.999766001052997</v>
+      </c>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="B41" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="41">
+        <v>7.1</v>
+      </c>
+      <c r="M41" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="N41" s="42">
+        <v>30</v>
+      </c>
+      <c r="O41" s="42">
+        <v>41</v>
+      </c>
+      <c r="P41" s="42">
+        <v>251</v>
+      </c>
+      <c r="Q41" s="43">
+        <v>0.18</v>
+      </c>
+      <c r="R41" s="41">
+        <v>7.3</v>
+      </c>
+      <c r="S41" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="16">
+        <v>3236</v>
+      </c>
+      <c r="Z41" s="44">
+        <v>28.5</v>
+      </c>
+      <c r="AA41" s="25">
+        <f t="shared" si="19"/>
+        <v>2722.0470588235294</v>
+      </c>
+      <c r="AB41" s="26">
+        <f t="shared" si="25"/>
+        <v>2.2496357917647058</v>
+      </c>
+      <c r="AC41" s="26">
+        <f t="shared" si="26"/>
+        <v>680.51482700882343</v>
+      </c>
+      <c r="AD41" s="23">
+        <f t="shared" si="11"/>
+        <v>10.89</v>
+      </c>
+      <c r="AE41" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF41" s="27">
+        <f t="shared" si="12"/>
+        <v>43.559803980882094</v>
+      </c>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.6">
-      <c r="A25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22">
-        <v>1095</v>
-      </c>
-      <c r="G25" s="22">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="F42" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25" s="1">
-        <v>3420</v>
-      </c>
-      <c r="X25" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1232876712328768</v>
-      </c>
-      <c r="Y25" s="1">
-        <f t="shared" si="5"/>
-        <v>944.79452054794524</v>
-      </c>
-      <c r="AA25" s="2"/>
-      <c r="AI25" s="5">
-        <f t="shared" si="8"/>
+      <c r="K42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="41">
+        <v>6.8</v>
+      </c>
+      <c r="M42" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="42">
+        <v>28</v>
+      </c>
+      <c r="O42" s="42">
+        <v>37</v>
+      </c>
+      <c r="P42" s="42">
+        <v>348</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>0.21</v>
+      </c>
+      <c r="R42" s="41">
+        <v>7.7</v>
+      </c>
+      <c r="S42" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="16">
+        <v>3045</v>
+      </c>
+      <c r="Z42" s="44">
+        <v>25.6</v>
+      </c>
+      <c r="AA42" s="25">
+        <f t="shared" si="19"/>
+        <v>2665.2705882352943</v>
+      </c>
+      <c r="AB42" s="26">
+        <f t="shared" si="25"/>
+        <v>2.202712877647059</v>
+      </c>
+      <c r="AC42" s="26">
+        <f t="shared" si="26"/>
+        <v>666.3206454882353</v>
+      </c>
+      <c r="AD42" s="23">
+        <f t="shared" si="11"/>
+        <v>13.048000000000002</v>
+      </c>
+      <c r="AE42" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF42" s="27">
+        <f t="shared" si="12"/>
+        <v>51.999766001052997</v>
+      </c>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AN25" s="5">
-        <f t="shared" si="10"/>
+      <c r="B43" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3980</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>1203.9445822493799</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="41">
+        <v>7.3</v>
+      </c>
+      <c r="M43" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="N43" s="42">
+        <v>20</v>
+      </c>
+      <c r="O43" s="42">
+        <v>31</v>
+      </c>
+      <c r="P43" s="45">
+        <v>656</v>
+      </c>
+      <c r="Q43" s="43">
+        <v>0.22</v>
+      </c>
+      <c r="R43" s="41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S43" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="16">
+        <v>3158</v>
+      </c>
+      <c r="Z43" s="44">
+        <v>26.3</v>
+      </c>
+      <c r="AA43" s="25">
+        <f t="shared" si="19"/>
+        <v>2738.1717647058822</v>
+      </c>
+      <c r="AB43" s="26">
+        <f t="shared" si="25"/>
+        <v>2.2743337235589713</v>
+      </c>
+      <c r="AC43" s="26">
+        <f t="shared" si="26"/>
+        <v>687.98595137658879</v>
+      </c>
+      <c r="AD43" s="23">
+        <f t="shared" si="11"/>
+        <v>20.080000000000002</v>
+      </c>
+      <c r="AE43" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF43" s="27">
+        <f t="shared" si="12"/>
+        <v>51.739767171047731</v>
+      </c>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="B44" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="41">
+        <v>6.7</v>
+      </c>
+      <c r="M44" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="N44" s="42">
+        <v>19</v>
+      </c>
+      <c r="O44" s="42">
+        <v>29</v>
+      </c>
+      <c r="P44" s="42">
+        <v>474</v>
+      </c>
+      <c r="Q44" s="43">
+        <v>0.18</v>
+      </c>
+      <c r="R44" s="41">
+        <v>7.1</v>
+      </c>
+      <c r="S44" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="16">
+        <v>2680</v>
+      </c>
+      <c r="Z44" s="44">
+        <v>27</v>
+      </c>
+      <c r="AA44" s="25">
+        <f t="shared" si="19"/>
+        <v>2301.6470588235293</v>
+      </c>
+      <c r="AB44" s="26">
+        <f t="shared" si="25"/>
+        <v>1.9021962117647058</v>
+      </c>
+      <c r="AC44" s="26">
+        <f t="shared" si="26"/>
+        <v>575.41435405882351</v>
+      </c>
+      <c r="AD44" s="23">
+        <f t="shared" si="11"/>
+        <v>16.548999999999999</v>
+      </c>
+      <c r="AE44" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF44" s="27">
+        <f t="shared" si="12"/>
+        <v>51.999766001052997</v>
+      </c>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>1512.493193780628</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="N45" s="19">
+        <v>27</v>
+      </c>
+      <c r="O45" s="19">
+        <v>60</v>
+      </c>
+      <c r="P45" s="19">
+        <v>1169</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="R45" s="18">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S45" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="16">
+        <v>3300</v>
+      </c>
+      <c r="Z45" s="44">
+        <v>25.3</v>
+      </c>
+      <c r="AA45" s="25">
+        <f t="shared" ref="AA45:AA53" si="27">Y45*(100-Z45)/(100-15)</f>
+        <v>2900.1176470588234</v>
+      </c>
+      <c r="AB45" s="26">
+        <f t="shared" ref="AB45:AB53" si="28">AA45/G45</f>
+        <v>1.9174417835294117</v>
+      </c>
+      <c r="AC45" s="26">
+        <f t="shared" ref="AC45:AC53" si="29">AA45*302.5/G45</f>
+        <v>580.02613951764704</v>
+      </c>
+      <c r="AD45" s="23">
+        <f t="shared" ref="AD45:AD53" si="30">9.14-(0.109*N45)+(0.02*P45)</f>
+        <v>29.576999999999998</v>
+      </c>
+      <c r="AE45" s="23">
+        <v>14</v>
+      </c>
+      <c r="AF45" s="27">
+        <f t="shared" ref="AF45:AF53" si="31">IF(AD45&lt;AE45, AD45*G45/302.5, AE45*G45/302.5)</f>
+        <v>69.99968500141749</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AH45" s="48">
+        <v>11</v>
+      </c>
+      <c r="AI45" s="17">
+        <v>12</v>
+      </c>
+      <c r="AJ45" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK45" s="5">
+        <f t="shared" ref="AK45:AK53" si="32">AJ45*AG45</f>
+        <v>6</v>
+      </c>
+      <c r="AL45" s="5">
+        <f t="shared" ref="AL45:AL53" si="33">AK45*AI45</f>
+        <v>72</v>
+      </c>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N46" s="19">
+        <v>25</v>
+      </c>
+      <c r="O46" s="19">
+        <v>82</v>
+      </c>
+      <c r="P46" s="19">
+        <v>746</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="R46" s="18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S46" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="46">
+        <v>3390</v>
+      </c>
+      <c r="Z46" s="47">
+        <v>22.3</v>
+      </c>
+      <c r="AA46" s="25">
+        <f t="shared" si="27"/>
+        <v>3098.8588235294119</v>
+      </c>
+      <c r="AB46" s="26">
+        <f t="shared" si="28"/>
+        <v>2.5610518747058824</v>
+      </c>
+      <c r="AC46" s="26">
+        <f t="shared" si="29"/>
+        <v>774.71819209852936</v>
+      </c>
+      <c r="AD46" s="23">
+        <f t="shared" si="30"/>
+        <v>21.335000000000001</v>
+      </c>
+      <c r="AE46" s="23">
+        <v>15</v>
+      </c>
+      <c r="AF46" s="27">
+        <f t="shared" si="31"/>
+        <v>59.999730001214999</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AH46" s="48">
+        <v>9</v>
+      </c>
+      <c r="AI46" s="17">
+        <v>9</v>
+      </c>
+      <c r="AJ46" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK46" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL46" s="5">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4035</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>1220.5820073809668</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="N47" s="19">
+        <v>26</v>
+      </c>
+      <c r="O47" s="19">
+        <v>28</v>
+      </c>
+      <c r="P47" s="19">
+        <v>153</v>
+      </c>
+      <c r="Q47" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="R47" s="18">
+        <v>5.7</v>
+      </c>
+      <c r="S47" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="46">
+        <v>3061</v>
+      </c>
+      <c r="Z47" s="47">
+        <v>21.8</v>
+      </c>
+      <c r="AA47" s="25">
+        <f t="shared" si="27"/>
+        <v>2816.1200000000003</v>
+      </c>
+      <c r="AB47" s="26">
+        <f t="shared" si="28"/>
+        <v>2.3071944228004959</v>
+      </c>
+      <c r="AC47" s="26">
+        <f t="shared" si="29"/>
+        <v>697.92631289714996</v>
+      </c>
+      <c r="AD47" s="23">
+        <f t="shared" si="30"/>
+        <v>9.3660000000000014</v>
+      </c>
+      <c r="AE47" s="23">
+        <v>16</v>
+      </c>
+      <c r="AF47" s="27">
+        <f t="shared" si="31"/>
+        <v>37.791639937620289</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AH47" s="48">
+        <v>6</v>
+      </c>
+      <c r="AI47" s="17">
+        <v>8</v>
+      </c>
+      <c r="AJ47" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK47" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL47" s="5">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4874</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>1474.3783652973561</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="18">
+        <v>5.7</v>
+      </c>
+      <c r="M48" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="N48" s="19">
+        <v>28</v>
+      </c>
+      <c r="O48" s="19">
+        <v>34</v>
+      </c>
+      <c r="P48" s="19">
+        <v>188</v>
+      </c>
+      <c r="Q48" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="R48" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="S48" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="46">
+        <v>3377</v>
+      </c>
+      <c r="Z48" s="47">
+        <v>20.8</v>
+      </c>
+      <c r="AA48" s="25">
+        <f t="shared" si="27"/>
+        <v>3146.5694117647063</v>
+      </c>
+      <c r="AB48" s="26">
+        <f t="shared" si="28"/>
+        <v>2.1341668365637601</v>
+      </c>
+      <c r="AC48" s="26">
+        <f t="shared" si="29"/>
+        <v>645.58546806053744</v>
+      </c>
+      <c r="AD48" s="23">
+        <f t="shared" si="30"/>
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="AE48" s="23">
+        <v>17</v>
+      </c>
+      <c r="AF48" s="27">
+        <f t="shared" si="31"/>
+        <v>47.998936004787986</v>
+      </c>
+      <c r="AG48" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AH48" s="48">
+        <v>8</v>
+      </c>
+      <c r="AI48" s="17">
+        <v>9</v>
+      </c>
+      <c r="AJ48" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK48" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL48" s="5">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>604.99727751225123</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19">
+        <v>29</v>
+      </c>
+      <c r="O49" s="19">
+        <v>93</v>
+      </c>
+      <c r="P49" s="19">
+        <v>442</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="R49" s="18">
+        <v>7.4</v>
+      </c>
+      <c r="S49" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="46">
+        <v>1594</v>
+      </c>
+      <c r="Z49" s="47">
+        <v>24.5</v>
+      </c>
+      <c r="AA49" s="25">
+        <f t="shared" si="27"/>
+        <v>1415.8470588235293</v>
+      </c>
+      <c r="AB49" s="26">
+        <f t="shared" si="28"/>
+        <v>2.3402536035294115</v>
+      </c>
+      <c r="AC49" s="26">
+        <f t="shared" si="29"/>
+        <v>707.92671506764691</v>
+      </c>
+      <c r="AD49" s="23">
+        <f t="shared" si="30"/>
+        <v>14.819000000000001</v>
+      </c>
+      <c r="AE49" s="23">
+        <v>18</v>
+      </c>
+      <c r="AF49" s="27">
+        <f t="shared" si="31"/>
+        <v>29.637866629600172</v>
+      </c>
+      <c r="AG49" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AH49" s="48">
+        <v>4</v>
+      </c>
+      <c r="AI49" s="17">
+        <v>5</v>
+      </c>
+      <c r="AJ49" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK49" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL49" s="5">
+        <f t="shared" si="33"/>
+        <v>30</v>
+      </c>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>1814.9918325367535</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="N50" s="19">
+        <v>36</v>
+      </c>
+      <c r="O50" s="19">
+        <v>105</v>
+      </c>
+      <c r="P50" s="19">
+        <v>316</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="R50" s="18">
+        <v>5.9</v>
+      </c>
+      <c r="S50" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="46">
+        <v>4828</v>
+      </c>
+      <c r="Z50" s="47">
+        <v>23</v>
+      </c>
+      <c r="AA50" s="25">
+        <f t="shared" si="27"/>
+        <v>4373.6000000000004</v>
+      </c>
+      <c r="AB50" s="26">
+        <f t="shared" si="28"/>
+        <v>2.4097078133333336</v>
+      </c>
+      <c r="AC50" s="26">
+        <f t="shared" si="29"/>
+        <v>728.93661353333334</v>
+      </c>
+      <c r="AD50" s="23">
+        <f t="shared" si="30"/>
+        <v>11.536000000000001</v>
+      </c>
+      <c r="AE50" s="23">
+        <v>19</v>
+      </c>
+      <c r="AF50" s="27">
+        <f t="shared" si="31"/>
+        <v>69.215688529401618</v>
+      </c>
+      <c r="AG50" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AH50" s="48">
+        <v>12</v>
+      </c>
+      <c r="AI50" s="17">
+        <v>13</v>
+      </c>
+      <c r="AJ50" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK50" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL50" s="5">
+        <f t="shared" si="33"/>
+        <v>78</v>
+      </c>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="18">
+        <v>6.8</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="N51" s="19">
+        <v>43</v>
+      </c>
+      <c r="O51" s="19">
+        <v>92</v>
+      </c>
+      <c r="P51" s="19">
+        <v>893</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R51" s="18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S51" s="18">
+        <v>2</v>
+      </c>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="46">
+        <v>3284</v>
+      </c>
+      <c r="Z51" s="47">
+        <v>21.1</v>
+      </c>
+      <c r="AA51" s="25">
+        <f t="shared" si="27"/>
+        <v>3048.3247058823531</v>
+      </c>
+      <c r="AB51" s="26">
+        <f t="shared" si="28"/>
+        <v>2.5192879531764705</v>
+      </c>
+      <c r="AC51" s="26">
+        <f t="shared" si="29"/>
+        <v>762.08460583588237</v>
+      </c>
+      <c r="AD51" s="23">
+        <f t="shared" si="30"/>
+        <v>22.312999999999999</v>
+      </c>
+      <c r="AE51" s="23">
+        <v>20</v>
+      </c>
+      <c r="AF51" s="27">
+        <f t="shared" si="31"/>
+        <v>79.999640001620008</v>
+      </c>
+      <c r="AG51" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AH51" s="48">
+        <v>9</v>
+      </c>
+      <c r="AI51" s="17">
+        <v>9</v>
+      </c>
+      <c r="AJ51" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK51" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL51" s="5">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="M52" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="N52" s="19">
+        <v>24</v>
+      </c>
+      <c r="O52" s="19">
+        <v>105</v>
+      </c>
+      <c r="P52" s="19">
+        <v>439</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="R52" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="S52" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="46">
+        <v>3229</v>
+      </c>
+      <c r="Z52" s="47">
+        <v>25.9</v>
+      </c>
+      <c r="AA52" s="25">
+        <f t="shared" si="27"/>
+        <v>2814.9282352941177</v>
+      </c>
+      <c r="AB52" s="26">
+        <f t="shared" si="28"/>
+        <v>2.3263974400588237</v>
+      </c>
+      <c r="AC52" s="26">
+        <f t="shared" si="29"/>
+        <v>703.73522561779407</v>
+      </c>
+      <c r="AD52" s="23">
+        <f t="shared" si="30"/>
+        <v>15.304</v>
+      </c>
+      <c r="AE52" s="23">
+        <v>21</v>
+      </c>
+      <c r="AF52" s="27">
+        <f t="shared" si="31"/>
+        <v>61.215724529239623</v>
+      </c>
+      <c r="AG52" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AH52" s="48">
+        <v>9</v>
+      </c>
+      <c r="AI52" s="17">
+        <v>9</v>
+      </c>
+      <c r="AJ52" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK52" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL52" s="5">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3187</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>964.06316171577225</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="N53" s="19">
+        <v>24</v>
+      </c>
+      <c r="O53" s="19">
+        <v>78</v>
+      </c>
+      <c r="P53" s="19">
+        <v>216</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="R53" s="18">
+        <v>5.7</v>
+      </c>
+      <c r="S53" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="16">
+        <v>2420</v>
+      </c>
+      <c r="Z53" s="44">
+        <v>25.1</v>
+      </c>
+      <c r="AA53" s="25">
+        <f t="shared" si="27"/>
+        <v>2132.4470588235295</v>
+      </c>
+      <c r="AB53" s="26">
+        <f t="shared" si="28"/>
+        <v>2.2119370841100796</v>
+      </c>
+      <c r="AC53" s="26">
+        <f t="shared" si="29"/>
+        <v>669.1109679432991</v>
+      </c>
+      <c r="AD53" s="23">
+        <f t="shared" si="30"/>
+        <v>10.844000000000001</v>
+      </c>
+      <c r="AE53" s="23">
+        <v>22</v>
+      </c>
+      <c r="AF53" s="27">
+        <f t="shared" si="31"/>
+        <v>34.559672481473839</v>
+      </c>
+      <c r="AG53" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AH53" s="48">
+        <v>6</v>
+      </c>
+      <c r="AI53" s="17">
+        <v>6</v>
+      </c>
+      <c r="AJ53" s="5">
+        <v>20</v>
+      </c>
+      <c r="AK53" s="5">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="AL53" s="5">
+        <f t="shared" si="33"/>
+        <v>36</v>
+      </c>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4152,15 +8004,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2072995-9573-4763-8ef9-ccd2211cdc67" xsi:nil="true"/>
@@ -4171,7 +8014,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F5054E893517984C855A57020CDEA3AC" ma:contentTypeVersion="16" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="51ad2252ba68a408f345f441ae4381cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f53a7b80-c772-4be7-9753-cce4d137279b" xmlns:ns3="c2072995-9573-4763-8ef9-ccd2211cdc67" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da843ded4f9ec0271b3e7461b03c34b3" ns2:_="" ns3:_="">
     <xsd:import namespace="f53a7b80-c772-4be7-9753-cce4d137279b"/>
@@ -4412,32 +8255,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88214A36-1175-4AAE-9765-8CA40D79A332}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A31E2-40FF-443E-B7FA-B151C676481F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A31E2-40FF-443E-B7FA-B151C676481F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86F68C0-0C36-4592-B466-97CCA3B9F95C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4454,4 +8298,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88214A36-1175-4AAE-9765-8CA40D79A332}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/25년_수확량 통계.xlsx
+++ b/data/25년_수확량 통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://godaedong.sharepoint.com/sites/msteams_568ebf/Shared Documents/General/3. 정밀농업서비스 개발 관련 자료/데이터 분석/25년_필지분석/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="13_ncr:1_{F8FA6735-A609-4EE7-8805-16A4814DCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB2886F-DF4C-4260-8EF7-16CF4D9DDB6D}"/>
+  <xr:revisionPtr revIDLastSave="939" documentId="13_ncr:1_{F8FA6735-A609-4EE7-8805-16A4814DCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D0BA82-D273-4BF5-9153-AD49C0739E64}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="0" windowWidth="32025" windowHeight="20985" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="180">
   <si>
     <t>김제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -746,6 +746,10 @@
   </si>
   <si>
     <t>밑거름 과다, 웃거름 미살포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시비 처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,16 +757,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +824,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -922,17 +932,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,7 +955,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -975,19 +985,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -996,7 +1003,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1005,44 +1012,29 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1056,7 +1048,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1065,19 +1057,13 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,54 +1403,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E909C495-F45E-40B7-8FCD-B2FFDFF6E4E4}">
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:AS53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="4" max="4" width="51.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="7.75" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="8.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.25" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="6.75" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="7.75" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="8.375" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="12.875" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5" customWidth="1"/>
-    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.875" customWidth="1"/>
-    <col min="32" max="32" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="19.25" customWidth="1"/>
-    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.875" customWidth="1"/>
-    <col min="42" max="42" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="6.75" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="7.75" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="8.375" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="13.25" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.875" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.5" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.875" customWidth="1"/>
+    <col min="33" max="33" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="19.25" customWidth="1"/>
+    <col min="39" max="39" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.875" customWidth="1"/>
+    <col min="43" max="43" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1493,112 +1479,115 @@
         <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1624,124 +1613,127 @@
       <c r="H2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>6.7200000000000006</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>0.26999999999999991</v>
       </c>
-      <c r="N2" s="23">
+      <c r="O2" s="22">
         <v>25.1</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>25</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>403</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>0.10761000000000003</v>
       </c>
-      <c r="R2" s="5">
+      <c r="S2" s="5">
         <v>7.1801109999999992</v>
       </c>
-      <c r="S2" s="5">
+      <c r="T2" s="5">
         <v>1.6336835999999999</v>
       </c>
-      <c r="T2" s="5">
+      <c r="U2" s="5">
         <v>2.052</v>
       </c>
-      <c r="U2" s="5">
+      <c r="V2" s="5">
         <v>1.9779999999999998</v>
       </c>
-      <c r="V2" s="5">
+      <c r="W2" s="5">
         <v>24.7</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5">
         <v>1.5896000000000001</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Z2" s="16">
         <v>2775.8960000000002</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AA2" s="23">
         <v>24.7</v>
       </c>
-      <c r="AA2" s="25">
-        <f t="shared" ref="AA2:AA25" si="1">Y2*(100-Z2)/(100-15)</f>
+      <c r="AB2" s="24">
+        <f t="shared" ref="AB2:AB25" si="1">Z2*(100-AA2)/(100-15)</f>
         <v>2459.1172799999999</v>
       </c>
-      <c r="AB2" s="26">
-        <f>AA2/G2</f>
+      <c r="AC2" s="25">
+        <f>AB2/G2</f>
         <v>2.032337476056</v>
       </c>
-      <c r="AC2" s="26">
-        <f>AA2*302.5/G2</f>
+      <c r="AD2" s="25">
+        <f>AB2*302.5/G2</f>
         <v>614.78208650693989</v>
       </c>
-      <c r="AD2" s="23">
-        <f t="shared" ref="AD2:AD11" si="2">9.14-(0.109*N2)+(0.02*P2)</f>
+      <c r="AE2" s="22">
+        <f t="shared" ref="AE2:AE11" si="2">9.14-(0.109*O2)+(0.02*Q2)</f>
         <v>14.464100000000002</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AF2" s="22">
         <v>13</v>
       </c>
-      <c r="AF2" s="27">
-        <f t="shared" ref="AF2:AF11" si="3">IF(AD2&lt;AE2, AD2*G2/302.5, AE2*G2/302.5)</f>
+      <c r="AG2" s="26">
+        <f t="shared" ref="AG2:AG11" si="3">IF(AE2&lt;AF2, AE2*G2/302.5, AF2*G2/302.5)</f>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AH2" s="5">
         <v>0.33</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AI2" s="7">
         <v>11</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AJ2" s="5">
         <v>11</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AK2" s="5">
         <v>15</v>
       </c>
-      <c r="AK2" s="5">
-        <f>AJ2*AG2</f>
+      <c r="AL2" s="5">
+        <f>AK2*AH2</f>
         <v>4.95</v>
       </c>
-      <c r="AL2" s="5">
-        <f>AK2*AI2</f>
+      <c r="AM2" s="5">
+        <f>AL2*AJ2</f>
         <v>54.45</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AN2" s="5">
         <v>3</v>
       </c>
-      <c r="AN2" s="5">
-        <v>20</v>
-      </c>
       <c r="AO2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP2" s="5">
-        <f>AM2*AN2*AO2</f>
+      <c r="AQ2" s="5">
+        <f>AN2*AO2*AP2</f>
         <v>27.6</v>
       </c>
-      <c r="AQ2" s="5">
-        <f>AL2+AP2</f>
+      <c r="AR2" s="5">
+        <f>AM2+AQ2</f>
         <v>82.050000000000011</v>
       </c>
-      <c r="AR2" s="27">
-        <f t="shared" ref="AR2:AR23" si="4">AQ2*302.5/G2</f>
+      <c r="AS2" s="26">
+        <f t="shared" ref="AS2:AS23" si="4">AR2*302.5/G2</f>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1767,124 +1759,127 @@
       <c r="H3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>6.92</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>0.3</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>21.5</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>361.5</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>0.14866499999999999</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>7.3817070000000005</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>1.6460226000000002</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>2.214</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>2.0489999999999999</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>24.263333332999999</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5">
         <v>1.9521000000000002</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Z3" s="16">
         <v>3189.5210000000002</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="AA3" s="27">
         <v>24.26</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AB3" s="24">
         <f t="shared" si="1"/>
         <v>2842.0508298823529</v>
       </c>
-      <c r="AB3" s="26">
-        <f t="shared" ref="AB3:AB37" si="5">AA3/G3</f>
+      <c r="AC3" s="25">
+        <f t="shared" ref="AC3:AC37" si="5">AB3/G3</f>
         <v>2.3488129083562703</v>
       </c>
-      <c r="AC3" s="26">
-        <f t="shared" ref="AC3:AC37" si="6">AA3*302.5/G3</f>
+      <c r="AD3" s="25">
+        <f t="shared" ref="AD3:AD37" si="6">AB3*302.5/G3</f>
         <v>710.51590477777177</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AE3" s="22">
         <f t="shared" si="2"/>
         <v>14.0265</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AF3" s="22">
         <v>13</v>
       </c>
-      <c r="AF3" s="27">
+      <c r="AG3" s="26">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AH3" s="5">
         <v>0.33</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AI3" s="7">
         <v>11</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AJ3" s="5">
         <v>11</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AK3" s="5">
         <v>15</v>
       </c>
-      <c r="AK3" s="5">
-        <f t="shared" ref="AK3:AK11" si="7">AJ3*AG3</f>
+      <c r="AL3" s="5">
+        <f t="shared" ref="AL3:AL11" si="7">AK3*AH3</f>
         <v>4.95</v>
       </c>
-      <c r="AL3" s="5">
-        <f t="shared" ref="AL3:AL11" si="8">AK3*AI3</f>
+      <c r="AM3" s="5">
+        <f t="shared" ref="AM3:AM11" si="8">AL3*AJ3</f>
         <v>54.45</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AN3" s="5">
         <v>3</v>
       </c>
-      <c r="AN3" s="5">
-        <v>20</v>
-      </c>
       <c r="AO3" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP3" s="5">
-        <f t="shared" ref="AP3:AP11" si="9">AM3*AN3*AO3</f>
+      <c r="AQ3" s="5">
+        <f t="shared" ref="AQ3:AQ11" si="9">AN3*AO3*AP3</f>
         <v>27.6</v>
       </c>
-      <c r="AQ3" s="5">
-        <f t="shared" ref="AQ3:AQ11" si="10">AL3+AP3</f>
+      <c r="AR3" s="5">
+        <f t="shared" ref="AR3:AR11" si="10">AM3+AQ3</f>
         <v>82.050000000000011</v>
       </c>
-      <c r="AR3" s="27">
+      <c r="AS3" s="26">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1910,124 +1905,127 @@
       <c r="H4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>7.08</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>0.3</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>23.2</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>26.4</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>388.4</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>0.13871999999999998</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>7.7125439999999994</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>1.9396907999999999</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>1.95</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>1.796</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>23.906666666</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
         <v>1.7538</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Z4" s="16">
         <v>2688.7689999999998</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="AA4" s="27">
         <v>23.91</v>
       </c>
-      <c r="AA4" s="25">
+      <c r="AB4" s="24">
         <f t="shared" si="1"/>
         <v>2406.9227436470587</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AC4" s="25">
         <f t="shared" si="5"/>
         <v>1.9892013014871115</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AD4" s="25">
         <f t="shared" si="6"/>
         <v>601.73339369985126</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AE4" s="22">
         <f t="shared" si="2"/>
         <v>14.379200000000001</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AF4" s="22">
         <v>13</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AG4" s="26">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH4" s="5">
         <v>0.33</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AI4" s="7">
         <v>11</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AJ4" s="5">
         <v>11</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AK4" s="5">
         <v>15</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL4" s="5">
         <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM4" s="5">
         <f t="shared" si="8"/>
         <v>54.45</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AN4" s="5">
         <v>3</v>
       </c>
-      <c r="AN4" s="5">
-        <v>20</v>
-      </c>
       <c r="AO4" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP4" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AR4" s="5">
         <f t="shared" si="10"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AR4" s="27">
+      <c r="AS4" s="26">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2053,124 +2051,127 @@
       <c r="H5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>7.1399999999999988</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>0.34</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>25</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>37.200000000000003</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>470.6</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>0.15861</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>8.5788080000000004</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>2.1914064</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>1.8519999999999999</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>1.8219999999999998</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>23.833333333999995</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5">
         <v>1.8239999999999998</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Z5" s="16">
         <v>2959.12</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="AA5" s="27">
         <v>23.83</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AB5" s="24">
         <f t="shared" si="1"/>
         <v>2651.7196517647058</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AC5" s="25">
         <f t="shared" si="5"/>
         <v>2.2025263378903932</v>
       </c>
-      <c r="AC5" s="26">
+      <c r="AD5" s="25">
         <f t="shared" si="6"/>
         <v>666.26421721184397</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AE5" s="22">
         <f t="shared" si="2"/>
         <v>15.827000000000002</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AF5" s="22">
         <v>13</v>
       </c>
-      <c r="AF5" s="27">
+      <c r="AG5" s="26">
         <f t="shared" si="3"/>
         <v>51.739767171047731</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <v>0.33</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AI5" s="7">
         <v>10</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="5">
         <v>10</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AK5" s="5">
         <v>15</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AM5" s="5">
         <f t="shared" si="8"/>
         <v>49.5</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AN5" s="5">
         <v>3</v>
       </c>
-      <c r="AN5" s="5">
-        <v>20</v>
-      </c>
       <c r="AO5" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="5">
         <f t="shared" si="10"/>
         <v>77.099999999999994</v>
       </c>
-      <c r="AR5" s="27">
+      <c r="AS5" s="26">
         <f t="shared" si="4"/>
         <v>19.371946469849245</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2196,124 +2197,127 @@
       <c r="H6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>6.6599999999999993</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>0.32</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>22</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>40</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>406.8</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>0.13362000000000002</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>7.6606480000000001</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>1.9298195999999996</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <v>2.0259999999999998</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>1.8960000000000001</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>23.999999998</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
         <v>1.6042000000000001</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Z6" s="16">
         <v>2798.0210000000002</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="AA6" s="27">
         <v>24</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AB6" s="24">
         <f t="shared" si="1"/>
         <v>2501.7599529411768</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AC6" s="25">
         <f t="shared" si="5"/>
         <v>2.0675795131082353</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AD6" s="25">
         <f t="shared" si="6"/>
         <v>625.44280271524121</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AE6" s="22">
         <f t="shared" si="2"/>
         <v>14.878000000000002</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AF6" s="22">
         <v>13</v>
       </c>
-      <c r="AF6" s="27">
+      <c r="AG6" s="26">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AH6" s="5">
         <v>0.33</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AI6" s="7">
         <v>11</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AJ6" s="5">
         <v>11</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AK6" s="5">
         <v>15</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AL6" s="5">
         <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AM6" s="5">
         <f t="shared" si="8"/>
         <v>54.45</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AN6" s="5">
         <v>3</v>
       </c>
-      <c r="AN6" s="5">
-        <v>20</v>
-      </c>
       <c r="AO6" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AQ6" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AR6" s="5">
         <f t="shared" si="10"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AR6" s="27">
+      <c r="AS6" s="26">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2339,124 +2343,127 @@
       <c r="H7" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>6.7200000000000006</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>25.4</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>21.6</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>391.6</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>0.16728000000000001</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>7.7035619999999998</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>1.9183031999999998</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>2.04</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>24.326666666000001</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5">
         <v>1.8839999999999999</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Z7" s="16">
         <v>3029.42</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="AA7" s="27">
         <v>24.3</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AB7" s="24">
         <f t="shared" si="1"/>
         <v>2697.9658117647059</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AC7" s="25">
         <f t="shared" si="5"/>
         <v>2.2297338451329409</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AD7" s="25">
         <f t="shared" si="6"/>
         <v>674.49448815271467</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AE7" s="22">
         <f t="shared" si="2"/>
         <v>14.203400000000002</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AF7" s="22">
         <v>13</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AG7" s="26">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AH7" s="5">
         <v>0.33</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AI7" s="7">
         <v>11</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AJ7" s="5">
         <v>11</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AK7" s="5">
         <v>15</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AL7" s="5">
         <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AM7" s="5">
         <f t="shared" si="8"/>
         <v>54.45</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AN7" s="5">
         <v>3</v>
       </c>
-      <c r="AN7" s="5">
-        <v>20</v>
-      </c>
       <c r="AO7" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AQ7" s="5">
         <f t="shared" si="9"/>
         <v>27.6</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AR7" s="5">
         <f t="shared" si="10"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AR7" s="27">
+      <c r="AS7" s="26">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2482,116 +2489,119 @@
       <c r="H8" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>6.3</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>0.2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>16</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>12</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>180</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>0.13515000000000002</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>5.9031700000000003</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>2.1634379999999998</v>
       </c>
-      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="16">
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="16">
         <v>2700</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="AA8" s="28">
         <v>24.17</v>
       </c>
-      <c r="AA8" s="25">
+      <c r="AB8" s="24">
         <f t="shared" si="1"/>
         <v>2408.7176470588233</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AC8" s="25">
         <f t="shared" si="5"/>
         <v>1.9906846994117644</v>
       </c>
-      <c r="AC8" s="26">
+      <c r="AD8" s="25">
         <f t="shared" si="6"/>
         <v>602.1821215720588</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AE8" s="22">
         <f t="shared" si="2"/>
         <v>10.996</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AF8" s="22">
         <v>13</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AG8" s="26">
         <f t="shared" si="3"/>
         <v>43.983802072890676</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AH8" s="5">
         <v>0.22</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AI8" s="7">
         <v>10</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AJ8" s="5">
         <v>9</v>
       </c>
-      <c r="AJ8" s="5">
-        <v>20</v>
-      </c>
       <c r="AK8" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL8" s="5">
         <f t="shared" si="7"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AM8" s="5">
         <f t="shared" si="8"/>
         <v>39.6</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AN8" s="5">
         <v>2</v>
       </c>
-      <c r="AN8" s="5">
-        <v>20</v>
-      </c>
       <c r="AO8" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP8" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AQ8" s="5">
         <f t="shared" si="9"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AR8" s="5">
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
-      <c r="AR8" s="27">
+      <c r="AS8" s="26">
         <f t="shared" si="4"/>
         <v>14.500065249999999</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2617,116 +2627,119 @@
       <c r="H9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>6.1</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>0.3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>33</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>30</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>173</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>0.10965</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>6.1626500000000002</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>2.2127940000000001</v>
       </c>
-      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="16">
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="16">
         <v>2950</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="AA9" s="28">
         <v>24.17</v>
       </c>
-      <c r="AA9" s="25">
+      <c r="AB9" s="24">
         <f t="shared" si="1"/>
         <v>2631.7470588235292</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AC9" s="25">
         <f t="shared" si="5"/>
         <v>2.1750073567647057</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AD9" s="25">
         <f t="shared" si="6"/>
         <v>657.93972542132349</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AE9" s="22">
         <f t="shared" si="2"/>
         <v>9.0030000000000001</v>
       </c>
-      <c r="AE9" s="23">
+      <c r="AF9" s="22">
         <v>13</v>
       </c>
-      <c r="AF9" s="27">
+      <c r="AG9" s="26">
         <f t="shared" si="3"/>
         <v>36.011837946729237</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AH9" s="5">
         <v>0.22</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AI9" s="7">
         <v>8</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AJ9" s="5">
         <v>8</v>
       </c>
-      <c r="AJ9" s="5">
-        <v>20</v>
-      </c>
       <c r="AK9" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="5">
         <f t="shared" si="7"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AM9" s="5">
         <f t="shared" si="8"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AN9" s="5">
         <v>2</v>
       </c>
-      <c r="AN9" s="5">
-        <v>20</v>
-      </c>
       <c r="AO9" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP9" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP9" s="5">
+      <c r="AQ9" s="5">
         <f t="shared" si="9"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AR9" s="5">
         <f t="shared" si="10"/>
         <v>53.600000000000009</v>
       </c>
-      <c r="AR9" s="27">
+      <c r="AS9" s="26">
         <f t="shared" si="4"/>
         <v>13.400060300000002</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -2752,109 +2765,112 @@
       <c r="H10" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>6.4</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>0.4</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>18</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>46</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>196</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>0.13005</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>7.1406900000000002</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>2.0482740000000002</v>
       </c>
-      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="26">
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AD10" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AE10" s="22">
         <f t="shared" si="2"/>
         <v>11.098000000000001</v>
       </c>
-      <c r="AE10" s="23">
+      <c r="AF10" s="22">
         <v>13</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="AG10" s="26">
         <f t="shared" si="3"/>
         <v>27.966834149246328</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AH10" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AI10" s="7">
         <v>5</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AJ10" s="5">
         <v>6</v>
       </c>
-      <c r="AJ10" s="5">
-        <v>20</v>
-      </c>
       <c r="AK10" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL10" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AM10" s="5">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AN10" s="5">
         <v>2</v>
       </c>
-      <c r="AN10" s="5">
-        <v>20</v>
-      </c>
       <c r="AO10" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP10" s="5">
         <v>0.21</v>
       </c>
-      <c r="AP10" s="5">
+      <c r="AQ10" s="5">
         <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AR10" s="5">
         <f t="shared" si="10"/>
         <v>44.4</v>
       </c>
-      <c r="AR10" s="27">
+      <c r="AS10" s="26">
         <f t="shared" si="4"/>
         <v>17.619126904761906</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -2880,109 +2896,112 @@
       <c r="H11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>7.1</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>0.6</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>35</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>80</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>628</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>0.81090000000000007</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>9.1616400000000002</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>2.3855399999999998</v>
       </c>
-      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="26">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AD11" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AE11" s="22">
         <f t="shared" si="2"/>
         <v>17.885000000000002</v>
       </c>
-      <c r="AE11" s="23">
+      <c r="AF11" s="22">
         <v>13</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AG11" s="26">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AH11" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AI11" s="7">
         <v>9</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AJ11" s="5">
         <v>9</v>
       </c>
-      <c r="AJ11" s="5">
-        <v>20</v>
-      </c>
       <c r="AK11" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL11" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AM11" s="5">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AN11" s="5">
         <v>2</v>
       </c>
-      <c r="AN11" s="5">
-        <v>20</v>
-      </c>
       <c r="AO11" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP11" s="5">
         <v>0.21</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AQ11" s="5">
         <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AR11" s="5">
         <f t="shared" si="10"/>
         <v>62.4</v>
       </c>
-      <c r="AR11" s="27">
+      <c r="AS11" s="26">
         <f t="shared" si="4"/>
         <v>15.600070199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -3008,16 +3027,18 @@
       <c r="H12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -3030,26 +3051,26 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="16">
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="16">
         <v>4150</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="25">
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="24">
         <f t="shared" si="1"/>
         <v>4882.3529411764703</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AC12" s="25">
         <f t="shared" si="5"/>
         <v>2.9345604278074862</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AD12" s="25">
         <f t="shared" si="6"/>
         <v>887.70452941176461</v>
       </c>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="5"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="26"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -3060,12 +3081,13 @@
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
-      <c r="AR12" s="27">
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -3091,16 +3113,18 @@
       <c r="H13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -3113,26 +3137,26 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="16">
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="16">
         <v>2570</v>
       </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="25">
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="24">
         <f t="shared" si="1"/>
         <v>3023.5294117647059</v>
       </c>
-      <c r="AB13" s="26">
+      <c r="AC13" s="25">
         <f t="shared" si="5"/>
         <v>2.4987958823529408</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AD13" s="25">
         <f t="shared" si="6"/>
         <v>755.88575441176465</v>
       </c>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="5"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="26"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
@@ -3143,12 +3167,13 @@
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="27">
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -3174,124 +3199,127 @@
       <c r="H14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>7.4375</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>2.88625</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>21.237499999999997</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>53.625</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>319.625</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>1.2775000000000001</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>4.59375</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>5.2662499999999994</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <v>2.2687499999999998</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <v>1.7037500000000001</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>23.779166668750001</v>
       </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5">
         <v>2.4672499999999999</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Z14" s="5">
         <v>4860.7380000000003</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="AA14" s="29">
         <v>23.8</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AB14" s="24">
         <f t="shared" si="1"/>
         <v>4357.508654117647</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AC14" s="25">
         <f t="shared" si="5"/>
         <v>2.7943845021885774</v>
       </c>
-      <c r="AC14" s="26">
+      <c r="AD14" s="25">
         <f t="shared" si="6"/>
         <v>845.30131191204475</v>
       </c>
-      <c r="AD14" s="23">
-        <f t="shared" ref="AD14:AD44" si="11">9.14-(0.109*N14)+(0.02*P14)</f>
+      <c r="AE14" s="22">
+        <f t="shared" ref="AE14:AE44" si="11">9.14-(0.109*O14)+(0.02*Q14)</f>
         <v>13.217612500000001</v>
       </c>
-      <c r="AE14" s="23">
+      <c r="AF14" s="22">
         <v>13</v>
       </c>
-      <c r="AF14" s="27">
-        <f t="shared" ref="AF14:AF44" si="12">IF(AD14&lt;AE14, AD14*G14/302.5, AE14*G14/302.5)</f>
+      <c r="AG14" s="26">
+        <f t="shared" ref="AG14:AG44" si="12">IF(AE14&lt;AF14, AE14*G14/302.5, AF14*G14/302.5)</f>
         <v>67.014698433857049</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AH14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AI14" s="7">
         <v>12</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AJ14" s="5">
         <v>12</v>
       </c>
-      <c r="AJ14" s="5">
-        <v>20</v>
-      </c>
       <c r="AK14" s="5">
-        <f t="shared" ref="AK14:AK23" si="13">AJ14*AG14</f>
+        <v>20</v>
+      </c>
+      <c r="AL14" s="5">
+        <f t="shared" ref="AL14:AL23" si="13">AK14*AH14</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AL14" s="5">
-        <f t="shared" ref="AL14:AL23" si="14">AK14*AI14</f>
+      <c r="AM14" s="5">
+        <f t="shared" ref="AM14:AM23" si="14">AL14*AJ14</f>
         <v>67.2</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AN14" s="5">
         <v>3</v>
       </c>
-      <c r="AN14" s="5">
-        <v>20</v>
-      </c>
       <c r="AO14" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AP14" s="5">
-        <f t="shared" ref="AP14:AP21" si="15">AM14*AN14*AO14</f>
+      <c r="AQ14" s="5">
+        <f t="shared" ref="AQ14:AQ21" si="15">AN14*AO14*AP14</f>
         <v>16.8</v>
       </c>
-      <c r="AQ14" s="5">
-        <f t="shared" ref="AQ14:AQ21" si="16">AL14+AP14</f>
+      <c r="AR14" s="5">
+        <f t="shared" ref="AR14:AR21" si="16">AM14+AQ14</f>
         <v>84</v>
       </c>
-      <c r="AR14" s="27">
+      <c r="AS14" s="26">
         <f t="shared" si="4"/>
         <v>16.294932686711931</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -3317,124 +3345,127 @@
       <c r="H15" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>7.5750000000000011</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>2.3787499999999997</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>19.3125</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>56.75</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>405.75</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>1.1074999999999999</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>5.3362499999999997</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>5.1325000000000003</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <v>1.9762499999999998</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <v>1.7250000000000001</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <v>23.429166667499999</v>
       </c>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5">
         <v>2.5220000000000002</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Z15" s="5">
         <v>4811.1760000000004</v>
       </c>
-      <c r="Z15" s="30">
+      <c r="AA15" s="5">
         <v>23.4</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AB15" s="24">
         <f t="shared" si="1"/>
         <v>4335.7186070588232</v>
       </c>
-      <c r="AB15" s="26">
+      <c r="AC15" s="25">
         <f t="shared" si="5"/>
         <v>2.8688988333096592</v>
       </c>
-      <c r="AC15" s="26">
+      <c r="AD15" s="25">
         <f t="shared" si="6"/>
         <v>867.8418970761719</v>
       </c>
-      <c r="AD15" s="23">
+      <c r="AE15" s="22">
         <f t="shared" si="11"/>
         <v>15.1499375</v>
       </c>
-      <c r="AE15" s="23">
+      <c r="AF15" s="22">
         <v>13</v>
       </c>
-      <c r="AF15" s="27">
+      <c r="AG15" s="26">
         <f t="shared" si="12"/>
         <v>64.947707735315191</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AH15" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AI15" s="7">
         <v>12</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AJ15" s="5">
         <v>12</v>
       </c>
-      <c r="AJ15" s="5">
-        <v>20</v>
-      </c>
       <c r="AK15" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL15" s="5">
         <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AM15" s="5">
         <f t="shared" si="14"/>
         <v>67.2</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AN15" s="5">
         <v>3.4</v>
       </c>
-      <c r="AN15" s="5">
-        <v>20</v>
-      </c>
       <c r="AO15" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP15" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AQ15" s="5">
         <f t="shared" si="15"/>
         <v>19.040000000000003</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AR15" s="5">
         <f t="shared" si="16"/>
         <v>86.240000000000009</v>
       </c>
-      <c r="AR15" s="27">
+      <c r="AS15" s="26">
         <f t="shared" si="4"/>
         <v>17.261887125700561</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -3460,124 +3491,127 @@
       <c r="H16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>8.32</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>1.6219999999999999</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>12.860000000000003</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>67.8</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>460</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>1.1120000000000001</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>5.0540000000000003</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>5.1179999999999994</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <v>3.008</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <v>1.8640000000000001</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <v>22.919999999999995</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5">
         <v>2.6686000000000001</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Z16" s="5">
         <v>4654.3429999999998</v>
       </c>
-      <c r="Z16" s="30">
+      <c r="AA16" s="5">
         <v>22.9</v>
       </c>
-      <c r="AA16" s="25">
+      <c r="AB16" s="24">
         <f t="shared" si="1"/>
         <v>4221.7628858823527</v>
       </c>
-      <c r="AB16" s="26">
+      <c r="AC16" s="25">
         <f t="shared" si="5"/>
         <v>2.8418456013337168</v>
       </c>
-      <c r="AC16" s="26">
+      <c r="AD16" s="25">
         <f t="shared" si="6"/>
         <v>859.6582944034493</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AE16" s="22">
         <f t="shared" si="11"/>
         <v>16.93826</v>
       </c>
-      <c r="AE16" s="23">
+      <c r="AF16" s="22">
         <v>13</v>
       </c>
-      <c r="AF16" s="27">
+      <c r="AG16" s="26">
         <f t="shared" si="12"/>
         <v>63.842712707792813</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AH16" s="5">
         <v>0.18</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AI16" s="7">
         <v>18</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AJ16" s="5">
         <v>9</v>
       </c>
-      <c r="AJ16" s="5">
-        <v>20</v>
-      </c>
       <c r="AK16" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL16" s="5">
         <f t="shared" si="13"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AM16" s="5">
         <f t="shared" si="14"/>
         <v>32.4</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AN16" s="5">
         <v>1</v>
       </c>
-      <c r="AN16" s="5">
-        <v>20</v>
-      </c>
       <c r="AO16" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP16" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AP16" s="5">
+      <c r="AQ16" s="5">
         <f t="shared" si="15"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="AR16" s="5">
         <f t="shared" si="16"/>
         <v>38</v>
       </c>
-      <c r="AR16" s="27">
+      <c r="AS16" s="26">
         <f t="shared" si="4"/>
         <v>7.7377664426796988</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
@@ -3603,116 +3637,119 @@
       <c r="H17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>8.1</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>2.02</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>18.2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>94</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>409</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>1.31</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>5.73</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>5.1100000000000003</v>
       </c>
-      <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="5">
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5">
         <v>5070</v>
       </c>
-      <c r="Z17" s="30">
+      <c r="AA17" s="5">
         <v>22.9</v>
       </c>
-      <c r="AA17" s="25">
+      <c r="AB17" s="24">
         <f t="shared" si="1"/>
         <v>4598.7882352941178</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AC17" s="25">
         <f t="shared" si="5"/>
         <v>3.0843323490029002</v>
       </c>
-      <c r="AC17" s="26">
+      <c r="AD17" s="25">
         <f t="shared" si="6"/>
         <v>933.0105355733773</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AE17" s="22">
         <f t="shared" si="11"/>
         <v>15.3362</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AF17" s="22">
         <v>13</v>
       </c>
-      <c r="AF17" s="27">
+      <c r="AG17" s="26">
         <f t="shared" si="12"/>
         <v>64.076711654797549</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AH17" s="5">
         <v>0.18</v>
       </c>
-      <c r="AH17" s="7">
+      <c r="AI17" s="7">
         <v>18</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AJ17" s="5">
         <v>12</v>
       </c>
-      <c r="AJ17" s="5">
-        <v>20</v>
-      </c>
       <c r="AK17" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL17" s="5">
         <f t="shared" si="13"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AM17" s="5">
         <f t="shared" si="14"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AN17" s="5">
         <v>0</v>
       </c>
-      <c r="AN17" s="5">
-        <v>20</v>
-      </c>
       <c r="AO17" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP17" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AP17" s="5">
+      <c r="AQ17" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="AR17" s="5">
         <f t="shared" si="16"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="AR17" s="27">
+      <c r="AS17" s="26">
         <f t="shared" si="4"/>
         <v>8.7644947048082766</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -3738,124 +3775,127 @@
       <c r="H18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>6.8</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>4.8120000000000003</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>22.140000000000004</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>522.79999999999995</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>0.83399999999999996</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>4.4260000000000002</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>3.3920000000000003</v>
       </c>
-      <c r="T18" s="5">
+      <c r="U18" s="5">
         <v>2.4820000000000002</v>
       </c>
-      <c r="U18" s="5">
+      <c r="V18" s="5">
         <v>2.0859999999999999</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <v>23.006666664000001</v>
       </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5">
         <v>2.3647999999999998</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Z18" s="5">
         <v>4632.8239999999996</v>
       </c>
-      <c r="Z18" s="30">
+      <c r="AA18" s="5">
         <v>23</v>
       </c>
-      <c r="AA18" s="25">
+      <c r="AB18" s="24">
         <f t="shared" si="1"/>
         <v>4196.7935058823523</v>
       </c>
-      <c r="AB18" s="26">
+      <c r="AC18" s="25">
         <f t="shared" si="5"/>
         <v>2.8215903949045922</v>
       </c>
-      <c r="AC18" s="26">
+      <c r="AD18" s="25">
         <f t="shared" si="6"/>
         <v>853.53109445863913</v>
       </c>
-      <c r="AD18" s="23">
+      <c r="AE18" s="22">
         <f t="shared" si="11"/>
         <v>17.182739999999999</v>
       </c>
-      <c r="AE18" s="23">
+      <c r="AF18" s="22">
         <v>13</v>
       </c>
-      <c r="AF18" s="27">
+      <c r="AG18" s="26">
         <f t="shared" si="12"/>
         <v>63.920712356794397</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AH18" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH18" s="7">
+      <c r="AI18" s="7">
         <v>11</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AJ18" s="5">
         <v>11</v>
       </c>
-      <c r="AJ18" s="5">
-        <v>20</v>
-      </c>
       <c r="AK18" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL18" s="5">
         <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AM18" s="5">
         <f t="shared" si="14"/>
         <v>61.600000000000009</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AN18" s="5">
         <v>3</v>
       </c>
-      <c r="AN18" s="5">
-        <v>20</v>
-      </c>
       <c r="AO18" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP18" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP18" s="5">
+      <c r="AQ18" s="5">
         <f t="shared" si="15"/>
         <v>27.6</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="AR18" s="5">
         <f t="shared" si="16"/>
         <v>89.200000000000017</v>
       </c>
-      <c r="AR18" s="27">
+      <c r="AS18" s="26">
         <f t="shared" si="4"/>
         <v>18.141224608501119</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -3881,116 +3921,119 @@
       <c r="H19" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>7.4</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>2.82</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>24.5</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>106</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>216</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>0.8</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>5.68</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>2.83</v>
       </c>
-      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="5">
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5">
         <v>4470</v>
       </c>
-      <c r="Z19" s="30">
+      <c r="AA19" s="5">
         <v>20.100000000000001</v>
       </c>
-      <c r="AA19" s="25">
+      <c r="AB19" s="24">
         <f t="shared" si="1"/>
         <v>4201.8</v>
       </c>
-      <c r="AB19" s="26">
+      <c r="AC19" s="25">
         <f t="shared" si="5"/>
         <v>2.8944176786830593</v>
       </c>
-      <c r="AC19" s="26">
+      <c r="AD19" s="25">
         <f t="shared" si="6"/>
         <v>875.5613478016254</v>
       </c>
-      <c r="AD19" s="23">
+      <c r="AE19" s="22">
         <f t="shared" si="11"/>
         <v>10.7895</v>
       </c>
-      <c r="AE19" s="23">
+      <c r="AF19" s="22">
         <v>13</v>
       </c>
-      <c r="AF19" s="27">
+      <c r="AG19" s="26">
         <f t="shared" si="12"/>
         <v>51.778577496401262</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AH19" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AI19" s="7">
         <v>9</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AJ19" s="5">
         <v>11.5</v>
       </c>
-      <c r="AJ19" s="5">
-        <v>20</v>
-      </c>
       <c r="AK19" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL19" s="5">
         <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AM19" s="5">
         <f t="shared" si="14"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AN19" s="5">
         <v>3</v>
       </c>
-      <c r="AN19" s="5">
-        <v>20</v>
-      </c>
       <c r="AO19" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP19" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AQ19" s="5">
         <f t="shared" si="15"/>
         <v>27.6</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AR19" s="5">
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
-      <c r="AR19" s="27">
+      <c r="AS19" s="26">
         <f t="shared" si="4"/>
         <v>19.170746822254639</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4016,124 +4059,127 @@
       <c r="H20" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>7.3</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>2.1239999999999997</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>20.9</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>81.8</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>465</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <v>0.748</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <v>4.9980000000000002</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <v>2.4040000000000004</v>
       </c>
-      <c r="T20" s="5">
+      <c r="U20" s="5">
         <v>2.3959999999999999</v>
       </c>
-      <c r="U20" s="5">
+      <c r="V20" s="5">
         <v>2.1919999999999997</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="5">
         <v>24.12</v>
       </c>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5">
         <v>2.3730000000000002</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Z20" s="5">
         <v>4732.8649999999998</v>
       </c>
-      <c r="Z20" s="30">
+      <c r="AA20" s="5">
         <v>24.1</v>
       </c>
-      <c r="AA20" s="25">
+      <c r="AB20" s="24">
         <f t="shared" si="1"/>
         <v>4226.1700411764705</v>
       </c>
-      <c r="AB20" s="26">
+      <c r="AC20" s="25">
         <f t="shared" si="5"/>
         <v>2.7334910823950649</v>
       </c>
-      <c r="AC20" s="26">
+      <c r="AD20" s="25">
         <f t="shared" si="6"/>
         <v>826.88105242450706</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="AE20" s="22">
         <f t="shared" si="11"/>
         <v>16.161900000000003</v>
       </c>
-      <c r="AE20" s="23">
+      <c r="AF20" s="22">
         <v>13</v>
       </c>
-      <c r="AF20" s="27">
+      <c r="AG20" s="26">
         <f t="shared" si="12"/>
         <v>66.442701007845471</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AH20" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AI20" s="7">
         <v>12</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AJ20" s="5">
         <v>12</v>
       </c>
-      <c r="AJ20" s="5">
-        <v>20</v>
-      </c>
       <c r="AK20" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL20" s="5">
         <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AM20" s="5">
         <f t="shared" si="14"/>
         <v>67.2</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AN20" s="5">
         <v>3</v>
       </c>
-      <c r="AN20" s="5">
-        <v>20</v>
-      </c>
       <c r="AO20" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP20" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AQ20" s="5">
         <f t="shared" si="15"/>
         <v>27.6</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AR20" s="5">
         <f t="shared" si="16"/>
         <v>94.800000000000011</v>
       </c>
-      <c r="AR20" s="27">
+      <c r="AS20" s="26">
         <f t="shared" si="4"/>
         <v>18.548312776364707</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4159,116 +4205,119 @@
       <c r="H21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>6.9</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>2.68</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="5">
         <v>21.3</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>67</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>1671</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <v>0.59</v>
       </c>
-      <c r="R21" s="5">
+      <c r="S21" s="5">
         <v>4.99</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T21" s="5">
         <v>2.36</v>
       </c>
-      <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="5">
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5">
         <v>5540</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="AA21" s="5">
         <v>21.1</v>
       </c>
-      <c r="AA21" s="25">
+      <c r="AB21" s="24">
         <f t="shared" si="1"/>
         <v>5142.4235294117652</v>
       </c>
-      <c r="AB21" s="26">
+      <c r="AC21" s="25">
         <f t="shared" si="5"/>
         <v>3.4136192175761875</v>
       </c>
-      <c r="AC21" s="26">
+      <c r="AD21" s="25">
         <f t="shared" si="6"/>
         <v>1032.6198133167968</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="AE21" s="22">
         <f t="shared" si="11"/>
         <v>40.238300000000002</v>
       </c>
-      <c r="AE21" s="23">
+      <c r="AF21" s="22">
         <v>13</v>
       </c>
-      <c r="AF21" s="27">
+      <c r="AG21" s="26">
         <f t="shared" si="12"/>
         <v>64.739708671310979</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AH21" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH21" s="7">
+      <c r="AI21" s="7">
         <v>12</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AJ21" s="5">
         <v>11</v>
       </c>
-      <c r="AJ21" s="5">
-        <v>20</v>
-      </c>
       <c r="AK21" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL21" s="5">
         <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AM21" s="5">
         <f t="shared" si="14"/>
         <v>61.600000000000009</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AN21" s="5">
         <v>3</v>
       </c>
-      <c r="AN21" s="5">
-        <v>20</v>
-      </c>
       <c r="AO21" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP21" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP21" s="5">
+      <c r="AQ21" s="5">
         <f t="shared" si="15"/>
         <v>27.6</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="AR21" s="5">
         <f t="shared" si="16"/>
         <v>89.200000000000017</v>
       </c>
-      <c r="AR21" s="27">
+      <c r="AS21" s="26">
         <f t="shared" si="4"/>
         <v>17.911727188755023</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -4294,124 +4343,127 @@
       <c r="H22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>7.1599999999999993</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>1.58</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>14.419999999999998</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>60</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>1158</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <v>0.52</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>4.1479999999999997</v>
       </c>
-      <c r="S22" s="5">
+      <c r="T22" s="5">
         <v>2.82</v>
       </c>
-      <c r="T22" s="5">
+      <c r="U22" s="5">
         <v>2.6720000000000002</v>
       </c>
-      <c r="U22" s="5">
+      <c r="V22" s="5">
         <v>2.2220000000000004</v>
       </c>
-      <c r="V22" s="5">
+      <c r="W22" s="5">
         <v>23.680000002</v>
       </c>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5">
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5">
         <v>1.8473999999999999</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Z22" s="5">
         <v>4580.2370000000001</v>
       </c>
-      <c r="Z22" s="30">
+      <c r="AA22" s="5">
         <v>21.1</v>
       </c>
-      <c r="AA22" s="25">
+      <c r="AB22" s="24">
         <f t="shared" si="1"/>
         <v>4251.53763882353</v>
       </c>
-      <c r="AB22" s="26">
+      <c r="AC22" s="25">
         <f t="shared" si="5"/>
         <v>2.7132689433248696</v>
       </c>
-      <c r="AC22" s="26">
+      <c r="AD22" s="25">
         <f t="shared" si="6"/>
         <v>820.7638553557731</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AE22" s="22">
         <f t="shared" si="11"/>
         <v>30.72822</v>
       </c>
-      <c r="AE22" s="23">
+      <c r="AF22" s="22">
         <v>13</v>
       </c>
-      <c r="AF22" s="27">
+      <c r="AG22" s="26">
         <f t="shared" si="12"/>
         <v>67.339696971363622</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AH22" s="5">
         <v>0.22</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AI22" s="7">
         <v>15</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AJ22" s="5">
         <v>10</v>
       </c>
-      <c r="AJ22" s="5">
-        <v>20</v>
-      </c>
       <c r="AK22" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL22" s="5">
         <f t="shared" si="13"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AM22" s="5">
         <f t="shared" si="14"/>
         <v>44</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AN22" s="5">
         <v>2</v>
       </c>
-      <c r="AN22" s="5">
-        <v>20</v>
-      </c>
       <c r="AO22" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP22" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP22" s="5">
-        <f t="shared" ref="AP22:AP23" si="17">AM22*AN22*AO22</f>
+      <c r="AQ22" s="5">
+        <f t="shared" ref="AQ22:AQ23" si="17">AN22*AO22*AP22</f>
         <v>18.400000000000002</v>
       </c>
-      <c r="AQ22" s="5">
-        <f t="shared" ref="AQ22:AQ37" si="18">AL22+AP22</f>
+      <c r="AR22" s="5">
+        <f t="shared" ref="AR22:AR37" si="18">AM22+AQ22</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="AR22" s="27">
+      <c r="AS22" s="26">
         <f t="shared" si="4"/>
         <v>12.046386254826254</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
@@ -4437,116 +4489,119 @@
       <c r="H23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="L23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>7</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>1.59</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>15.1</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>47</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>758</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <v>0.54</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <v>4.07</v>
       </c>
-      <c r="S23" s="5">
+      <c r="T23" s="5">
         <v>2.92</v>
       </c>
-      <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5">
         <v>4340</v>
       </c>
-      <c r="Z23" s="31">
+      <c r="AA23" s="5">
         <v>21.5</v>
       </c>
-      <c r="AA23" s="25">
+      <c r="AB23" s="24">
         <f t="shared" si="1"/>
         <v>4008.1176470588234</v>
       </c>
-      <c r="AB23" s="26">
+      <c r="AC23" s="25">
         <f t="shared" si="5"/>
         <v>2.6357738845528265</v>
       </c>
-      <c r="AC23" s="26">
+      <c r="AD23" s="25">
         <f t="shared" si="6"/>
         <v>797.32160007722996</v>
       </c>
-      <c r="AD23" s="23">
+      <c r="AE23" s="22">
         <f t="shared" si="11"/>
         <v>22.6541</v>
       </c>
-      <c r="AE23" s="23">
+      <c r="AF23" s="22">
         <v>13</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AG23" s="26">
         <f t="shared" si="12"/>
         <v>65.350705921823348</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AH23" s="5">
         <v>0.22</v>
       </c>
-      <c r="AH23" s="7">
+      <c r="AI23" s="7">
         <v>15</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AJ23" s="5">
         <v>10</v>
       </c>
-      <c r="AJ23" s="5">
-        <v>20</v>
-      </c>
       <c r="AK23" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL23" s="5">
         <f t="shared" si="13"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AM23" s="5">
         <f t="shared" si="14"/>
         <v>44</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AN23" s="5">
         <v>2</v>
       </c>
-      <c r="AN23" s="5">
-        <v>20</v>
-      </c>
       <c r="AO23" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP23" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AQ23" s="5">
         <f t="shared" si="17"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AR23" s="5">
         <f t="shared" si="18"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="AR23" s="27">
+      <c r="AS23" s="26">
         <f t="shared" si="4"/>
         <v>12.413025820568929</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A24" s="15" t="s">
         <v>35</v>
       </c>
@@ -4572,16 +4627,18 @@
       <c r="H24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -4594,36 +4651,36 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="5">
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5">
         <v>5030</v>
       </c>
-      <c r="Z24" s="30">
+      <c r="AA24" s="5">
         <v>22.3</v>
       </c>
-      <c r="AA24" s="25">
+      <c r="AB24" s="24">
         <f t="shared" si="1"/>
         <v>4598.0117647058823</v>
       </c>
-      <c r="AB24" s="26">
+      <c r="AC24" s="25">
         <f t="shared" si="5"/>
         <v>3.0738336282638437</v>
       </c>
-      <c r="AC24" s="26">
+      <c r="AD24" s="25">
         <f t="shared" si="6"/>
         <v>929.83467254981269</v>
       </c>
-      <c r="AD24" s="23">
+      <c r="AE24" s="22">
         <f t="shared" si="11"/>
         <v>9.14</v>
       </c>
-      <c r="AE24" s="23">
+      <c r="AF24" s="22">
         <v>13</v>
       </c>
-      <c r="AF24" s="27">
+      <c r="AG24" s="26">
         <f t="shared" si="12"/>
         <v>45.197096613065241</v>
       </c>
-      <c r="AG24" s="32"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -4635,8 +4692,9 @@
       <c r="AP24" s="5"/>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4662,16 +4720,18 @@
       <c r="H25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -4684,36 +4744,36 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="5">
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5">
         <v>3420</v>
       </c>
-      <c r="Z25" s="30">
+      <c r="AA25" s="5">
         <v>22.3</v>
       </c>
-      <c r="AA25" s="25">
+      <c r="AB25" s="24">
         <f t="shared" si="1"/>
         <v>3126.2823529411767</v>
       </c>
-      <c r="AB25" s="26">
+      <c r="AC25" s="25">
         <f t="shared" si="5"/>
         <v>2.8525708535337957</v>
       </c>
-      <c r="AC25" s="26">
+      <c r="AD25" s="25">
         <f t="shared" si="6"/>
         <v>862.90268319397308</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AE25" s="22">
         <f t="shared" si="11"/>
         <v>9.14</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AF25" s="22">
         <v>13</v>
       </c>
-      <c r="AF25" s="27">
+      <c r="AG25" s="26">
         <f t="shared" si="12"/>
         <v>33.114070986680566</v>
       </c>
-      <c r="AG25" s="32"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
@@ -4723,13 +4783,14 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="5">
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
@@ -4739,7 +4800,7 @@
       <c r="C26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="30" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -4755,25 +4816,27 @@
       <c r="H26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5">
         <v>41.52</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5">
         <v>118.4</v>
       </c>
-      <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -4781,78 +4844,79 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="25">
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5">
         <v>1298</v>
       </c>
-      <c r="Z26" s="24">
+      <c r="AA26" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA26" s="25">
-        <f t="shared" ref="AA26:AA44" si="19">Y26*(100-Z26)/(100-15)</f>
+      <c r="AB26" s="24">
+        <f t="shared" ref="AB26:AB44" si="19">Z26*(100-AA26)/(100-15)</f>
         <v>1290.3647058823528</v>
       </c>
-      <c r="AB26" s="26">
+      <c r="AC26" s="25">
         <f t="shared" si="5"/>
         <v>1.9371878495485386</v>
       </c>
-      <c r="AC26" s="26">
+      <c r="AD26" s="25">
         <f t="shared" si="6"/>
         <v>585.99932448843299</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AE26" s="22">
         <f t="shared" si="11"/>
         <v>6.9823200000000005</v>
       </c>
-      <c r="AE26" s="23">
+      <c r="AF26" s="22">
         <v>13</v>
       </c>
-      <c r="AF26" s="27">
+      <c r="AG26" s="26">
         <f t="shared" si="12"/>
         <v>15.374999452502463</v>
       </c>
-      <c r="AG26" s="32">
+      <c r="AH26" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH26" s="7">
-        <v>4</v>
       </c>
       <c r="AI26" s="7">
         <v>4</v>
       </c>
-      <c r="AJ26" s="5">
-        <v>20</v>
+      <c r="AJ26" s="7">
+        <v>4</v>
       </c>
       <c r="AK26" s="5">
-        <f t="shared" ref="AK26:AK37" si="20">AJ26*AG26</f>
+        <v>20</v>
+      </c>
+      <c r="AL26" s="5">
+        <f t="shared" ref="AL26:AL37" si="20">AK26*AH26</f>
         <v>4</v>
       </c>
-      <c r="AL26" s="5">
-        <f t="shared" ref="AL26:AL37" si="21">AK26*AI26</f>
+      <c r="AM26" s="5">
+        <f t="shared" ref="AM26:AM37" si="21">AL26*AJ26</f>
         <v>16</v>
       </c>
-      <c r="AM26" s="34">
+      <c r="AN26" s="5">
         <v>0.85</v>
       </c>
-      <c r="AN26" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO26" s="32">
+      <c r="AO26" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP26" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP26" s="5">
-        <f t="shared" ref="AP26:AP37" si="22">AM26*AN26*AO26</f>
+      <c r="AQ26" s="5">
+        <f t="shared" ref="AQ26:AQ37" si="22">AN26*AO26*AP26</f>
         <v>7.82</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AR26" s="5">
         <f t="shared" si="18"/>
         <v>23.82</v>
       </c>
-      <c r="AR26" s="27">
-        <f>AQ26*302.5/G26</f>
+      <c r="AS26" s="26">
+        <f t="shared" ref="AS26:AS37" si="23">AR26*302.5/G26</f>
         <v>10.817487370572207</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A27" s="7" t="s">
         <v>105</v>
       </c>
@@ -4862,7 +4926,7 @@
       <c r="C27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="30" t="s">
         <v>110</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -4878,25 +4942,27 @@
       <c r="H27" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
         <v>37.299999999999997</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5">
         <v>175.1</v>
       </c>
-      <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -4904,78 +4970,79 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="35">
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5">
         <v>885</v>
       </c>
-      <c r="Z27" s="24">
+      <c r="AA27" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA27" s="25">
+      <c r="AB27" s="24">
         <f t="shared" si="19"/>
         <v>879.79411764705878</v>
       </c>
-      <c r="AB27" s="26">
+      <c r="AC27" s="25">
         <f t="shared" si="5"/>
         <v>2.0324412257984954</v>
       </c>
-      <c r="AC27" s="26">
+      <c r="AD27" s="25">
         <f t="shared" si="6"/>
         <v>614.81347080404498</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AE27" s="22">
         <f t="shared" si="11"/>
         <v>8.5762999999999998</v>
       </c>
-      <c r="AE27" s="23">
+      <c r="AF27" s="22">
         <v>13</v>
       </c>
-      <c r="AF27" s="27">
+      <c r="AG27" s="26">
         <f t="shared" si="12"/>
         <v>12.27263007316467</v>
       </c>
-      <c r="AG27" s="32">
+      <c r="AH27" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH27" s="7">
-        <v>3</v>
       </c>
       <c r="AI27" s="7">
         <v>3</v>
       </c>
-      <c r="AJ27" s="5">
-        <v>20</v>
+      <c r="AJ27" s="7">
+        <v>3</v>
       </c>
       <c r="AK27" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL27" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AM27" s="5">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM27" s="34">
+      <c r="AN27" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AN27" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO27" s="32">
+      <c r="AO27" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP27" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP27" s="5">
+      <c r="AQ27" s="5">
         <f t="shared" si="22"/>
         <v>5.0600000000000005</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AR27" s="5">
         <f t="shared" si="18"/>
         <v>17.060000000000002</v>
       </c>
-      <c r="AR27" s="27">
-        <f>AQ27*302.5/G27</f>
+      <c r="AS27" s="26">
+        <f t="shared" si="23"/>
         <v>11.921786701607269</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A28" s="7" t="s">
         <v>105</v>
       </c>
@@ -4985,7 +5052,7 @@
       <c r="C28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="30" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -5001,25 +5068,27 @@
       <c r="H28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5">
         <v>41.12</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5">
         <v>170.8</v>
       </c>
-      <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -5027,78 +5096,79 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="36">
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5">
         <v>2592</v>
       </c>
-      <c r="Z28" s="24">
+      <c r="AA28" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA28" s="25">
+      <c r="AB28" s="24">
         <f t="shared" si="19"/>
         <v>2576.7529411764708</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AC28" s="25">
         <f t="shared" si="5"/>
         <v>1.8417794319872816</v>
       </c>
-      <c r="AC28" s="26">
+      <c r="AD28" s="25">
         <f t="shared" si="6"/>
         <v>557.13827817615265</v>
       </c>
-      <c r="AD28" s="23">
+      <c r="AE28" s="22">
         <f t="shared" si="11"/>
         <v>8.0739200000000011</v>
       </c>
-      <c r="AE28" s="23">
+      <c r="AF28" s="22">
         <v>13</v>
       </c>
-      <c r="AF28" s="27">
+      <c r="AG28" s="26">
         <f t="shared" si="12"/>
         <v>37.341711962296174</v>
       </c>
-      <c r="AG28" s="32">
+      <c r="AH28" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH28" s="7">
-        <v>9</v>
       </c>
       <c r="AI28" s="7">
         <v>9</v>
       </c>
-      <c r="AJ28" s="5">
-        <v>20</v>
+      <c r="AJ28" s="7">
+        <v>9</v>
       </c>
       <c r="AK28" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL28" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AM28" s="5">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="AM28" s="34">
+      <c r="AN28" s="5">
         <v>1.75</v>
       </c>
-      <c r="AN28" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO28" s="32">
+      <c r="AO28" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP28" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP28" s="5">
+      <c r="AQ28" s="5">
         <f t="shared" si="22"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="AQ28" s="5">
+      <c r="AR28" s="5">
         <f t="shared" si="18"/>
         <v>52.1</v>
       </c>
-      <c r="AR28" s="27">
-        <f>AQ28*302.5/G28</f>
+      <c r="AS28" s="26">
+        <f t="shared" si="23"/>
         <v>11.264915556756756</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A29" s="7" t="s">
         <v>105</v>
       </c>
@@ -5108,7 +5178,7 @@
       <c r="C29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="31" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -5124,25 +5194,27 @@
       <c r="H29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5">
         <v>33.700000000000003</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5">
         <v>194.8</v>
       </c>
-      <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -5150,78 +5222,79 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="36">
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5">
         <v>1900</v>
       </c>
-      <c r="Z29" s="24">
+      <c r="AA29" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA29" s="25">
+      <c r="AB29" s="24">
         <f t="shared" si="19"/>
         <v>1888.8235294117646</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AC29" s="25">
         <f t="shared" si="5"/>
         <v>1.7922137840210712</v>
       </c>
-      <c r="AC29" s="26">
+      <c r="AD29" s="25">
         <f t="shared" si="6"/>
         <v>542.14466966637406</v>
       </c>
-      <c r="AD29" s="23">
+      <c r="AE29" s="22">
         <f t="shared" si="11"/>
         <v>9.3627000000000002</v>
       </c>
-      <c r="AE29" s="23">
+      <c r="AF29" s="22">
         <v>13</v>
       </c>
-      <c r="AF29" s="27">
+      <c r="AG29" s="26">
         <f t="shared" si="12"/>
         <v>32.619500012249944</v>
       </c>
-      <c r="AG29" s="32">
+      <c r="AH29" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH29" s="7">
-        <v>8</v>
       </c>
       <c r="AI29" s="7">
         <v>8</v>
       </c>
-      <c r="AJ29" s="5">
-        <v>20</v>
+      <c r="AJ29" s="7">
+        <v>8</v>
       </c>
       <c r="AK29" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL29" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AM29" s="5">
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="AM29" s="34">
+      <c r="AN29" s="5">
         <v>1.3</v>
       </c>
-      <c r="AN29" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO29" s="32">
+      <c r="AO29" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP29" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP29" s="5">
+      <c r="AQ29" s="5">
         <f t="shared" si="22"/>
         <v>11.96</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="AR29" s="5">
         <f t="shared" si="18"/>
         <v>43.96</v>
       </c>
-      <c r="AR29" s="27">
-        <f>AQ29*302.5/G29</f>
+      <c r="AS29" s="26">
+        <f t="shared" si="23"/>
         <v>12.617737606199771</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -5231,7 +5304,7 @@
       <c r="C30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="31" t="s">
         <v>116</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -5247,25 +5320,27 @@
       <c r="H30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5">
         <v>36.9</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5">
         <v>82.6</v>
       </c>
-      <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -5273,78 +5348,79 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="36">
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5">
         <v>1350</v>
       </c>
-      <c r="Z30" s="24">
+      <c r="AA30" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA30" s="25">
+      <c r="AB30" s="24">
         <f t="shared" si="19"/>
         <v>1342.0588235294117</v>
       </c>
-      <c r="AB30" s="26">
+      <c r="AC30" s="25">
         <f t="shared" si="5"/>
         <v>1.760546848739496</v>
       </c>
-      <c r="AC30" s="26">
+      <c r="AD30" s="25">
         <f t="shared" si="6"/>
         <v>532.56542174369747</v>
       </c>
-      <c r="AD30" s="23">
+      <c r="AE30" s="22">
         <f t="shared" si="11"/>
         <v>6.7699000000000007</v>
       </c>
-      <c r="AE30" s="23">
+      <c r="AF30" s="22">
         <v>13</v>
       </c>
-      <c r="AF30" s="27">
+      <c r="AG30" s="26">
         <f t="shared" si="12"/>
         <v>17.060071229679465</v>
       </c>
-      <c r="AG30" s="32">
+      <c r="AH30" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH30" s="7">
-        <v>4</v>
       </c>
       <c r="AI30" s="7">
         <v>4</v>
       </c>
-      <c r="AJ30" s="5">
-        <v>20</v>
+      <c r="AJ30" s="7">
+        <v>4</v>
       </c>
       <c r="AK30" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL30" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AM30" s="5">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="AM30" s="34">
+      <c r="AN30" s="5">
         <v>0.95</v>
       </c>
-      <c r="AN30" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO30" s="32">
+      <c r="AO30" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP30" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP30" s="5">
+      <c r="AQ30" s="5">
         <f t="shared" si="22"/>
         <v>8.74</v>
       </c>
-      <c r="AQ30" s="5">
+      <c r="AR30" s="5">
         <f t="shared" si="18"/>
         <v>24.740000000000002</v>
       </c>
-      <c r="AR30" s="27">
-        <f>AQ30*302.5/G30</f>
+      <c r="AS30" s="26">
+        <f t="shared" si="23"/>
         <v>9.8175044960317468</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A31" s="7" t="s">
         <v>105</v>
       </c>
@@ -5354,7 +5430,7 @@
       <c r="C31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="31" t="s">
         <v>118</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -5370,25 +5446,27 @@
       <c r="H31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
         <v>31.78</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
         <v>192.5</v>
       </c>
-      <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -5396,78 +5474,79 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="36">
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5">
         <v>1614</v>
       </c>
-      <c r="Z31" s="24">
+      <c r="AA31" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA31" s="25">
+      <c r="AB31" s="24">
         <f t="shared" si="19"/>
         <v>1604.5058823529412</v>
       </c>
-      <c r="AB31" s="26">
+      <c r="AC31" s="25">
         <f t="shared" si="5"/>
         <v>1.9688847609065898</v>
       </c>
-      <c r="AC31" s="26">
+      <c r="AD31" s="25">
         <f t="shared" si="6"/>
         <v>595.58764017424346</v>
       </c>
-      <c r="AD31" s="23">
+      <c r="AE31" s="22">
         <f t="shared" si="11"/>
         <v>9.5259800000000006</v>
       </c>
-      <c r="AE31" s="23">
+      <c r="AF31" s="22">
         <v>13</v>
       </c>
-      <c r="AF31" s="27">
+      <c r="AG31" s="26">
         <f t="shared" si="12"/>
         <v>25.662874637064135</v>
       </c>
-      <c r="AG31" s="32">
+      <c r="AH31" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH31" s="7">
-        <v>6</v>
       </c>
       <c r="AI31" s="7">
         <v>6</v>
       </c>
-      <c r="AJ31" s="5">
-        <v>20</v>
+      <c r="AJ31" s="7">
+        <v>6</v>
       </c>
       <c r="AK31" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL31" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AM31" s="5">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
-      <c r="AM31" s="34">
+      <c r="AN31" s="5">
         <v>1</v>
       </c>
-      <c r="AN31" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO31" s="32">
+      <c r="AO31" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP31" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP31" s="5">
+      <c r="AQ31" s="5">
         <f t="shared" si="22"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AR31" s="5">
         <f t="shared" si="18"/>
         <v>33.200000000000003</v>
       </c>
-      <c r="AR31" s="27">
-        <f>AQ31*302.5/G31</f>
+      <c r="AS31" s="26">
+        <f t="shared" si="23"/>
         <v>12.323737713437268</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
@@ -5477,7 +5556,7 @@
       <c r="C32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="32" t="s">
         <v>120</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -5493,25 +5572,27 @@
       <c r="H32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5">
         <v>27.64</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5">
         <v>112.8</v>
       </c>
-      <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -5519,78 +5600,79 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="36">
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5">
         <v>2404</v>
       </c>
-      <c r="Z32" s="24">
+      <c r="AA32" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA32" s="25">
+      <c r="AB32" s="24">
         <f t="shared" si="19"/>
         <v>2389.8588235294119</v>
       </c>
-      <c r="AB32" s="26">
+      <c r="AC32" s="25">
         <f t="shared" si="5"/>
         <v>1.8368740522723854</v>
       </c>
-      <c r="AC32" s="26">
+      <c r="AD32" s="25">
         <f t="shared" si="6"/>
         <v>555.6544008123966</v>
       </c>
-      <c r="AD32" s="23">
+      <c r="AE32" s="22">
         <f t="shared" si="11"/>
         <v>8.3832400000000007</v>
       </c>
-      <c r="AE32" s="23">
+      <c r="AF32" s="22">
         <v>13</v>
       </c>
-      <c r="AF32" s="27">
+      <c r="AG32" s="26">
         <f t="shared" si="12"/>
         <v>36.056152987311563</v>
       </c>
-      <c r="AG32" s="32">
+      <c r="AH32" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH32" s="7">
-        <v>9</v>
       </c>
       <c r="AI32" s="7">
         <v>9</v>
       </c>
-      <c r="AJ32" s="5">
-        <v>20</v>
+      <c r="AJ32" s="7">
+        <v>9</v>
       </c>
       <c r="AK32" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL32" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AM32" s="5">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="AM32" s="34">
+      <c r="AN32" s="5">
         <v>1.65</v>
       </c>
-      <c r="AN32" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO32" s="32">
+      <c r="AO32" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP32" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="AQ32" s="5">
         <f t="shared" si="22"/>
         <v>15.180000000000001</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AR32" s="5">
         <f t="shared" si="18"/>
         <v>51.18</v>
       </c>
-      <c r="AR32" s="27">
-        <f>AQ32*302.5/G32</f>
+      <c r="AS32" s="26">
+        <f t="shared" si="23"/>
         <v>11.89961179028133</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A33" s="7" t="s">
         <v>105</v>
       </c>
@@ -5600,7 +5682,7 @@
       <c r="C33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="30" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -5616,25 +5698,27 @@
       <c r="H33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5">
         <v>38.21</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5">
         <v>266.2</v>
       </c>
-      <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -5642,78 +5726,79 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="36">
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5">
         <v>2109</v>
       </c>
-      <c r="Z33" s="24">
+      <c r="AA33" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA33" s="25">
+      <c r="AB33" s="24">
         <f t="shared" si="19"/>
         <v>2096.5941176470587</v>
       </c>
-      <c r="AB33" s="26">
+      <c r="AC33" s="25">
         <f t="shared" si="5"/>
         <v>1.6855352223048754</v>
       </c>
-      <c r="AC33" s="26">
+      <c r="AD33" s="25">
         <f t="shared" si="6"/>
         <v>509.87440474722484</v>
       </c>
-      <c r="AD33" s="23">
+      <c r="AE33" s="22">
         <f t="shared" si="11"/>
         <v>10.299110000000001</v>
       </c>
-      <c r="AE33" s="23">
+      <c r="AF33" s="22">
         <v>13</v>
       </c>
-      <c r="AF33" s="27">
+      <c r="AG33" s="26">
         <f t="shared" si="12"/>
         <v>42.349749746126143</v>
       </c>
-      <c r="AG33" s="32">
+      <c r="AH33" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH33" s="7">
-        <v>10</v>
       </c>
       <c r="AI33" s="7">
         <v>10</v>
       </c>
-      <c r="AJ33" s="5">
-        <v>20</v>
+      <c r="AJ33" s="7">
+        <v>10</v>
       </c>
       <c r="AK33" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL33" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AM33" s="5">
         <f t="shared" si="21"/>
         <v>40</v>
       </c>
-      <c r="AM33" s="34">
+      <c r="AN33" s="5">
         <v>1.55</v>
       </c>
-      <c r="AN33" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO33" s="32">
+      <c r="AO33" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP33" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AQ33" s="5">
         <f t="shared" si="22"/>
         <v>14.26</v>
       </c>
-      <c r="AQ33" s="5">
+      <c r="AR33" s="5">
         <f t="shared" si="18"/>
         <v>54.26</v>
       </c>
-      <c r="AR33" s="27">
-        <f>AQ33*302.5/G33</f>
+      <c r="AS33" s="26">
+        <f t="shared" si="23"/>
         <v>13.195584671692606</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A34" s="7" t="s">
         <v>105</v>
       </c>
@@ -5723,7 +5808,7 @@
       <c r="C34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="32" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -5739,25 +5824,27 @@
       <c r="H34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5">
         <v>37.86</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
         <v>157.9</v>
       </c>
-      <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -5765,78 +5852,79 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="36">
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5">
         <v>1685</v>
       </c>
-      <c r="Z34" s="24">
+      <c r="AA34" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA34" s="25">
+      <c r="AB34" s="24">
         <f t="shared" si="19"/>
         <v>1675.0882352941176</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AC34" s="25">
         <f t="shared" si="5"/>
         <v>1.828163317344105</v>
       </c>
-      <c r="AC34" s="26">
+      <c r="AD34" s="25">
         <f t="shared" si="6"/>
         <v>553.01940349659174</v>
       </c>
-      <c r="AD34" s="23">
+      <c r="AE34" s="22">
         <f t="shared" si="11"/>
         <v>8.1712600000000002</v>
       </c>
-      <c r="AE34" s="23">
+      <c r="AF34" s="22">
         <v>13</v>
       </c>
-      <c r="AF34" s="27">
+      <c r="AG34" s="26">
         <f t="shared" si="12"/>
         <v>24.750635162141769</v>
       </c>
-      <c r="AG34" s="32">
+      <c r="AH34" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH34" s="7">
-        <v>6</v>
       </c>
       <c r="AI34" s="7">
         <v>6</v>
       </c>
-      <c r="AJ34" s="5">
-        <v>20</v>
+      <c r="AJ34" s="7">
+        <v>6</v>
       </c>
       <c r="AK34" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL34" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL34" s="5">
+      <c r="AM34" s="5">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
-      <c r="AM34" s="34">
+      <c r="AN34" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AN34" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO34" s="32">
+      <c r="AO34" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP34" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP34" s="5">
+      <c r="AQ34" s="5">
         <f t="shared" si="22"/>
         <v>10.58</v>
       </c>
-      <c r="AQ34" s="5">
+      <c r="AR34" s="5">
         <f t="shared" si="18"/>
         <v>34.58</v>
       </c>
-      <c r="AR34" s="27">
-        <f>AQ34*302.5/G34</f>
+      <c r="AS34" s="26">
+        <f t="shared" si="23"/>
         <v>11.416360386266094</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -5846,7 +5934,7 @@
       <c r="C35" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="30" t="s">
         <v>126</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -5862,25 +5950,27 @@
       <c r="H35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5">
         <v>31.35</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5">
         <v>250.7</v>
       </c>
-      <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -5888,78 +5978,79 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="36">
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5">
         <v>1341</v>
       </c>
-      <c r="Z35" s="24">
+      <c r="AA35" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA35" s="25">
+      <c r="AB35" s="24">
         <f t="shared" si="19"/>
         <v>1333.1117647058823</v>
       </c>
-      <c r="AB35" s="26">
+      <c r="AC35" s="25">
         <f t="shared" si="5"/>
         <v>2.0699863183488518</v>
       </c>
-      <c r="AC35" s="26">
+      <c r="AD35" s="25">
         <f t="shared" si="6"/>
         <v>626.17086130052769</v>
       </c>
-      <c r="AD35" s="23">
+      <c r="AE35" s="22">
         <f t="shared" si="11"/>
         <v>10.73685</v>
       </c>
-      <c r="AE35" s="23">
+      <c r="AF35" s="22">
         <v>13</v>
       </c>
-      <c r="AF35" s="27">
+      <c r="AG35" s="26">
         <f t="shared" si="12"/>
         <v>22.858650786071461</v>
       </c>
-      <c r="AG35" s="32">
+      <c r="AH35" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH35" s="7">
-        <v>5</v>
       </c>
       <c r="AI35" s="7">
         <v>5</v>
       </c>
-      <c r="AJ35" s="5">
-        <v>20</v>
+      <c r="AJ35" s="7">
+        <v>5</v>
       </c>
       <c r="AK35" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL35" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL35" s="5">
+      <c r="AM35" s="5">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="AM35" s="34">
+      <c r="AN35" s="5">
         <v>0.8</v>
       </c>
-      <c r="AN35" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO35" s="32">
+      <c r="AO35" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP35" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP35" s="5">
+      <c r="AQ35" s="5">
         <f t="shared" si="22"/>
         <v>7.36</v>
       </c>
-      <c r="AQ35" s="5">
+      <c r="AR35" s="5">
         <f t="shared" si="18"/>
         <v>27.36</v>
       </c>
-      <c r="AR35" s="27">
-        <f>AQ35*302.5/G35</f>
+      <c r="AS35" s="26">
+        <f t="shared" si="23"/>
         <v>12.851161634570222</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A36" s="7" t="s">
         <v>105</v>
       </c>
@@ -5969,7 +6060,7 @@
       <c r="C36" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="30" t="s">
         <v>128</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -5985,25 +6076,27 @@
       <c r="H36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5">
         <v>37.42</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5">
         <v>380.7</v>
       </c>
-      <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -6011,78 +6104,79 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="36">
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5">
         <v>1804</v>
       </c>
-      <c r="Z36" s="24">
+      <c r="AA36" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA36" s="25">
+      <c r="AB36" s="24">
         <f t="shared" si="19"/>
         <v>1793.3882352941177</v>
       </c>
-      <c r="AB36" s="26">
+      <c r="AC36" s="25">
         <f t="shared" si="5"/>
         <v>1.9748776909511307</v>
       </c>
-      <c r="AC36" s="26">
+      <c r="AD36" s="25">
         <f t="shared" si="6"/>
         <v>597.40050151271703</v>
       </c>
-      <c r="AD36" s="23">
+      <c r="AE36" s="22">
         <f t="shared" si="11"/>
         <v>12.675219999999999</v>
       </c>
-      <c r="AE36" s="23">
+      <c r="AF36" s="22">
         <v>13</v>
       </c>
-      <c r="AF36" s="27">
+      <c r="AG36" s="26">
         <f t="shared" si="12"/>
         <v>38.050839211223547</v>
       </c>
-      <c r="AG36" s="32">
+      <c r="AH36" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH36" s="7">
-        <v>9</v>
       </c>
       <c r="AI36" s="7">
         <v>9</v>
       </c>
-      <c r="AJ36" s="5">
-        <v>20</v>
+      <c r="AJ36" s="7">
+        <v>9</v>
       </c>
       <c r="AK36" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL36" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL36" s="5">
+      <c r="AM36" s="5">
         <f t="shared" si="21"/>
         <v>36</v>
       </c>
-      <c r="AM36" s="34">
+      <c r="AN36" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AN36" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO36" s="32">
+      <c r="AO36" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP36" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP36" s="5">
+      <c r="AQ36" s="5">
         <f t="shared" si="22"/>
         <v>10.58</v>
       </c>
-      <c r="AQ36" s="5">
+      <c r="AR36" s="5">
         <f t="shared" si="18"/>
         <v>46.58</v>
       </c>
-      <c r="AR36" s="27">
-        <f>AQ36*302.5/G36</f>
+      <c r="AS36" s="26">
+        <f t="shared" si="23"/>
         <v>15.516392275149899</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A37" s="13" t="s">
         <v>105</v>
       </c>
@@ -6092,10 +6186,10 @@
       <c r="C37" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="34" t="s">
         <v>108</v>
       </c>
       <c r="F37" s="14">
@@ -6108,25 +6202,27 @@
       <c r="H37" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
         <v>39.18</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5">
         <v>63.2</v>
       </c>
-      <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -6134,78 +6230,79 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="36">
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5">
         <v>1448</v>
       </c>
-      <c r="Z37" s="24">
+      <c r="AA37" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA37" s="25">
+      <c r="AB37" s="24">
         <f t="shared" si="19"/>
         <v>1439.4823529411765</v>
       </c>
-      <c r="AB37" s="26">
+      <c r="AC37" s="25">
         <f t="shared" si="5"/>
         <v>1.9994288917449334</v>
       </c>
-      <c r="AC37" s="26">
+      <c r="AD37" s="25">
         <f t="shared" si="6"/>
         <v>604.82723975284239</v>
       </c>
-      <c r="AD37" s="23">
+      <c r="AE37" s="22">
         <f t="shared" si="11"/>
         <v>6.1333800000000007</v>
       </c>
-      <c r="AE37" s="23">
+      <c r="AF37" s="22">
         <v>13</v>
       </c>
-      <c r="AF37" s="27">
+      <c r="AG37" s="26">
         <f t="shared" si="12"/>
         <v>14.597378711795798</v>
       </c>
-      <c r="AG37" s="32">
+      <c r="AH37" s="5">
         <v>0.2</v>
-      </c>
-      <c r="AH37" s="7">
-        <v>3</v>
       </c>
       <c r="AI37" s="7">
         <v>3</v>
       </c>
-      <c r="AJ37" s="5">
-        <v>20</v>
+      <c r="AJ37" s="7">
+        <v>3</v>
       </c>
       <c r="AK37" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL37" s="5">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AL37" s="5">
+      <c r="AM37" s="5">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM37" s="34">
+      <c r="AN37" s="5">
         <v>0.9</v>
       </c>
-      <c r="AN37" s="32">
-        <v>20</v>
-      </c>
-      <c r="AO37" s="32">
+      <c r="AO37" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP37" s="5">
         <v>0.46</v>
       </c>
-      <c r="AP37" s="5">
+      <c r="AQ37" s="5">
         <f t="shared" si="22"/>
         <v>8.2800000000000011</v>
       </c>
-      <c r="AQ37" s="5">
+      <c r="AR37" s="5">
         <f t="shared" si="18"/>
         <v>20.28</v>
       </c>
-      <c r="AR37" s="27">
-        <f>AQ37*302.5/G37</f>
+      <c r="AS37" s="26">
+        <f t="shared" si="23"/>
         <v>8.5210467478991614</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A38" s="13" t="s">
         <v>105</v>
       </c>
@@ -6215,10 +6312,10 @@
       <c r="C38" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="34" t="s">
         <v>108</v>
       </c>
       <c r="F38" s="14">
@@ -6231,16 +6328,18 @@
       <c r="H38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="4">
+        <v>3</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="K38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="L38" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -6253,36 +6352,36 @@
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="36">
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5">
         <v>1167</v>
       </c>
-      <c r="Z38" s="24">
+      <c r="AA38" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA38" s="25">
+      <c r="AB38" s="24">
         <f t="shared" si="19"/>
         <v>1160.1352941176472</v>
       </c>
-      <c r="AB38" s="26">
-        <f t="shared" ref="AB38:AB39" si="23">AA38/G38</f>
+      <c r="AC38" s="25">
+        <f t="shared" ref="AC38:AC39" si="24">AB38/G38</f>
         <v>2.2787731760511694</v>
       </c>
-      <c r="AC38" s="26">
-        <f t="shared" ref="AC38:AC39" si="24">AA38*302.5/G38</f>
+      <c r="AD38" s="25">
+        <f t="shared" ref="AD38:AD39" si="25">AB38*302.5/G38</f>
         <v>689.32888575547872</v>
       </c>
-      <c r="AD38" s="23">
+      <c r="AE38" s="22">
         <f t="shared" si="11"/>
         <v>9.14</v>
       </c>
-      <c r="AE38" s="23">
+      <c r="AF38" s="22">
         <v>13</v>
       </c>
-      <c r="AF38" s="27">
+      <c r="AG38" s="26">
         <f t="shared" si="12"/>
         <v>15.382550778521496</v>
       </c>
-      <c r="AG38" s="32"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
@@ -6294,8 +6393,9 @@
       <c r="AP38" s="5"/>
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.6">
       <c r="A39" s="13" t="s">
         <v>105</v>
       </c>
@@ -6305,10 +6405,10 @@
       <c r="C39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="34" t="s">
         <v>108</v>
       </c>
       <c r="F39" s="14">
@@ -6321,16 +6421,18 @@
       <c r="H39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="4">
+        <v>3</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="K39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="L39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -6343,36 +6445,36 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="36">
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5">
         <v>1403</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="AA39" s="5">
         <v>15.5</v>
       </c>
-      <c r="AA39" s="25">
+      <c r="AB39" s="24">
         <f t="shared" si="19"/>
         <v>1394.7470588235294</v>
       </c>
-      <c r="AB39" s="26">
-        <f t="shared" si="23"/>
+      <c r="AC39" s="25">
+        <f t="shared" si="24"/>
         <v>2.3053774135294116</v>
       </c>
-      <c r="AC39" s="26">
-        <f t="shared" si="24"/>
+      <c r="AD39" s="25">
+        <f t="shared" si="25"/>
         <v>697.37666759264698</v>
       </c>
-      <c r="AD39" s="23">
+      <c r="AE39" s="22">
         <f t="shared" si="11"/>
         <v>9.14</v>
       </c>
-      <c r="AE39" s="23">
+      <c r="AF39" s="22">
         <v>13</v>
       </c>
-      <c r="AF39" s="27">
+      <c r="AG39" s="26">
         <f t="shared" si="12"/>
         <v>18.27991774037017</v>
       </c>
-      <c r="AG39" s="32"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
@@ -6384,12 +6486,13 @@
       <c r="AP39" s="5"/>
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="7">
         <v>2024</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -6411,91 +6514,123 @@
       <c r="H40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="K40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="L40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="41">
+      <c r="M40" s="35">
         <v>6.7</v>
       </c>
-      <c r="M40" s="41">
+      <c r="N40" s="35">
         <v>0.2</v>
       </c>
-      <c r="N40" s="42">
+      <c r="O40" s="36">
         <v>21</v>
       </c>
-      <c r="O40" s="42">
+      <c r="P40" s="36">
         <v>33</v>
       </c>
-      <c r="P40" s="42">
+      <c r="Q40" s="36">
         <v>553</v>
       </c>
-      <c r="Q40" s="43">
+      <c r="R40" s="37">
         <v>0.13</v>
       </c>
-      <c r="R40" s="41">
+      <c r="S40" s="35">
         <v>7.4</v>
       </c>
-      <c r="S40" s="41">
+      <c r="T40" s="35">
         <v>1.5</v>
       </c>
-      <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="16">
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5">
         <v>2868</v>
       </c>
-      <c r="Z40" s="44">
+      <c r="AA40" s="5">
         <v>25</v>
       </c>
-      <c r="AA40" s="25">
+      <c r="AB40" s="24">
         <f t="shared" si="19"/>
         <v>2530.5882352941176</v>
       </c>
-      <c r="AB40" s="26">
-        <f t="shared" ref="AB40:AB44" si="25">AA40/G40</f>
+      <c r="AC40" s="25">
+        <f t="shared" ref="AC40:AC44" si="26">AB40/G40</f>
         <v>2.0914046470588232</v>
       </c>
-      <c r="AC40" s="26">
-        <f t="shared" ref="AC40:AC44" si="26">AA40*302.5/G40</f>
+      <c r="AD40" s="25">
+        <f t="shared" ref="AD40:AD44" si="27">AB40*302.5/G40</f>
         <v>632.64990573529406</v>
       </c>
-      <c r="AD40" s="23">
+      <c r="AE40" s="22">
         <f t="shared" si="11"/>
         <v>17.911000000000001</v>
       </c>
-      <c r="AE40" s="23">
+      <c r="AF40" s="22">
         <v>13</v>
       </c>
-      <c r="AF40" s="27">
+      <c r="AG40" s="26">
         <f t="shared" si="12"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
+      <c r="AH40" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI40" s="39">
+        <v>11</v>
+      </c>
+      <c r="AJ40" s="39">
+        <v>9</v>
+      </c>
+      <c r="AK40" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL40" s="5">
+        <f t="shared" ref="AL40:AL44" si="28">AK40*AH40</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM40" s="5">
+        <f t="shared" ref="AM40:AM44" si="29">AL40*AJ40</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="AN40" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO40" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP40" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ40" s="5">
+        <f t="shared" ref="AQ40:AQ53" si="30">AN40*AO40*AP40</f>
+        <v>27.6</v>
+      </c>
+      <c r="AR40" s="5">
+        <f t="shared" ref="AR40:AR53" si="31">AM40+AQ40</f>
+        <v>87</v>
+      </c>
+      <c r="AS40" s="26">
+        <f t="shared" ref="AS40:AS53" si="32">AR40*302.5/G40</f>
+        <v>21.750097874999998</v>
+      </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="7">
         <v>2024</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -6517,91 +6652,123 @@
       <c r="H41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="K41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="L41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="41">
+      <c r="M41" s="35">
         <v>7.1</v>
       </c>
-      <c r="M41" s="41">
+      <c r="N41" s="35">
         <v>0.2</v>
       </c>
-      <c r="N41" s="42">
+      <c r="O41" s="36">
         <v>30</v>
       </c>
-      <c r="O41" s="42">
+      <c r="P41" s="36">
         <v>41</v>
       </c>
-      <c r="P41" s="42">
+      <c r="Q41" s="36">
         <v>251</v>
       </c>
-      <c r="Q41" s="43">
+      <c r="R41" s="37">
         <v>0.18</v>
       </c>
-      <c r="R41" s="41">
+      <c r="S41" s="35">
         <v>7.3</v>
       </c>
-      <c r="S41" s="41">
+      <c r="T41" s="35">
         <v>1.5</v>
       </c>
-      <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="16">
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5">
         <v>3236</v>
       </c>
-      <c r="Z41" s="44">
+      <c r="AA41" s="5">
         <v>28.5</v>
       </c>
-      <c r="AA41" s="25">
+      <c r="AB41" s="24">
         <f t="shared" si="19"/>
         <v>2722.0470588235294</v>
       </c>
-      <c r="AB41" s="26">
-        <f t="shared" si="25"/>
+      <c r="AC41" s="25">
+        <f t="shared" si="26"/>
         <v>2.2496357917647058</v>
       </c>
-      <c r="AC41" s="26">
-        <f t="shared" si="26"/>
+      <c r="AD41" s="25">
+        <f t="shared" si="27"/>
         <v>680.51482700882343</v>
       </c>
-      <c r="AD41" s="23">
+      <c r="AE41" s="22">
         <f t="shared" si="11"/>
         <v>10.89</v>
       </c>
-      <c r="AE41" s="23">
+      <c r="AF41" s="22">
         <v>13</v>
       </c>
-      <c r="AF41" s="27">
+      <c r="AG41" s="26">
         <f t="shared" si="12"/>
         <v>43.559803980882094</v>
       </c>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
+      <c r="AH41" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI41" s="40">
+        <v>9</v>
+      </c>
+      <c r="AJ41" s="40">
+        <v>9</v>
+      </c>
+      <c r="AK41" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL41" s="5">
+        <f t="shared" si="28"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM41" s="5">
+        <f t="shared" si="29"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="AN41" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ41" s="5">
+        <f t="shared" si="30"/>
+        <v>27.6</v>
+      </c>
+      <c r="AR41" s="5">
+        <f t="shared" si="31"/>
+        <v>87</v>
+      </c>
+      <c r="AS41" s="26">
+        <f t="shared" si="32"/>
+        <v>21.750097874999998</v>
+      </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="7">
         <v>2024</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -6623,91 +6790,123 @@
       <c r="H42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="K42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="L42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="41">
+      <c r="M42" s="35">
         <v>6.8</v>
       </c>
-      <c r="M42" s="41">
+      <c r="N42" s="35">
         <v>0.3</v>
       </c>
-      <c r="N42" s="42">
+      <c r="O42" s="36">
         <v>28</v>
       </c>
-      <c r="O42" s="42">
+      <c r="P42" s="36">
         <v>37</v>
       </c>
-      <c r="P42" s="42">
+      <c r="Q42" s="36">
         <v>348</v>
       </c>
-      <c r="Q42" s="43">
+      <c r="R42" s="37">
         <v>0.21</v>
       </c>
-      <c r="R42" s="41">
+      <c r="S42" s="35">
         <v>7.7</v>
       </c>
-      <c r="S42" s="41">
+      <c r="T42" s="35">
         <v>1.7</v>
       </c>
-      <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="16">
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5">
         <v>3045</v>
       </c>
-      <c r="Z42" s="44">
+      <c r="AA42" s="5">
         <v>25.6</v>
       </c>
-      <c r="AA42" s="25">
+      <c r="AB42" s="24">
         <f t="shared" si="19"/>
         <v>2665.2705882352943</v>
       </c>
-      <c r="AB42" s="26">
-        <f t="shared" si="25"/>
+      <c r="AC42" s="25">
+        <f t="shared" si="26"/>
         <v>2.202712877647059</v>
       </c>
-      <c r="AC42" s="26">
-        <f t="shared" si="26"/>
+      <c r="AD42" s="25">
+        <f t="shared" si="27"/>
         <v>666.3206454882353</v>
       </c>
-      <c r="AD42" s="23">
+      <c r="AE42" s="22">
         <f t="shared" si="11"/>
         <v>13.048000000000002</v>
       </c>
-      <c r="AE42" s="23">
+      <c r="AF42" s="22">
         <v>13</v>
       </c>
-      <c r="AF42" s="27">
+      <c r="AG42" s="26">
         <f t="shared" si="12"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
+      <c r="AH42" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI42" s="39">
+        <v>11</v>
+      </c>
+      <c r="AJ42" s="39">
+        <v>12</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL42" s="5">
+        <f t="shared" si="28"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM42" s="5">
+        <f t="shared" si="29"/>
+        <v>79.2</v>
+      </c>
+      <c r="AN42" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP42" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ42" s="5">
+        <f t="shared" si="30"/>
+        <v>27.6</v>
+      </c>
+      <c r="AR42" s="5">
+        <f t="shared" si="31"/>
+        <v>106.80000000000001</v>
+      </c>
+      <c r="AS42" s="26">
+        <f t="shared" si="32"/>
+        <v>26.70012015</v>
+      </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="7">
         <v>2024</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -6729,91 +6928,123 @@
       <c r="H43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="K43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="L43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="41">
+      <c r="M43" s="35">
         <v>7.3</v>
       </c>
-      <c r="M43" s="41">
+      <c r="N43" s="35">
         <v>0.3</v>
       </c>
-      <c r="N43" s="42">
-        <v>20</v>
-      </c>
-      <c r="O43" s="42">
+      <c r="O43" s="36">
+        <v>20</v>
+      </c>
+      <c r="P43" s="36">
         <v>31</v>
       </c>
-      <c r="P43" s="45">
+      <c r="Q43" s="36">
         <v>656</v>
       </c>
-      <c r="Q43" s="43">
+      <c r="R43" s="37">
         <v>0.22</v>
       </c>
-      <c r="R43" s="41">
+      <c r="S43" s="35">
         <v>8.6999999999999993</v>
       </c>
-      <c r="S43" s="41">
+      <c r="T43" s="35">
         <v>1.9</v>
       </c>
-      <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="16">
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5">
         <v>3158</v>
       </c>
-      <c r="Z43" s="44">
+      <c r="AA43" s="5">
         <v>26.3</v>
       </c>
-      <c r="AA43" s="25">
+      <c r="AB43" s="24">
         <f t="shared" si="19"/>
         <v>2738.1717647058822</v>
       </c>
-      <c r="AB43" s="26">
-        <f t="shared" si="25"/>
+      <c r="AC43" s="25">
+        <f t="shared" si="26"/>
         <v>2.2743337235589713</v>
       </c>
-      <c r="AC43" s="26">
-        <f t="shared" si="26"/>
+      <c r="AD43" s="25">
+        <f t="shared" si="27"/>
         <v>687.98595137658879</v>
       </c>
-      <c r="AD43" s="23">
+      <c r="AE43" s="22">
         <f t="shared" si="11"/>
         <v>20.080000000000002</v>
       </c>
-      <c r="AE43" s="23">
+      <c r="AF43" s="22">
         <v>13</v>
       </c>
-      <c r="AF43" s="27">
+      <c r="AG43" s="26">
         <f t="shared" si="12"/>
         <v>51.739767171047731</v>
       </c>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
+      <c r="AH43" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI43" s="39">
+        <v>10</v>
+      </c>
+      <c r="AJ43" s="39">
+        <v>15</v>
+      </c>
+      <c r="AK43" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL43" s="5">
+        <f t="shared" si="28"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM43" s="5">
+        <f t="shared" si="29"/>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="AN43" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO43" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP43" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ43" s="5">
+        <f t="shared" si="30"/>
+        <v>27.6</v>
+      </c>
+      <c r="AR43" s="5">
+        <f t="shared" si="31"/>
+        <v>126.60000000000002</v>
+      </c>
+      <c r="AS43" s="26">
+        <f t="shared" si="32"/>
+        <v>31.809188366834178</v>
+      </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="7">
         <v>2024</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -6835,91 +7066,123 @@
       <c r="H44" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="K44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="L44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="41">
+      <c r="M44" s="35">
         <v>6.7</v>
       </c>
-      <c r="M44" s="41">
+      <c r="N44" s="35">
         <v>0.4</v>
       </c>
-      <c r="N44" s="42">
+      <c r="O44" s="36">
         <v>19</v>
       </c>
-      <c r="O44" s="42">
+      <c r="P44" s="36">
         <v>29</v>
       </c>
-      <c r="P44" s="42">
+      <c r="Q44" s="36">
         <v>474</v>
       </c>
-      <c r="Q44" s="43">
+      <c r="R44" s="37">
         <v>0.18</v>
       </c>
-      <c r="R44" s="41">
+      <c r="S44" s="35">
         <v>7.1</v>
       </c>
-      <c r="S44" s="41">
+      <c r="T44" s="35">
         <v>1.7</v>
       </c>
-      <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="16">
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5">
         <v>2680</v>
       </c>
-      <c r="Z44" s="44">
+      <c r="AA44" s="5">
         <v>27</v>
       </c>
-      <c r="AA44" s="25">
+      <c r="AB44" s="24">
         <f t="shared" si="19"/>
         <v>2301.6470588235293</v>
       </c>
-      <c r="AB44" s="26">
-        <f t="shared" si="25"/>
+      <c r="AC44" s="25">
+        <f t="shared" si="26"/>
         <v>1.9021962117647058</v>
       </c>
-      <c r="AC44" s="26">
-        <f t="shared" si="26"/>
+      <c r="AD44" s="25">
+        <f t="shared" si="27"/>
         <v>575.41435405882351</v>
       </c>
-      <c r="AD44" s="23">
+      <c r="AE44" s="22">
         <f t="shared" si="11"/>
         <v>16.548999999999999</v>
       </c>
-      <c r="AE44" s="23">
+      <c r="AF44" s="22">
         <v>13</v>
       </c>
-      <c r="AF44" s="27">
+      <c r="AG44" s="26">
         <f t="shared" si="12"/>
         <v>51.999766001052997</v>
       </c>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
+      <c r="AH44" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI44" s="39">
+        <v>11</v>
+      </c>
+      <c r="AJ44" s="39">
+        <v>13</v>
+      </c>
+      <c r="AK44" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL44" s="5">
+        <f t="shared" si="28"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM44" s="5">
+        <f t="shared" si="29"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="AN44" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO44" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP44" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ44" s="5">
+        <f t="shared" si="30"/>
+        <v>27.6</v>
+      </c>
+      <c r="AR44" s="5">
+        <f t="shared" si="31"/>
+        <v>113.4</v>
+      </c>
+      <c r="AS44" s="26">
+        <f t="shared" si="32"/>
+        <v>28.350127574999998</v>
+      </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="7">
         <v>2024</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -6941,105 +7204,123 @@
       <c r="H45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="K45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="L45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="18">
+      <c r="M45" s="17">
         <v>6.4</v>
       </c>
-      <c r="M45" s="18">
+      <c r="N45" s="17">
         <v>1.4</v>
       </c>
-      <c r="N45" s="19">
+      <c r="O45" s="18">
         <v>27</v>
       </c>
-      <c r="O45" s="19">
+      <c r="P45" s="18">
         <v>60</v>
       </c>
-      <c r="P45" s="19">
+      <c r="Q45" s="18">
         <v>1169</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="R45" s="19">
         <v>0.54</v>
       </c>
-      <c r="R45" s="18">
+      <c r="S45" s="17">
         <v>8.3000000000000007</v>
       </c>
-      <c r="S45" s="18">
+      <c r="T45" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="16">
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5">
         <v>3300</v>
       </c>
-      <c r="Z45" s="44">
+      <c r="AA45" s="5">
         <v>25.3</v>
       </c>
-      <c r="AA45" s="25">
-        <f t="shared" ref="AA45:AA53" si="27">Y45*(100-Z45)/(100-15)</f>
+      <c r="AB45" s="24">
+        <f t="shared" ref="AB45:AB53" si="33">Z45*(100-AA45)/(100-15)</f>
         <v>2900.1176470588234</v>
       </c>
-      <c r="AB45" s="26">
-        <f t="shared" ref="AB45:AB53" si="28">AA45/G45</f>
+      <c r="AC45" s="25">
+        <f t="shared" ref="AC45:AC53" si="34">AB45/G45</f>
         <v>1.9174417835294117</v>
       </c>
-      <c r="AC45" s="26">
-        <f t="shared" ref="AC45:AC53" si="29">AA45*302.5/G45</f>
+      <c r="AD45" s="25">
+        <f t="shared" ref="AD45:AD53" si="35">AB45*302.5/G45</f>
         <v>580.02613951764704</v>
       </c>
-      <c r="AD45" s="23">
-        <f t="shared" ref="AD45:AD53" si="30">9.14-(0.109*N45)+(0.02*P45)</f>
+      <c r="AE45" s="22">
+        <f t="shared" ref="AE45:AE53" si="36">9.14-(0.109*O45)+(0.02*Q45)</f>
         <v>29.576999999999998</v>
       </c>
-      <c r="AE45" s="23">
+      <c r="AF45" s="22">
         <v>14</v>
       </c>
-      <c r="AF45" s="27">
-        <f t="shared" ref="AF45:AF53" si="31">IF(AD45&lt;AE45, AD45*G45/302.5, AE45*G45/302.5)</f>
+      <c r="AG45" s="26">
+        <f t="shared" ref="AG45:AG53" si="37">IF(AE45&lt;AF45, AE45*G45/302.5, AF45*G45/302.5)</f>
         <v>69.99968500141749</v>
       </c>
-      <c r="AG45" s="5">
+      <c r="AH45" s="5">
         <v>0.3</v>
       </c>
-      <c r="AH45" s="48">
+      <c r="AI45" s="38">
         <v>11</v>
       </c>
-      <c r="AI45" s="17">
+      <c r="AJ45" s="7">
         <v>12</v>
       </c>
-      <c r="AJ45" s="5">
-        <v>20</v>
-      </c>
       <c r="AK45" s="5">
-        <f t="shared" ref="AK45:AK53" si="32">AJ45*AG45</f>
+        <v>20</v>
+      </c>
+      <c r="AL45" s="5">
+        <f t="shared" ref="AL45:AL53" si="38">AK45*AH45</f>
         <v>6</v>
       </c>
-      <c r="AL45" s="5">
-        <f t="shared" ref="AL45:AL53" si="33">AK45*AI45</f>
+      <c r="AM45" s="5">
+        <f t="shared" ref="AM45:AM53" si="39">AL45*AJ45</f>
         <v>72</v>
       </c>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
+      <c r="AN45" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO45" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP45" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ45" s="5">
+        <f t="shared" si="30"/>
+        <v>27.6</v>
+      </c>
+      <c r="AR45" s="5">
+        <f t="shared" si="31"/>
+        <v>99.6</v>
+      </c>
+      <c r="AS45" s="26">
+        <f t="shared" si="32"/>
+        <v>19.92008964</v>
+      </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="7">
         <v>2024</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -7061,105 +7342,123 @@
       <c r="H46" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="K46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="L46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="18">
+      <c r="M46" s="17">
         <v>6.7</v>
       </c>
-      <c r="M46" s="18">
+      <c r="N46" s="17">
         <v>1.2</v>
       </c>
-      <c r="N46" s="19">
+      <c r="O46" s="18">
         <v>25</v>
       </c>
-      <c r="O46" s="19">
+      <c r="P46" s="18">
         <v>82</v>
       </c>
-      <c r="P46" s="19">
+      <c r="Q46" s="18">
         <v>746</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="R46" s="19">
         <v>0.95</v>
       </c>
-      <c r="R46" s="18">
+      <c r="S46" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S46" s="18">
+      <c r="T46" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="46">
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5">
         <v>3390</v>
       </c>
-      <c r="Z46" s="47">
+      <c r="AA46" s="5">
         <v>22.3</v>
       </c>
-      <c r="AA46" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB46" s="24">
+        <f t="shared" si="33"/>
         <v>3098.8588235294119</v>
       </c>
-      <c r="AB46" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC46" s="25">
+        <f t="shared" si="34"/>
         <v>2.5610518747058824</v>
       </c>
-      <c r="AC46" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD46" s="25">
+        <f t="shared" si="35"/>
         <v>774.71819209852936</v>
       </c>
-      <c r="AD46" s="23">
+      <c r="AE46" s="22">
+        <f t="shared" si="36"/>
+        <v>21.335000000000001</v>
+      </c>
+      <c r="AF46" s="22">
+        <v>15</v>
+      </c>
+      <c r="AG46" s="26">
+        <f t="shared" si="37"/>
+        <v>59.999730001214999</v>
+      </c>
+      <c r="AH46" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI46" s="38">
+        <v>9</v>
+      </c>
+      <c r="AJ46" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK46" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL46" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM46" s="5">
+        <f t="shared" si="39"/>
+        <v>54</v>
+      </c>
+      <c r="AN46" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO46" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP46" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ46" s="5">
         <f t="shared" si="30"/>
-        <v>21.335000000000001</v>
-      </c>
-      <c r="AE46" s="23">
-        <v>15</v>
-      </c>
-      <c r="AF46" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR46" s="5">
         <f t="shared" si="31"/>
-        <v>59.999730001214999</v>
-      </c>
-      <c r="AG46" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AH46" s="48">
-        <v>9</v>
-      </c>
-      <c r="AI46" s="17">
-        <v>9</v>
-      </c>
-      <c r="AJ46" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK46" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS46" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL46" s="5">
-        <f t="shared" si="33"/>
-        <v>54</v>
-      </c>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
+        <v>18.100081449999998</v>
+      </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="7">
         <v>2024</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -7181,105 +7480,123 @@
       <c r="H47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="K47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="L47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="18">
+      <c r="M47" s="17">
         <v>5.5</v>
       </c>
-      <c r="M47" s="18">
+      <c r="N47" s="17">
         <v>0.4</v>
       </c>
-      <c r="N47" s="19">
+      <c r="O47" s="18">
         <v>26</v>
       </c>
-      <c r="O47" s="19">
+      <c r="P47" s="18">
         <v>28</v>
       </c>
-      <c r="P47" s="19">
+      <c r="Q47" s="18">
         <v>153</v>
       </c>
-      <c r="Q47" s="20">
+      <c r="R47" s="19">
         <v>0.25</v>
       </c>
-      <c r="R47" s="18">
+      <c r="S47" s="17">
         <v>5.7</v>
       </c>
-      <c r="S47" s="18">
+      <c r="T47" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="46">
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5">
         <v>3061</v>
       </c>
-      <c r="Z47" s="47">
+      <c r="AA47" s="5">
         <v>21.8</v>
       </c>
-      <c r="AA47" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB47" s="24">
+        <f t="shared" si="33"/>
         <v>2816.1200000000003</v>
       </c>
-      <c r="AB47" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC47" s="25">
+        <f t="shared" si="34"/>
         <v>2.3071944228004959</v>
       </c>
-      <c r="AC47" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD47" s="25">
+        <f t="shared" si="35"/>
         <v>697.92631289714996</v>
       </c>
-      <c r="AD47" s="23">
+      <c r="AE47" s="22">
+        <f t="shared" si="36"/>
+        <v>9.3660000000000014</v>
+      </c>
+      <c r="AF47" s="22">
+        <v>16</v>
+      </c>
+      <c r="AG47" s="26">
+        <f t="shared" si="37"/>
+        <v>37.791639937620289</v>
+      </c>
+      <c r="AH47" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI47" s="38">
+        <v>6</v>
+      </c>
+      <c r="AJ47" s="7">
+        <v>8</v>
+      </c>
+      <c r="AK47" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL47" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM47" s="5">
+        <f t="shared" si="39"/>
+        <v>48</v>
+      </c>
+      <c r="AN47" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO47" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP47" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ47" s="5">
         <f t="shared" si="30"/>
-        <v>9.3660000000000014</v>
-      </c>
-      <c r="AE47" s="23">
-        <v>16</v>
-      </c>
-      <c r="AF47" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR47" s="5">
         <f t="shared" si="31"/>
-        <v>37.791639937620289</v>
-      </c>
-      <c r="AG47" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AH47" s="48">
-        <v>6</v>
-      </c>
-      <c r="AI47" s="17">
-        <v>8</v>
-      </c>
-      <c r="AJ47" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK47" s="5">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AS47" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL47" s="5">
-        <f t="shared" si="33"/>
-        <v>48</v>
-      </c>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
+        <v>16.456083965303591</v>
+      </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="7">
         <v>2024</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -7301,105 +7618,123 @@
       <c r="H48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="K48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="17" t="s">
+      <c r="L48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="18">
+      <c r="M48" s="17">
         <v>5.7</v>
       </c>
-      <c r="M48" s="18">
+      <c r="N48" s="17">
         <v>0.4</v>
       </c>
-      <c r="N48" s="19">
+      <c r="O48" s="18">
         <v>28</v>
       </c>
-      <c r="O48" s="19">
+      <c r="P48" s="18">
         <v>34</v>
       </c>
-      <c r="P48" s="19">
+      <c r="Q48" s="18">
         <v>188</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="R48" s="19">
         <v>0.18</v>
       </c>
-      <c r="R48" s="18">
+      <c r="S48" s="17">
         <v>6.7</v>
       </c>
-      <c r="S48" s="18">
+      <c r="T48" s="17">
         <v>1.8</v>
       </c>
-      <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="46">
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5">
         <v>3377</v>
       </c>
-      <c r="Z48" s="47">
+      <c r="AA48" s="5">
         <v>20.8</v>
       </c>
-      <c r="AA48" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB48" s="24">
+        <f t="shared" si="33"/>
         <v>3146.5694117647063</v>
       </c>
-      <c r="AB48" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC48" s="25">
+        <f t="shared" si="34"/>
         <v>2.1341668365637601</v>
       </c>
-      <c r="AC48" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD48" s="25">
+        <f t="shared" si="35"/>
         <v>645.58546806053744</v>
       </c>
-      <c r="AD48" s="23">
+      <c r="AE48" s="22">
+        <f t="shared" si="36"/>
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="AF48" s="22">
+        <v>17</v>
+      </c>
+      <c r="AG48" s="26">
+        <f t="shared" si="37"/>
+        <v>47.998936004787986</v>
+      </c>
+      <c r="AH48" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI48" s="38">
+        <v>8</v>
+      </c>
+      <c r="AJ48" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK48" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL48" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM48" s="5">
+        <f t="shared" si="39"/>
+        <v>54</v>
+      </c>
+      <c r="AN48" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO48" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP48" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ48" s="5">
         <f t="shared" si="30"/>
-        <v>9.8480000000000008</v>
-      </c>
-      <c r="AE48" s="23">
-        <v>17</v>
-      </c>
-      <c r="AF48" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR48" s="5">
         <f t="shared" si="31"/>
-        <v>47.998936004787986</v>
-      </c>
-      <c r="AG48" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AH48" s="48">
-        <v>8</v>
-      </c>
-      <c r="AI48" s="17">
-        <v>9</v>
-      </c>
-      <c r="AJ48" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK48" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS48" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL48" s="5">
-        <f t="shared" si="33"/>
-        <v>54</v>
-      </c>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
+        <v>14.854395937628231</v>
+      </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="7">
         <v>2024</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -7421,105 +7756,123 @@
       <c r="H49" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="K49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="17" t="s">
+      <c r="L49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="18">
+      <c r="M49" s="17">
         <v>6.6</v>
       </c>
-      <c r="M49" s="18">
+      <c r="N49" s="17">
         <v>1</v>
       </c>
-      <c r="N49" s="19">
+      <c r="O49" s="18">
         <v>29</v>
       </c>
-      <c r="O49" s="19">
+      <c r="P49" s="18">
         <v>93</v>
       </c>
-      <c r="P49" s="19">
+      <c r="Q49" s="18">
         <v>442</v>
       </c>
-      <c r="Q49" s="20">
+      <c r="R49" s="19">
         <v>0.7</v>
       </c>
-      <c r="R49" s="18">
+      <c r="S49" s="17">
         <v>7.4</v>
       </c>
-      <c r="S49" s="18">
+      <c r="T49" s="17">
         <v>1.8</v>
       </c>
-      <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="46">
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5">
         <v>1594</v>
       </c>
-      <c r="Z49" s="47">
+      <c r="AA49" s="5">
         <v>24.5</v>
       </c>
-      <c r="AA49" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB49" s="24">
+        <f t="shared" si="33"/>
         <v>1415.8470588235293</v>
       </c>
-      <c r="AB49" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC49" s="25">
+        <f t="shared" si="34"/>
         <v>2.3402536035294115</v>
       </c>
-      <c r="AC49" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD49" s="25">
+        <f t="shared" si="35"/>
         <v>707.92671506764691</v>
       </c>
-      <c r="AD49" s="23">
+      <c r="AE49" s="22">
+        <f t="shared" si="36"/>
+        <v>14.819000000000001</v>
+      </c>
+      <c r="AF49" s="22">
+        <v>18</v>
+      </c>
+      <c r="AG49" s="26">
+        <f t="shared" si="37"/>
+        <v>29.637866629600172</v>
+      </c>
+      <c r="AH49" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI49" s="38">
+        <v>4</v>
+      </c>
+      <c r="AJ49" s="7">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL49" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM49" s="5">
+        <f t="shared" si="39"/>
+        <v>30</v>
+      </c>
+      <c r="AN49" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO49" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP49" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ49" s="5">
         <f t="shared" si="30"/>
-        <v>14.819000000000001</v>
-      </c>
-      <c r="AE49" s="23">
-        <v>18</v>
-      </c>
-      <c r="AF49" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR49" s="5">
         <f t="shared" si="31"/>
-        <v>29.637866629600172</v>
-      </c>
-      <c r="AG49" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AH49" s="48">
-        <v>4</v>
-      </c>
-      <c r="AI49" s="17">
-        <v>5</v>
-      </c>
-      <c r="AJ49" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK49" s="5">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="AS49" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL49" s="5">
-        <f t="shared" si="33"/>
-        <v>30</v>
-      </c>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
+        <v>24.2001089</v>
+      </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="7">
         <v>2024</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -7541,105 +7894,123 @@
       <c r="H50" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="K50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="L50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="18">
+      <c r="M50" s="17">
         <v>6.5</v>
       </c>
-      <c r="M50" s="18">
+      <c r="N50" s="17">
         <v>0.8</v>
       </c>
-      <c r="N50" s="19">
+      <c r="O50" s="18">
         <v>36</v>
       </c>
-      <c r="O50" s="19">
+      <c r="P50" s="18">
         <v>105</v>
       </c>
-      <c r="P50" s="19">
+      <c r="Q50" s="18">
         <v>316</v>
       </c>
-      <c r="Q50" s="20">
+      <c r="R50" s="19">
         <v>0.71</v>
       </c>
-      <c r="R50" s="18">
+      <c r="S50" s="17">
         <v>5.9</v>
       </c>
-      <c r="S50" s="18">
+      <c r="T50" s="17">
         <v>1.2</v>
       </c>
-      <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="46">
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5">
         <v>4828</v>
       </c>
-      <c r="Z50" s="47">
+      <c r="AA50" s="5">
         <v>23</v>
       </c>
-      <c r="AA50" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB50" s="24">
+        <f t="shared" si="33"/>
         <v>4373.6000000000004</v>
       </c>
-      <c r="AB50" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC50" s="25">
+        <f t="shared" si="34"/>
         <v>2.4097078133333336</v>
       </c>
-      <c r="AC50" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD50" s="25">
+        <f t="shared" si="35"/>
         <v>728.93661353333334</v>
       </c>
-      <c r="AD50" s="23">
+      <c r="AE50" s="22">
+        <f t="shared" si="36"/>
+        <v>11.536000000000001</v>
+      </c>
+      <c r="AF50" s="22">
+        <v>19</v>
+      </c>
+      <c r="AG50" s="26">
+        <f t="shared" si="37"/>
+        <v>69.215688529401618</v>
+      </c>
+      <c r="AH50" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI50" s="38">
+        <v>12</v>
+      </c>
+      <c r="AJ50" s="7">
+        <v>13</v>
+      </c>
+      <c r="AK50" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL50" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM50" s="5">
+        <f t="shared" si="39"/>
+        <v>78</v>
+      </c>
+      <c r="AN50" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO50" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP50" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ50" s="5">
         <f t="shared" si="30"/>
-        <v>11.536000000000001</v>
-      </c>
-      <c r="AE50" s="23">
-        <v>19</v>
-      </c>
-      <c r="AF50" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR50" s="5">
         <f t="shared" si="31"/>
-        <v>69.215688529401618</v>
-      </c>
-      <c r="AG50" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AH50" s="48">
-        <v>12</v>
-      </c>
-      <c r="AI50" s="17">
-        <v>13</v>
-      </c>
-      <c r="AJ50" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK50" s="5">
+        <v>96.4</v>
+      </c>
+      <c r="AS50" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL50" s="5">
-        <f t="shared" si="33"/>
-        <v>78</v>
-      </c>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
+        <v>16.066738966666669</v>
+      </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="7">
         <v>2024</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -7661,105 +8032,123 @@
       <c r="H51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="K51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="L51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="18">
+      <c r="M51" s="17">
         <v>6.8</v>
       </c>
-      <c r="M51" s="18">
+      <c r="N51" s="17">
         <v>1.3</v>
       </c>
-      <c r="N51" s="19">
+      <c r="O51" s="18">
         <v>43</v>
       </c>
-      <c r="O51" s="19">
+      <c r="P51" s="18">
         <v>92</v>
       </c>
-      <c r="P51" s="19">
+      <c r="Q51" s="18">
         <v>893</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="R51" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R51" s="18">
+      <c r="S51" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S51" s="18">
+      <c r="T51" s="17">
         <v>2</v>
       </c>
-      <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="46">
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5">
         <v>3284</v>
       </c>
-      <c r="Z51" s="47">
+      <c r="AA51" s="5">
         <v>21.1</v>
       </c>
-      <c r="AA51" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB51" s="24">
+        <f t="shared" si="33"/>
         <v>3048.3247058823531</v>
       </c>
-      <c r="AB51" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC51" s="25">
+        <f t="shared" si="34"/>
         <v>2.5192879531764705</v>
       </c>
-      <c r="AC51" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD51" s="25">
+        <f t="shared" si="35"/>
         <v>762.08460583588237</v>
       </c>
-      <c r="AD51" s="23">
+      <c r="AE51" s="22">
+        <f t="shared" si="36"/>
+        <v>22.312999999999999</v>
+      </c>
+      <c r="AF51" s="22">
+        <v>20</v>
+      </c>
+      <c r="AG51" s="26">
+        <f t="shared" si="37"/>
+        <v>79.999640001620008</v>
+      </c>
+      <c r="AH51" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI51" s="38">
+        <v>9</v>
+      </c>
+      <c r="AJ51" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK51" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL51" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM51" s="5">
+        <f t="shared" si="39"/>
+        <v>54</v>
+      </c>
+      <c r="AN51" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO51" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP51" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ51" s="5">
         <f t="shared" si="30"/>
-        <v>22.312999999999999</v>
-      </c>
-      <c r="AE51" s="23">
-        <v>20</v>
-      </c>
-      <c r="AF51" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR51" s="5">
         <f t="shared" si="31"/>
-        <v>79.999640001620008</v>
-      </c>
-      <c r="AG51" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AH51" s="48">
-        <v>9</v>
-      </c>
-      <c r="AI51" s="17">
-        <v>9</v>
-      </c>
-      <c r="AJ51" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK51" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS51" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL51" s="5">
-        <f t="shared" si="33"/>
-        <v>54</v>
-      </c>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-      <c r="AR51" s="5"/>
+        <v>18.100081449999998</v>
+      </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="7">
         <v>2024</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -7781,105 +8170,123 @@
       <c r="H52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="K52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="L52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="18">
+      <c r="M52" s="17">
         <v>6.6</v>
       </c>
-      <c r="M52" s="18">
+      <c r="N52" s="17">
         <v>0.8</v>
       </c>
-      <c r="N52" s="19">
+      <c r="O52" s="18">
         <v>24</v>
       </c>
-      <c r="O52" s="19">
+      <c r="P52" s="18">
         <v>105</v>
       </c>
-      <c r="P52" s="19">
+      <c r="Q52" s="18">
         <v>439</v>
       </c>
-      <c r="Q52" s="20">
+      <c r="R52" s="19">
         <v>0.7</v>
       </c>
-      <c r="R52" s="18">
+      <c r="S52" s="17">
         <v>13.4</v>
       </c>
-      <c r="S52" s="18">
+      <c r="T52" s="17">
         <v>3.3</v>
       </c>
-      <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="46">
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5">
         <v>3229</v>
       </c>
-      <c r="Z52" s="47">
+      <c r="AA52" s="5">
         <v>25.9</v>
       </c>
-      <c r="AA52" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB52" s="24">
+        <f t="shared" si="33"/>
         <v>2814.9282352941177</v>
       </c>
-      <c r="AB52" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC52" s="25">
+        <f t="shared" si="34"/>
         <v>2.3263974400588237</v>
       </c>
-      <c r="AC52" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD52" s="25">
+        <f t="shared" si="35"/>
         <v>703.73522561779407</v>
       </c>
-      <c r="AD52" s="23">
+      <c r="AE52" s="22">
+        <f t="shared" si="36"/>
+        <v>15.304</v>
+      </c>
+      <c r="AF52" s="22">
+        <v>21</v>
+      </c>
+      <c r="AG52" s="26">
+        <f t="shared" si="37"/>
+        <v>61.215724529239623</v>
+      </c>
+      <c r="AH52" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI52" s="38">
+        <v>9</v>
+      </c>
+      <c r="AJ52" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK52" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL52" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM52" s="5">
+        <f t="shared" si="39"/>
+        <v>54</v>
+      </c>
+      <c r="AN52" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO52" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP52" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ52" s="5">
         <f t="shared" si="30"/>
-        <v>15.304</v>
-      </c>
-      <c r="AE52" s="23">
-        <v>21</v>
-      </c>
-      <c r="AF52" s="27">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR52" s="5">
         <f t="shared" si="31"/>
-        <v>61.215724529239623</v>
-      </c>
-      <c r="AG52" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AH52" s="48">
-        <v>9</v>
-      </c>
-      <c r="AI52" s="17">
-        <v>9</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK52" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS52" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL52" s="5">
-        <f t="shared" si="33"/>
-        <v>54</v>
-      </c>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
+        <v>18.100081449999998</v>
+      </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.6">
+      <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="7">
         <v>2024</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -7901,99 +8308,117 @@
       <c r="H53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="K53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="L53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="18">
+      <c r="M53" s="17">
         <v>6.4</v>
       </c>
-      <c r="M53" s="18">
+      <c r="N53" s="17">
         <v>0.6</v>
       </c>
-      <c r="N53" s="19">
+      <c r="O53" s="18">
         <v>24</v>
       </c>
-      <c r="O53" s="19">
+      <c r="P53" s="18">
         <v>78</v>
       </c>
-      <c r="P53" s="19">
+      <c r="Q53" s="18">
         <v>216</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="R53" s="19">
         <v>0.42</v>
       </c>
-      <c r="R53" s="18">
+      <c r="S53" s="17">
         <v>5.7</v>
       </c>
-      <c r="S53" s="18">
+      <c r="T53" s="17">
         <v>1.3</v>
       </c>
-      <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="16">
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5">
         <v>2420</v>
       </c>
-      <c r="Z53" s="44">
+      <c r="AA53" s="5">
         <v>25.1</v>
       </c>
-      <c r="AA53" s="25">
-        <f t="shared" si="27"/>
+      <c r="AB53" s="24">
+        <f t="shared" si="33"/>
         <v>2132.4470588235295</v>
       </c>
-      <c r="AB53" s="26">
-        <f t="shared" si="28"/>
+      <c r="AC53" s="25">
+        <f t="shared" si="34"/>
         <v>2.2119370841100796</v>
       </c>
-      <c r="AC53" s="26">
-        <f t="shared" si="29"/>
+      <c r="AD53" s="25">
+        <f t="shared" si="35"/>
         <v>669.1109679432991</v>
       </c>
-      <c r="AD53" s="23">
+      <c r="AE53" s="22">
+        <f t="shared" si="36"/>
+        <v>10.844000000000001</v>
+      </c>
+      <c r="AF53" s="22">
+        <v>22</v>
+      </c>
+      <c r="AG53" s="26">
+        <f t="shared" si="37"/>
+        <v>34.559672481473839</v>
+      </c>
+      <c r="AH53" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI53" s="38">
+        <v>6</v>
+      </c>
+      <c r="AJ53" s="7">
+        <v>6</v>
+      </c>
+      <c r="AK53" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL53" s="5">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AM53" s="5">
+        <f t="shared" si="39"/>
+        <v>36</v>
+      </c>
+      <c r="AN53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO53" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP53" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AQ53" s="5">
         <f t="shared" si="30"/>
-        <v>10.844000000000001</v>
-      </c>
-      <c r="AE53" s="23">
-        <v>22</v>
-      </c>
-      <c r="AF53" s="27">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AR53" s="5">
         <f t="shared" si="31"/>
-        <v>34.559672481473839</v>
-      </c>
-      <c r="AG53" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="AH53" s="48">
-        <v>6</v>
-      </c>
-      <c r="AI53" s="17">
-        <v>6</v>
-      </c>
-      <c r="AJ53" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK53" s="5">
+        <v>43.2</v>
+      </c>
+      <c r="AS53" s="26">
         <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AL53" s="5">
-        <f t="shared" si="33"/>
-        <v>36</v>
-      </c>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
+        <v>13.555128459366175</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8015,6 +8440,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F5054E893517984C855A57020CDEA3AC" ma:contentTypeVersion="16" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="51ad2252ba68a408f345f441ae4381cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f53a7b80-c772-4be7-9753-cce4d137279b" xmlns:ns3="c2072995-9573-4763-8ef9-ccd2211cdc67" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da843ded4f9ec0271b3e7461b03c34b3" ns2:_="" ns3:_="">
     <xsd:import namespace="f53a7b80-c772-4be7-9753-cce4d137279b"/>
@@ -8255,33 +8689,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A31E2-40FF-443E-B7FA-B151C676481F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
+    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88214A36-1175-4AAE-9765-8CA40D79A332}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86F68C0-0C36-4592-B466-97CCA3B9F95C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8298,12 +8731,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88214A36-1175-4AAE-9765-8CA40D79A332}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/25년_수확량 통계.xlsx
+++ b/data/25년_수확량 통계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://godaedong.sharepoint.com/sites/msteams_568ebf/Shared Documents/General/3. 정밀농업서비스 개발 관련 자료/데이터 분석/25년_필지분석/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\회사관련\rice_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="939" documentId="13_ncr:1_{F8FA6735-A609-4EE7-8805-16A4814DCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D0BA82-D273-4BF5-9153-AD49C0739E64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB3D152-2CA0-4078-8877-90DC6FB36279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
+    <workbookView xWindow="25890" yWindow="300" windowWidth="22230" windowHeight="20580" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,42 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{FFD974FE-6107-456F-98C9-5C08D6F210C5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>촬영</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">X
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="176">
   <si>
     <t>김제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,23 +126,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GJ-R9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북특별자치도 김제시 부량면 신용리 3-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>강정우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GJ-R10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북특별자치도 김제시 부량면 신용리 19-11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -758,13 +708,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,19 +737,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -834,7 +771,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,12 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,69 +863,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1003,67 +931,64 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,21 +1327,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E909C495-F45E-40B7-8FCD-B2FFDFF6E4E4}">
-  <dimension ref="A1:AS53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E909C495-F45E-40B7-8FCD-B2FFDFF6E4E4}">
+  <dimension ref="A1:AS51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="51.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.125" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="7.75" customWidth="1" outlineLevel="1"/>
@@ -1450,144 +1375,144 @@
     <col min="45" max="45" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1607,17 +1532,17 @@
         <v>4000</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G53" si="0">F2/3.3058</f>
+        <f t="shared" ref="G2:G51" si="0">F2/3.3058</f>
         <v>1209.9945550245025</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>147</v>
+      <c r="J2" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>4</v>
@@ -1631,7 +1556,7 @@
       <c r="N2" s="5">
         <v>0.26999999999999991</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <v>25.1</v>
       </c>
       <c r="P2" s="5">
@@ -1662,33 +1587,33 @@
       <c r="Y2" s="5">
         <v>1.5896000000000001</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="15">
         <v>2775.8960000000002</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="22">
         <v>24.7</v>
       </c>
-      <c r="AB2" s="24">
-        <f t="shared" ref="AB2:AB25" si="1">Z2*(100-AA2)/(100-15)</f>
+      <c r="AB2" s="23">
+        <f t="shared" ref="AB2:AB23" si="1">Z2*(100-AA2)/(100-15)</f>
         <v>2459.1172799999999</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="24">
         <f>AB2/G2</f>
         <v>2.032337476056</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AD2" s="24">
         <f>AB2*302.5/G2</f>
         <v>614.78208650693989</v>
       </c>
-      <c r="AE2" s="22">
-        <f t="shared" ref="AE2:AE11" si="2">9.14-(0.109*O2)+(0.02*Q2)</f>
+      <c r="AE2" s="21">
+        <f t="shared" ref="AE2:AE9" si="2">9.14-(0.109*O2)+(0.02*Q2)</f>
         <v>14.464100000000002</v>
       </c>
-      <c r="AF2" s="22">
+      <c r="AF2" s="21">
         <v>13</v>
       </c>
-      <c r="AG2" s="26">
-        <f t="shared" ref="AG2:AG11" si="3">IF(AE2&lt;AF2, AE2*G2/302.5, AF2*G2/302.5)</f>
+      <c r="AG2" s="25">
+        <f t="shared" ref="AG2:AG9" si="3">IF(AE2&lt;AF2, AE2*G2/302.5, AF2*G2/302.5)</f>
         <v>51.999766001052997</v>
       </c>
       <c r="AH2" s="5">
@@ -1728,12 +1653,12 @@
         <f>AM2+AQ2</f>
         <v>82.050000000000011</v>
       </c>
-      <c r="AS2" s="26">
-        <f t="shared" ref="AS2:AS23" si="4">AR2*302.5/G2</f>
+      <c r="AS2" s="25">
+        <f t="shared" ref="AS2:AS21" si="4">AR2*302.5/G2</f>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1757,13 +1682,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>147</v>
+      <c r="J3" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>4</v>
@@ -1808,32 +1733,32 @@
       <c r="Y3" s="5">
         <v>1.9521000000000002</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="15">
         <v>3189.5210000000002</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="26">
         <v>24.26</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="23">
         <f t="shared" si="1"/>
         <v>2842.0508298823529</v>
       </c>
-      <c r="AC3" s="25">
-        <f t="shared" ref="AC3:AC37" si="5">AB3/G3</f>
+      <c r="AC3" s="24">
+        <f t="shared" ref="AC3:AC35" si="5">AB3/G3</f>
         <v>2.3488129083562703</v>
       </c>
-      <c r="AD3" s="25">
-        <f t="shared" ref="AD3:AD37" si="6">AB3*302.5/G3</f>
+      <c r="AD3" s="24">
+        <f t="shared" ref="AD3:AD35" si="6">AB3*302.5/G3</f>
         <v>710.51590477777177</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="21">
         <f t="shared" si="2"/>
         <v>14.0265</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="21">
         <v>13</v>
       </c>
-      <c r="AG3" s="26">
+      <c r="AG3" s="25">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
@@ -1850,11 +1775,11 @@
         <v>15</v>
       </c>
       <c r="AL3" s="5">
-        <f t="shared" ref="AL3:AL11" si="7">AK3*AH3</f>
+        <f t="shared" ref="AL3:AL9" si="7">AK3*AH3</f>
         <v>4.95</v>
       </c>
       <c r="AM3" s="5">
-        <f t="shared" ref="AM3:AM11" si="8">AL3*AJ3</f>
+        <f t="shared" ref="AM3:AM9" si="8">AL3*AJ3</f>
         <v>54.45</v>
       </c>
       <c r="AN3" s="5">
@@ -1867,19 +1792,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ3" s="5">
-        <f t="shared" ref="AQ3:AQ11" si="9">AN3*AO3*AP3</f>
+        <f t="shared" ref="AQ3:AQ9" si="9">AN3*AO3*AP3</f>
         <v>27.6</v>
       </c>
       <c r="AR3" s="5">
-        <f t="shared" ref="AR3:AR11" si="10">AM3+AQ3</f>
+        <f t="shared" ref="AR3:AR9" si="10">AM3+AQ3</f>
         <v>82.050000000000011</v>
       </c>
-      <c r="AS3" s="26">
+      <c r="AS3" s="25">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1903,13 +1828,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>147</v>
+      <c r="J4" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>4</v>
@@ -1954,32 +1879,32 @@
       <c r="Y4" s="5">
         <v>1.7538</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <v>2688.7689999999998</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA4" s="26">
         <v>23.91</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="23">
         <f t="shared" si="1"/>
         <v>2406.9227436470587</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AC4" s="24">
         <f t="shared" si="5"/>
         <v>1.9892013014871115</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AD4" s="24">
         <f t="shared" si="6"/>
         <v>601.73339369985126</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="21">
         <f t="shared" si="2"/>
         <v>14.379200000000001</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AF4" s="21">
         <v>13</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AG4" s="25">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
@@ -2020,12 +1945,12 @@
         <f t="shared" si="10"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AS4" s="26">
+      <c r="AS4" s="25">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2049,13 +1974,13 @@
         <v>1203.9445822493799</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>147</v>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>4</v>
@@ -2100,32 +2025,32 @@
       <c r="Y5" s="5">
         <v>1.8239999999999998</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="15">
         <v>2959.12</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AA5" s="26">
         <v>23.83</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="23">
         <f t="shared" si="1"/>
         <v>2651.7196517647058</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="24">
         <f t="shared" si="5"/>
         <v>2.2025263378903932</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="24">
         <f t="shared" si="6"/>
         <v>666.26421721184397</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="21">
         <f t="shared" si="2"/>
         <v>15.827000000000002</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="21">
         <v>13</v>
       </c>
-      <c r="AG5" s="26">
+      <c r="AG5" s="25">
         <f t="shared" si="3"/>
         <v>51.739767171047731</v>
       </c>
@@ -2166,12 +2091,12 @@
         <f t="shared" si="10"/>
         <v>77.099999999999994</v>
       </c>
-      <c r="AS5" s="26">
+      <c r="AS5" s="25">
         <f t="shared" si="4"/>
         <v>19.371946469849245</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2195,13 +2120,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>147</v>
+      <c r="J6" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>4</v>
@@ -2246,32 +2171,32 @@
       <c r="Y6" s="5">
         <v>1.6042000000000001</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="15">
         <v>2798.0210000000002</v>
       </c>
-      <c r="AA6" s="27">
+      <c r="AA6" s="26">
         <v>24</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="23">
         <f t="shared" si="1"/>
         <v>2501.7599529411768</v>
       </c>
-      <c r="AC6" s="25">
+      <c r="AC6" s="24">
         <f t="shared" si="5"/>
         <v>2.0675795131082353</v>
       </c>
-      <c r="AD6" s="25">
+      <c r="AD6" s="24">
         <f t="shared" si="6"/>
         <v>625.44280271524121</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="21">
         <f t="shared" si="2"/>
         <v>14.878000000000002</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="21">
         <v>13</v>
       </c>
-      <c r="AG6" s="26">
+      <c r="AG6" s="25">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
@@ -2312,12 +2237,12 @@
         <f t="shared" si="10"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AS6" s="26">
+      <c r="AS6" s="25">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2341,13 +2266,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>147</v>
+      <c r="J7" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>4</v>
@@ -2392,32 +2317,32 @@
       <c r="Y7" s="5">
         <v>1.8839999999999999</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="15">
         <v>3029.42</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AA7" s="26">
         <v>24.3</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="23">
         <f t="shared" si="1"/>
         <v>2697.9658117647059</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AC7" s="24">
         <f t="shared" si="5"/>
         <v>2.2297338451329409</v>
       </c>
-      <c r="AD7" s="25">
+      <c r="AD7" s="24">
         <f t="shared" si="6"/>
         <v>674.49448815271467</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="21">
         <f t="shared" si="2"/>
         <v>14.203400000000002</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AF7" s="21">
         <v>13</v>
       </c>
-      <c r="AG7" s="26">
+      <c r="AG7" s="25">
         <f t="shared" si="3"/>
         <v>51.999766001052997</v>
       </c>
@@ -2458,12 +2383,12 @@
         <f t="shared" si="10"/>
         <v>82.050000000000011</v>
       </c>
-      <c r="AS7" s="26">
+      <c r="AS7" s="25">
         <f t="shared" si="4"/>
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2487,13 +2412,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>152</v>
+      <c r="J8" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>4</v>
@@ -2530,32 +2455,32 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="16">
+      <c r="Z8" s="15">
         <v>2700</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="AA8" s="27">
         <v>24.17</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="23">
         <f t="shared" si="1"/>
         <v>2408.7176470588233</v>
       </c>
-      <c r="AC8" s="25">
+      <c r="AC8" s="24">
         <f t="shared" si="5"/>
         <v>1.9906846994117644</v>
       </c>
-      <c r="AD8" s="25">
+      <c r="AD8" s="24">
         <f t="shared" si="6"/>
         <v>602.1821215720588</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="21">
         <f t="shared" si="2"/>
         <v>10.996</v>
       </c>
-      <c r="AF8" s="22">
+      <c r="AF8" s="21">
         <v>13</v>
       </c>
-      <c r="AG8" s="26">
+      <c r="AG8" s="25">
         <f t="shared" si="3"/>
         <v>43.983802072890676</v>
       </c>
@@ -2596,12 +2521,12 @@
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
-      <c r="AS8" s="26">
+      <c r="AS8" s="25">
         <f t="shared" si="4"/>
         <v>14.500065249999999</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2625,13 +2550,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I9" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>153</v>
+      <c r="J9" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>4</v>
@@ -2668,32 +2593,32 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="16">
+      <c r="Z9" s="15">
         <v>2950</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="AA9" s="27">
         <v>24.17</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="23">
         <f t="shared" si="1"/>
         <v>2631.7470588235292</v>
       </c>
-      <c r="AC9" s="25">
+      <c r="AC9" s="24">
         <f t="shared" si="5"/>
         <v>2.1750073567647057</v>
       </c>
-      <c r="AD9" s="25">
+      <c r="AD9" s="24">
         <f t="shared" si="6"/>
         <v>657.93972542132349</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="21">
         <f t="shared" si="2"/>
         <v>9.0030000000000001</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="21">
         <v>13</v>
       </c>
-      <c r="AG9" s="26">
+      <c r="AG9" s="25">
         <f t="shared" si="3"/>
         <v>36.011837946729237</v>
       </c>
@@ -2734,157 +2659,114 @@
         <f t="shared" si="10"/>
         <v>53.600000000000009</v>
       </c>
-      <c r="AS9" s="26">
+      <c r="AS9" s="25">
         <f t="shared" si="4"/>
         <v>13.400060300000002</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7">
         <v>2025</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
-        <v>2520</v>
+        <v>5500</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>762.29656966543644</v>
+        <v>1663.7425131586908</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>154</v>
+        <v>4</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="5">
-        <v>18</v>
-      </c>
-      <c r="P10" s="5">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>196</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0.13005</v>
-      </c>
-      <c r="S10" s="5">
-        <v>7.1406900000000002</v>
-      </c>
-      <c r="T10" s="5">
-        <v>2.0482740000000002</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="25">
+      <c r="Z10" s="15">
+        <v>4150</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>24.17</v>
+      </c>
+      <c r="AB10" s="23">
+        <f t="shared" si="1"/>
+        <v>3702.2882352941178</v>
+      </c>
+      <c r="AC10" s="24">
         <f t="shared" si="5"/>
+        <v>2.2252771724064173</v>
+      </c>
+      <c r="AD10" s="24">
+        <f t="shared" si="6"/>
+        <v>673.14634465294114</v>
+      </c>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="22">
-        <f t="shared" si="2"/>
-        <v>11.098000000000001</v>
-      </c>
-      <c r="AF10" s="22">
-        <v>13</v>
-      </c>
-      <c r="AG10" s="26">
-        <f t="shared" si="3"/>
-        <v>27.966834149246328</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>6</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL10" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="AM10" s="5">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="AN10" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO10" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="AQ10" s="5">
-        <f t="shared" si="9"/>
-        <v>8.4</v>
-      </c>
-      <c r="AR10" s="5">
-        <f t="shared" si="10"/>
-        <v>44.4</v>
-      </c>
-      <c r="AS10" s="26">
-        <f t="shared" si="4"/>
-        <v>17.619126904761906</v>
-      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7">
         <v>2025</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F11" s="4">
         <v>4000</v>
@@ -2894,411 +2776,488 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>153</v>
+        <v>4</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="O11" s="5">
-        <v>35</v>
-      </c>
-      <c r="P11" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>628</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0.81090000000000007</v>
-      </c>
-      <c r="S11" s="5">
-        <v>9.1616400000000002</v>
-      </c>
-      <c r="T11" s="5">
-        <v>2.3855399999999998</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="25">
+      <c r="Z11" s="15">
+        <v>2570</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>24.17</v>
+      </c>
+      <c r="AB11" s="23">
+        <f t="shared" si="1"/>
+        <v>2292.7423529411767</v>
+      </c>
+      <c r="AC11" s="24">
         <f t="shared" si="5"/>
+        <v>1.8948369175882354</v>
+      </c>
+      <c r="AD11" s="24">
+        <f t="shared" si="6"/>
+        <v>573.18816757044112</v>
+      </c>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="22">
-        <f t="shared" si="2"/>
-        <v>17.885000000000002</v>
-      </c>
-      <c r="AF11" s="22">
-        <v>13</v>
-      </c>
-      <c r="AG11" s="26">
-        <f t="shared" si="3"/>
-        <v>51.999766001052997</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>9</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>9</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL11" s="5">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="AM11" s="5">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="AN11" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO11" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP11" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="AQ11" s="5">
-        <f t="shared" si="9"/>
-        <v>8.4</v>
-      </c>
-      <c r="AR11" s="5">
-        <f t="shared" si="10"/>
-        <v>62.4</v>
-      </c>
-      <c r="AS11" s="26">
-        <f t="shared" si="4"/>
-        <v>15.600070199999999</v>
-      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7">
         <v>2025</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="4">
-        <v>5500</v>
+        <v>5155</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>1663.7425131586908</v>
+        <v>1559.3804827878275</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="5">
+        <v>7.4375</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2.88625</v>
+      </c>
+      <c r="O12" s="5">
+        <v>21.237499999999997</v>
+      </c>
+      <c r="P12" s="5">
+        <v>53.625</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>319.625</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="S12" s="5">
+        <v>4.59375</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5.2662499999999994</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2.2687499999999998</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1.7037500000000001</v>
+      </c>
+      <c r="W12" s="5">
+        <v>23.779166668750001</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5">
+        <v>2.4672499999999999</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>4860.7380000000003</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>23.8</v>
+      </c>
+      <c r="AB12" s="23">
+        <f t="shared" si="1"/>
+        <v>4357.508654117647</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="5"/>
+        <v>2.7943845021885774</v>
+      </c>
+      <c r="AD12" s="24">
+        <f t="shared" si="6"/>
+        <v>845.30131191204475</v>
+      </c>
+      <c r="AE12" s="21">
+        <f t="shared" ref="AE12:AE42" si="11">9.14-(0.109*O12)+(0.02*Q12)</f>
+        <v>13.217612500000001</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>13</v>
+      </c>
+      <c r="AG12" s="25">
+        <f t="shared" ref="AG12:AG42" si="12">IF(AE12&lt;AF12, AE12*G12/302.5, AF12*G12/302.5)</f>
+        <v>67.014698433857049</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL12" s="5">
+        <f t="shared" ref="AL12:AL21" si="13">AK12*AH12</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AM12" s="5">
+        <f t="shared" ref="AM12:AM21" si="14">AL12*AJ12</f>
+        <v>67.2</v>
+      </c>
+      <c r="AN12" s="5">
         <v>3</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="AO12" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AQ12" s="5">
+        <f t="shared" ref="AQ12:AQ19" si="15">AN12*AO12*AP12</f>
+        <v>16.8</v>
+      </c>
+      <c r="AR12" s="5">
+        <f t="shared" ref="AR12:AR19" si="16">AM12+AQ12</f>
+        <v>84</v>
+      </c>
+      <c r="AS12" s="25">
+        <f t="shared" si="4"/>
+        <v>16.294932686711931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="16">
-        <v>4150</v>
-      </c>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="24">
-        <f t="shared" si="1"/>
-        <v>4882.3529411764703</v>
-      </c>
-      <c r="AC12" s="25">
-        <f t="shared" si="5"/>
-        <v>2.9345604278074862</v>
-      </c>
-      <c r="AD12" s="25">
-        <f t="shared" si="6"/>
-        <v>887.70452941176461</v>
-      </c>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>2025</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" s="4">
-        <v>4000</v>
+        <v>4996</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
+        <v>1511.2831992256035</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I13" s="4">
-        <v>3</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="5">
+        <v>7.5750000000000011</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2.3787499999999997</v>
+      </c>
+      <c r="O13" s="5">
+        <v>19.3125</v>
+      </c>
+      <c r="P13" s="5">
+        <v>56.75</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>405.75</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1.1074999999999999</v>
+      </c>
+      <c r="S13" s="5">
+        <v>5.3362499999999997</v>
+      </c>
+      <c r="T13" s="5">
+        <v>5.1325000000000003</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1.9762499999999998</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="W13" s="5">
+        <v>23.429166667499999</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5">
+        <v>2.5220000000000002</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>4811.1760000000004</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="AB13" s="23">
+        <f t="shared" si="1"/>
+        <v>4335.7186070588232</v>
+      </c>
+      <c r="AC13" s="24">
+        <f t="shared" si="5"/>
+        <v>2.8688988333096592</v>
+      </c>
+      <c r="AD13" s="24">
+        <f t="shared" si="6"/>
+        <v>867.8418970761719</v>
+      </c>
+      <c r="AE13" s="21">
+        <f t="shared" si="11"/>
+        <v>15.1499375</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>13</v>
+      </c>
+      <c r="AG13" s="25">
+        <f t="shared" si="12"/>
+        <v>64.947707735315191</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL13" s="5">
+        <f t="shared" si="13"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AM13" s="5">
+        <f t="shared" si="14"/>
+        <v>67.2</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AQ13" s="5">
+        <f t="shared" si="15"/>
+        <v>19.040000000000003</v>
+      </c>
+      <c r="AR13" s="5">
+        <f t="shared" si="16"/>
+        <v>86.240000000000009</v>
+      </c>
+      <c r="AS13" s="25">
+        <f t="shared" si="4"/>
+        <v>17.261887125700561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="16">
-        <v>2570</v>
-      </c>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="24">
-        <f t="shared" si="1"/>
-        <v>3023.5294117647059</v>
-      </c>
-      <c r="AC13" s="25">
-        <f t="shared" si="5"/>
-        <v>2.4987958823529408</v>
-      </c>
-      <c r="AD13" s="25">
-        <f t="shared" si="6"/>
-        <v>755.88575441176465</v>
-      </c>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="B14" s="7">
         <v>2025</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="4">
-        <v>5155</v>
+        <v>4911</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>1559.3804827878275</v>
+        <v>1485.5708149313327</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>147</v>
+        <v>2</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M14" s="5">
-        <v>7.4375</v>
+        <v>8.32</v>
       </c>
       <c r="N14" s="5">
-        <v>2.88625</v>
+        <v>1.6219999999999999</v>
       </c>
       <c r="O14" s="5">
-        <v>21.237499999999997</v>
+        <v>12.860000000000003</v>
       </c>
       <c r="P14" s="5">
-        <v>53.625</v>
+        <v>67.8</v>
       </c>
       <c r="Q14" s="5">
-        <v>319.625</v>
+        <v>460</v>
       </c>
       <c r="R14" s="5">
-        <v>1.2775000000000001</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="S14" s="5">
-        <v>4.59375</v>
+        <v>5.0540000000000003</v>
       </c>
       <c r="T14" s="5">
-        <v>5.2662499999999994</v>
+        <v>5.1179999999999994</v>
       </c>
       <c r="U14" s="5">
-        <v>2.2687499999999998</v>
+        <v>3.008</v>
       </c>
       <c r="V14" s="5">
-        <v>1.7037500000000001</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="W14" s="5">
-        <v>23.779166668750001</v>
+        <v>22.919999999999995</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5">
-        <v>2.4672499999999999</v>
+        <v>2.6686000000000001</v>
       </c>
       <c r="Z14" s="5">
-        <v>4860.7380000000003</v>
-      </c>
-      <c r="AA14" s="29">
-        <v>23.8</v>
-      </c>
-      <c r="AB14" s="24">
+        <v>4654.3429999999998</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>22.9</v>
+      </c>
+      <c r="AB14" s="23">
         <f t="shared" si="1"/>
-        <v>4357.508654117647</v>
-      </c>
-      <c r="AC14" s="25">
+        <v>4221.7628858823527</v>
+      </c>
+      <c r="AC14" s="24">
         <f t="shared" si="5"/>
-        <v>2.7943845021885774</v>
-      </c>
-      <c r="AD14" s="25">
+        <v>2.8418456013337168</v>
+      </c>
+      <c r="AD14" s="24">
         <f t="shared" si="6"/>
-        <v>845.30131191204475</v>
-      </c>
-      <c r="AE14" s="22">
-        <f t="shared" ref="AE14:AE44" si="11">9.14-(0.109*O14)+(0.02*Q14)</f>
-        <v>13.217612500000001</v>
-      </c>
-      <c r="AF14" s="22">
+        <v>859.6582944034493</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" si="11"/>
+        <v>16.93826</v>
+      </c>
+      <c r="AF14" s="21">
         <v>13</v>
       </c>
-      <c r="AG14" s="26">
-        <f t="shared" ref="AG14:AG44" si="12">IF(AE14&lt;AF14, AE14*G14/302.5, AF14*G14/302.5)</f>
-        <v>67.014698433857049</v>
+      <c r="AG14" s="25">
+        <f t="shared" si="12"/>
+        <v>63.842712707792813</v>
       </c>
       <c r="AH14" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="AI14" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AJ14" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK14" s="5">
         <v>20</v>
       </c>
       <c r="AL14" s="5">
-        <f t="shared" ref="AL14:AL23" si="13">AK14*AH14</f>
-        <v>5.6000000000000005</v>
+        <f t="shared" si="13"/>
+        <v>3.5999999999999996</v>
       </c>
       <c r="AM14" s="5">
-        <f t="shared" ref="AM14:AM23" si="14">AL14*AJ14</f>
-        <v>67.2</v>
+        <f t="shared" si="14"/>
+        <v>32.4</v>
       </c>
       <c r="AN14" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="5">
         <v>20</v>
@@ -3307,127 +3266,119 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AQ14" s="5">
-        <f t="shared" ref="AQ14:AQ21" si="15">AN14*AO14*AP14</f>
-        <v>16.8</v>
+        <f t="shared" si="15"/>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AR14" s="5">
-        <f t="shared" ref="AR14:AR21" si="16">AM14+AQ14</f>
-        <v>84</v>
-      </c>
-      <c r="AS14" s="26">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="AS14" s="25">
         <f t="shared" si="4"/>
-        <v>16.294932686711931</v>
+        <v>7.7377664426796988</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7">
         <v>2025</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" s="4">
-        <v>4996</v>
+        <v>4929</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>1511.2831992256035</v>
+        <f>F15/3.3058</f>
+        <v>1491.0157904289431</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>147</v>
+        <v>3</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M15" s="5">
-        <v>7.5750000000000011</v>
+        <v>8.1</v>
       </c>
       <c r="N15" s="5">
-        <v>2.3787499999999997</v>
+        <v>2.02</v>
       </c>
       <c r="O15" s="5">
-        <v>19.3125</v>
+        <v>18.2</v>
       </c>
       <c r="P15" s="5">
-        <v>56.75</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="5">
-        <v>405.75</v>
+        <v>409</v>
       </c>
       <c r="R15" s="5">
-        <v>1.1074999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="S15" s="5">
-        <v>5.3362499999999997</v>
+        <v>5.73</v>
       </c>
       <c r="T15" s="5">
-        <v>5.1325000000000003</v>
-      </c>
-      <c r="U15" s="5">
-        <v>1.9762499999999998</v>
-      </c>
-      <c r="V15" s="5">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="W15" s="5">
-        <v>23.429166667499999</v>
-      </c>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5">
-        <v>2.5220000000000002</v>
-      </c>
+      <c r="Y15" s="5"/>
       <c r="Z15" s="5">
-        <v>4811.1760000000004</v>
+        <v>5070</v>
       </c>
       <c r="AA15" s="5">
-        <v>23.4</v>
-      </c>
-      <c r="AB15" s="24">
+        <v>22.9</v>
+      </c>
+      <c r="AB15" s="23">
         <f t="shared" si="1"/>
-        <v>4335.7186070588232</v>
-      </c>
-      <c r="AC15" s="25">
+        <v>4598.7882352941178</v>
+      </c>
+      <c r="AC15" s="24">
         <f t="shared" si="5"/>
-        <v>2.8688988333096592</v>
-      </c>
-      <c r="AD15" s="25">
+        <v>3.0843323490029002</v>
+      </c>
+      <c r="AD15" s="24">
         <f t="shared" si="6"/>
-        <v>867.8418970761719</v>
-      </c>
-      <c r="AE15" s="22">
+        <v>933.0105355733773</v>
+      </c>
+      <c r="AE15" s="21">
         <f t="shared" si="11"/>
-        <v>15.1499375</v>
-      </c>
-      <c r="AF15" s="22">
+        <v>15.3362</v>
+      </c>
+      <c r="AF15" s="21">
         <v>13</v>
       </c>
-      <c r="AG15" s="26">
+      <c r="AG15" s="25">
         <f t="shared" si="12"/>
-        <v>64.947707735315191</v>
+        <v>64.076711654797549</v>
       </c>
       <c r="AH15" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="AI15" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AJ15" s="5">
         <v>12</v>
@@ -3437,14 +3388,14 @@
       </c>
       <c r="AL15" s="5">
         <f t="shared" si="13"/>
-        <v>5.6000000000000005</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="AM15" s="5">
         <f t="shared" si="14"/>
-        <v>67.2</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="AN15" s="5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="5">
         <v>20</v>
@@ -3454,224 +3405,224 @@
       </c>
       <c r="AQ15" s="5">
         <f t="shared" si="15"/>
-        <v>19.040000000000003</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="5">
         <f t="shared" si="16"/>
-        <v>86.240000000000009</v>
-      </c>
-      <c r="AS15" s="26">
+        <v>43.199999999999996</v>
+      </c>
+      <c r="AS15" s="25">
         <f t="shared" si="4"/>
-        <v>17.261887125700561</v>
+        <v>8.7644947048082766</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <v>2025</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="E16" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" s="4">
-        <v>4911</v>
+        <v>4917</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>1485.5708149313327</v>
+        <v>1487.3858067638696</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>146</v>
+      <c r="J16" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M16" s="5">
-        <v>8.32</v>
+        <v>6.8</v>
       </c>
       <c r="N16" s="5">
-        <v>1.6219999999999999</v>
+        <v>4.8120000000000003</v>
       </c>
       <c r="O16" s="5">
-        <v>12.860000000000003</v>
+        <v>22.140000000000004</v>
       </c>
       <c r="P16" s="5">
-        <v>67.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Q16" s="5">
-        <v>460</v>
+        <v>522.79999999999995</v>
       </c>
       <c r="R16" s="5">
-        <v>1.1120000000000001</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="S16" s="5">
-        <v>5.0540000000000003</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="T16" s="5">
-        <v>5.1179999999999994</v>
+        <v>3.3920000000000003</v>
       </c>
       <c r="U16" s="5">
-        <v>3.008</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="V16" s="5">
-        <v>1.8640000000000001</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="W16" s="5">
-        <v>22.919999999999995</v>
+        <v>23.006666664000001</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5">
-        <v>2.6686000000000001</v>
+        <v>2.3647999999999998</v>
       </c>
       <c r="Z16" s="5">
-        <v>4654.3429999999998</v>
+        <v>4632.8239999999996</v>
       </c>
       <c r="AA16" s="5">
-        <v>22.9</v>
-      </c>
-      <c r="AB16" s="24">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="23">
         <f t="shared" si="1"/>
-        <v>4221.7628858823527</v>
-      </c>
-      <c r="AC16" s="25">
+        <v>4196.7935058823523</v>
+      </c>
+      <c r="AC16" s="24">
         <f t="shared" si="5"/>
-        <v>2.8418456013337168</v>
-      </c>
-      <c r="AD16" s="25">
+        <v>2.8215903949045922</v>
+      </c>
+      <c r="AD16" s="24">
         <f t="shared" si="6"/>
-        <v>859.6582944034493</v>
-      </c>
-      <c r="AE16" s="22">
+        <v>853.53109445863913</v>
+      </c>
+      <c r="AE16" s="21">
         <f t="shared" si="11"/>
-        <v>16.93826</v>
-      </c>
-      <c r="AF16" s="22">
+        <v>17.182739999999999</v>
+      </c>
+      <c r="AF16" s="21">
         <v>13</v>
       </c>
-      <c r="AG16" s="26">
+      <c r="AG16" s="25">
         <f t="shared" si="12"/>
-        <v>63.842712707792813</v>
+        <v>63.920712356794397</v>
       </c>
       <c r="AH16" s="5">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI16" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AJ16" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK16" s="5">
         <v>20</v>
       </c>
       <c r="AL16" s="5">
         <f t="shared" si="13"/>
-        <v>3.5999999999999996</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AM16" s="5">
         <f t="shared" si="14"/>
-        <v>32.4</v>
+        <v>61.600000000000009</v>
       </c>
       <c r="AN16" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO16" s="5">
         <v>20</v>
       </c>
       <c r="AP16" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="AQ16" s="5">
         <f t="shared" si="15"/>
-        <v>5.6000000000000005</v>
+        <v>27.6</v>
       </c>
       <c r="AR16" s="5">
         <f t="shared" si="16"/>
-        <v>38</v>
-      </c>
-      <c r="AS16" s="26">
+        <v>89.200000000000017</v>
+      </c>
+      <c r="AS16" s="25">
         <f t="shared" si="4"/>
-        <v>7.7377664426796988</v>
+        <v>18.141224608501119</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7">
         <v>2025</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="4">
-        <v>4929</v>
+        <v>4799</v>
       </c>
       <c r="G17" s="4">
-        <f>F17/3.3058</f>
-        <v>1491.0157904289431</v>
+        <f t="shared" si="0"/>
+        <v>1451.6909673906466</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>152</v>
+      <c r="J17" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M17" s="5">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="N17" s="5">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="O17" s="5">
-        <v>18.2</v>
+        <v>24.5</v>
       </c>
       <c r="P17" s="5">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="5">
-        <v>409</v>
+        <v>216</v>
       </c>
       <c r="R17" s="5">
-        <v>1.31</v>
+        <v>0.8</v>
       </c>
       <c r="S17" s="5">
-        <v>5.73</v>
+        <v>5.68</v>
       </c>
       <c r="T17" s="5">
-        <v>5.1100000000000003</v>
+        <v>2.83</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -3679,188 +3630,188 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5">
-        <v>5070</v>
+        <v>4470</v>
       </c>
       <c r="AA17" s="5">
-        <v>22.9</v>
-      </c>
-      <c r="AB17" s="24">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AB17" s="23">
         <f t="shared" si="1"/>
-        <v>4598.7882352941178</v>
-      </c>
-      <c r="AC17" s="25">
+        <v>4201.8</v>
+      </c>
+      <c r="AC17" s="24">
         <f t="shared" si="5"/>
-        <v>3.0843323490029002</v>
-      </c>
-      <c r="AD17" s="25">
+        <v>2.8944176786830593</v>
+      </c>
+      <c r="AD17" s="24">
         <f t="shared" si="6"/>
-        <v>933.0105355733773</v>
-      </c>
-      <c r="AE17" s="22">
+        <v>875.5613478016254</v>
+      </c>
+      <c r="AE17" s="21">
         <f t="shared" si="11"/>
-        <v>15.3362</v>
-      </c>
-      <c r="AF17" s="22">
+        <v>10.7895</v>
+      </c>
+      <c r="AF17" s="21">
         <v>13</v>
       </c>
-      <c r="AG17" s="26">
+      <c r="AG17" s="25">
         <f t="shared" si="12"/>
-        <v>64.076711654797549</v>
+        <v>51.778577496401262</v>
       </c>
       <c r="AH17" s="5">
-        <v>0.18</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI17" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AJ17" s="5">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK17" s="5">
         <v>20</v>
       </c>
       <c r="AL17" s="5">
         <f t="shared" si="13"/>
-        <v>3.5999999999999996</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AM17" s="5">
         <f t="shared" si="14"/>
-        <v>43.199999999999996</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="AN17" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17" s="5">
         <v>20</v>
       </c>
       <c r="AP17" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="AQ17" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="AR17" s="5">
         <f t="shared" si="16"/>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="AS17" s="26">
+        <v>92</v>
+      </c>
+      <c r="AS17" s="25">
         <f t="shared" si="4"/>
-        <v>8.7644947048082766</v>
+        <v>19.170746822254639</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" s="7">
         <v>2025</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4">
-        <v>4917</v>
+        <v>5111</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>1487.3858067638696</v>
+        <v>1546.070542682558</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>147</v>
+      <c r="J18" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M18" s="5">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="N18" s="5">
-        <v>4.8120000000000003</v>
+        <v>2.1239999999999997</v>
       </c>
       <c r="O18" s="5">
-        <v>22.140000000000004</v>
+        <v>20.9</v>
       </c>
       <c r="P18" s="5">
-        <v>38.799999999999997</v>
+        <v>81.8</v>
       </c>
       <c r="Q18" s="5">
-        <v>522.79999999999995</v>
+        <v>465</v>
       </c>
       <c r="R18" s="5">
-        <v>0.83399999999999996</v>
+        <v>0.748</v>
       </c>
       <c r="S18" s="5">
-        <v>4.4260000000000002</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="T18" s="5">
-        <v>3.3920000000000003</v>
+        <v>2.4040000000000004</v>
       </c>
       <c r="U18" s="5">
-        <v>2.4820000000000002</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="V18" s="5">
-        <v>2.0859999999999999</v>
+        <v>2.1919999999999997</v>
       </c>
       <c r="W18" s="5">
-        <v>23.006666664000001</v>
+        <v>24.12</v>
       </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="5">
-        <v>2.3647999999999998</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="Z18" s="5">
-        <v>4632.8239999999996</v>
+        <v>4732.8649999999998</v>
       </c>
       <c r="AA18" s="5">
-        <v>23</v>
-      </c>
-      <c r="AB18" s="24">
+        <v>24.1</v>
+      </c>
+      <c r="AB18" s="23">
         <f t="shared" si="1"/>
-        <v>4196.7935058823523</v>
-      </c>
-      <c r="AC18" s="25">
+        <v>4226.1700411764705</v>
+      </c>
+      <c r="AC18" s="24">
         <f t="shared" si="5"/>
-        <v>2.8215903949045922</v>
-      </c>
-      <c r="AD18" s="25">
+        <v>2.7334910823950649</v>
+      </c>
+      <c r="AD18" s="24">
         <f t="shared" si="6"/>
-        <v>853.53109445863913</v>
-      </c>
-      <c r="AE18" s="22">
+        <v>826.88105242450706</v>
+      </c>
+      <c r="AE18" s="21">
         <f t="shared" si="11"/>
-        <v>17.182739999999999</v>
-      </c>
-      <c r="AF18" s="22">
+        <v>16.161900000000003</v>
+      </c>
+      <c r="AF18" s="21">
         <v>13</v>
       </c>
-      <c r="AG18" s="26">
+      <c r="AG18" s="25">
         <f t="shared" si="12"/>
-        <v>63.920712356794397</v>
+        <v>66.442701007845471</v>
       </c>
       <c r="AH18" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="AI18" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" s="5">
         <v>20</v>
@@ -3871,7 +3822,7 @@
       </c>
       <c r="AM18" s="5">
         <f t="shared" si="14"/>
-        <v>61.600000000000009</v>
+        <v>67.2</v>
       </c>
       <c r="AN18" s="5">
         <v>3</v>
@@ -3888,16 +3839,16 @@
       </c>
       <c r="AR18" s="5">
         <f t="shared" si="16"/>
-        <v>89.200000000000017</v>
-      </c>
-      <c r="AS18" s="26">
+        <v>94.800000000000011</v>
+      </c>
+      <c r="AS18" s="25">
         <f t="shared" si="4"/>
-        <v>18.141224608501119</v>
+        <v>18.548312776364707</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7">
         <v>2025</v>
@@ -3909,53 +3860,53 @@
         <v>51</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4">
-        <v>4799</v>
+        <v>4980</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>1451.6909673906466</v>
+        <v>1506.4432210055054</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>154</v>
+      <c r="J19" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M19" s="5">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="N19" s="5">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="O19" s="5">
-        <v>24.5</v>
+        <v>21.3</v>
       </c>
       <c r="P19" s="5">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="5">
-        <v>216</v>
+        <v>1671</v>
       </c>
       <c r="R19" s="5">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="S19" s="5">
-        <v>5.68</v>
+        <v>4.99</v>
       </c>
       <c r="T19" s="5">
-        <v>2.83</v>
+        <v>2.36</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -3963,42 +3914,42 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5">
-        <v>4470</v>
+        <v>5540</v>
       </c>
       <c r="AA19" s="5">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="AB19" s="24">
+        <v>21.1</v>
+      </c>
+      <c r="AB19" s="23">
         <f t="shared" si="1"/>
-        <v>4201.8</v>
-      </c>
-      <c r="AC19" s="25">
+        <v>5142.4235294117652</v>
+      </c>
+      <c r="AC19" s="24">
         <f t="shared" si="5"/>
-        <v>2.8944176786830593</v>
-      </c>
-      <c r="AD19" s="25">
+        <v>3.4136192175761875</v>
+      </c>
+      <c r="AD19" s="24">
         <f t="shared" si="6"/>
-        <v>875.5613478016254</v>
-      </c>
-      <c r="AE19" s="22">
+        <v>1032.6198133167968</v>
+      </c>
+      <c r="AE19" s="21">
         <f t="shared" si="11"/>
-        <v>10.7895</v>
-      </c>
-      <c r="AF19" s="22">
+        <v>40.238300000000002</v>
+      </c>
+      <c r="AF19" s="21">
         <v>13</v>
       </c>
-      <c r="AG19" s="26">
+      <c r="AG19" s="25">
         <f t="shared" si="12"/>
-        <v>51.778577496401262</v>
+        <v>64.739708671310979</v>
       </c>
       <c r="AH19" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="AI19" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ19" s="5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK19" s="5">
         <v>20</v>
@@ -4009,7 +3960,7 @@
       </c>
       <c r="AM19" s="5">
         <f t="shared" si="14"/>
-        <v>64.400000000000006</v>
+        <v>61.600000000000009</v>
       </c>
       <c r="AN19" s="5">
         <v>3</v>
@@ -4026,16 +3977,16 @@
       </c>
       <c r="AR19" s="5">
         <f t="shared" si="16"/>
-        <v>92</v>
-      </c>
-      <c r="AS19" s="26">
+        <v>89.200000000000017</v>
+      </c>
+      <c r="AS19" s="25">
         <f t="shared" si="4"/>
-        <v>19.170746822254639</v>
+        <v>17.911727188755023</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" s="7">
         <v>2025</v>
@@ -4047,118 +3998,118 @@
         <v>53</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F20" s="4">
-        <v>5111</v>
+        <v>5180</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>1546.070542682558</v>
+        <v>1566.9429487567306</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
       </c>
-      <c r="J20" s="20" t="s">
-        <v>147</v>
+      <c r="J20" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M20" s="5">
-        <v>7.3</v>
+        <v>7.1599999999999993</v>
       </c>
       <c r="N20" s="5">
-        <v>2.1239999999999997</v>
+        <v>1.58</v>
       </c>
       <c r="O20" s="5">
-        <v>20.9</v>
+        <v>14.419999999999998</v>
       </c>
       <c r="P20" s="5">
-        <v>81.8</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="5">
-        <v>465</v>
+        <v>1158</v>
       </c>
       <c r="R20" s="5">
-        <v>0.748</v>
+        <v>0.52</v>
       </c>
       <c r="S20" s="5">
-        <v>4.9980000000000002</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="T20" s="5">
-        <v>2.4040000000000004</v>
+        <v>2.82</v>
       </c>
       <c r="U20" s="5">
-        <v>2.3959999999999999</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="V20" s="5">
-        <v>2.1919999999999997</v>
+        <v>2.2220000000000004</v>
       </c>
       <c r="W20" s="5">
-        <v>24.12</v>
+        <v>23.680000002</v>
       </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5">
-        <v>2.3730000000000002</v>
+        <v>1.8473999999999999</v>
       </c>
       <c r="Z20" s="5">
-        <v>4732.8649999999998</v>
+        <v>4580.2370000000001</v>
       </c>
       <c r="AA20" s="5">
-        <v>24.1</v>
-      </c>
-      <c r="AB20" s="24">
+        <v>21.1</v>
+      </c>
+      <c r="AB20" s="23">
         <f t="shared" si="1"/>
-        <v>4226.1700411764705</v>
-      </c>
-      <c r="AC20" s="25">
+        <v>4251.53763882353</v>
+      </c>
+      <c r="AC20" s="24">
         <f t="shared" si="5"/>
-        <v>2.7334910823950649</v>
-      </c>
-      <c r="AD20" s="25">
+        <v>2.7132689433248696</v>
+      </c>
+      <c r="AD20" s="24">
         <f t="shared" si="6"/>
-        <v>826.88105242450706</v>
-      </c>
-      <c r="AE20" s="22">
+        <v>820.7638553557731</v>
+      </c>
+      <c r="AE20" s="21">
         <f t="shared" si="11"/>
-        <v>16.161900000000003</v>
-      </c>
-      <c r="AF20" s="22">
+        <v>30.72822</v>
+      </c>
+      <c r="AF20" s="21">
         <v>13</v>
       </c>
-      <c r="AG20" s="26">
+      <c r="AG20" s="25">
         <f t="shared" si="12"/>
-        <v>66.442701007845471</v>
+        <v>67.339696971363622</v>
       </c>
       <c r="AH20" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="AI20" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ20" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK20" s="5">
         <v>20</v>
       </c>
       <c r="AL20" s="5">
         <f t="shared" si="13"/>
-        <v>5.6000000000000005</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AM20" s="5">
         <f t="shared" si="14"/>
-        <v>67.2</v>
+        <v>44</v>
       </c>
       <c r="AN20" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="5">
         <v>20</v>
@@ -4167,79 +4118,79 @@
         <v>0.46</v>
       </c>
       <c r="AQ20" s="5">
-        <f t="shared" si="15"/>
-        <v>27.6</v>
+        <f t="shared" ref="AQ20:AQ21" si="17">AN20*AO20*AP20</f>
+        <v>18.400000000000002</v>
       </c>
       <c r="AR20" s="5">
-        <f t="shared" si="16"/>
-        <v>94.800000000000011</v>
-      </c>
-      <c r="AS20" s="26">
+        <f t="shared" ref="AR20:AR35" si="18">AM20+AQ20</f>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="AS20" s="25">
         <f t="shared" si="4"/>
-        <v>18.548312776364707</v>
+        <v>12.046386254826254</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A21" s="7" t="s">
-        <v>35</v>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B21" s="7">
         <v>2025</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4980</v>
+      <c r="F21" s="13">
+        <v>5027</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>1506.4432210055054</v>
+        <v>1520.6606570270433</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I21" s="4">
         <v>3</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>39</v>
+      <c r="L21" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="M21" s="5">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N21" s="5">
-        <v>2.68</v>
+        <v>1.59</v>
       </c>
       <c r="O21" s="5">
-        <v>21.3</v>
+        <v>15.1</v>
       </c>
       <c r="P21" s="5">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="5">
-        <v>1671</v>
+        <v>758</v>
       </c>
       <c r="R21" s="5">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="S21" s="5">
-        <v>4.99</v>
+        <v>4.07</v>
       </c>
       <c r="T21" s="5">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -4247,56 +4198,56 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5">
-        <v>5540</v>
+        <v>4340</v>
       </c>
       <c r="AA21" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="AB21" s="24">
+        <v>21.5</v>
+      </c>
+      <c r="AB21" s="23">
         <f t="shared" si="1"/>
-        <v>5142.4235294117652</v>
-      </c>
-      <c r="AC21" s="25">
+        <v>4008.1176470588234</v>
+      </c>
+      <c r="AC21" s="24">
         <f t="shared" si="5"/>
-        <v>3.4136192175761875</v>
-      </c>
-      <c r="AD21" s="25">
+        <v>2.6357738845528265</v>
+      </c>
+      <c r="AD21" s="24">
         <f t="shared" si="6"/>
-        <v>1032.6198133167968</v>
-      </c>
-      <c r="AE21" s="22">
+        <v>797.32160007722996</v>
+      </c>
+      <c r="AE21" s="21">
         <f t="shared" si="11"/>
-        <v>40.238300000000002</v>
-      </c>
-      <c r="AF21" s="22">
+        <v>22.6541</v>
+      </c>
+      <c r="AF21" s="21">
         <v>13</v>
       </c>
-      <c r="AG21" s="26">
+      <c r="AG21" s="25">
         <f t="shared" si="12"/>
-        <v>64.739708671310979</v>
+        <v>65.350705921823348</v>
       </c>
       <c r="AH21" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="AI21" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ21" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK21" s="5">
         <v>20</v>
       </c>
       <c r="AL21" s="5">
         <f t="shared" si="13"/>
-        <v>5.6000000000000005</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AM21" s="5">
         <f t="shared" si="14"/>
-        <v>61.600000000000009</v>
+        <v>44</v>
       </c>
       <c r="AN21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="5">
         <v>20</v>
@@ -4305,345 +4256,254 @@
         <v>0.46</v>
       </c>
       <c r="AQ21" s="5">
-        <f t="shared" si="15"/>
-        <v>27.6</v>
+        <f t="shared" si="17"/>
+        <v>18.400000000000002</v>
       </c>
       <c r="AR21" s="5">
-        <f t="shared" si="16"/>
-        <v>89.200000000000017</v>
-      </c>
-      <c r="AS21" s="26">
+        <f t="shared" si="18"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="AS21" s="25">
         <f t="shared" si="4"/>
-        <v>17.911727188755023</v>
+        <v>12.413025820568929</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="7">
         <v>2025</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>56</v>
+      <c r="C22" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5180</v>
+        <v>71</v>
+      </c>
+      <c r="F22" s="15">
+        <v>4945</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>1566.9429487567306</v>
+        <v>1495.855768649041</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="5">
-        <v>7.1599999999999993</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="O22" s="5">
-        <v>14.419999999999998</v>
-      </c>
-      <c r="P22" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>1158</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="S22" s="5">
-        <v>4.1479999999999997</v>
-      </c>
-      <c r="T22" s="5">
-        <v>2.82</v>
-      </c>
-      <c r="U22" s="5">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="V22" s="5">
-        <v>2.2220000000000004</v>
-      </c>
-      <c r="W22" s="5">
-        <v>23.680000002</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="5">
-        <v>1.8473999999999999</v>
-      </c>
+      <c r="Y22" s="5"/>
       <c r="Z22" s="5">
-        <v>4580.2370000000001</v>
+        <v>5030</v>
       </c>
       <c r="AA22" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="AB22" s="24">
+        <v>22.3</v>
+      </c>
+      <c r="AB22" s="23">
         <f t="shared" si="1"/>
-        <v>4251.53763882353</v>
-      </c>
-      <c r="AC22" s="25">
+        <v>4598.0117647058823</v>
+      </c>
+      <c r="AC22" s="24">
         <f t="shared" si="5"/>
-        <v>2.7132689433248696</v>
-      </c>
-      <c r="AD22" s="25">
+        <v>3.0738336282638437</v>
+      </c>
+      <c r="AD22" s="24">
         <f t="shared" si="6"/>
-        <v>820.7638553557731</v>
-      </c>
-      <c r="AE22" s="22">
+        <v>929.83467254981269</v>
+      </c>
+      <c r="AE22" s="21">
         <f t="shared" si="11"/>
-        <v>30.72822</v>
-      </c>
-      <c r="AF22" s="22">
+        <v>9.14</v>
+      </c>
+      <c r="AF22" s="21">
         <v>13</v>
       </c>
-      <c r="AG22" s="26">
+      <c r="AG22" s="25">
         <f t="shared" si="12"/>
-        <v>67.339696971363622</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="AI22" s="7">
-        <v>15</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>10</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL22" s="5">
-        <f t="shared" si="13"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AM22" s="5">
-        <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO22" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP22" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ22" s="5">
-        <f t="shared" ref="AQ22:AQ23" si="17">AN22*AO22*AP22</f>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AR22" s="5">
-        <f t="shared" ref="AR22:AR37" si="18">AM22+AQ22</f>
-        <v>62.400000000000006</v>
-      </c>
-      <c r="AS22" s="26">
-        <f t="shared" si="4"/>
-        <v>12.046386254826254</v>
-      </c>
+        <v>45.197096613065241</v>
+      </c>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A23" s="13" t="s">
-        <v>35</v>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="7">
         <v>2025</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="14">
-        <v>5027</v>
+      <c r="C23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="15">
+        <v>3623</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
-        <v>1520.6606570270433</v>
+        <v>1095.9525682134431</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="K23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="5">
-        <v>7</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1.59</v>
-      </c>
-      <c r="O23" s="5">
-        <v>15.1</v>
-      </c>
-      <c r="P23" s="5">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>758</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="S23" s="5">
-        <v>4.07</v>
-      </c>
-      <c r="T23" s="5">
-        <v>2.92</v>
-      </c>
+      <c r="J23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5">
-        <v>4340</v>
+        <v>3420</v>
       </c>
       <c r="AA23" s="5">
-        <v>21.5</v>
-      </c>
-      <c r="AB23" s="24">
+        <v>22.3</v>
+      </c>
+      <c r="AB23" s="23">
         <f t="shared" si="1"/>
-        <v>4008.1176470588234</v>
-      </c>
-      <c r="AC23" s="25">
+        <v>3126.2823529411767</v>
+      </c>
+      <c r="AC23" s="24">
         <f t="shared" si="5"/>
-        <v>2.6357738845528265</v>
-      </c>
-      <c r="AD23" s="25">
+        <v>2.8525708535337957</v>
+      </c>
+      <c r="AD23" s="24">
         <f t="shared" si="6"/>
-        <v>797.32160007722996</v>
-      </c>
-      <c r="AE23" s="22">
+        <v>862.90268319397308</v>
+      </c>
+      <c r="AE23" s="21">
         <f t="shared" si="11"/>
-        <v>22.6541</v>
-      </c>
-      <c r="AF23" s="22">
+        <v>9.14</v>
+      </c>
+      <c r="AF23" s="21">
         <v>13</v>
       </c>
-      <c r="AG23" s="26">
+      <c r="AG23" s="25">
         <f t="shared" si="12"/>
-        <v>65.350705921823348</v>
-      </c>
-      <c r="AH23" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="AI23" s="7">
-        <v>15</v>
-      </c>
-      <c r="AJ23" s="5">
-        <v>10</v>
-      </c>
-      <c r="AK23" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL23" s="5">
-        <f t="shared" si="13"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AM23" s="5">
-        <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="AN23" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO23" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP23" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ23" s="5">
-        <f t="shared" si="17"/>
-        <v>18.400000000000002</v>
-      </c>
+        <v>33.114070986680566</v>
+      </c>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
       <c r="AR23" s="5">
         <f t="shared" si="18"/>
-        <v>62.400000000000006</v>
-      </c>
-      <c r="AS23" s="26">
-        <f t="shared" si="4"/>
-        <v>12.413025820568929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="5"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A24" s="15" t="s">
-        <v>35</v>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B24" s="7">
         <v>2025</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="16">
-        <v>4945</v>
+      <c r="C24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2202</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
-        <v>1495.855768649041</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>158</v>
+        <v>666.10200254098856</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="I24" s="4">
-        <v>3</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="O24" s="5">
+        <v>41.52</v>
+      </c>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="5">
+        <v>118.4</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -4653,90 +4513,123 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5">
-        <v>5030</v>
+        <v>1298</v>
       </c>
       <c r="AA24" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="AB24" s="24">
-        <f t="shared" si="1"/>
-        <v>4598.0117647058823</v>
-      </c>
-      <c r="AC24" s="25">
+        <v>15.5</v>
+      </c>
+      <c r="AB24" s="23">
+        <f t="shared" ref="AB24:AB42" si="19">Z24*(100-AA24)/(100-15)</f>
+        <v>1290.3647058823528</v>
+      </c>
+      <c r="AC24" s="24">
         <f t="shared" si="5"/>
-        <v>3.0738336282638437</v>
-      </c>
-      <c r="AD24" s="25">
+        <v>1.9371878495485386</v>
+      </c>
+      <c r="AD24" s="24">
         <f t="shared" si="6"/>
-        <v>929.83467254981269</v>
-      </c>
-      <c r="AE24" s="22">
+        <v>585.99932448843299</v>
+      </c>
+      <c r="AE24" s="21">
         <f t="shared" si="11"/>
-        <v>9.14</v>
-      </c>
-      <c r="AF24" s="22">
+        <v>6.9823200000000005</v>
+      </c>
+      <c r="AF24" s="21">
         <v>13</v>
       </c>
-      <c r="AG24" s="26">
+      <c r="AG24" s="25">
         <f t="shared" si="12"/>
-        <v>45.197096613065241</v>
-      </c>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
+        <v>15.374999452502463</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL24" s="5">
+        <f t="shared" ref="AL24:AL35" si="20">AK24*AH24</f>
+        <v>4</v>
+      </c>
+      <c r="AM24" s="5">
+        <f t="shared" ref="AM24:AM35" si="21">AL24*AJ24</f>
+        <v>16</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ24" s="5">
+        <f t="shared" ref="AQ24:AQ35" si="22">AN24*AO24*AP24</f>
+        <v>7.82</v>
+      </c>
+      <c r="AR24" s="5">
+        <f t="shared" si="18"/>
+        <v>23.82</v>
+      </c>
+      <c r="AS24" s="25">
+        <f t="shared" ref="AS24:AS35" si="23">AR24*302.5/G24</f>
+        <v>10.817487370572207</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A25" s="15" t="s">
-        <v>35</v>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B25" s="7">
         <v>2025</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="16">
-        <v>3623</v>
+      <c r="C25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1431</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>1095.9525682134431</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>158</v>
+        <v>432.87555206001571</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="I25" s="4">
-        <v>3</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5">
+        <v>37.299999999999997</v>
+      </c>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="5">
+        <v>175.1</v>
+      </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -4746,96 +4639,122 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5">
-        <v>3420</v>
+        <v>885</v>
       </c>
       <c r="AA25" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="AB25" s="24">
-        <f t="shared" si="1"/>
-        <v>3126.2823529411767</v>
-      </c>
-      <c r="AC25" s="25">
+        <v>15.5</v>
+      </c>
+      <c r="AB25" s="23">
+        <f t="shared" si="19"/>
+        <v>879.79411764705878</v>
+      </c>
+      <c r="AC25" s="24">
         <f t="shared" si="5"/>
-        <v>2.8525708535337957</v>
-      </c>
-      <c r="AD25" s="25">
+        <v>2.0324412257984954</v>
+      </c>
+      <c r="AD25" s="24">
         <f t="shared" si="6"/>
-        <v>862.90268319397308</v>
-      </c>
-      <c r="AE25" s="22">
+        <v>614.81347080404498</v>
+      </c>
+      <c r="AE25" s="21">
         <f t="shared" si="11"/>
-        <v>9.14</v>
-      </c>
-      <c r="AF25" s="22">
+        <v>8.5762999999999998</v>
+      </c>
+      <c r="AF25" s="21">
         <v>13</v>
       </c>
-      <c r="AG25" s="26">
+      <c r="AG25" s="25">
         <f t="shared" si="12"/>
-        <v>33.114070986680566</v>
-      </c>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
+        <v>12.27263007316467</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL25" s="5">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AM25" s="5">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ25" s="5">
+        <f t="shared" si="22"/>
+        <v>5.0600000000000005</v>
+      </c>
       <c r="AR25" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS25" s="5"/>
+        <v>17.060000000000002</v>
+      </c>
+      <c r="AS25" s="25">
+        <f t="shared" si="23"/>
+        <v>11.921786701607269</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B26" s="7">
         <v>2025</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="30" t="s">
         <v>107</v>
       </c>
+      <c r="D26" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="E26" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F26" s="4">
-        <v>2202</v>
+        <v>4625</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>666.10200254098856</v>
+        <v>1399.0562042470808</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" s="20" t="s">
-        <v>147</v>
+      <c r="J26" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
-        <v>41.52</v>
+        <v>41.12</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5">
-        <v>118.4</v>
+        <v>170.8</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -4846,56 +4765,56 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5">
-        <v>1298</v>
+        <v>2592</v>
       </c>
       <c r="AA26" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB26" s="24">
-        <f t="shared" ref="AB26:AB44" si="19">Z26*(100-AA26)/(100-15)</f>
-        <v>1290.3647058823528</v>
-      </c>
-      <c r="AC26" s="25">
+      <c r="AB26" s="23">
+        <f t="shared" si="19"/>
+        <v>2576.7529411764708</v>
+      </c>
+      <c r="AC26" s="24">
         <f t="shared" si="5"/>
-        <v>1.9371878495485386</v>
-      </c>
-      <c r="AD26" s="25">
+        <v>1.8417794319872816</v>
+      </c>
+      <c r="AD26" s="24">
         <f t="shared" si="6"/>
-        <v>585.99932448843299</v>
-      </c>
-      <c r="AE26" s="22">
+        <v>557.13827817615265</v>
+      </c>
+      <c r="AE26" s="21">
         <f t="shared" si="11"/>
-        <v>6.9823200000000005</v>
-      </c>
-      <c r="AF26" s="22">
+        <v>8.0739200000000011</v>
+      </c>
+      <c r="AF26" s="21">
         <v>13</v>
       </c>
-      <c r="AG26" s="26">
+      <c r="AG26" s="25">
         <f t="shared" si="12"/>
-        <v>15.374999452502463</v>
+        <v>37.341711962296174</v>
       </c>
       <c r="AH26" s="5">
         <v>0.2</v>
       </c>
       <c r="AI26" s="7">
+        <v>9</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL26" s="5">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AJ26" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK26" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL26" s="5">
-        <f t="shared" ref="AL26:AL37" si="20">AK26*AH26</f>
-        <v>4</v>
-      </c>
       <c r="AM26" s="5">
-        <f t="shared" ref="AM26:AM37" si="21">AL26*AJ26</f>
-        <v>16</v>
+        <f t="shared" si="21"/>
+        <v>36</v>
       </c>
       <c r="AN26" s="5">
-        <v>0.85</v>
+        <v>1.75</v>
       </c>
       <c r="AO26" s="5">
         <v>20</v>
@@ -4904,21 +4823,21 @@
         <v>0.46</v>
       </c>
       <c r="AQ26" s="5">
-        <f t="shared" ref="AQ26:AQ37" si="22">AN26*AO26*AP26</f>
-        <v>7.82</v>
+        <f t="shared" si="22"/>
+        <v>16.100000000000001</v>
       </c>
       <c r="AR26" s="5">
         <f t="shared" si="18"/>
-        <v>23.82</v>
-      </c>
-      <c r="AS26" s="26">
-        <f t="shared" ref="AS26:AS37" si="23">AR26*302.5/G26</f>
-        <v>10.817487370572207</v>
+        <v>52.1</v>
+      </c>
+      <c r="AS26" s="25">
+        <f t="shared" si="23"/>
+        <v>11.264915556756756</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" s="7">
         <v>2025</v>
@@ -4930,38 +4849,38 @@
         <v>110</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4">
-        <v>1431</v>
+        <v>3484</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>432.87555206001571</v>
+        <v>1053.9052574263414</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I27" s="4">
         <v>2</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>147</v>
+      <c r="J27" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5">
-        <v>37.299999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5">
-        <v>175.1</v>
+        <v>194.8</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -4972,42 +4891,42 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5">
-        <v>885</v>
+        <v>1900</v>
       </c>
       <c r="AA27" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB27" s="24">
+      <c r="AB27" s="23">
         <f t="shared" si="19"/>
-        <v>879.79411764705878</v>
-      </c>
-      <c r="AC27" s="25">
+        <v>1888.8235294117646</v>
+      </c>
+      <c r="AC27" s="24">
         <f t="shared" si="5"/>
-        <v>2.0324412257984954</v>
-      </c>
-      <c r="AD27" s="25">
+        <v>1.7922137840210712</v>
+      </c>
+      <c r="AD27" s="24">
         <f t="shared" si="6"/>
-        <v>614.81347080404498</v>
-      </c>
-      <c r="AE27" s="22">
+        <v>542.14466966637406</v>
+      </c>
+      <c r="AE27" s="21">
         <f t="shared" si="11"/>
-        <v>8.5762999999999998</v>
-      </c>
-      <c r="AF27" s="22">
+        <v>9.3627000000000002</v>
+      </c>
+      <c r="AF27" s="21">
         <v>13</v>
       </c>
-      <c r="AG27" s="26">
+      <c r="AG27" s="25">
         <f t="shared" si="12"/>
-        <v>12.27263007316467</v>
+        <v>32.619500012249944</v>
       </c>
       <c r="AH27" s="5">
         <v>0.2</v>
       </c>
       <c r="AI27" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ27" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK27" s="5">
         <v>20</v>
@@ -5018,10 +4937,10 @@
       </c>
       <c r="AM27" s="5">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AN27" s="5">
-        <v>0.55000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="AO27" s="5">
         <v>20</v>
@@ -5031,20 +4950,20 @@
       </c>
       <c r="AQ27" s="5">
         <f t="shared" si="22"/>
-        <v>5.0600000000000005</v>
+        <v>11.96</v>
       </c>
       <c r="AR27" s="5">
         <f t="shared" si="18"/>
-        <v>17.060000000000002</v>
-      </c>
-      <c r="AS27" s="26">
+        <v>43.96</v>
+      </c>
+      <c r="AS27" s="25">
         <f t="shared" si="23"/>
-        <v>11.921786701607269</v>
+        <v>12.617737606199771</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B28" s="7">
         <v>2025</v>
@@ -5056,38 +4975,38 @@
         <v>112</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F28" s="4">
-        <v>4625</v>
+        <v>2520</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
-        <v>1399.0562042470808</v>
+        <v>762.29656966543644</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I28" s="4">
         <v>2</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>147</v>
+      <c r="J28" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5">
-        <v>41.12</v>
+        <v>36.9</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5">
-        <v>170.8</v>
+        <v>82.6</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -5098,42 +5017,42 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5">
-        <v>2592</v>
+        <v>1350</v>
       </c>
       <c r="AA28" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB28" s="24">
+      <c r="AB28" s="23">
         <f t="shared" si="19"/>
-        <v>2576.7529411764708</v>
-      </c>
-      <c r="AC28" s="25">
+        <v>1342.0588235294117</v>
+      </c>
+      <c r="AC28" s="24">
         <f t="shared" si="5"/>
-        <v>1.8417794319872816</v>
-      </c>
-      <c r="AD28" s="25">
+        <v>1.760546848739496</v>
+      </c>
+      <c r="AD28" s="24">
         <f t="shared" si="6"/>
-        <v>557.13827817615265</v>
-      </c>
-      <c r="AE28" s="22">
+        <v>532.56542174369747</v>
+      </c>
+      <c r="AE28" s="21">
         <f t="shared" si="11"/>
-        <v>8.0739200000000011</v>
-      </c>
-      <c r="AF28" s="22">
+        <v>6.7699000000000007</v>
+      </c>
+      <c r="AF28" s="21">
         <v>13</v>
       </c>
-      <c r="AG28" s="26">
+      <c r="AG28" s="25">
         <f t="shared" si="12"/>
-        <v>37.341711962296174</v>
+        <v>17.060071229679465</v>
       </c>
       <c r="AH28" s="5">
         <v>0.2</v>
       </c>
       <c r="AI28" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ28" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="5">
         <v>20</v>
@@ -5144,10 +5063,10 @@
       </c>
       <c r="AM28" s="5">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AN28" s="5">
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="AO28" s="5">
         <v>20</v>
@@ -5157,20 +5076,20 @@
       </c>
       <c r="AQ28" s="5">
         <f t="shared" si="22"/>
-        <v>16.100000000000001</v>
+        <v>8.74</v>
       </c>
       <c r="AR28" s="5">
         <f t="shared" si="18"/>
-        <v>52.1</v>
-      </c>
-      <c r="AS28" s="26">
+        <v>24.740000000000002</v>
+      </c>
+      <c r="AS28" s="25">
         <f t="shared" si="23"/>
-        <v>11.264915556756756</v>
+        <v>9.8175044960317468</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7">
         <v>2025</v>
@@ -5178,42 +5097,42 @@
       <c r="C29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4">
-        <v>3484</v>
+        <v>2694</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
-        <v>1053.9052574263414</v>
+        <v>814.93133280900236</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I29" s="4">
         <v>2</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>147</v>
+      <c r="J29" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5">
-        <v>33.700000000000003</v>
+        <v>31.78</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5">
-        <v>194.8</v>
+        <v>192.5</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -5224,42 +5143,42 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5">
-        <v>1900</v>
+        <v>1614</v>
       </c>
       <c r="AA29" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB29" s="24">
+      <c r="AB29" s="23">
         <f t="shared" si="19"/>
-        <v>1888.8235294117646</v>
-      </c>
-      <c r="AC29" s="25">
+        <v>1604.5058823529412</v>
+      </c>
+      <c r="AC29" s="24">
         <f t="shared" si="5"/>
-        <v>1.7922137840210712</v>
-      </c>
-      <c r="AD29" s="25">
+        <v>1.9688847609065898</v>
+      </c>
+      <c r="AD29" s="24">
         <f t="shared" si="6"/>
-        <v>542.14466966637406</v>
-      </c>
-      <c r="AE29" s="22">
+        <v>595.58764017424346</v>
+      </c>
+      <c r="AE29" s="21">
         <f t="shared" si="11"/>
-        <v>9.3627000000000002</v>
-      </c>
-      <c r="AF29" s="22">
+        <v>9.5259800000000006</v>
+      </c>
+      <c r="AF29" s="21">
         <v>13</v>
       </c>
-      <c r="AG29" s="26">
+      <c r="AG29" s="25">
         <f t="shared" si="12"/>
-        <v>32.619500012249944</v>
+        <v>25.662874637064135</v>
       </c>
       <c r="AH29" s="5">
         <v>0.2</v>
       </c>
       <c r="AI29" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ29" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK29" s="5">
         <v>20</v>
@@ -5270,10 +5189,10 @@
       </c>
       <c r="AM29" s="5">
         <f t="shared" si="21"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AN29" s="5">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="5">
         <v>20</v>
@@ -5283,20 +5202,20 @@
       </c>
       <c r="AQ29" s="5">
         <f t="shared" si="22"/>
-        <v>11.96</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="AR29" s="5">
         <f t="shared" si="18"/>
-        <v>43.96</v>
-      </c>
-      <c r="AS29" s="26">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AS29" s="25">
         <f t="shared" si="23"/>
-        <v>12.617737606199771</v>
+        <v>12.323737713437268</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B30" s="7">
         <v>2025</v>
@@ -5308,38 +5227,38 @@
         <v>116</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F30" s="4">
-        <v>2520</v>
+        <v>4301</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
-        <v>762.29656966543644</v>
+        <v>1301.0466452900962</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="20" t="s">
-        <v>147</v>
+      <c r="J30" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5">
-        <v>36.9</v>
+        <v>27.64</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5">
-        <v>82.6</v>
+        <v>112.8</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -5350,42 +5269,42 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5">
-        <v>1350</v>
+        <v>2404</v>
       </c>
       <c r="AA30" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB30" s="24">
+      <c r="AB30" s="23">
         <f t="shared" si="19"/>
-        <v>1342.0588235294117</v>
-      </c>
-      <c r="AC30" s="25">
+        <v>2389.8588235294119</v>
+      </c>
+      <c r="AC30" s="24">
         <f t="shared" si="5"/>
-        <v>1.760546848739496</v>
-      </c>
-      <c r="AD30" s="25">
+        <v>1.8368740522723854</v>
+      </c>
+      <c r="AD30" s="24">
         <f t="shared" si="6"/>
-        <v>532.56542174369747</v>
-      </c>
-      <c r="AE30" s="22">
+        <v>555.6544008123966</v>
+      </c>
+      <c r="AE30" s="21">
         <f t="shared" si="11"/>
-        <v>6.7699000000000007</v>
-      </c>
-      <c r="AF30" s="22">
+        <v>8.3832400000000007</v>
+      </c>
+      <c r="AF30" s="21">
         <v>13</v>
       </c>
-      <c r="AG30" s="26">
+      <c r="AG30" s="25">
         <f t="shared" si="12"/>
-        <v>17.060071229679465</v>
+        <v>36.056152987311563</v>
       </c>
       <c r="AH30" s="5">
         <v>0.2</v>
       </c>
       <c r="AI30" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AJ30" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AK30" s="5">
         <v>20</v>
@@ -5396,10 +5315,10 @@
       </c>
       <c r="AM30" s="5">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AN30" s="5">
-        <v>0.95</v>
+        <v>1.65</v>
       </c>
       <c r="AO30" s="5">
         <v>20</v>
@@ -5409,20 +5328,20 @@
       </c>
       <c r="AQ30" s="5">
         <f t="shared" si="22"/>
-        <v>8.74</v>
+        <v>15.180000000000001</v>
       </c>
       <c r="AR30" s="5">
         <f t="shared" si="18"/>
-        <v>24.740000000000002</v>
-      </c>
-      <c r="AS30" s="26">
+        <v>51.18</v>
+      </c>
+      <c r="AS30" s="25">
         <f t="shared" si="23"/>
-        <v>9.8175044960317468</v>
+        <v>11.89961179028133</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B31" s="7">
         <v>2025</v>
@@ -5430,42 +5349,42 @@
       <c r="C31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>118</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F31" s="4">
-        <v>2694</v>
+        <v>4112</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="0"/>
-        <v>814.93133280900236</v>
+        <v>1243.8744025651883</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>147</v>
+      <c r="J31" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5">
-        <v>31.78</v>
+        <v>38.21</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5">
-        <v>192.5</v>
+        <v>266.2</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -5476,42 +5395,42 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5">
-        <v>1614</v>
+        <v>2109</v>
       </c>
       <c r="AA31" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB31" s="24">
+      <c r="AB31" s="23">
         <f t="shared" si="19"/>
-        <v>1604.5058823529412</v>
-      </c>
-      <c r="AC31" s="25">
+        <v>2096.5941176470587</v>
+      </c>
+      <c r="AC31" s="24">
         <f t="shared" si="5"/>
-        <v>1.9688847609065898</v>
-      </c>
-      <c r="AD31" s="25">
+        <v>1.6855352223048754</v>
+      </c>
+      <c r="AD31" s="24">
         <f t="shared" si="6"/>
-        <v>595.58764017424346</v>
-      </c>
-      <c r="AE31" s="22">
+        <v>509.87440474722484</v>
+      </c>
+      <c r="AE31" s="21">
         <f t="shared" si="11"/>
-        <v>9.5259800000000006</v>
-      </c>
-      <c r="AF31" s="22">
+        <v>10.299110000000001</v>
+      </c>
+      <c r="AF31" s="21">
         <v>13</v>
       </c>
-      <c r="AG31" s="26">
+      <c r="AG31" s="25">
         <f t="shared" si="12"/>
-        <v>25.662874637064135</v>
+        <v>42.349749746126143</v>
       </c>
       <c r="AH31" s="5">
         <v>0.2</v>
       </c>
       <c r="AI31" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ31" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AK31" s="5">
         <v>20</v>
@@ -5522,10 +5441,10 @@
       </c>
       <c r="AM31" s="5">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AN31" s="5">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AO31" s="5">
         <v>20</v>
@@ -5535,20 +5454,20 @@
       </c>
       <c r="AQ31" s="5">
         <f t="shared" si="22"/>
-        <v>9.2000000000000011</v>
+        <v>14.26</v>
       </c>
       <c r="AR31" s="5">
         <f t="shared" si="18"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="AS31" s="26">
+        <v>54.26</v>
+      </c>
+      <c r="AS31" s="25">
         <f t="shared" si="23"/>
-        <v>12.323737713437268</v>
+        <v>13.195584671692606</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="7">
         <v>2025</v>
@@ -5556,42 +5475,42 @@
       <c r="C32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>120</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4">
-        <v>4301</v>
+        <v>3029</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
-        <v>1301.0466452900962</v>
+        <v>916.26837679230437</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I32" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>147</v>
+      <c r="J32" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5">
-        <v>27.64</v>
+        <v>37.86</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5">
-        <v>112.8</v>
+        <v>157.9</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -5602,42 +5521,42 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5">
-        <v>2404</v>
+        <v>1685</v>
       </c>
       <c r="AA32" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB32" s="24">
+      <c r="AB32" s="23">
         <f t="shared" si="19"/>
-        <v>2389.8588235294119</v>
-      </c>
-      <c r="AC32" s="25">
+        <v>1675.0882352941176</v>
+      </c>
+      <c r="AC32" s="24">
         <f t="shared" si="5"/>
-        <v>1.8368740522723854</v>
-      </c>
-      <c r="AD32" s="25">
+        <v>1.828163317344105</v>
+      </c>
+      <c r="AD32" s="24">
         <f t="shared" si="6"/>
-        <v>555.6544008123966</v>
-      </c>
-      <c r="AE32" s="22">
+        <v>553.01940349659174</v>
+      </c>
+      <c r="AE32" s="21">
         <f t="shared" si="11"/>
-        <v>8.3832400000000007</v>
-      </c>
-      <c r="AF32" s="22">
+        <v>8.1712600000000002</v>
+      </c>
+      <c r="AF32" s="21">
         <v>13</v>
       </c>
-      <c r="AG32" s="26">
+      <c r="AG32" s="25">
         <f t="shared" si="12"/>
-        <v>36.056152987311563</v>
+        <v>24.750635162141769</v>
       </c>
       <c r="AH32" s="5">
         <v>0.2</v>
       </c>
       <c r="AI32" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ32" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK32" s="5">
         <v>20</v>
@@ -5648,10 +5567,10 @@
       </c>
       <c r="AM32" s="5">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AN32" s="5">
-        <v>1.65</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AO32" s="5">
         <v>20</v>
@@ -5661,20 +5580,20 @@
       </c>
       <c r="AQ32" s="5">
         <f t="shared" si="22"/>
-        <v>15.180000000000001</v>
+        <v>10.58</v>
       </c>
       <c r="AR32" s="5">
         <f t="shared" si="18"/>
-        <v>51.18</v>
-      </c>
-      <c r="AS32" s="26">
+        <v>34.58</v>
+      </c>
+      <c r="AS32" s="25">
         <f t="shared" si="23"/>
-        <v>11.89961179028133</v>
+        <v>11.416360386266094</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33" s="7">
         <v>2025</v>
@@ -5682,42 +5601,42 @@
       <c r="C33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4">
-        <v>4112</v>
+        <v>2129</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
-        <v>1243.8744025651883</v>
+        <v>644.01960191179137</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I33" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="20" t="s">
-        <v>147</v>
+      <c r="J33" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5">
-        <v>38.21</v>
+        <v>31.35</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5">
-        <v>266.2</v>
+        <v>250.7</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
@@ -5728,42 +5647,42 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5">
-        <v>2109</v>
+        <v>1341</v>
       </c>
       <c r="AA33" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB33" s="24">
+      <c r="AB33" s="23">
         <f t="shared" si="19"/>
-        <v>2096.5941176470587</v>
-      </c>
-      <c r="AC33" s="25">
+        <v>1333.1117647058823</v>
+      </c>
+      <c r="AC33" s="24">
         <f t="shared" si="5"/>
-        <v>1.6855352223048754</v>
-      </c>
-      <c r="AD33" s="25">
+        <v>2.0699863183488518</v>
+      </c>
+      <c r="AD33" s="24">
         <f t="shared" si="6"/>
-        <v>509.87440474722484</v>
-      </c>
-      <c r="AE33" s="22">
+        <v>626.17086130052769</v>
+      </c>
+      <c r="AE33" s="21">
         <f t="shared" si="11"/>
-        <v>10.299110000000001</v>
-      </c>
-      <c r="AF33" s="22">
+        <v>10.73685</v>
+      </c>
+      <c r="AF33" s="21">
         <v>13</v>
       </c>
-      <c r="AG33" s="26">
+      <c r="AG33" s="25">
         <f t="shared" si="12"/>
-        <v>42.349749746126143</v>
+        <v>22.858650786071461</v>
       </c>
       <c r="AH33" s="5">
         <v>0.2</v>
       </c>
       <c r="AI33" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ33" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AK33" s="5">
         <v>20</v>
@@ -5774,10 +5693,10 @@
       </c>
       <c r="AM33" s="5">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AN33" s="5">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="AO33" s="5">
         <v>20</v>
@@ -5787,20 +5706,20 @@
       </c>
       <c r="AQ33" s="5">
         <f t="shared" si="22"/>
-        <v>14.26</v>
+        <v>7.36</v>
       </c>
       <c r="AR33" s="5">
         <f t="shared" si="18"/>
-        <v>54.26</v>
-      </c>
-      <c r="AS33" s="26">
+        <v>27.36</v>
+      </c>
+      <c r="AS33" s="25">
         <f t="shared" si="23"/>
-        <v>13.195584671692606</v>
+        <v>12.851161634570222</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B34" s="7">
         <v>2025</v>
@@ -5808,42 +5727,42 @@
       <c r="C34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F34" s="4">
-        <v>3029</v>
+        <v>3002</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
-        <v>916.26837679230437</v>
+        <v>908.10091354588906</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I34" s="4">
         <v>2</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>147</v>
+      <c r="J34" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5">
-        <v>37.86</v>
+        <v>37.42</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5">
-        <v>157.9</v>
+        <v>380.7</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -5854,42 +5773,42 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5">
-        <v>1685</v>
+        <v>1804</v>
       </c>
       <c r="AA34" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB34" s="24">
+      <c r="AB34" s="23">
         <f t="shared" si="19"/>
-        <v>1675.0882352941176</v>
-      </c>
-      <c r="AC34" s="25">
+        <v>1793.3882352941177</v>
+      </c>
+      <c r="AC34" s="24">
         <f t="shared" si="5"/>
-        <v>1.828163317344105</v>
-      </c>
-      <c r="AD34" s="25">
+        <v>1.9748776909511307</v>
+      </c>
+      <c r="AD34" s="24">
         <f t="shared" si="6"/>
-        <v>553.01940349659174</v>
-      </c>
-      <c r="AE34" s="22">
+        <v>597.40050151271703</v>
+      </c>
+      <c r="AE34" s="21">
         <f t="shared" si="11"/>
-        <v>8.1712600000000002</v>
-      </c>
-      <c r="AF34" s="22">
+        <v>12.675219999999999</v>
+      </c>
+      <c r="AF34" s="21">
         <v>13</v>
       </c>
-      <c r="AG34" s="26">
+      <c r="AG34" s="25">
         <f t="shared" si="12"/>
-        <v>24.750635162141769</v>
+        <v>38.050839211223547</v>
       </c>
       <c r="AH34" s="5">
         <v>0.2</v>
       </c>
       <c r="AI34" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ34" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK34" s="5">
         <v>20</v>
@@ -5900,7 +5819,7 @@
       </c>
       <c r="AM34" s="5">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AN34" s="5">
         <v>1.1499999999999999</v>
@@ -5917,59 +5836,59 @@
       </c>
       <c r="AR34" s="5">
         <f t="shared" si="18"/>
-        <v>34.58</v>
-      </c>
-      <c r="AS34" s="26">
+        <v>46.58</v>
+      </c>
+      <c r="AS34" s="25">
         <f t="shared" si="23"/>
-        <v>11.416360386266094</v>
+        <v>15.516392275149899</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A35" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="7">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="12">
         <v>2025</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2129</v>
+      <c r="E35" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2380</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="0"/>
-        <v>644.01960191179137</v>
+        <v>719.94676023957891</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I35" s="4">
         <v>2</v>
       </c>
-      <c r="J35" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="J35" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>132</v>
+      <c r="L35" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5">
-        <v>31.35</v>
+        <v>39.18</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5">
-        <v>250.7</v>
+        <v>63.2</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -5980,42 +5899,42 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5">
-        <v>1341</v>
+        <v>1448</v>
       </c>
       <c r="AA35" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB35" s="24">
+      <c r="AB35" s="23">
         <f t="shared" si="19"/>
-        <v>1333.1117647058823</v>
-      </c>
-      <c r="AC35" s="25">
+        <v>1439.4823529411765</v>
+      </c>
+      <c r="AC35" s="24">
         <f t="shared" si="5"/>
-        <v>2.0699863183488518</v>
-      </c>
-      <c r="AD35" s="25">
+        <v>1.9994288917449334</v>
+      </c>
+      <c r="AD35" s="24">
         <f t="shared" si="6"/>
-        <v>626.17086130052769</v>
-      </c>
-      <c r="AE35" s="22">
+        <v>604.82723975284239</v>
+      </c>
+      <c r="AE35" s="21">
         <f t="shared" si="11"/>
-        <v>10.73685</v>
-      </c>
-      <c r="AF35" s="22">
+        <v>6.1333800000000007</v>
+      </c>
+      <c r="AF35" s="21">
         <v>13</v>
       </c>
-      <c r="AG35" s="26">
+      <c r="AG35" s="25">
         <f t="shared" si="12"/>
-        <v>22.858650786071461</v>
+        <v>14.597378711795798</v>
       </c>
       <c r="AH35" s="5">
         <v>0.2</v>
       </c>
       <c r="AI35" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ35" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK35" s="5">
         <v>20</v>
@@ -6026,10 +5945,10 @@
       </c>
       <c r="AM35" s="5">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AN35" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AO35" s="5">
         <v>20</v>
@@ -6039,64 +5958,60 @@
       </c>
       <c r="AQ35" s="5">
         <f t="shared" si="22"/>
-        <v>7.36</v>
+        <v>8.2800000000000011</v>
       </c>
       <c r="AR35" s="5">
         <f t="shared" si="18"/>
-        <v>27.36</v>
-      </c>
-      <c r="AS35" s="26">
+        <v>20.28</v>
+      </c>
+      <c r="AS35" s="25">
         <f t="shared" si="23"/>
-        <v>12.851161634570222</v>
+        <v>8.5210467478991614</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="7">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="12">
         <v>2025</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="4">
-        <v>3002</v>
+      <c r="C36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1683</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
-        <v>908.10091354588906</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>131</v>
+        <v>509.10520902655935</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I36" s="4">
-        <v>2</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>132</v>
+      <c r="J36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="5">
-        <v>37.42</v>
-      </c>
+      <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5">
-        <v>380.7</v>
-      </c>
+      <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -6106,123 +6021,90 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5">
-        <v>1804</v>
+        <v>1167</v>
       </c>
       <c r="AA36" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB36" s="24">
+      <c r="AB36" s="23">
         <f t="shared" si="19"/>
-        <v>1793.3882352941177</v>
-      </c>
-      <c r="AC36" s="25">
-        <f t="shared" si="5"/>
-        <v>1.9748776909511307</v>
-      </c>
-      <c r="AD36" s="25">
-        <f t="shared" si="6"/>
-        <v>597.40050151271703</v>
-      </c>
-      <c r="AE36" s="22">
+        <v>1160.1352941176472</v>
+      </c>
+      <c r="AC36" s="24">
+        <f t="shared" ref="AC36:AC37" si="24">AB36/G36</f>
+        <v>2.2787731760511694</v>
+      </c>
+      <c r="AD36" s="24">
+        <f t="shared" ref="AD36:AD37" si="25">AB36*302.5/G36</f>
+        <v>689.32888575547872</v>
+      </c>
+      <c r="AE36" s="21">
         <f t="shared" si="11"/>
-        <v>12.675219999999999</v>
-      </c>
-      <c r="AF36" s="22">
+        <v>9.14</v>
+      </c>
+      <c r="AF36" s="21">
         <v>13</v>
       </c>
-      <c r="AG36" s="26">
+      <c r="AG36" s="25">
         <f t="shared" si="12"/>
-        <v>38.050839211223547</v>
-      </c>
-      <c r="AH36" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AI36" s="7">
-        <v>9</v>
-      </c>
-      <c r="AJ36" s="7">
-        <v>9</v>
-      </c>
-      <c r="AK36" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL36" s="5">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AM36" s="5">
-        <f t="shared" si="21"/>
-        <v>36</v>
-      </c>
-      <c r="AN36" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AO36" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP36" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ36" s="5">
-        <f t="shared" si="22"/>
-        <v>10.58</v>
-      </c>
-      <c r="AR36" s="5">
-        <f t="shared" si="18"/>
-        <v>46.58</v>
-      </c>
-      <c r="AS36" s="26">
-        <f t="shared" si="23"/>
-        <v>15.516392275149899</v>
-      </c>
+        <v>15.382550778521496</v>
+      </c>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A37" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="13">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="12">
         <v>2025</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="14">
-        <v>2380</v>
+      <c r="C37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2000</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="0"/>
-        <v>719.94676023957891</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>131</v>
+        <v>604.99727751225123</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I37" s="4">
-        <v>2</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>132</v>
+      <c r="J37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="5">
-        <v>39.18</v>
-      </c>
+      <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="5">
-        <v>63.2</v>
-      </c>
+      <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -6232,263 +6114,324 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5">
-        <v>1448</v>
+        <v>1403</v>
       </c>
       <c r="AA37" s="5">
         <v>15.5</v>
       </c>
-      <c r="AB37" s="24">
+      <c r="AB37" s="23">
         <f t="shared" si="19"/>
-        <v>1439.4823529411765</v>
-      </c>
-      <c r="AC37" s="25">
-        <f t="shared" si="5"/>
-        <v>1.9994288917449334</v>
-      </c>
-      <c r="AD37" s="25">
-        <f t="shared" si="6"/>
-        <v>604.82723975284239</v>
-      </c>
-      <c r="AE37" s="22">
+        <v>1394.7470588235294</v>
+      </c>
+      <c r="AC37" s="24">
+        <f t="shared" si="24"/>
+        <v>2.3053774135294116</v>
+      </c>
+      <c r="AD37" s="24">
+        <f t="shared" si="25"/>
+        <v>697.37666759264698</v>
+      </c>
+      <c r="AE37" s="21">
         <f t="shared" si="11"/>
-        <v>6.1333800000000007</v>
-      </c>
-      <c r="AF37" s="22">
+        <v>9.14</v>
+      </c>
+      <c r="AF37" s="21">
         <v>13</v>
       </c>
-      <c r="AG37" s="26">
+      <c r="AG37" s="25">
         <f t="shared" si="12"/>
-        <v>14.597378711795798</v>
-      </c>
-      <c r="AH37" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AI37" s="7">
+        <v>18.27991774037017</v>
+      </c>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+    </row>
+    <row r="38" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AJ37" s="7">
-        <v>3</v>
-      </c>
-      <c r="AK37" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL37" s="5">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AM37" s="5">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="AN37" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="AO37" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP37" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ37" s="5">
-        <f t="shared" si="22"/>
-        <v>8.2800000000000011</v>
-      </c>
-      <c r="AR37" s="5">
-        <f t="shared" si="18"/>
-        <v>20.28</v>
-      </c>
-      <c r="AS37" s="26">
-        <f t="shared" si="23"/>
-        <v>8.5210467478991614</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="13">
-        <v>2025</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="14">
-        <v>1683</v>
+      <c r="F38" s="4">
+        <v>4000</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="0"/>
-        <v>509.10520902655935</v>
+        <v>1209.9945550245025</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="I38" s="4">
-        <v>3</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+      <c r="L38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="O38" s="35">
+        <v>21</v>
+      </c>
+      <c r="P38" s="35">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="35">
+        <v>553</v>
+      </c>
+      <c r="R38" s="36">
+        <v>0.13</v>
+      </c>
+      <c r="S38" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="T38" s="34">
+        <v>1.5</v>
+      </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5">
-        <v>1167</v>
+        <v>2868</v>
       </c>
       <c r="AA38" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="AB38" s="24">
+        <v>25</v>
+      </c>
+      <c r="AB38" s="23">
         <f t="shared" si="19"/>
-        <v>1160.1352941176472</v>
-      </c>
-      <c r="AC38" s="25">
-        <f t="shared" ref="AC38:AC39" si="24">AB38/G38</f>
-        <v>2.2787731760511694</v>
-      </c>
-      <c r="AD38" s="25">
-        <f t="shared" ref="AD38:AD39" si="25">AB38*302.5/G38</f>
-        <v>689.32888575547872</v>
-      </c>
-      <c r="AE38" s="22">
+        <v>2530.5882352941176</v>
+      </c>
+      <c r="AC38" s="24">
+        <f t="shared" ref="AC38:AC42" si="26">AB38/G38</f>
+        <v>2.0914046470588232</v>
+      </c>
+      <c r="AD38" s="24">
+        <f t="shared" ref="AD38:AD42" si="27">AB38*302.5/G38</f>
+        <v>632.64990573529406</v>
+      </c>
+      <c r="AE38" s="21">
         <f t="shared" si="11"/>
-        <v>9.14</v>
-      </c>
-      <c r="AF38" s="22">
+        <v>17.911000000000001</v>
+      </c>
+      <c r="AF38" s="21">
         <v>13</v>
       </c>
-      <c r="AG38" s="26">
+      <c r="AG38" s="25">
         <f t="shared" si="12"/>
-        <v>15.382550778521496</v>
-      </c>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
+        <v>51.999766001052997</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI38" s="38">
+        <v>11</v>
+      </c>
+      <c r="AJ38" s="38">
+        <v>9</v>
+      </c>
+      <c r="AK38" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL38" s="5">
+        <f t="shared" ref="AL38:AL42" si="28">AK38*AH38</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM38" s="5">
+        <f t="shared" ref="AM38:AM42" si="29">AL38*AJ38</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="AN38" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO38" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ38" s="5">
+        <f t="shared" ref="AQ38:AQ51" si="30">AN38*AO38*AP38</f>
+        <v>27.6</v>
+      </c>
+      <c r="AR38" s="5">
+        <f t="shared" ref="AR38:AR51" si="31">AM38+AQ38</f>
+        <v>87</v>
+      </c>
+      <c r="AS38" s="25">
+        <f t="shared" ref="AS38:AS51" si="32">AR38*302.5/G38</f>
+        <v>21.750097874999998</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="13">
-        <v>2025</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="14">
-        <v>2000</v>
+    <row r="39" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4000</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
-        <v>604.99727751225123</v>
+        <v>1209.9945550245025</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="I39" s="4">
-        <v>3</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="L39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="O39" s="35">
+        <v>30</v>
+      </c>
+      <c r="P39" s="35">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="35">
+        <v>251</v>
+      </c>
+      <c r="R39" s="36">
+        <v>0.18</v>
+      </c>
+      <c r="S39" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="T39" s="34">
+        <v>1.5</v>
+      </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5">
-        <v>1403</v>
+        <v>3236</v>
       </c>
       <c r="AA39" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="AB39" s="24">
+        <v>28.5</v>
+      </c>
+      <c r="AB39" s="23">
         <f t="shared" si="19"/>
-        <v>1394.7470588235294</v>
-      </c>
-      <c r="AC39" s="25">
-        <f t="shared" si="24"/>
-        <v>2.3053774135294116</v>
-      </c>
-      <c r="AD39" s="25">
-        <f t="shared" si="25"/>
-        <v>697.37666759264698</v>
-      </c>
-      <c r="AE39" s="22">
+        <v>2722.0470588235294</v>
+      </c>
+      <c r="AC39" s="24">
+        <f t="shared" si="26"/>
+        <v>2.2496357917647058</v>
+      </c>
+      <c r="AD39" s="24">
+        <f t="shared" si="27"/>
+        <v>680.51482700882343</v>
+      </c>
+      <c r="AE39" s="21">
         <f t="shared" si="11"/>
-        <v>9.14</v>
-      </c>
-      <c r="AF39" s="22">
+        <v>10.89</v>
+      </c>
+      <c r="AF39" s="21">
         <v>13</v>
       </c>
-      <c r="AG39" s="26">
+      <c r="AG39" s="25">
         <f t="shared" si="12"/>
-        <v>18.27991774037017</v>
-      </c>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
+        <v>43.559803980882094</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AI39" s="38">
+        <v>9</v>
+      </c>
+      <c r="AJ39" s="38">
+        <v>9</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL39" s="5">
+        <f t="shared" si="28"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="AM39" s="5">
+        <f t="shared" si="29"/>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="AN39" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ39" s="5">
+        <f t="shared" si="30"/>
+        <v>27.6</v>
+      </c>
+      <c r="AR39" s="5">
+        <f t="shared" si="31"/>
+        <v>87</v>
+      </c>
+      <c r="AS39" s="25">
+        <f t="shared" si="32"/>
+        <v>21.750097874999998</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -6512,13 +6455,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
       </c>
-      <c r="J40" s="20" t="s">
-        <v>146</v>
+      <c r="J40" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>4</v>
@@ -6526,29 +6469,29 @@
       <c r="L40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="N40" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="O40" s="36">
-        <v>21</v>
-      </c>
-      <c r="P40" s="36">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="36">
-        <v>553</v>
-      </c>
-      <c r="R40" s="37">
-        <v>0.13</v>
-      </c>
-      <c r="S40" s="35">
-        <v>7.4</v>
-      </c>
-      <c r="T40" s="35">
-        <v>1.5</v>
+      <c r="M40" s="34">
+        <v>6.8</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="O40" s="35">
+        <v>28</v>
+      </c>
+      <c r="P40" s="35">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="35">
+        <v>348</v>
+      </c>
+      <c r="R40" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="S40" s="34">
+        <v>7.7</v>
+      </c>
+      <c r="T40" s="34">
+        <v>1.7</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -6556,53 +6499,53 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5">
-        <v>2868</v>
+        <v>3045</v>
       </c>
       <c r="AA40" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB40" s="24">
+        <v>25.6</v>
+      </c>
+      <c r="AB40" s="23">
         <f t="shared" si="19"/>
-        <v>2530.5882352941176</v>
-      </c>
-      <c r="AC40" s="25">
-        <f t="shared" ref="AC40:AC44" si="26">AB40/G40</f>
-        <v>2.0914046470588232</v>
-      </c>
-      <c r="AD40" s="25">
-        <f t="shared" ref="AD40:AD44" si="27">AB40*302.5/G40</f>
-        <v>632.64990573529406</v>
-      </c>
-      <c r="AE40" s="22">
+        <v>2665.2705882352943</v>
+      </c>
+      <c r="AC40" s="24">
+        <f t="shared" si="26"/>
+        <v>2.202712877647059</v>
+      </c>
+      <c r="AD40" s="24">
+        <f t="shared" si="27"/>
+        <v>666.3206454882353</v>
+      </c>
+      <c r="AE40" s="21">
         <f t="shared" si="11"/>
-        <v>17.911000000000001</v>
-      </c>
-      <c r="AF40" s="22">
+        <v>13.048000000000002</v>
+      </c>
+      <c r="AF40" s="21">
         <v>13</v>
       </c>
-      <c r="AG40" s="26">
+      <c r="AG40" s="25">
         <f t="shared" si="12"/>
         <v>51.999766001052997</v>
       </c>
       <c r="AH40" s="5">
         <v>0.33</v>
       </c>
-      <c r="AI40" s="39">
+      <c r="AI40" s="38">
         <v>11</v>
       </c>
-      <c r="AJ40" s="39">
-        <v>9</v>
+      <c r="AJ40" s="38">
+        <v>12</v>
       </c>
       <c r="AK40" s="5">
         <v>20</v>
       </c>
       <c r="AL40" s="5">
-        <f t="shared" ref="AL40:AL44" si="28">AK40*AH40</f>
+        <f t="shared" si="28"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="AM40" s="5">
-        <f t="shared" ref="AM40:AM44" si="29">AL40*AJ40</f>
-        <v>59.400000000000006</v>
+        <f t="shared" si="29"/>
+        <v>79.2</v>
       </c>
       <c r="AN40" s="5">
         <v>3</v>
@@ -6614,19 +6557,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ40" s="5">
-        <f t="shared" ref="AQ40:AQ53" si="30">AN40*AO40*AP40</f>
+        <f t="shared" si="30"/>
         <v>27.6</v>
       </c>
       <c r="AR40" s="5">
-        <f t="shared" ref="AR40:AR53" si="31">AM40+AQ40</f>
-        <v>87</v>
-      </c>
-      <c r="AS40" s="26">
-        <f t="shared" ref="AS40:AS53" si="32">AR40*302.5/G40</f>
-        <v>21.750097874999998</v>
+        <f t="shared" si="31"/>
+        <v>106.80000000000001</v>
+      </c>
+      <c r="AS40" s="25">
+        <f t="shared" si="32"/>
+        <v>26.70012015</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -6643,19 +6586,19 @@
         <v>3</v>
       </c>
       <c r="F41" s="4">
-        <v>4000</v>
+        <v>3980</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
+        <v>1203.9445822493799</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I41" s="4">
         <v>0</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="19" t="s">
         <v>147</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -6664,29 +6607,29 @@
       <c r="L41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="35">
-        <v>7.1</v>
-      </c>
-      <c r="N41" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="O41" s="36">
-        <v>30</v>
-      </c>
-      <c r="P41" s="36">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="36">
-        <v>251</v>
-      </c>
-      <c r="R41" s="37">
-        <v>0.18</v>
-      </c>
-      <c r="S41" s="35">
+      <c r="M41" s="34">
         <v>7.3</v>
       </c>
-      <c r="T41" s="35">
-        <v>1.5</v>
+      <c r="N41" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="O41" s="35">
+        <v>20</v>
+      </c>
+      <c r="P41" s="35">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="35">
+        <v>656</v>
+      </c>
+      <c r="R41" s="36">
+        <v>0.22</v>
+      </c>
+      <c r="S41" s="34">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T41" s="34">
+        <v>1.9</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
@@ -6694,42 +6637,42 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5">
-        <v>3236</v>
+        <v>3158</v>
       </c>
       <c r="AA41" s="5">
-        <v>28.5</v>
-      </c>
-      <c r="AB41" s="24">
+        <v>26.3</v>
+      </c>
+      <c r="AB41" s="23">
         <f t="shared" si="19"/>
-        <v>2722.0470588235294</v>
-      </c>
-      <c r="AC41" s="25">
+        <v>2738.1717647058822</v>
+      </c>
+      <c r="AC41" s="24">
         <f t="shared" si="26"/>
-        <v>2.2496357917647058</v>
-      </c>
-      <c r="AD41" s="25">
+        <v>2.2743337235589713</v>
+      </c>
+      <c r="AD41" s="24">
         <f t="shared" si="27"/>
-        <v>680.51482700882343</v>
-      </c>
-      <c r="AE41" s="22">
+        <v>687.98595137658879</v>
+      </c>
+      <c r="AE41" s="21">
         <f t="shared" si="11"/>
-        <v>10.89</v>
-      </c>
-      <c r="AF41" s="22">
+        <v>20.080000000000002</v>
+      </c>
+      <c r="AF41" s="21">
         <v>13</v>
       </c>
-      <c r="AG41" s="26">
+      <c r="AG41" s="25">
         <f t="shared" si="12"/>
-        <v>43.559803980882094</v>
+        <v>51.739767171047731</v>
       </c>
       <c r="AH41" s="5">
         <v>0.33</v>
       </c>
-      <c r="AI41" s="40">
-        <v>9</v>
-      </c>
-      <c r="AJ41" s="40">
-        <v>9</v>
+      <c r="AI41" s="38">
+        <v>10</v>
+      </c>
+      <c r="AJ41" s="38">
+        <v>15</v>
       </c>
       <c r="AK41" s="5">
         <v>20</v>
@@ -6740,7 +6683,7 @@
       </c>
       <c r="AM41" s="5">
         <f t="shared" si="29"/>
-        <v>59.400000000000006</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="AN41" s="5">
         <v>3</v>
@@ -6757,14 +6700,14 @@
       </c>
       <c r="AR41" s="5">
         <f t="shared" si="31"/>
-        <v>87</v>
-      </c>
-      <c r="AS41" s="26">
+        <v>126.60000000000002</v>
+      </c>
+      <c r="AS41" s="25">
         <f t="shared" si="32"/>
-        <v>21.750097874999998</v>
+        <v>31.809188366834178</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -6788,13 +6731,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
       </c>
-      <c r="J42" s="20" t="s">
-        <v>151</v>
+      <c r="J42" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>4</v>
@@ -6802,28 +6745,28 @@
       <c r="L42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="35">
-        <v>6.8</v>
-      </c>
-      <c r="N42" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="O42" s="36">
-        <v>28</v>
-      </c>
-      <c r="P42" s="36">
-        <v>37</v>
-      </c>
-      <c r="Q42" s="36">
-        <v>348</v>
-      </c>
-      <c r="R42" s="37">
-        <v>0.21</v>
-      </c>
-      <c r="S42" s="35">
-        <v>7.7</v>
-      </c>
-      <c r="T42" s="35">
+      <c r="M42" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="O42" s="35">
+        <v>19</v>
+      </c>
+      <c r="P42" s="35">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="35">
+        <v>474</v>
+      </c>
+      <c r="R42" s="36">
+        <v>0.18</v>
+      </c>
+      <c r="S42" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="T42" s="34">
         <v>1.7</v>
       </c>
       <c r="U42" s="5"/>
@@ -6832,42 +6775,42 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5">
-        <v>3045</v>
+        <v>2680</v>
       </c>
       <c r="AA42" s="5">
-        <v>25.6</v>
-      </c>
-      <c r="AB42" s="24">
+        <v>27</v>
+      </c>
+      <c r="AB42" s="23">
         <f t="shared" si="19"/>
-        <v>2665.2705882352943</v>
-      </c>
-      <c r="AC42" s="25">
+        <v>2301.6470588235293</v>
+      </c>
+      <c r="AC42" s="24">
         <f t="shared" si="26"/>
-        <v>2.202712877647059</v>
-      </c>
-      <c r="AD42" s="25">
+        <v>1.9021962117647058</v>
+      </c>
+      <c r="AD42" s="24">
         <f t="shared" si="27"/>
-        <v>666.3206454882353</v>
-      </c>
-      <c r="AE42" s="22">
+        <v>575.41435405882351</v>
+      </c>
+      <c r="AE42" s="21">
         <f t="shared" si="11"/>
-        <v>13.048000000000002</v>
-      </c>
-      <c r="AF42" s="22">
+        <v>16.548999999999999</v>
+      </c>
+      <c r="AF42" s="21">
         <v>13</v>
       </c>
-      <c r="AG42" s="26">
+      <c r="AG42" s="25">
         <f t="shared" si="12"/>
         <v>51.999766001052997</v>
       </c>
       <c r="AH42" s="5">
         <v>0.33</v>
       </c>
-      <c r="AI42" s="39">
+      <c r="AI42" s="38">
         <v>11</v>
       </c>
-      <c r="AJ42" s="39">
-        <v>12</v>
+      <c r="AJ42" s="38">
+        <v>13</v>
       </c>
       <c r="AK42" s="5">
         <v>20</v>
@@ -6878,7 +6821,7 @@
       </c>
       <c r="AM42" s="5">
         <f t="shared" si="29"/>
-        <v>79.2</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="AN42" s="5">
         <v>3</v>
@@ -6895,14 +6838,14 @@
       </c>
       <c r="AR42" s="5">
         <f t="shared" si="31"/>
-        <v>106.80000000000001</v>
-      </c>
-      <c r="AS42" s="26">
+        <v>113.4</v>
+      </c>
+      <c r="AS42" s="25">
         <f t="shared" si="32"/>
-        <v>26.70012015</v>
+        <v>28.350127574999998</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -6910,29 +6853,29 @@
         <v>2024</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F43" s="4">
-        <v>3980</v>
+        <v>5000</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="0"/>
-        <v>1203.9445822493799</v>
+        <v>1512.493193780628</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
       </c>
-      <c r="J43" s="20" t="s">
-        <v>151</v>
+      <c r="J43" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>4</v>
@@ -6940,29 +6883,29 @@
       <c r="L43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="35">
-        <v>7.3</v>
-      </c>
-      <c r="N43" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="O43" s="36">
-        <v>20</v>
-      </c>
-      <c r="P43" s="36">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="36">
-        <v>656</v>
-      </c>
-      <c r="R43" s="37">
-        <v>0.22</v>
-      </c>
-      <c r="S43" s="35">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T43" s="35">
-        <v>1.9</v>
+      <c r="M43" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="N43" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="O43" s="17">
+        <v>27</v>
+      </c>
+      <c r="P43" s="17">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>1169</v>
+      </c>
+      <c r="R43" s="18">
+        <v>0.54</v>
+      </c>
+      <c r="S43" s="16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T43" s="16">
+        <v>2.2000000000000002</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -6970,53 +6913,53 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5">
-        <v>3158</v>
+        <v>3300</v>
       </c>
       <c r="AA43" s="5">
-        <v>26.3</v>
-      </c>
-      <c r="AB43" s="24">
-        <f t="shared" si="19"/>
-        <v>2738.1717647058822</v>
-      </c>
-      <c r="AC43" s="25">
-        <f t="shared" si="26"/>
-        <v>2.2743337235589713</v>
-      </c>
-      <c r="AD43" s="25">
-        <f t="shared" si="27"/>
-        <v>687.98595137658879</v>
-      </c>
-      <c r="AE43" s="22">
-        <f t="shared" si="11"/>
-        <v>20.080000000000002</v>
-      </c>
-      <c r="AF43" s="22">
-        <v>13</v>
-      </c>
-      <c r="AG43" s="26">
-        <f t="shared" si="12"/>
-        <v>51.739767171047731</v>
+        <v>25.3</v>
+      </c>
+      <c r="AB43" s="23">
+        <f t="shared" ref="AB43:AB51" si="33">Z43*(100-AA43)/(100-15)</f>
+        <v>2900.1176470588234</v>
+      </c>
+      <c r="AC43" s="24">
+        <f t="shared" ref="AC43:AC51" si="34">AB43/G43</f>
+        <v>1.9174417835294117</v>
+      </c>
+      <c r="AD43" s="24">
+        <f t="shared" ref="AD43:AD51" si="35">AB43*302.5/G43</f>
+        <v>580.02613951764704</v>
+      </c>
+      <c r="AE43" s="21">
+        <f t="shared" ref="AE43:AE51" si="36">9.14-(0.109*O43)+(0.02*Q43)</f>
+        <v>29.576999999999998</v>
+      </c>
+      <c r="AF43" s="21">
+        <v>14</v>
+      </c>
+      <c r="AG43" s="25">
+        <f t="shared" ref="AG43:AG51" si="37">IF(AE43&lt;AF43, AE43*G43/302.5, AF43*G43/302.5)</f>
+        <v>69.99968500141749</v>
       </c>
       <c r="AH43" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="AI43" s="39">
-        <v>10</v>
-      </c>
-      <c r="AJ43" s="39">
-        <v>15</v>
+        <v>0.3</v>
+      </c>
+      <c r="AI43" s="37">
+        <v>11</v>
+      </c>
+      <c r="AJ43" s="7">
+        <v>12</v>
       </c>
       <c r="AK43" s="5">
         <v>20</v>
       </c>
       <c r="AL43" s="5">
-        <f t="shared" si="28"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" ref="AL43:AL51" si="38">AK43*AH43</f>
+        <v>6</v>
       </c>
       <c r="AM43" s="5">
-        <f t="shared" si="29"/>
-        <v>99.000000000000014</v>
+        <f t="shared" ref="AM43:AM51" si="39">AL43*AJ43</f>
+        <v>72</v>
       </c>
       <c r="AN43" s="5">
         <v>3</v>
@@ -7033,14 +6976,14 @@
       </c>
       <c r="AR43" s="5">
         <f t="shared" si="31"/>
-        <v>126.60000000000002</v>
-      </c>
-      <c r="AS43" s="26">
+        <v>99.6</v>
+      </c>
+      <c r="AS43" s="25">
         <f t="shared" si="32"/>
-        <v>31.809188366834178</v>
+        <v>19.92008964</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -7048,13 +6991,13 @@
         <v>2024</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F44" s="4">
         <v>4000</v>
@@ -7064,13 +7007,13 @@
         <v>1209.9945550245025</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
       </c>
-      <c r="J44" s="20" t="s">
-        <v>151</v>
+      <c r="J44" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>4</v>
@@ -7078,29 +7021,29 @@
       <c r="L44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="35">
+      <c r="M44" s="16">
         <v>6.7</v>
       </c>
-      <c r="N44" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="O44" s="36">
-        <v>19</v>
-      </c>
-      <c r="P44" s="36">
-        <v>29</v>
-      </c>
-      <c r="Q44" s="36">
-        <v>474</v>
-      </c>
-      <c r="R44" s="37">
-        <v>0.18</v>
-      </c>
-      <c r="S44" s="35">
-        <v>7.1</v>
-      </c>
-      <c r="T44" s="35">
-        <v>1.7</v>
+      <c r="N44" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="O44" s="17">
+        <v>25</v>
+      </c>
+      <c r="P44" s="17">
+        <v>82</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>746</v>
+      </c>
+      <c r="R44" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="S44" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T44" s="16">
+        <v>2.2999999999999998</v>
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -7108,56 +7051,56 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5">
-        <v>2680</v>
+        <v>3390</v>
       </c>
       <c r="AA44" s="5">
-        <v>27</v>
-      </c>
-      <c r="AB44" s="24">
-        <f t="shared" si="19"/>
-        <v>2301.6470588235293</v>
-      </c>
-      <c r="AC44" s="25">
-        <f t="shared" si="26"/>
-        <v>1.9021962117647058</v>
-      </c>
-      <c r="AD44" s="25">
-        <f t="shared" si="27"/>
-        <v>575.41435405882351</v>
-      </c>
-      <c r="AE44" s="22">
-        <f t="shared" si="11"/>
-        <v>16.548999999999999</v>
-      </c>
-      <c r="AF44" s="22">
-        <v>13</v>
-      </c>
-      <c r="AG44" s="26">
-        <f t="shared" si="12"/>
-        <v>51.999766001052997</v>
+        <v>22.3</v>
+      </c>
+      <c r="AB44" s="23">
+        <f t="shared" si="33"/>
+        <v>3098.8588235294119</v>
+      </c>
+      <c r="AC44" s="24">
+        <f t="shared" si="34"/>
+        <v>2.5610518747058824</v>
+      </c>
+      <c r="AD44" s="24">
+        <f t="shared" si="35"/>
+        <v>774.71819209852936</v>
+      </c>
+      <c r="AE44" s="21">
+        <f t="shared" si="36"/>
+        <v>21.335000000000001</v>
+      </c>
+      <c r="AF44" s="21">
+        <v>15</v>
+      </c>
+      <c r="AG44" s="25">
+        <f t="shared" si="37"/>
+        <v>59.999730001214999</v>
       </c>
       <c r="AH44" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="AI44" s="39">
-        <v>11</v>
-      </c>
-      <c r="AJ44" s="39">
-        <v>13</v>
+        <v>0.3</v>
+      </c>
+      <c r="AI44" s="37">
+        <v>9</v>
+      </c>
+      <c r="AJ44" s="7">
+        <v>9</v>
       </c>
       <c r="AK44" s="5">
         <v>20</v>
       </c>
       <c r="AL44" s="5">
-        <f t="shared" si="28"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="38"/>
+        <v>6</v>
       </c>
       <c r="AM44" s="5">
-        <f t="shared" si="29"/>
-        <v>85.800000000000011</v>
+        <f t="shared" si="39"/>
+        <v>54</v>
       </c>
       <c r="AN44" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO44" s="5">
         <v>20</v>
@@ -7167,18 +7110,18 @@
       </c>
       <c r="AQ44" s="5">
         <f t="shared" si="30"/>
-        <v>27.6</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="AR44" s="5">
         <f t="shared" si="31"/>
-        <v>113.4</v>
-      </c>
-      <c r="AS44" s="26">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS44" s="25">
         <f t="shared" si="32"/>
-        <v>28.350127574999998</v>
+        <v>18.100081449999998</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -7192,23 +7135,23 @@
         <v>161</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F45" s="4">
-        <v>5000</v>
+        <v>4035</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="0"/>
-        <v>1512.493193780628</v>
+        <v>1220.5820073809668</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I45" s="4">
         <v>0</v>
       </c>
-      <c r="J45" s="20" t="s">
-        <v>178</v>
+      <c r="J45" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>4</v>
@@ -7216,29 +7159,29 @@
       <c r="L45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="17">
-        <v>6.4</v>
-      </c>
-      <c r="N45" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="O45" s="18">
-        <v>27</v>
-      </c>
-      <c r="P45" s="18">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="18">
-        <v>1169</v>
-      </c>
-      <c r="R45" s="19">
-        <v>0.54</v>
-      </c>
-      <c r="S45" s="17">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T45" s="17">
-        <v>2.2000000000000002</v>
+      <c r="M45" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="N45" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="O45" s="17">
+        <v>26</v>
+      </c>
+      <c r="P45" s="17">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>153</v>
+      </c>
+      <c r="R45" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="S45" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="T45" s="16">
+        <v>2.2999999999999998</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
@@ -7246,56 +7189,56 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5">
-        <v>3300</v>
+        <v>3061</v>
       </c>
       <c r="AA45" s="5">
-        <v>25.3</v>
-      </c>
-      <c r="AB45" s="24">
-        <f t="shared" ref="AB45:AB53" si="33">Z45*(100-AA45)/(100-15)</f>
-        <v>2900.1176470588234</v>
-      </c>
-      <c r="AC45" s="25">
-        <f t="shared" ref="AC45:AC53" si="34">AB45/G45</f>
-        <v>1.9174417835294117</v>
-      </c>
-      <c r="AD45" s="25">
-        <f t="shared" ref="AD45:AD53" si="35">AB45*302.5/G45</f>
-        <v>580.02613951764704</v>
-      </c>
-      <c r="AE45" s="22">
-        <f t="shared" ref="AE45:AE53" si="36">9.14-(0.109*O45)+(0.02*Q45)</f>
-        <v>29.576999999999998</v>
-      </c>
-      <c r="AF45" s="22">
-        <v>14</v>
-      </c>
-      <c r="AG45" s="26">
-        <f t="shared" ref="AG45:AG53" si="37">IF(AE45&lt;AF45, AE45*G45/302.5, AF45*G45/302.5)</f>
-        <v>69.99968500141749</v>
+        <v>21.8</v>
+      </c>
+      <c r="AB45" s="23">
+        <f t="shared" si="33"/>
+        <v>2816.1200000000003</v>
+      </c>
+      <c r="AC45" s="24">
+        <f t="shared" si="34"/>
+        <v>2.3071944228004959</v>
+      </c>
+      <c r="AD45" s="24">
+        <f t="shared" si="35"/>
+        <v>697.92631289714996</v>
+      </c>
+      <c r="AE45" s="21">
+        <f t="shared" si="36"/>
+        <v>9.3660000000000014</v>
+      </c>
+      <c r="AF45" s="21">
+        <v>16</v>
+      </c>
+      <c r="AG45" s="25">
+        <f t="shared" si="37"/>
+        <v>37.791639937620289</v>
       </c>
       <c r="AH45" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI45" s="38">
-        <v>11</v>
+      <c r="AI45" s="37">
+        <v>6</v>
       </c>
       <c r="AJ45" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK45" s="5">
         <v>20</v>
       </c>
       <c r="AL45" s="5">
-        <f t="shared" ref="AL45:AL53" si="38">AK45*AH45</f>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="AM45" s="5">
-        <f t="shared" ref="AM45:AM53" si="39">AL45*AJ45</f>
-        <v>72</v>
+        <f t="shared" si="39"/>
+        <v>48</v>
       </c>
       <c r="AN45" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO45" s="5">
         <v>20</v>
@@ -7305,18 +7248,18 @@
       </c>
       <c r="AQ45" s="5">
         <f t="shared" si="30"/>
-        <v>27.6</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="AR45" s="5">
         <f t="shared" si="31"/>
-        <v>99.6</v>
-      </c>
-      <c r="AS45" s="26">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AS45" s="25">
         <f t="shared" si="32"/>
-        <v>19.92008964</v>
+        <v>16.456083965303591</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -7330,22 +7273,22 @@
         <v>163</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F46" s="4">
-        <v>4000</v>
+        <v>4874</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
+        <v>1474.3783652973561</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I46" s="4">
         <v>0</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="19" t="s">
         <v>147</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -7354,29 +7297,29 @@
       <c r="L46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="N46" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="O46" s="17">
+        <v>28</v>
+      </c>
+      <c r="P46" s="17">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>188</v>
+      </c>
+      <c r="R46" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="S46" s="16">
         <v>6.7</v>
       </c>
-      <c r="N46" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="O46" s="18">
-        <v>25</v>
-      </c>
-      <c r="P46" s="18">
-        <v>82</v>
-      </c>
-      <c r="Q46" s="18">
-        <v>746</v>
-      </c>
-      <c r="R46" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="S46" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="T46" s="17">
-        <v>2.2999999999999998</v>
+      <c r="T46" s="16">
+        <v>1.8</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -7384,39 +7327,39 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5">
-        <v>3390</v>
+        <v>3377</v>
       </c>
       <c r="AA46" s="5">
-        <v>22.3</v>
-      </c>
-      <c r="AB46" s="24">
+        <v>20.8</v>
+      </c>
+      <c r="AB46" s="23">
         <f t="shared" si="33"/>
-        <v>3098.8588235294119</v>
-      </c>
-      <c r="AC46" s="25">
+        <v>3146.5694117647063</v>
+      </c>
+      <c r="AC46" s="24">
         <f t="shared" si="34"/>
-        <v>2.5610518747058824</v>
-      </c>
-      <c r="AD46" s="25">
+        <v>2.1341668365637601</v>
+      </c>
+      <c r="AD46" s="24">
         <f t="shared" si="35"/>
-        <v>774.71819209852936</v>
-      </c>
-      <c r="AE46" s="22">
+        <v>645.58546806053744</v>
+      </c>
+      <c r="AE46" s="21">
         <f t="shared" si="36"/>
-        <v>21.335000000000001</v>
-      </c>
-      <c r="AF46" s="22">
-        <v>15</v>
-      </c>
-      <c r="AG46" s="26">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="AF46" s="21">
+        <v>17</v>
+      </c>
+      <c r="AG46" s="25">
         <f t="shared" si="37"/>
-        <v>59.999730001214999</v>
+        <v>47.998936004787986</v>
       </c>
       <c r="AH46" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI46" s="38">
-        <v>9</v>
+      <c r="AI46" s="37">
+        <v>8</v>
       </c>
       <c r="AJ46" s="7">
         <v>9</v>
@@ -7449,12 +7392,12 @@
         <f t="shared" si="31"/>
         <v>72.400000000000006</v>
       </c>
-      <c r="AS46" s="26">
+      <c r="AS46" s="25">
         <f t="shared" si="32"/>
-        <v>18.100081449999998</v>
+        <v>14.854395937628231</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -7468,23 +7411,23 @@
         <v>165</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F47" s="4">
-        <v>4035</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="0"/>
-        <v>1220.5820073809668</v>
+        <v>604.99727751225123</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I47" s="4">
         <v>0</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>151</v>
+      <c r="J47" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>4</v>
@@ -7492,29 +7435,29 @@
       <c r="L47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="N47" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="O47" s="18">
-        <v>26</v>
-      </c>
-      <c r="P47" s="18">
-        <v>28</v>
-      </c>
-      <c r="Q47" s="18">
-        <v>153</v>
-      </c>
-      <c r="R47" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="S47" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="T47" s="17">
-        <v>2.2999999999999998</v>
+      <c r="M47" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="N47" s="16">
+        <v>1</v>
+      </c>
+      <c r="O47" s="17">
+        <v>29</v>
+      </c>
+      <c r="P47" s="17">
+        <v>93</v>
+      </c>
+      <c r="Q47" s="17">
+        <v>442</v>
+      </c>
+      <c r="R47" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="S47" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="T47" s="16">
+        <v>1.8</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
@@ -7522,42 +7465,42 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5">
-        <v>3061</v>
+        <v>1594</v>
       </c>
       <c r="AA47" s="5">
-        <v>21.8</v>
-      </c>
-      <c r="AB47" s="24">
+        <v>24.5</v>
+      </c>
+      <c r="AB47" s="23">
         <f t="shared" si="33"/>
-        <v>2816.1200000000003</v>
-      </c>
-      <c r="AC47" s="25">
+        <v>1415.8470588235293</v>
+      </c>
+      <c r="AC47" s="24">
         <f t="shared" si="34"/>
-        <v>2.3071944228004959</v>
-      </c>
-      <c r="AD47" s="25">
+        <v>2.3402536035294115</v>
+      </c>
+      <c r="AD47" s="24">
         <f t="shared" si="35"/>
-        <v>697.92631289714996</v>
-      </c>
-      <c r="AE47" s="22">
+        <v>707.92671506764691</v>
+      </c>
+      <c r="AE47" s="21">
         <f t="shared" si="36"/>
-        <v>9.3660000000000014</v>
-      </c>
-      <c r="AF47" s="22">
-        <v>16</v>
-      </c>
-      <c r="AG47" s="26">
+        <v>14.819000000000001</v>
+      </c>
+      <c r="AF47" s="21">
+        <v>18</v>
+      </c>
+      <c r="AG47" s="25">
         <f t="shared" si="37"/>
-        <v>37.791639937620289</v>
+        <v>29.637866629600172</v>
       </c>
       <c r="AH47" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI47" s="38">
-        <v>6</v>
+      <c r="AI47" s="37">
+        <v>4</v>
       </c>
       <c r="AJ47" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK47" s="5">
         <v>20</v>
@@ -7568,7 +7511,7 @@
       </c>
       <c r="AM47" s="5">
         <f t="shared" si="39"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AN47" s="5">
         <v>2</v>
@@ -7585,14 +7528,14 @@
       </c>
       <c r="AR47" s="5">
         <f t="shared" si="31"/>
-        <v>66.400000000000006</v>
-      </c>
-      <c r="AS47" s="26">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="AS47" s="25">
         <f t="shared" si="32"/>
-        <v>16.456083965303591</v>
+        <v>24.2001089</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -7606,23 +7549,23 @@
         <v>167</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F48" s="4">
-        <v>4874</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="0"/>
-        <v>1474.3783652973561</v>
+        <v>1814.9918325367535</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I48" s="4">
         <v>0</v>
       </c>
-      <c r="J48" s="20" t="s">
-        <v>151</v>
+      <c r="J48" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>4</v>
@@ -7630,29 +7573,29 @@
       <c r="L48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="N48" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="O48" s="18">
-        <v>28</v>
-      </c>
-      <c r="P48" s="18">
-        <v>34</v>
-      </c>
-      <c r="Q48" s="18">
-        <v>188</v>
-      </c>
-      <c r="R48" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="S48" s="17">
-        <v>6.7</v>
-      </c>
-      <c r="T48" s="17">
-        <v>1.8</v>
+      <c r="M48" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="N48" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="O48" s="17">
+        <v>36</v>
+      </c>
+      <c r="P48" s="17">
+        <v>105</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>316</v>
+      </c>
+      <c r="R48" s="18">
+        <v>0.71</v>
+      </c>
+      <c r="S48" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="T48" s="16">
+        <v>1.2</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
@@ -7660,42 +7603,42 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5">
-        <v>3377</v>
+        <v>4828</v>
       </c>
       <c r="AA48" s="5">
-        <v>20.8</v>
-      </c>
-      <c r="AB48" s="24">
+        <v>23</v>
+      </c>
+      <c r="AB48" s="23">
         <f t="shared" si="33"/>
-        <v>3146.5694117647063</v>
-      </c>
-      <c r="AC48" s="25">
+        <v>4373.6000000000004</v>
+      </c>
+      <c r="AC48" s="24">
         <f t="shared" si="34"/>
-        <v>2.1341668365637601</v>
-      </c>
-      <c r="AD48" s="25">
+        <v>2.4097078133333336</v>
+      </c>
+      <c r="AD48" s="24">
         <f t="shared" si="35"/>
-        <v>645.58546806053744</v>
-      </c>
-      <c r="AE48" s="22">
+        <v>728.93661353333334</v>
+      </c>
+      <c r="AE48" s="21">
         <f t="shared" si="36"/>
-        <v>9.8480000000000008</v>
-      </c>
-      <c r="AF48" s="22">
-        <v>17</v>
-      </c>
-      <c r="AG48" s="26">
+        <v>11.536000000000001</v>
+      </c>
+      <c r="AF48" s="21">
+        <v>19</v>
+      </c>
+      <c r="AG48" s="25">
         <f t="shared" si="37"/>
-        <v>47.998936004787986</v>
+        <v>69.215688529401618</v>
       </c>
       <c r="AH48" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI48" s="38">
-        <v>8</v>
+      <c r="AI48" s="37">
+        <v>12</v>
       </c>
       <c r="AJ48" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK48" s="5">
         <v>20</v>
@@ -7706,7 +7649,7 @@
       </c>
       <c r="AM48" s="5">
         <f t="shared" si="39"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AN48" s="5">
         <v>2</v>
@@ -7723,14 +7666,14 @@
       </c>
       <c r="AR48" s="5">
         <f t="shared" si="31"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AS48" s="26">
+        <v>96.4</v>
+      </c>
+      <c r="AS48" s="25">
         <f t="shared" si="32"/>
-        <v>14.854395937628231</v>
+        <v>16.066738966666669</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -7744,23 +7687,23 @@
         <v>169</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F49" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="0"/>
-        <v>604.99727751225123</v>
+        <v>1209.9945550245025</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I49" s="4">
         <v>0</v>
       </c>
-      <c r="J49" s="20" t="s">
-        <v>151</v>
+      <c r="J49" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>4</v>
@@ -7768,29 +7711,29 @@
       <c r="L49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="17">
-        <v>6.6</v>
-      </c>
-      <c r="N49" s="17">
-        <v>1</v>
-      </c>
-      <c r="O49" s="18">
-        <v>29</v>
-      </c>
-      <c r="P49" s="18">
-        <v>93</v>
-      </c>
-      <c r="Q49" s="18">
-        <v>442</v>
-      </c>
-      <c r="R49" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="S49" s="17">
-        <v>7.4</v>
-      </c>
-      <c r="T49" s="17">
-        <v>1.8</v>
+      <c r="M49" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="N49" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="O49" s="17">
+        <v>43</v>
+      </c>
+      <c r="P49" s="17">
+        <v>92</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>893</v>
+      </c>
+      <c r="R49" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S49" s="16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T49" s="16">
+        <v>2</v>
       </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -7798,42 +7741,42 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5">
-        <v>1594</v>
+        <v>3284</v>
       </c>
       <c r="AA49" s="5">
-        <v>24.5</v>
-      </c>
-      <c r="AB49" s="24">
+        <v>21.1</v>
+      </c>
+      <c r="AB49" s="23">
         <f t="shared" si="33"/>
-        <v>1415.8470588235293</v>
-      </c>
-      <c r="AC49" s="25">
+        <v>3048.3247058823531</v>
+      </c>
+      <c r="AC49" s="24">
         <f t="shared" si="34"/>
-        <v>2.3402536035294115</v>
-      </c>
-      <c r="AD49" s="25">
+        <v>2.5192879531764705</v>
+      </c>
+      <c r="AD49" s="24">
         <f t="shared" si="35"/>
-        <v>707.92671506764691</v>
-      </c>
-      <c r="AE49" s="22">
+        <v>762.08460583588237</v>
+      </c>
+      <c r="AE49" s="21">
         <f t="shared" si="36"/>
-        <v>14.819000000000001</v>
-      </c>
-      <c r="AF49" s="22">
-        <v>18</v>
-      </c>
-      <c r="AG49" s="26">
+        <v>22.312999999999999</v>
+      </c>
+      <c r="AF49" s="21">
+        <v>20</v>
+      </c>
+      <c r="AG49" s="25">
         <f t="shared" si="37"/>
-        <v>29.637866629600172</v>
+        <v>79.999640001620008</v>
       </c>
       <c r="AH49" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI49" s="38">
-        <v>4</v>
+      <c r="AI49" s="37">
+        <v>9</v>
       </c>
       <c r="AJ49" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AK49" s="5">
         <v>20</v>
@@ -7844,7 +7787,7 @@
       </c>
       <c r="AM49" s="5">
         <f t="shared" si="39"/>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AN49" s="5">
         <v>2</v>
@@ -7861,14 +7804,14 @@
       </c>
       <c r="AR49" s="5">
         <f t="shared" si="31"/>
-        <v>48.400000000000006</v>
-      </c>
-      <c r="AS49" s="26">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS49" s="25">
         <f t="shared" si="32"/>
-        <v>24.2001089</v>
+        <v>18.100081449999998</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -7882,23 +7825,23 @@
         <v>171</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F50" s="4">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="0"/>
-        <v>1814.9918325367535</v>
+        <v>1209.9945550245025</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I50" s="4">
         <v>0</v>
       </c>
-      <c r="J50" s="20" t="s">
-        <v>151</v>
+      <c r="J50" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>4</v>
@@ -7906,29 +7849,29 @@
       <c r="L50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="N50" s="17">
+      <c r="M50" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="N50" s="16">
         <v>0.8</v>
       </c>
-      <c r="O50" s="18">
-        <v>36</v>
-      </c>
-      <c r="P50" s="18">
+      <c r="O50" s="17">
+        <v>24</v>
+      </c>
+      <c r="P50" s="17">
         <v>105</v>
       </c>
-      <c r="Q50" s="18">
-        <v>316</v>
-      </c>
-      <c r="R50" s="19">
-        <v>0.71</v>
-      </c>
-      <c r="S50" s="17">
-        <v>5.9</v>
-      </c>
-      <c r="T50" s="17">
-        <v>1.2</v>
+      <c r="Q50" s="17">
+        <v>439</v>
+      </c>
+      <c r="R50" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="S50" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="T50" s="16">
+        <v>3.3</v>
       </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -7936,42 +7879,42 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5">
-        <v>4828</v>
+        <v>3229</v>
       </c>
       <c r="AA50" s="5">
-        <v>23</v>
-      </c>
-      <c r="AB50" s="24">
+        <v>25.9</v>
+      </c>
+      <c r="AB50" s="23">
         <f t="shared" si="33"/>
-        <v>4373.6000000000004</v>
-      </c>
-      <c r="AC50" s="25">
+        <v>2814.9282352941177</v>
+      </c>
+      <c r="AC50" s="24">
         <f t="shared" si="34"/>
-        <v>2.4097078133333336</v>
-      </c>
-      <c r="AD50" s="25">
+        <v>2.3263974400588237</v>
+      </c>
+      <c r="AD50" s="24">
         <f t="shared" si="35"/>
-        <v>728.93661353333334</v>
-      </c>
-      <c r="AE50" s="22">
+        <v>703.73522561779407</v>
+      </c>
+      <c r="AE50" s="21">
         <f t="shared" si="36"/>
-        <v>11.536000000000001</v>
-      </c>
-      <c r="AF50" s="22">
-        <v>19</v>
-      </c>
-      <c r="AG50" s="26">
+        <v>15.304</v>
+      </c>
+      <c r="AF50" s="21">
+        <v>21</v>
+      </c>
+      <c r="AG50" s="25">
         <f t="shared" si="37"/>
-        <v>69.215688529401618</v>
+        <v>61.215724529239623</v>
       </c>
       <c r="AH50" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI50" s="38">
-        <v>12</v>
+      <c r="AI50" s="37">
+        <v>9</v>
       </c>
       <c r="AJ50" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK50" s="5">
         <v>20</v>
@@ -7982,7 +7925,7 @@
       </c>
       <c r="AM50" s="5">
         <f t="shared" si="39"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AN50" s="5">
         <v>2</v>
@@ -7999,14 +7942,14 @@
       </c>
       <c r="AR50" s="5">
         <f t="shared" si="31"/>
-        <v>96.4</v>
-      </c>
-      <c r="AS50" s="26">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS50" s="25">
         <f t="shared" si="32"/>
-        <v>16.066738966666669</v>
+        <v>18.100081449999998</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -8020,23 +7963,23 @@
         <v>173</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F51" s="4">
-        <v>4000</v>
+        <v>3187</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
+        <v>964.06316171577225</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I51" s="4">
         <v>0</v>
       </c>
-      <c r="J51" s="20" t="s">
-        <v>147</v>
+      <c r="J51" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>4</v>
@@ -8044,29 +7987,29 @@
       <c r="L51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="17">
-        <v>6.8</v>
-      </c>
-      <c r="N51" s="17">
+      <c r="M51" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="O51" s="17">
+        <v>24</v>
+      </c>
+      <c r="P51" s="17">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>216</v>
+      </c>
+      <c r="R51" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="S51" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="T51" s="16">
         <v>1.3</v>
-      </c>
-      <c r="O51" s="18">
-        <v>43</v>
-      </c>
-      <c r="P51" s="18">
-        <v>92</v>
-      </c>
-      <c r="Q51" s="18">
-        <v>893</v>
-      </c>
-      <c r="R51" s="19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S51" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="T51" s="17">
-        <v>2</v>
       </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
@@ -8074,42 +8017,42 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5">
-        <v>3284</v>
+        <v>2420</v>
       </c>
       <c r="AA51" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="AB51" s="24">
+        <v>25.1</v>
+      </c>
+      <c r="AB51" s="23">
         <f t="shared" si="33"/>
-        <v>3048.3247058823531</v>
-      </c>
-      <c r="AC51" s="25">
+        <v>2132.4470588235295</v>
+      </c>
+      <c r="AC51" s="24">
         <f t="shared" si="34"/>
-        <v>2.5192879531764705</v>
-      </c>
-      <c r="AD51" s="25">
+        <v>2.2119370841100796</v>
+      </c>
+      <c r="AD51" s="24">
         <f t="shared" si="35"/>
-        <v>762.08460583588237</v>
-      </c>
-      <c r="AE51" s="22">
+        <v>669.1109679432991</v>
+      </c>
+      <c r="AE51" s="21">
         <f t="shared" si="36"/>
-        <v>22.312999999999999</v>
-      </c>
-      <c r="AF51" s="22">
-        <v>20</v>
-      </c>
-      <c r="AG51" s="26">
+        <v>10.844000000000001</v>
+      </c>
+      <c r="AF51" s="21">
+        <v>22</v>
+      </c>
+      <c r="AG51" s="25">
         <f t="shared" si="37"/>
-        <v>79.999640001620008</v>
+        <v>34.559672481473839</v>
       </c>
       <c r="AH51" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI51" s="38">
-        <v>9</v>
+      <c r="AI51" s="37">
+        <v>6</v>
       </c>
       <c r="AJ51" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK51" s="5">
         <v>20</v>
@@ -8120,7 +8063,7 @@
       </c>
       <c r="AM51" s="5">
         <f t="shared" si="39"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="AN51" s="5">
         <v>2</v>
@@ -8129,293 +8072,17 @@
         <v>20</v>
       </c>
       <c r="AP51" s="5">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
       <c r="AQ51" s="5">
         <f t="shared" si="30"/>
-        <v>18.400000000000002</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="AR51" s="5">
         <f t="shared" si="31"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AS51" s="26">
-        <f t="shared" si="32"/>
-        <v>18.100081449999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A52" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52" s="17">
-        <v>6.6</v>
-      </c>
-      <c r="N52" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="O52" s="18">
-        <v>24</v>
-      </c>
-      <c r="P52" s="18">
-        <v>105</v>
-      </c>
-      <c r="Q52" s="18">
-        <v>439</v>
-      </c>
-      <c r="R52" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="S52" s="17">
-        <v>13.4</v>
-      </c>
-      <c r="T52" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5">
-        <v>3229</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>25.9</v>
-      </c>
-      <c r="AB52" s="24">
-        <f t="shared" si="33"/>
-        <v>2814.9282352941177</v>
-      </c>
-      <c r="AC52" s="25">
-        <f t="shared" si="34"/>
-        <v>2.3263974400588237</v>
-      </c>
-      <c r="AD52" s="25">
-        <f t="shared" si="35"/>
-        <v>703.73522561779407</v>
-      </c>
-      <c r="AE52" s="22">
-        <f t="shared" si="36"/>
-        <v>15.304</v>
-      </c>
-      <c r="AF52" s="22">
-        <v>21</v>
-      </c>
-      <c r="AG52" s="26">
-        <f t="shared" si="37"/>
-        <v>61.215724529239623</v>
-      </c>
-      <c r="AH52" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI52" s="38">
-        <v>9</v>
-      </c>
-      <c r="AJ52" s="7">
-        <v>9</v>
-      </c>
-      <c r="AK52" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL52" s="5">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AM52" s="5">
-        <f t="shared" si="39"/>
-        <v>54</v>
-      </c>
-      <c r="AN52" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO52" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP52" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ52" s="5">
-        <f t="shared" si="30"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AR52" s="5">
-        <f t="shared" si="31"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AS52" s="26">
-        <f t="shared" si="32"/>
-        <v>18.100081449999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.6">
-      <c r="A53" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="4">
-        <v>3187</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="0"/>
-        <v>964.06316171577225</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="17">
-        <v>6.4</v>
-      </c>
-      <c r="N53" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="O53" s="18">
-        <v>24</v>
-      </c>
-      <c r="P53" s="18">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="18">
-        <v>216</v>
-      </c>
-      <c r="R53" s="19">
-        <v>0.42</v>
-      </c>
-      <c r="S53" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="T53" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5">
-        <v>2420</v>
-      </c>
-      <c r="AA53" s="5">
-        <v>25.1</v>
-      </c>
-      <c r="AB53" s="24">
-        <f t="shared" si="33"/>
-        <v>2132.4470588235295</v>
-      </c>
-      <c r="AC53" s="25">
-        <f t="shared" si="34"/>
-        <v>2.2119370841100796</v>
-      </c>
-      <c r="AD53" s="25">
-        <f t="shared" si="35"/>
-        <v>669.1109679432991</v>
-      </c>
-      <c r="AE53" s="22">
-        <f t="shared" si="36"/>
-        <v>10.844000000000001</v>
-      </c>
-      <c r="AF53" s="22">
-        <v>22</v>
-      </c>
-      <c r="AG53" s="26">
-        <f t="shared" si="37"/>
-        <v>34.559672481473839</v>
-      </c>
-      <c r="AH53" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI53" s="38">
-        <v>6</v>
-      </c>
-      <c r="AJ53" s="7">
-        <v>6</v>
-      </c>
-      <c r="AK53" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL53" s="5">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AM53" s="5">
-        <f t="shared" si="39"/>
-        <v>36</v>
-      </c>
-      <c r="AN53" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO53" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP53" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="AQ53" s="5">
-        <f t="shared" si="30"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="AR53" s="5">
-        <f t="shared" si="31"/>
         <v>43.2</v>
       </c>
-      <c r="AS53" s="26">
+      <c r="AS51" s="25">
         <f t="shared" si="32"/>
         <v>13.555128459366175</v>
       </c>
@@ -8424,7 +8091,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/25년_수확량 통계.xlsx
+++ b/data/25년_수확량 통계.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://godaedong.sharepoint.com/sites/msteams_568ebf/Shared Documents/General/3. 정밀농업서비스 개발 관련 자료/데이터 분석/25년_필지분석/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1347" documentId="13_ncr:1_{F8FA6735-A609-4EE7-8805-16A4814DCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F4E6E1-678A-4799-9509-0274821DAA20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E70EDE-D3BF-4FF1-A189-1113C2523A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{3ED5B43B-BDFF-4404-A309-2D9EBF7B584E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="254">
   <si>
     <t>김제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -908,14 +909,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>전북특별자치도 순창군 쌍치면 도고리 653</t>
+  </si>
+  <si>
     <t>SC-09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>전북특별자치도 순창군 쌍치면 도고리 654</t>
+  </si>
+  <si>
     <t>SC-10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>전북특별자치도 순창군 쌍치면 도고리 655</t>
+  </si>
+  <si>
     <t>SC-11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -936,15 +946,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전북특별자치도 순창군 쌍치면 도고리 653</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북특별자치도 순창군 쌍치면 도고리 654</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북특별자치도 순창군 쌍치면 도고리 655</t>
+    <t>진천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 진천군 덕산읍 신척리 309, 310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 진천군 덕산읍 신척리 305-2, 306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-03</t>
+  </si>
+  <si>
+    <t>충청북도 진천군 덕산읍 신척리 305-4, 305-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-04</t>
+  </si>
+  <si>
+    <t>충청북도 진천군 덕산읍 신척리 305-6, 305-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-05</t>
+  </si>
+  <si>
+    <t>충청북도 진천군 덕산읍 신척리 305-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-06</t>
+  </si>
+  <si>
+    <t>충청북도 진천군 덕산읍 구산리 111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최장락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표종철</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑거름 모름, 웃거름 변량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금노들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청풍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진천 농협 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200:520 = 302.5 * x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순창 기타 농가 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5농가평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협 평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -953,11 +1039,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1035,7 +1121,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,6 +1161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,17 +1225,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,7 +1248,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1186,16 +1278,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1204,7 +1296,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1213,25 +1305,25 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1246,7 +1338,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1255,13 +1347,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1273,61 +1362,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,10 +1512,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,54 +1831,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E909C495-F45E-40B7-8FCD-B2FFDFF6E4E4}">
-  <dimension ref="A1:AU81"/>
+  <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD48" sqref="AD48"/>
+      <selection pane="bottomRight" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="7.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="8.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.19921875" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="6.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="7.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="8.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="6.75" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="7.75" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="8.375" customWidth="1" outlineLevel="1"/>
     <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="13.19921875" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="12.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="13.25" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.875" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="9.5" customWidth="1"/>
-    <col min="29" max="29" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.8984375" customWidth="1"/>
-    <col min="33" max="33" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.875" customWidth="1"/>
+    <col min="33" max="33" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="19.19921875" customWidth="1"/>
+    <col min="36" max="36" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="19.25" customWidth="1"/>
     <col min="39" max="39" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.8984375" customWidth="1"/>
-    <col min="43" max="43" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.875" customWidth="1"/>
+    <col min="43" max="43" width="22.875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="23.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1855,7 +2015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +2035,7 @@
         <v>4000</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G63" si="0">F2/3.3058</f>
+        <f t="shared" ref="G2:G71" si="0">F2/3.3058</f>
         <v>1209.9945550245025</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2000,16 +2160,8 @@
         <f t="shared" ref="AS2:AS23" si="4">AR2*302.5/G2</f>
         <v>20.512592306250003</v>
       </c>
-      <c r="AT2" s="39">
-        <f>AS2*30%</f>
-        <v>6.1537776918750007</v>
-      </c>
-      <c r="AU2" s="39">
-        <f>AS2-AT2</f>
-        <v>14.358814614375003</v>
-      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2307,7 @@
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2453,7 @@
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2599,7 @@
         <v>19.371946469849245</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2745,7 @@
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +2891,7 @@
         <v>20.512592306250003</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +3029,7 @@
         <v>14.500065249999999</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3167,7 @@
         <v>13.400060300000002</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3298,7 @@
         <v>17.619126904761906</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3429,7 @@
         <v>15.600070199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -3365,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -3547,14 +3699,14 @@
         <v>845.30131191204475</v>
       </c>
       <c r="AE14" s="22">
-        <f t="shared" ref="AE14:AE54" si="11">9.14-(0.109*O14)+(0.02*Q14)</f>
+        <f t="shared" ref="AE14:AE62" si="11">9.14-(0.109*O14)+(0.02*Q14)</f>
         <v>13.217612500000001</v>
       </c>
       <c r="AF14" s="22">
         <v>13</v>
       </c>
       <c r="AG14" s="26">
-        <f t="shared" ref="AG14:AG54" si="12">IF(AE14&lt;AF14, AE14*G14/302.5, AF14*G14/302.5)</f>
+        <f t="shared" ref="AG14:AG62" si="12">IF(AE14&lt;AF14, AE14*G14/302.5, AF14*G14/302.5)</f>
         <v>67.014698433857049</v>
       </c>
       <c r="AH14" s="5">
@@ -3599,7 +3751,7 @@
         <v>16.294932686711931</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -3745,7 +3897,7 @@
         <v>17.261887125700561</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -3891,7 +4043,7 @@
         <v>7.7377664426796988</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
@@ -4029,7 +4181,7 @@
         <v>8.7644947048082766</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -4175,7 +4327,7 @@
         <v>18.141224608501119</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -4313,7 +4465,7 @@
         <v>19.170746822254639</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4459,7 +4611,7 @@
         <v>18.548312776364707</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -4597,7 +4749,7 @@
         <v>17.911727188755023</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -4743,7 +4895,7 @@
         <v>12.046386254826254</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
@@ -4881,7 +5033,7 @@
         <v>12.413025820568929</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>35</v>
       </c>
@@ -4974,7 +5126,7 @@
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -5070,7 +5222,7 @@
       </c>
       <c r="AS25" s="5"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>105</v>
       </c>
@@ -5132,7 +5284,7 @@
         <v>15.5</v>
       </c>
       <c r="AB26" s="24">
-        <f t="shared" ref="AB26:AB54" si="19">Z26*(100-AA26)/(100-15)</f>
+        <f t="shared" ref="AB26:AB62" si="19">Z26*(100-AA26)/(100-15)</f>
         <v>1290.3647058823528</v>
       </c>
       <c r="AC26" s="25">
@@ -5196,7 +5348,7 @@
         <v>10.817487370572207</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>105</v>
       </c>
@@ -5322,7 +5474,7 @@
         <v>11.921786701607269</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>105</v>
       </c>
@@ -5448,7 +5600,7 @@
         <v>11.264915556756756</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>105</v>
       </c>
@@ -5574,7 +5726,7 @@
         <v>12.617737606199771</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -5700,7 +5852,7 @@
         <v>9.8175044960317468</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>105</v>
       </c>
@@ -5826,7 +5978,7 @@
         <v>12.323737713437268</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
@@ -5952,7 +6104,7 @@
         <v>11.89961179028133</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>105</v>
       </c>
@@ -6078,7 +6230,7 @@
         <v>13.195584671692606</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>105</v>
       </c>
@@ -6204,7 +6356,7 @@
         <v>11.416360386266094</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -6330,7 +6482,7 @@
         <v>12.851161634570222</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>105</v>
       </c>
@@ -6456,7 +6608,7 @@
         <v>15.516392275149899</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>105</v>
       </c>
@@ -6582,7 +6734,7 @@
         <v>8.5210467478991614</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>105</v>
       </c>
@@ -6644,11 +6796,11 @@
         <v>1160.1352941176472</v>
       </c>
       <c r="AC38" s="25">
-        <f t="shared" ref="AC38:AC49" si="24">AB38/G38</f>
+        <f t="shared" ref="AC38:AC39" si="24">AB38/G38</f>
         <v>2.2787731760511694</v>
       </c>
       <c r="AD38" s="25">
-        <f t="shared" ref="AD38:AD49" si="25">AB38*302.5/G38</f>
+        <f t="shared" ref="AD38:AD39" si="25">AB38*302.5/G38</f>
         <v>689.32888575547872</v>
       </c>
       <c r="AE38" s="22">
@@ -6675,14 +6827,14 @@
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
     </row>
-    <row r="39" spans="1:45" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B39" s="13">
         <v>2025</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="32" t="s">
@@ -6760,27 +6912,27 @@
       <c r="AR39" s="5"/>
       <c r="AS39" s="5"/>
     </row>
-    <row r="40" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="44">
         <v>2025</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F40" s="45">
+      <c r="E40" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="46">
         <v>3044</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G40:G49" si="26">F40/3.3058</f>
         <v>920.80585637364629</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -6792,121 +6944,121 @@
       <c r="J40" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L40" s="46" t="s">
+      <c r="L40" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5">
         <v>31.14</v>
       </c>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50">
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5">
         <v>936.5</v>
       </c>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="51">
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="35">
         <v>2730</v>
       </c>
-      <c r="AA40" s="51">
+      <c r="AA40" s="35">
         <v>17.600000000000001</v>
       </c>
-      <c r="AB40" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB40" s="24">
+        <f t="shared" ref="AB40:AB56" si="27">Z40*(100-AA40)/(100-15)</f>
         <v>2646.4941176470593</v>
       </c>
-      <c r="AC40" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC40" s="25">
+        <f t="shared" ref="AC40:AC56" si="28">AB40/G40</f>
         <v>2.8741065223776769</v>
       </c>
-      <c r="AD40" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD40" s="25">
+        <f t="shared" ref="AD40:AD56" si="29">AB40*302.5/G40</f>
         <v>869.41722301924733</v>
       </c>
-      <c r="AE40" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE40" s="50">
+        <f t="shared" ref="AE40:AE49" si="30">9.14-(0.109*O40)+(0.02*Q40)</f>
         <v>24.475740000000002</v>
       </c>
-      <c r="AF40" s="22">
+      <c r="AF40" s="50">
         <v>13</v>
       </c>
-      <c r="AG40" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG40" s="37">
+        <f t="shared" ref="AG40:AG49" si="31">IF(AE40&lt;AF40, AE40*G40/302.5, AF40*G40/302.5)</f>
         <v>39.571821926801327</v>
       </c>
-      <c r="AH40" s="5">
+      <c r="AH40" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI40" s="7">
+      <c r="AI40" s="40">
         <v>7</v>
       </c>
-      <c r="AJ40" s="7">
+      <c r="AJ40" s="40">
         <v>7</v>
       </c>
-      <c r="AK40" s="50">
+      <c r="AK40" s="5">
         <v>20</v>
       </c>
-      <c r="AL40" s="5">
-        <f t="shared" ref="AL40:AL49" si="26">AK40*AH40</f>
+      <c r="AL40" s="35">
+        <f t="shared" ref="AL40:AL49" si="32">AK40*AH40</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM40" s="5">
-        <f t="shared" ref="AM40:AM49" si="27">AL40*AJ40</f>
+      <c r="AM40" s="35">
+        <f t="shared" ref="AM40:AM49" si="33">AL40*AJ40</f>
         <v>39.200000000000003</v>
       </c>
       <c r="AN40" s="35">
         <v>5</v>
       </c>
-      <c r="AO40" s="50">
+      <c r="AO40" s="5">
         <v>20</v>
       </c>
-      <c r="AP40" s="50">
+      <c r="AP40" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ40" s="5">
-        <f t="shared" ref="AQ40:AQ49" si="28">AN40*AO40*AP40</f>
+      <c r="AQ40" s="35">
+        <f t="shared" ref="AQ40:AQ49" si="34">AN40*AO40*AP40</f>
         <v>18</v>
       </c>
-      <c r="AR40" s="5">
-        <f t="shared" ref="AR40:AR49" si="29">AM40+AQ40</f>
+      <c r="AR40" s="35">
+        <f t="shared" ref="AR40:AR49" si="35">AM40+AQ40</f>
         <v>57.2</v>
       </c>
-      <c r="AS40" s="26">
-        <f t="shared" ref="AS40:AS49" si="30">AR40*302.5/G40</f>
+      <c r="AS40" s="37">
+        <f t="shared" ref="AS40:AS49" si="36">AR40*302.5/G40</f>
         <v>18.791148948751644</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="46">
-        <v>2026</v>
-      </c>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="45">
+      <c r="E41" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="46">
         <v>3008</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>909.9159053784258</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -6918,121 +7070,121 @@
       <c r="J41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K41" s="46" t="s">
+      <c r="K41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="46" t="s">
+      <c r="L41" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50">
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5">
         <v>34.79</v>
       </c>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5">
         <v>1081.0999999999999</v>
       </c>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="51">
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="35">
         <v>2570</v>
       </c>
-      <c r="AA41" s="51">
+      <c r="AA41" s="35">
         <v>17.5</v>
       </c>
-      <c r="AB41" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB41" s="24">
+        <f t="shared" si="27"/>
         <v>2494.4117647058824</v>
       </c>
-      <c r="AC41" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC41" s="25">
+        <f t="shared" si="28"/>
         <v>2.7413651634856069</v>
       </c>
-      <c r="AD41" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD41" s="25">
+        <f t="shared" si="29"/>
         <v>829.26296195439613</v>
       </c>
-      <c r="AE41" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE41" s="50">
+        <f t="shared" si="30"/>
         <v>26.969889999999999</v>
       </c>
-      <c r="AF41" s="22">
+      <c r="AF41" s="50">
         <v>13</v>
       </c>
-      <c r="AG41" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG41" s="37">
+        <f t="shared" si="31"/>
         <v>39.103824032791849</v>
       </c>
-      <c r="AH41" s="5">
+      <c r="AH41" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI41" s="7">
+      <c r="AI41" s="40">
         <v>7</v>
       </c>
-      <c r="AJ41" s="7">
+      <c r="AJ41" s="40">
         <v>7</v>
       </c>
-      <c r="AK41" s="50">
+      <c r="AK41" s="5">
         <v>20</v>
       </c>
-      <c r="AL41" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL41" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM41" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM41" s="35">
+        <f t="shared" si="33"/>
         <v>39.200000000000003</v>
       </c>
       <c r="AN41" s="35">
         <v>4.5</v>
       </c>
-      <c r="AO41" s="50">
+      <c r="AO41" s="5">
         <v>20</v>
       </c>
-      <c r="AP41" s="50">
+      <c r="AP41" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ41" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ41" s="35">
+        <f t="shared" si="34"/>
         <v>16.2</v>
       </c>
-      <c r="AR41" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR41" s="35">
+        <f t="shared" si="35"/>
         <v>55.400000000000006</v>
       </c>
-      <c r="AS41" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS41" s="37">
+        <f t="shared" si="36"/>
         <v>18.417636070478725</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="46">
-        <v>2027</v>
-      </c>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="45">
+      <c r="E42" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="46">
         <v>2924</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>884.50601972291122</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -7044,121 +7196,121 @@
       <c r="J42" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K42" s="46" t="s">
+      <c r="K42" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="46" t="s">
+      <c r="L42" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50">
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5">
         <v>35.74</v>
       </c>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50">
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5">
         <v>737.7</v>
       </c>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="51">
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="35">
         <v>2530</v>
       </c>
-      <c r="AA42" s="51">
+      <c r="AA42" s="35">
         <v>17.2</v>
       </c>
-      <c r="AB42" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB42" s="24">
+        <f t="shared" si="27"/>
         <v>2464.5176470588235</v>
       </c>
-      <c r="AC42" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC42" s="25">
+        <f t="shared" si="28"/>
         <v>2.7863209431077491</v>
       </c>
-      <c r="AD42" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD42" s="25">
+        <f t="shared" si="29"/>
         <v>842.86208529009411</v>
       </c>
-      <c r="AE42" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE42" s="50">
+        <f t="shared" si="30"/>
         <v>19.998340000000002</v>
       </c>
-      <c r="AF42" s="22">
+      <c r="AF42" s="50">
         <v>13</v>
       </c>
-      <c r="AG42" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG42" s="37">
+        <f t="shared" si="31"/>
         <v>38.011828946769739</v>
       </c>
-      <c r="AH42" s="5">
+      <c r="AH42" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI42" s="7">
+      <c r="AI42" s="40">
         <v>7</v>
       </c>
-      <c r="AJ42" s="7">
+      <c r="AJ42" s="40">
         <v>7</v>
       </c>
-      <c r="AK42" s="50">
+      <c r="AK42" s="5">
         <v>20</v>
       </c>
-      <c r="AL42" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL42" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM42" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM42" s="35">
+        <f t="shared" si="33"/>
         <v>39.200000000000003</v>
       </c>
       <c r="AN42" s="35">
         <v>4.5</v>
       </c>
-      <c r="AO42" s="50">
+      <c r="AO42" s="5">
         <v>20</v>
       </c>
-      <c r="AP42" s="50">
+      <c r="AP42" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ42" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ42" s="35">
+        <f t="shared" si="34"/>
         <v>16.2</v>
       </c>
-      <c r="AR42" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR42" s="35">
+        <f t="shared" si="35"/>
         <v>55.400000000000006</v>
       </c>
-      <c r="AS42" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS42" s="37">
+        <f t="shared" si="36"/>
         <v>18.946733686730507</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="46">
-        <v>2028</v>
-      </c>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F43" s="45">
+      <c r="E43" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="46">
         <v>2389</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>722.66924798838409</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -7170,121 +7322,121 @@
       <c r="J43" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K43" s="46" t="s">
+      <c r="K43" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5">
         <v>54.13</v>
       </c>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50">
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5">
         <v>812.6</v>
       </c>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="51">
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="35">
         <v>2100</v>
       </c>
-      <c r="AA43" s="51">
+      <c r="AA43" s="35">
         <v>16.8</v>
       </c>
-      <c r="AB43" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB43" s="24">
+        <f t="shared" si="27"/>
         <v>2055.5294117647059</v>
       </c>
-      <c r="AC43" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC43" s="25">
+        <f t="shared" si="28"/>
         <v>2.8443571073301652</v>
       </c>
-      <c r="AD43" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD43" s="25">
+        <f t="shared" si="29"/>
         <v>860.41802496737489</v>
       </c>
-      <c r="AE43" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE43" s="50">
+        <f t="shared" si="30"/>
         <v>19.491830000000004</v>
       </c>
-      <c r="AF43" s="22">
+      <c r="AF43" s="50">
         <v>13</v>
       </c>
-      <c r="AG43" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG43" s="37">
+        <f t="shared" si="31"/>
         <v>31.056860244128902</v>
       </c>
-      <c r="AH43" s="5">
+      <c r="AH43" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI43" s="7">
+      <c r="AI43" s="40">
         <v>6</v>
       </c>
-      <c r="AJ43" s="7">
+      <c r="AJ43" s="40">
         <v>6</v>
       </c>
-      <c r="AK43" s="50">
+      <c r="AK43" s="5">
         <v>20</v>
       </c>
-      <c r="AL43" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL43" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM43" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM43" s="35">
+        <f t="shared" si="33"/>
         <v>33.6</v>
       </c>
       <c r="AN43" s="35">
         <v>3</v>
       </c>
-      <c r="AO43" s="50">
+      <c r="AO43" s="5">
         <v>20</v>
       </c>
-      <c r="AP43" s="50">
+      <c r="AP43" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ43" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ43" s="35">
+        <f t="shared" si="34"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="AR43" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR43" s="35">
+        <f t="shared" si="35"/>
         <v>44.4</v>
       </c>
-      <c r="AS43" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS43" s="37">
+        <f t="shared" si="36"/>
         <v>18.585265717873586</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="46">
-        <v>2029</v>
-      </c>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="45">
+      <c r="E44" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="46">
         <v>2424</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>733.25670034484847</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -7296,121 +7448,121 @@
       <c r="J44" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K44" s="46" t="s">
+      <c r="K44" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="46" t="s">
+      <c r="L44" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5">
         <v>56.87</v>
       </c>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50">
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5">
         <v>1003.6</v>
       </c>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="51">
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="35">
         <v>2210</v>
       </c>
-      <c r="AA44" s="51">
+      <c r="AA44" s="35">
         <v>17</v>
       </c>
-      <c r="AB44" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB44" s="24">
+        <f t="shared" si="27"/>
         <v>2158</v>
       </c>
-      <c r="AC44" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC44" s="25">
+        <f t="shared" si="28"/>
         <v>2.943034818481848</v>
       </c>
-      <c r="AD44" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD44" s="25">
+        <f t="shared" si="29"/>
         <v>890.26803259075905</v>
       </c>
-      <c r="AE44" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE44" s="50">
+        <f t="shared" si="30"/>
         <v>23.013169999999999</v>
       </c>
-      <c r="AF44" s="22">
+      <c r="AF44" s="50">
         <v>13</v>
       </c>
-      <c r="AG44" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG44" s="37">
+        <f t="shared" si="31"/>
         <v>31.511858196638119</v>
       </c>
-      <c r="AH44" s="5">
+      <c r="AH44" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI44" s="7">
+      <c r="AI44" s="40">
         <v>6</v>
       </c>
-      <c r="AJ44" s="7">
+      <c r="AJ44" s="40">
         <v>6</v>
       </c>
-      <c r="AK44" s="50">
+      <c r="AK44" s="5">
         <v>20</v>
       </c>
-      <c r="AL44" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL44" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM44" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM44" s="35">
+        <f t="shared" si="33"/>
         <v>33.6</v>
       </c>
       <c r="AN44" s="35">
         <v>3</v>
       </c>
-      <c r="AO44" s="50">
+      <c r="AO44" s="5">
         <v>20</v>
       </c>
-      <c r="AP44" s="50">
+      <c r="AP44" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ44" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ44" s="35">
+        <f t="shared" si="34"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="AR44" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR44" s="35">
+        <f t="shared" si="35"/>
         <v>44.4</v>
       </c>
-      <c r="AS44" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS44" s="37">
+        <f t="shared" si="36"/>
         <v>18.31691410891089</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="46">
-        <v>2030</v>
-      </c>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="45">
+      <c r="D45" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="46">
         <v>2412</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>729.62671667977497</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -7422,121 +7574,121 @@
       <c r="J45" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="46" t="s">
+      <c r="L45" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5">
         <v>56</v>
       </c>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5">
         <v>917.1</v>
       </c>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="50"/>
-      <c r="Z45" s="51">
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="35">
         <v>2150</v>
       </c>
-      <c r="AA45" s="51">
+      <c r="AA45" s="35">
         <v>17</v>
       </c>
-      <c r="AB45" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB45" s="24">
+        <f t="shared" si="27"/>
         <v>2099.4117647058824</v>
       </c>
-      <c r="AC45" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC45" s="25">
+        <f t="shared" si="28"/>
         <v>2.8773778655740903</v>
       </c>
-      <c r="AD45" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD45" s="25">
+        <f t="shared" si="29"/>
         <v>870.40680433616228</v>
       </c>
-      <c r="AE45" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE45" s="50">
+        <f t="shared" si="30"/>
         <v>21.378000000000004</v>
       </c>
-      <c r="AF45" s="22">
+      <c r="AF45" s="50">
         <v>13</v>
       </c>
-      <c r="AG45" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG45" s="37">
+        <f t="shared" si="31"/>
         <v>31.355858898634956</v>
       </c>
-      <c r="AH45" s="5">
+      <c r="AH45" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI45" s="7">
+      <c r="AI45" s="40">
         <v>6</v>
       </c>
-      <c r="AJ45" s="7">
+      <c r="AJ45" s="40">
         <v>7</v>
       </c>
-      <c r="AK45" s="50">
+      <c r="AK45" s="5">
         <v>20</v>
       </c>
-      <c r="AL45" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL45" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM45" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM45" s="35">
+        <f t="shared" si="33"/>
         <v>39.200000000000003</v>
       </c>
       <c r="AN45" s="35">
         <v>3</v>
       </c>
-      <c r="AO45" s="50">
+      <c r="AO45" s="5">
         <v>20</v>
       </c>
-      <c r="AP45" s="50">
+      <c r="AP45" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ45" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ45" s="35">
+        <f t="shared" si="34"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="AR45" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR45" s="35">
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
-      <c r="AS45" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS45" s="37">
+        <f t="shared" si="36"/>
         <v>20.729778192371477</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="46" t="s">
+    <row r="46" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="46">
-        <v>2031</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="45">
+      <c r="B46" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="46">
         <v>2509</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>758.96908463911916</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -7548,121 +7700,121 @@
       <c r="J46" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K46" s="46" t="s">
+      <c r="K46" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="46" t="s">
+      <c r="L46" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5">
         <v>58.41</v>
       </c>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
         <v>560.29999999999995</v>
       </c>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="51">
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="35">
         <v>2300</v>
       </c>
-      <c r="AA46" s="51">
+      <c r="AA46" s="35">
         <v>17.100000000000001</v>
       </c>
-      <c r="AB46" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB46" s="24">
+        <f t="shared" si="27"/>
         <v>2243.1764705882351</v>
       </c>
-      <c r="AC46" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC46" s="25">
+        <f t="shared" si="28"/>
         <v>2.9555571050101981</v>
       </c>
-      <c r="AD46" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD46" s="25">
+        <f t="shared" si="29"/>
         <v>894.05602426558494</v>
       </c>
-      <c r="AE46" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE46" s="50">
+        <f t="shared" si="30"/>
         <v>13.979310000000002</v>
       </c>
-      <c r="AF46" s="22">
+      <c r="AF46" s="50">
         <v>13</v>
       </c>
-      <c r="AG46" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG46" s="37">
+        <f t="shared" si="31"/>
         <v>32.616853224160494</v>
       </c>
-      <c r="AH46" s="5">
+      <c r="AH46" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI46" s="7">
+      <c r="AI46" s="40">
         <v>6</v>
       </c>
-      <c r="AJ46" s="7">
+      <c r="AJ46" s="40">
         <v>7</v>
       </c>
-      <c r="AK46" s="50">
+      <c r="AK46" s="5">
         <v>20</v>
       </c>
-      <c r="AL46" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL46" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM46" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM46" s="35">
+        <f t="shared" si="33"/>
         <v>39.200000000000003</v>
       </c>
       <c r="AN46" s="35">
         <v>3.3</v>
       </c>
-      <c r="AO46" s="50">
+      <c r="AO46" s="5">
         <v>20</v>
       </c>
-      <c r="AP46" s="50">
+      <c r="AP46" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ46" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ46" s="35">
+        <f t="shared" si="34"/>
         <v>11.879999999999999</v>
       </c>
-      <c r="AR46" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR46" s="35">
+        <f t="shared" si="35"/>
         <v>51.08</v>
       </c>
-      <c r="AS46" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS46" s="37">
+        <f t="shared" si="36"/>
         <v>20.358800263053006</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="46">
-        <v>2032</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="48" t="s">
+      <c r="B47" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="E47" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="45">
+      <c r="F47" s="46">
         <v>2799</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>846.6936898783955</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -7674,121 +7826,121 @@
       <c r="J47" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K47" s="46" t="s">
+      <c r="K47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5">
         <v>66.91</v>
       </c>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5">
         <v>748</v>
       </c>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="51">
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="35">
         <v>2520</v>
       </c>
-      <c r="AA47" s="51">
+      <c r="AA47" s="35">
         <v>17.3</v>
       </c>
-      <c r="AB47" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB47" s="24">
+        <f t="shared" si="27"/>
         <v>2451.8117647058825</v>
       </c>
-      <c r="AC47" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC47" s="25">
+        <f t="shared" si="28"/>
         <v>2.8957482428598453</v>
       </c>
-      <c r="AD47" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD47" s="25">
+        <f t="shared" si="29"/>
         <v>875.9638434651032</v>
       </c>
-      <c r="AE47" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE47" s="50">
+        <f t="shared" si="30"/>
         <v>16.806810000000002</v>
       </c>
-      <c r="AF47" s="22">
+      <c r="AF47" s="50">
         <v>13</v>
       </c>
-      <c r="AG47" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG47" s="37">
+        <f t="shared" si="31"/>
         <v>36.38683625923683</v>
       </c>
-      <c r="AH47" s="5">
+      <c r="AH47" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI47" s="7">
+      <c r="AI47" s="40">
         <v>7</v>
       </c>
-      <c r="AJ47" s="7">
+      <c r="AJ47" s="40">
         <v>7</v>
       </c>
-      <c r="AK47" s="50">
+      <c r="AK47" s="5">
         <v>20</v>
       </c>
-      <c r="AL47" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL47" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM47" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM47" s="35">
+        <f t="shared" si="33"/>
         <v>39.200000000000003</v>
       </c>
       <c r="AN47" s="35">
         <v>4</v>
       </c>
-      <c r="AO47" s="50">
+      <c r="AO47" s="5">
         <v>20</v>
       </c>
-      <c r="AP47" s="50">
+      <c r="AP47" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ47" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ47" s="35">
+        <f t="shared" si="34"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="AR47" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR47" s="35">
+        <f t="shared" si="35"/>
         <v>53.6</v>
       </c>
-      <c r="AS47" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS47" s="37">
+        <f t="shared" si="36"/>
         <v>19.149782493747768</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="46">
-        <v>2033</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="49" t="s">
+      <c r="B48" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="45">
+      <c r="E48" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="46">
         <v>2216</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>670.33698348357427</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -7800,121 +7952,121 @@
       <c r="J48" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K48" s="46" t="s">
+      <c r="K48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5">
         <v>58.5</v>
       </c>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5">
         <v>1469.8</v>
       </c>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="51">
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="35">
         <v>1980</v>
       </c>
-      <c r="AA48" s="51">
+      <c r="AA48" s="35">
         <v>16.899999999999999</v>
       </c>
-      <c r="AB48" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB48" s="24">
+        <f t="shared" si="27"/>
         <v>1935.7411764705882</v>
       </c>
-      <c r="AC48" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC48" s="25">
+        <f t="shared" si="28"/>
         <v>2.8877135294117648</v>
       </c>
-      <c r="AD48" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD48" s="25">
+        <f t="shared" si="29"/>
         <v>873.53334264705882</v>
       </c>
-      <c r="AE48" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE48" s="50">
+        <f t="shared" si="30"/>
         <v>32.159500000000001</v>
       </c>
-      <c r="AF48" s="22">
+      <c r="AF48" s="50">
         <v>13</v>
       </c>
-      <c r="AG48" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG48" s="37">
+        <f t="shared" si="31"/>
         <v>28.807870364583355</v>
       </c>
-      <c r="AH48" s="5">
+      <c r="AH48" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI48" s="7">
+      <c r="AI48" s="40">
         <v>6</v>
       </c>
-      <c r="AJ48" s="7">
+      <c r="AJ48" s="40">
         <v>6</v>
       </c>
-      <c r="AK48" s="50">
+      <c r="AK48" s="5">
         <v>20</v>
       </c>
-      <c r="AL48" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL48" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM48" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM48" s="35">
+        <f t="shared" si="33"/>
         <v>33.6</v>
       </c>
       <c r="AN48" s="35">
         <v>3.8</v>
       </c>
-      <c r="AO48" s="50">
+      <c r="AO48" s="5">
         <v>20</v>
       </c>
-      <c r="AP48" s="50">
+      <c r="AP48" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ48" s="5">
-        <f t="shared" si="28"/>
+      <c r="AQ48" s="35">
+        <f t="shared" si="34"/>
         <v>13.68</v>
       </c>
-      <c r="AR48" s="5">
-        <f t="shared" si="29"/>
+      <c r="AR48" s="35">
+        <f t="shared" si="35"/>
         <v>47.28</v>
       </c>
-      <c r="AS48" s="26">
-        <f t="shared" si="30"/>
+      <c r="AS48" s="37">
+        <f t="shared" si="36"/>
         <v>21.335836083032493</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="56" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="46" t="s">
+    <row r="49" spans="1:45" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="46">
-        <v>2034</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="45">
+      <c r="B49" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="46">
         <v>5230</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="26"/>
         <v>1582.0678806945368</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -7926,1227 +8078,873 @@
       <c r="J49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K49" s="46" t="s">
+      <c r="K49" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="46" t="s">
+      <c r="L49" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50">
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5">
         <v>50.29</v>
       </c>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50">
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5">
         <v>797</v>
       </c>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="51">
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="35">
         <v>4630</v>
       </c>
-      <c r="AA49" s="51">
+      <c r="AA49" s="35">
         <v>16.899999999999999</v>
       </c>
-      <c r="AB49" s="52">
-        <f t="shared" si="19"/>
+      <c r="AB49" s="24">
+        <f t="shared" si="27"/>
         <v>4526.5058823529416</v>
       </c>
-      <c r="AC49" s="53">
-        <f t="shared" si="24"/>
+      <c r="AC49" s="25">
+        <f t="shared" si="28"/>
         <v>2.8611325326734902</v>
       </c>
-      <c r="AD49" s="53">
-        <f t="shared" si="25"/>
+      <c r="AD49" s="25">
+        <f t="shared" si="29"/>
         <v>865.4925911337308</v>
       </c>
-      <c r="AE49" s="22">
-        <f t="shared" si="11"/>
+      <c r="AE49" s="50">
+        <f t="shared" si="30"/>
         <v>19.598390000000002</v>
       </c>
-      <c r="AF49" s="22">
+      <c r="AF49" s="50">
         <v>13</v>
       </c>
-      <c r="AG49" s="26">
-        <f t="shared" si="12"/>
+      <c r="AG49" s="37">
+        <f t="shared" si="31"/>
         <v>67.989694046376783</v>
       </c>
-      <c r="AH49" s="5">
+      <c r="AH49" s="35">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI49" s="7">
+      <c r="AI49" s="40">
         <v>12</v>
       </c>
-      <c r="AJ49" s="7">
+      <c r="AJ49" s="40">
         <v>18</v>
       </c>
-      <c r="AK49" s="50">
+      <c r="AK49" s="5">
         <v>20</v>
       </c>
-      <c r="AL49" s="5">
-        <f t="shared" si="26"/>
+      <c r="AL49" s="35">
+        <f t="shared" si="32"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="AM49" s="5">
-        <f t="shared" si="27"/>
+      <c r="AM49" s="35">
+        <f t="shared" si="33"/>
         <v>100.80000000000001</v>
       </c>
       <c r="AN49" s="35">
         <v>6.5</v>
       </c>
-      <c r="AO49" s="50">
+      <c r="AO49" s="5">
         <v>20</v>
       </c>
-      <c r="AP49" s="50">
+      <c r="AP49" s="5">
         <v>0.18</v>
       </c>
-      <c r="AQ49" s="5">
+      <c r="AQ49" s="35">
+        <f t="shared" si="34"/>
+        <v>23.4</v>
+      </c>
+      <c r="AR49" s="35">
+        <f t="shared" si="35"/>
+        <v>124.20000000000002</v>
+      </c>
+      <c r="AS49" s="37">
+        <f t="shared" si="36"/>
+        <v>23.747716806883371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="44">
+        <v>2025</v>
+      </c>
+      <c r="C50" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25">
+        <v>726</v>
+      </c>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="40"/>
+      <c r="AJ50" s="40"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="35"/>
+      <c r="AR50" s="35"/>
+      <c r="AS50" s="37"/>
+    </row>
+    <row r="51" spans="1:45" s="65" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="52">
+        <v>2025</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="55">
+        <v>5086.4799999999996</v>
+      </c>
+      <c r="G51" s="56">
+        <f t="shared" ref="G51:G56" si="37">F51/3.3058</f>
+        <v>1538.6532760602577</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="57">
+        <v>3</v>
+      </c>
+      <c r="J51" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M51" s="9">
+        <v>7</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9">
+        <v>16</v>
+      </c>
+      <c r="P51" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>182</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="S51" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T51" s="9">
+        <v>1</v>
+      </c>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="59">
+        <v>5017</v>
+      </c>
+      <c r="AA51" s="59">
+        <v>21</v>
+      </c>
+      <c r="AB51" s="60">
+        <f t="shared" si="27"/>
+        <v>4662.8588235294119</v>
+      </c>
+      <c r="AC51" s="61">
         <f t="shared" si="28"/>
-        <v>23.4</v>
-      </c>
-      <c r="AR49" s="5">
+        <v>3.0304805482029873</v>
+      </c>
+      <c r="AD51" s="61">
         <f t="shared" si="29"/>
-        <v>124.20000000000002</v>
-      </c>
-      <c r="AS49" s="26">
-        <f t="shared" si="30"/>
-        <v>23.747716806883371</v>
-      </c>
+        <v>916.72036583140357</v>
+      </c>
+      <c r="AE51" s="62">
+        <f t="shared" ref="AE51:AE56" si="38">9.14-(0.109*O51)+(0.02*Q51)</f>
+        <v>11.036000000000001</v>
+      </c>
+      <c r="AF51" s="62"/>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="59"/>
+      <c r="AI51" s="64"/>
+      <c r="AJ51" s="64"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="59"/>
+      <c r="AM51" s="59"/>
+      <c r="AN51" s="59"/>
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="9"/>
+      <c r="AQ51" s="59"/>
+      <c r="AR51" s="59"/>
+      <c r="AS51" s="63"/>
     </row>
-    <row r="50" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="44" t="s">
+    <row r="52" spans="1:45" s="65" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="52">
+        <v>2025</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="55">
+        <v>4347.3249999999998</v>
+      </c>
+      <c r="G52" s="56">
+        <f t="shared" si="37"/>
+        <v>1315.0598947304736</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="57">
+        <v>3</v>
+      </c>
+      <c r="J52" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K52" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9">
+        <v>19</v>
+      </c>
+      <c r="P52" s="9">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>234</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="S52" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="59">
+        <v>3712</v>
+      </c>
+      <c r="AA52" s="59">
+        <v>25</v>
+      </c>
+      <c r="AB52" s="60">
+        <f t="shared" si="27"/>
+        <v>3275.294117647059</v>
+      </c>
+      <c r="AC52" s="61">
+        <f t="shared" si="28"/>
+        <v>2.490604519817968</v>
+      </c>
+      <c r="AD52" s="61">
+        <f t="shared" si="29"/>
+        <v>753.40786724493535</v>
+      </c>
+      <c r="AE52" s="62">
+        <f t="shared" si="38"/>
+        <v>11.749000000000001</v>
+      </c>
+      <c r="AF52" s="62"/>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="64"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="59"/>
+      <c r="AN52" s="59"/>
+      <c r="AO52" s="9"/>
+      <c r="AP52" s="9"/>
+      <c r="AQ52" s="59"/>
+      <c r="AR52" s="59"/>
+      <c r="AS52" s="63"/>
+    </row>
+    <row r="53" spans="1:45" s="65" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="52">
+        <v>2025</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="55">
+        <v>6143.9709000000003</v>
+      </c>
+      <c r="G53" s="56">
+        <f t="shared" si="37"/>
+        <v>1858.5428338072479</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="57">
+        <v>3</v>
+      </c>
+      <c r="J53" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K53" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M53" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9">
+        <v>20</v>
+      </c>
+      <c r="P53" s="9">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>163</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="S53" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="T53" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="59">
+        <v>6008</v>
+      </c>
+      <c r="AA53" s="59">
+        <v>21</v>
+      </c>
+      <c r="AB53" s="60">
+        <f t="shared" si="27"/>
+        <v>5583.9058823529413</v>
+      </c>
+      <c r="AC53" s="61">
+        <f t="shared" si="28"/>
+        <v>3.0044536939265698</v>
+      </c>
+      <c r="AD53" s="61">
+        <f t="shared" si="29"/>
+        <v>908.84724241278752</v>
+      </c>
+      <c r="AE53" s="62">
+        <f t="shared" si="38"/>
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="63"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="64"/>
+      <c r="AJ53" s="64"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="59"/>
+      <c r="AN53" s="59"/>
+      <c r="AO53" s="9"/>
+      <c r="AP53" s="9"/>
+      <c r="AQ53" s="59"/>
+      <c r="AR53" s="59"/>
+      <c r="AS53" s="63"/>
+    </row>
+    <row r="54" spans="1:45" s="65" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="52">
+        <v>2025</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F54" s="55">
+        <v>3403.3516</v>
+      </c>
+      <c r="G54" s="56">
+        <f t="shared" si="37"/>
+        <v>1029.509226208482</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I54" s="57">
+        <v>3</v>
+      </c>
+      <c r="J54" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K54" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M54" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9">
+        <v>30</v>
+      </c>
+      <c r="P54" s="9">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>200</v>
+      </c>
+      <c r="R54" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="S54" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="T54" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="59">
+        <v>2830</v>
+      </c>
+      <c r="AA54" s="59">
+        <v>22</v>
+      </c>
+      <c r="AB54" s="60">
+        <f t="shared" si="27"/>
+        <v>2596.9411764705883</v>
+      </c>
+      <c r="AC54" s="61">
+        <f t="shared" si="28"/>
+        <v>2.5225040343103169</v>
+      </c>
+      <c r="AD54" s="61">
+        <f t="shared" si="29"/>
+        <v>763.0574703788709</v>
+      </c>
+      <c r="AE54" s="62">
+        <f t="shared" si="38"/>
+        <v>9.870000000000001</v>
+      </c>
+      <c r="AF54" s="62"/>
+      <c r="AG54" s="63"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="64"/>
+      <c r="AJ54" s="64"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="59"/>
+      <c r="AN54" s="59"/>
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="9"/>
+      <c r="AQ54" s="59"/>
+      <c r="AR54" s="59"/>
+      <c r="AS54" s="63"/>
+    </row>
+    <row r="55" spans="1:45" s="65" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="52">
+        <v>2025</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="55">
+        <v>5347.7921999999999</v>
+      </c>
+      <c r="G55" s="56">
+        <f t="shared" si="37"/>
+        <v>1617.699860850626</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" s="57">
+        <v>3</v>
+      </c>
+      <c r="J55" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K55" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M55" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9">
+        <v>39</v>
+      </c>
+      <c r="P55" s="9">
+        <v>45</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>85</v>
+      </c>
+      <c r="R55" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="S55" s="9">
+        <v>7.1</v>
+      </c>
+      <c r="T55" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="59">
+        <v>4690</v>
+      </c>
+      <c r="AA55" s="59">
+        <v>22</v>
+      </c>
+      <c r="AB55" s="60">
+        <f t="shared" si="27"/>
+        <v>4303.7647058823532</v>
+      </c>
+      <c r="AC55" s="61">
+        <f t="shared" si="28"/>
+        <v>2.6604222513929927</v>
+      </c>
+      <c r="AD55" s="61">
+        <f t="shared" si="29"/>
+        <v>804.77773104638027</v>
+      </c>
+      <c r="AE55" s="62">
+        <f t="shared" si="38"/>
+        <v>6.5890000000000004</v>
+      </c>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="64"/>
+      <c r="AJ55" s="64"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="59"/>
+      <c r="AM55" s="59"/>
+      <c r="AN55" s="59"/>
+      <c r="AO55" s="9"/>
+      <c r="AP55" s="9"/>
+      <c r="AQ55" s="59"/>
+      <c r="AR55" s="59"/>
+      <c r="AS55" s="63"/>
+    </row>
+    <row r="56" spans="1:45" s="65" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="52">
+        <v>2025</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" s="68">
+        <v>7413.2599</v>
+      </c>
+      <c r="G56" s="69">
+        <f t="shared" si="37"/>
+        <v>2242.5010284953719</v>
+      </c>
+      <c r="H56" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="57">
+        <v>3</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M56" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9">
+        <v>25</v>
+      </c>
+      <c r="P56" s="9">
+        <v>63</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>299</v>
+      </c>
+      <c r="R56" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="S56" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="T56" s="9">
+        <v>1</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="59">
+        <v>4619</v>
+      </c>
+      <c r="AA56" s="59">
+        <v>22</v>
+      </c>
+      <c r="AB56" s="60">
+        <f t="shared" si="27"/>
+        <v>4238.6117647058827</v>
+      </c>
+      <c r="AC56" s="61">
+        <f t="shared" si="28"/>
+        <v>1.8901270103540693</v>
+      </c>
+      <c r="AD56" s="61">
+        <f t="shared" si="29"/>
+        <v>571.76342063210598</v>
+      </c>
+      <c r="AE56" s="62">
+        <f t="shared" si="38"/>
+        <v>12.395000000000001</v>
+      </c>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="63"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="64"/>
+      <c r="AJ56" s="64"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="59"/>
+      <c r="AM56" s="59"/>
+      <c r="AN56" s="59"/>
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="9"/>
+      <c r="AQ56" s="59"/>
+      <c r="AR56" s="59"/>
+      <c r="AS56" s="63"/>
+    </row>
+    <row r="57" spans="1:45" s="85" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="71">
+        <v>2025</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="75"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="77">
+        <v>4</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="K57" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="81"/>
+      <c r="AC57" s="82"/>
+      <c r="AD57" s="82">
+        <v>786.5</v>
+      </c>
+      <c r="AE57" s="83"/>
+      <c r="AF57" s="83"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="80"/>
+      <c r="AI57" s="72"/>
+      <c r="AJ57" s="72"/>
+      <c r="AK57" s="79"/>
+      <c r="AL57" s="80"/>
+      <c r="AM57" s="80"/>
+      <c r="AN57" s="80"/>
+      <c r="AO57" s="79"/>
+      <c r="AP57" s="79"/>
+      <c r="AQ57" s="80"/>
+      <c r="AR57" s="80"/>
+      <c r="AS57" s="84"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B58" s="7">
         <v>2024</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C58" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D58" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F58" s="4">
         <v>4000</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G58" s="4">
         <f t="shared" si="0"/>
         <v>1209.9945550245025</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="58">
-        <v>6.7</v>
-      </c>
-      <c r="N50" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="O50" s="59">
-        <v>21</v>
-      </c>
-      <c r="P50" s="59">
-        <v>33</v>
-      </c>
-      <c r="Q50" s="59">
-        <v>553</v>
-      </c>
-      <c r="R50" s="60">
-        <v>0.13</v>
-      </c>
-      <c r="S50" s="58">
-        <v>7.4</v>
-      </c>
-      <c r="T50" s="58">
-        <v>1.5</v>
-      </c>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="51">
-        <v>2868</v>
-      </c>
-      <c r="AA50" s="51">
-        <v>25</v>
-      </c>
-      <c r="AB50" s="52">
-        <f t="shared" si="19"/>
-        <v>2530.5882352941176</v>
-      </c>
-      <c r="AC50" s="53">
-        <f t="shared" ref="AC50:AC54" si="31">AB50/G50</f>
-        <v>2.0914046470588232</v>
-      </c>
-      <c r="AD50" s="53">
-        <f t="shared" ref="AD50:AD54" si="32">AB50*302.5/G50</f>
-        <v>632.64990573529406</v>
-      </c>
-      <c r="AE50" s="54">
-        <f t="shared" si="11"/>
-        <v>17.911000000000001</v>
-      </c>
-      <c r="AF50" s="54">
-        <v>13</v>
-      </c>
-      <c r="AG50" s="55">
-        <f t="shared" si="12"/>
-        <v>51.999766001052997</v>
-      </c>
-      <c r="AH50" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="AI50" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ50" s="7">
-        <v>9</v>
-      </c>
-      <c r="AK50" s="50">
-        <v>20</v>
-      </c>
-      <c r="AL50" s="50">
-        <f>AK50*AH50</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="AM50" s="50">
-        <f>AL50*AJ50</f>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="AN50" s="50">
-        <v>3</v>
-      </c>
-      <c r="AO50" s="50">
-        <v>20</v>
-      </c>
-      <c r="AP50" s="50">
-        <v>0.46</v>
-      </c>
-      <c r="AQ50" s="50">
-        <f t="shared" ref="AQ50:AQ63" si="33">AN50*AO50*AP50</f>
-        <v>27.6</v>
-      </c>
-      <c r="AR50" s="50">
-        <f t="shared" ref="AR50:AR63" si="34">AM50+AQ50</f>
-        <v>87</v>
-      </c>
-      <c r="AS50" s="61">
-        <f t="shared" ref="AS50:AS63" si="35">AR50*302.5/G50</f>
-        <v>21.750097874999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="44">
-        <v>2024</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G51" s="4">
-        <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L51" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M51" s="58">
-        <v>7.1</v>
-      </c>
-      <c r="N51" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="O51" s="59">
-        <v>30</v>
-      </c>
-      <c r="P51" s="59">
-        <v>41</v>
-      </c>
-      <c r="Q51" s="59">
-        <v>251</v>
-      </c>
-      <c r="R51" s="60">
-        <v>0.18</v>
-      </c>
-      <c r="S51" s="58">
-        <v>7.3</v>
-      </c>
-      <c r="T51" s="58">
-        <v>1.5</v>
-      </c>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="50"/>
-      <c r="Z51" s="51">
-        <v>3236</v>
-      </c>
-      <c r="AA51" s="51">
-        <v>28.5</v>
-      </c>
-      <c r="AB51" s="52">
-        <f t="shared" si="19"/>
-        <v>2722.0470588235294</v>
-      </c>
-      <c r="AC51" s="53">
-        <f t="shared" si="31"/>
-        <v>2.2496357917647058</v>
-      </c>
-      <c r="AD51" s="53">
-        <f t="shared" si="32"/>
-        <v>680.51482700882343</v>
-      </c>
-      <c r="AE51" s="54">
-        <f t="shared" si="11"/>
-        <v>10.89</v>
-      </c>
-      <c r="AF51" s="54">
-        <v>13</v>
-      </c>
-      <c r="AG51" s="55">
-        <f t="shared" si="12"/>
-        <v>43.559803980882094</v>
-      </c>
-      <c r="AH51" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="AI51" s="7">
-        <v>9</v>
-      </c>
-      <c r="AJ51" s="7">
-        <v>9</v>
-      </c>
-      <c r="AK51" s="50">
-        <v>20</v>
-      </c>
-      <c r="AL51" s="50">
-        <f>AK51*AH51</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="AM51" s="50">
-        <f>AL51*AJ51</f>
-        <v>59.400000000000006</v>
-      </c>
-      <c r="AN51" s="50">
-        <v>3</v>
-      </c>
-      <c r="AO51" s="50">
-        <v>20</v>
-      </c>
-      <c r="AP51" s="50">
-        <v>0.46</v>
-      </c>
-      <c r="AQ51" s="50">
-        <f t="shared" si="33"/>
-        <v>27.6</v>
-      </c>
-      <c r="AR51" s="50">
-        <f t="shared" si="34"/>
-        <v>87</v>
-      </c>
-      <c r="AS51" s="61">
-        <f t="shared" si="35"/>
-        <v>21.750097874999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="44">
-        <v>2024</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52" s="58">
-        <v>6.8</v>
-      </c>
-      <c r="N52" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="O52" s="59">
-        <v>28</v>
-      </c>
-      <c r="P52" s="59">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="59">
-        <v>348</v>
-      </c>
-      <c r="R52" s="60">
-        <v>0.21</v>
-      </c>
-      <c r="S52" s="58">
-        <v>7.7</v>
-      </c>
-      <c r="T52" s="58">
-        <v>1.7</v>
-      </c>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="51">
-        <v>3045</v>
-      </c>
-      <c r="AA52" s="51">
-        <v>25.6</v>
-      </c>
-      <c r="AB52" s="52">
-        <f t="shared" si="19"/>
-        <v>2665.2705882352943</v>
-      </c>
-      <c r="AC52" s="53">
-        <f t="shared" si="31"/>
-        <v>2.202712877647059</v>
-      </c>
-      <c r="AD52" s="53">
-        <f t="shared" si="32"/>
-        <v>666.3206454882353</v>
-      </c>
-      <c r="AE52" s="54">
-        <f t="shared" si="11"/>
-        <v>13.048000000000002</v>
-      </c>
-      <c r="AF52" s="54">
-        <v>13</v>
-      </c>
-      <c r="AG52" s="55">
-        <f t="shared" si="12"/>
-        <v>51.999766001052997</v>
-      </c>
-      <c r="AH52" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="AI52" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ52" s="7">
-        <v>12</v>
-      </c>
-      <c r="AK52" s="50">
-        <v>20</v>
-      </c>
-      <c r="AL52" s="50">
-        <f>AK52*AH52</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="AM52" s="50">
-        <f>AL52*AJ52</f>
-        <v>79.2</v>
-      </c>
-      <c r="AN52" s="50">
-        <v>3</v>
-      </c>
-      <c r="AO52" s="50">
-        <v>20</v>
-      </c>
-      <c r="AP52" s="50">
-        <v>0.46</v>
-      </c>
-      <c r="AQ52" s="50">
-        <f t="shared" si="33"/>
-        <v>27.6</v>
-      </c>
-      <c r="AR52" s="50">
-        <f t="shared" si="34"/>
-        <v>106.80000000000001</v>
-      </c>
-      <c r="AS52" s="61">
-        <f t="shared" si="35"/>
-        <v>26.70012015</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="44">
-        <v>2024</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="4">
-        <v>3980</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="0"/>
-        <v>1203.9445822493799</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K53" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L53" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="58">
-        <v>7.3</v>
-      </c>
-      <c r="N53" s="58">
-        <v>0.3</v>
-      </c>
-      <c r="O53" s="59">
-        <v>20</v>
-      </c>
-      <c r="P53" s="59">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="59">
-        <v>656</v>
-      </c>
-      <c r="R53" s="60">
-        <v>0.22</v>
-      </c>
-      <c r="S53" s="58">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T53" s="58">
-        <v>1.9</v>
-      </c>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="51">
-        <v>3158</v>
-      </c>
-      <c r="AA53" s="51">
-        <v>26.3</v>
-      </c>
-      <c r="AB53" s="52">
-        <f t="shared" si="19"/>
-        <v>2738.1717647058822</v>
-      </c>
-      <c r="AC53" s="53">
-        <f t="shared" si="31"/>
-        <v>2.2743337235589713</v>
-      </c>
-      <c r="AD53" s="53">
-        <f t="shared" si="32"/>
-        <v>687.98595137658879</v>
-      </c>
-      <c r="AE53" s="54">
-        <f t="shared" si="11"/>
-        <v>20.080000000000002</v>
-      </c>
-      <c r="AF53" s="54">
-        <v>13</v>
-      </c>
-      <c r="AG53" s="55">
-        <f t="shared" si="12"/>
-        <v>51.739767171047731</v>
-      </c>
-      <c r="AH53" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="AI53" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ53" s="7">
-        <v>15</v>
-      </c>
-      <c r="AK53" s="50">
-        <v>20</v>
-      </c>
-      <c r="AL53" s="50">
-        <f>AK53*AH53</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="AM53" s="50">
-        <f>AL53*AJ53</f>
-        <v>99.000000000000014</v>
-      </c>
-      <c r="AN53" s="50">
-        <v>3</v>
-      </c>
-      <c r="AO53" s="50">
-        <v>20</v>
-      </c>
-      <c r="AP53" s="50">
-        <v>0.46</v>
-      </c>
-      <c r="AQ53" s="50">
-        <f t="shared" si="33"/>
-        <v>27.6</v>
-      </c>
-      <c r="AR53" s="50">
-        <f t="shared" si="34"/>
-        <v>126.60000000000002</v>
-      </c>
-      <c r="AS53" s="61">
-        <f t="shared" si="35"/>
-        <v>31.809188366834178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="44">
-        <v>2024</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G54" s="4">
-        <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M54" s="58">
-        <v>6.7</v>
-      </c>
-      <c r="N54" s="58">
-        <v>0.4</v>
-      </c>
-      <c r="O54" s="59">
-        <v>19</v>
-      </c>
-      <c r="P54" s="59">
-        <v>29</v>
-      </c>
-      <c r="Q54" s="59">
-        <v>474</v>
-      </c>
-      <c r="R54" s="60">
-        <v>0.18</v>
-      </c>
-      <c r="S54" s="58">
-        <v>7.1</v>
-      </c>
-      <c r="T54" s="58">
-        <v>1.7</v>
-      </c>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="51">
-        <v>2680</v>
-      </c>
-      <c r="AA54" s="51">
-        <v>27</v>
-      </c>
-      <c r="AB54" s="52">
-        <f t="shared" si="19"/>
-        <v>2301.6470588235293</v>
-      </c>
-      <c r="AC54" s="53">
-        <f t="shared" si="31"/>
-        <v>1.9021962117647058</v>
-      </c>
-      <c r="AD54" s="53">
-        <f t="shared" si="32"/>
-        <v>575.41435405882351</v>
-      </c>
-      <c r="AE54" s="54">
-        <f t="shared" si="11"/>
-        <v>16.548999999999999</v>
-      </c>
-      <c r="AF54" s="54">
-        <v>13</v>
-      </c>
-      <c r="AG54" s="55">
-        <f t="shared" si="12"/>
-        <v>51.999766001052997</v>
-      </c>
-      <c r="AH54" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="AI54" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ54" s="7">
-        <v>13</v>
-      </c>
-      <c r="AK54" s="50">
-        <v>20</v>
-      </c>
-      <c r="AL54" s="50">
-        <f>AK54*AH54</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="AM54" s="50">
-        <f>AL54*AJ54</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="AN54" s="50">
-        <v>3</v>
-      </c>
-      <c r="AO54" s="50">
-        <v>20</v>
-      </c>
-      <c r="AP54" s="50">
-        <v>0.46</v>
-      </c>
-      <c r="AQ54" s="50">
-        <f t="shared" si="33"/>
-        <v>27.6</v>
-      </c>
-      <c r="AR54" s="50">
-        <f t="shared" si="34"/>
-        <v>113.4</v>
-      </c>
-      <c r="AS54" s="61">
-        <f t="shared" si="35"/>
-        <v>28.350127574999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G55" s="4">
-        <f t="shared" si="0"/>
-        <v>1512.493193780628</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M55" s="17">
-        <v>6.4</v>
-      </c>
-      <c r="N55" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="O55" s="18">
-        <v>27</v>
-      </c>
-      <c r="P55" s="18">
-        <v>60</v>
-      </c>
-      <c r="Q55" s="18">
-        <v>1169</v>
-      </c>
-      <c r="R55" s="19">
-        <v>0.54</v>
-      </c>
-      <c r="S55" s="17">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T55" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="35">
-        <v>3300</v>
-      </c>
-      <c r="AA55" s="35">
-        <v>25.3</v>
-      </c>
-      <c r="AB55" s="24">
-        <f t="shared" ref="AB55:AB63" si="36">Z55*(100-AA55)/(100-15)</f>
-        <v>2900.1176470588234</v>
-      </c>
-      <c r="AC55" s="25">
-        <f t="shared" ref="AC55:AC63" si="37">AB55/G55</f>
-        <v>1.9174417835294117</v>
-      </c>
-      <c r="AD55" s="25">
-        <f t="shared" ref="AD55:AD63" si="38">AB55*302.5/G55</f>
-        <v>580.02613951764704</v>
-      </c>
-      <c r="AE55" s="22">
-        <f t="shared" ref="AE55:AE63" si="39">9.14-(0.109*O55)+(0.02*Q55)</f>
-        <v>29.576999999999998</v>
-      </c>
-      <c r="AF55" s="22">
-        <v>14</v>
-      </c>
-      <c r="AG55" s="26">
-        <f t="shared" ref="AG55:AG63" si="40">IF(AE55&lt;AF55, AE55*G55/302.5, AF55*G55/302.5)</f>
-        <v>69.99968500141749</v>
-      </c>
-      <c r="AH55" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI55" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ55" s="7">
-        <v>12</v>
-      </c>
-      <c r="AK55" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL55" s="5">
-        <f t="shared" ref="AL55:AL63" si="41">AK55*AH55</f>
-        <v>6</v>
-      </c>
-      <c r="AM55" s="5">
-        <f t="shared" ref="AM55:AM63" si="42">AL55*AJ55</f>
-        <v>72</v>
-      </c>
-      <c r="AN55" s="5">
-        <v>3</v>
-      </c>
-      <c r="AO55" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP55" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ55" s="5">
-        <f t="shared" si="33"/>
-        <v>27.6</v>
-      </c>
-      <c r="AR55" s="5">
-        <f t="shared" si="34"/>
-        <v>99.6</v>
-      </c>
-      <c r="AS55" s="37">
-        <f t="shared" si="35"/>
-        <v>19.92008964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G56" s="4">
-        <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M56" s="17">
-        <v>6.7</v>
-      </c>
-      <c r="N56" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="O56" s="18">
-        <v>25</v>
-      </c>
-      <c r="P56" s="18">
-        <v>82</v>
-      </c>
-      <c r="Q56" s="18">
-        <v>746</v>
-      </c>
-      <c r="R56" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="S56" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="T56" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="35">
-        <v>3390</v>
-      </c>
-      <c r="AA56" s="35">
-        <v>22.3</v>
-      </c>
-      <c r="AB56" s="24">
-        <f t="shared" si="36"/>
-        <v>3098.8588235294119</v>
-      </c>
-      <c r="AC56" s="25">
-        <f t="shared" si="37"/>
-        <v>2.5610518747058824</v>
-      </c>
-      <c r="AD56" s="25">
-        <f t="shared" si="38"/>
-        <v>774.71819209852936</v>
-      </c>
-      <c r="AE56" s="22">
-        <f t="shared" si="39"/>
-        <v>21.335000000000001</v>
-      </c>
-      <c r="AF56" s="22">
-        <v>15</v>
-      </c>
-      <c r="AG56" s="26">
-        <f t="shared" si="40"/>
-        <v>59.999730001214999</v>
-      </c>
-      <c r="AH56" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI56" s="7">
-        <v>9</v>
-      </c>
-      <c r="AJ56" s="7">
-        <v>9</v>
-      </c>
-      <c r="AK56" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL56" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="AM56" s="5">
-        <f t="shared" si="42"/>
-        <v>54</v>
-      </c>
-      <c r="AN56" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO56" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP56" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ56" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AR56" s="5">
-        <f t="shared" si="34"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AS56" s="37">
-        <f t="shared" si="35"/>
-        <v>18.100081449999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="4">
-        <v>4035</v>
-      </c>
-      <c r="G57" s="4">
-        <f t="shared" si="0"/>
-        <v>1220.5820073809668</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="N57" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="O57" s="18">
-        <v>26</v>
-      </c>
-      <c r="P57" s="18">
-        <v>28</v>
-      </c>
-      <c r="Q57" s="18">
-        <v>153</v>
-      </c>
-      <c r="R57" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="S57" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="T57" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="35">
-        <v>3061</v>
-      </c>
-      <c r="AA57" s="35">
-        <v>21.8</v>
-      </c>
-      <c r="AB57" s="24">
-        <f t="shared" si="36"/>
-        <v>2816.1200000000003</v>
-      </c>
-      <c r="AC57" s="25">
-        <f t="shared" si="37"/>
-        <v>2.3071944228004959</v>
-      </c>
-      <c r="AD57" s="25">
-        <f t="shared" si="38"/>
-        <v>697.92631289714996</v>
-      </c>
-      <c r="AE57" s="22">
-        <f t="shared" si="39"/>
-        <v>9.3660000000000014</v>
-      </c>
-      <c r="AF57" s="22">
-        <v>16</v>
-      </c>
-      <c r="AG57" s="26">
-        <f t="shared" si="40"/>
-        <v>37.791639937620289</v>
-      </c>
-      <c r="AH57" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI57" s="7">
-        <v>6</v>
-      </c>
-      <c r="AJ57" s="7">
-        <v>8</v>
-      </c>
-      <c r="AK57" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL57" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
-      </c>
-      <c r="AM57" s="5">
-        <f t="shared" si="42"/>
-        <v>48</v>
-      </c>
-      <c r="AN57" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO57" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP57" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="AQ57" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="AR57" s="5">
-        <f t="shared" si="34"/>
-        <v>66.400000000000006</v>
-      </c>
-      <c r="AS57" s="37">
-        <f t="shared" si="35"/>
-        <v>16.456083965303591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="4">
-        <v>4874</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="0"/>
-        <v>1474.3783652973561</v>
-      </c>
       <c r="H58" s="4" t="s">
         <v>158</v>
       </c>
@@ -9154,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>4</v>
@@ -9162,29 +8960,29 @@
       <c r="L58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="N58" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="O58" s="18">
-        <v>28</v>
-      </c>
-      <c r="P58" s="18">
-        <v>34</v>
-      </c>
-      <c r="Q58" s="18">
-        <v>188</v>
-      </c>
-      <c r="R58" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="S58" s="17">
+      <c r="M58" s="47">
         <v>6.7</v>
       </c>
-      <c r="T58" s="17">
-        <v>1.8</v>
+      <c r="N58" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="O58" s="48">
+        <v>21</v>
+      </c>
+      <c r="P58" s="48">
+        <v>33</v>
+      </c>
+      <c r="Q58" s="48">
+        <v>553</v>
+      </c>
+      <c r="R58" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="S58" s="47">
+        <v>7.4</v>
+      </c>
+      <c r="T58" s="47">
+        <v>1.5</v>
       </c>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
@@ -9192,56 +8990,56 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="35">
-        <v>3377</v>
+        <v>2868</v>
       </c>
       <c r="AA58" s="35">
-        <v>20.8</v>
+        <v>25</v>
       </c>
       <c r="AB58" s="24">
-        <f t="shared" si="36"/>
-        <v>3146.5694117647063</v>
+        <f t="shared" si="19"/>
+        <v>2530.5882352941176</v>
       </c>
       <c r="AC58" s="25">
-        <f t="shared" si="37"/>
-        <v>2.1341668365637601</v>
+        <f t="shared" ref="AC58:AC62" si="39">AB58/G58</f>
+        <v>2.0914046470588232</v>
       </c>
       <c r="AD58" s="25">
-        <f t="shared" si="38"/>
-        <v>645.58546806053744</v>
+        <f t="shared" ref="AD58:AD62" si="40">AB58*302.5/G58</f>
+        <v>632.64990573529406</v>
       </c>
       <c r="AE58" s="22">
-        <f t="shared" si="39"/>
-        <v>9.8480000000000008</v>
+        <f t="shared" si="11"/>
+        <v>17.911000000000001</v>
       </c>
       <c r="AF58" s="22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG58" s="26">
-        <f t="shared" si="40"/>
-        <v>47.998936004787986</v>
+        <f t="shared" si="12"/>
+        <v>51.999766001052997</v>
       </c>
       <c r="AH58" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI58" s="7">
-        <v>8</v>
-      </c>
-      <c r="AJ58" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="AI58" s="40">
+        <v>11</v>
+      </c>
+      <c r="AJ58" s="40">
         <v>9</v>
       </c>
       <c r="AK58" s="5">
         <v>20</v>
       </c>
       <c r="AL58" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f>AK58*AH58</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="AM58" s="5">
-        <f t="shared" si="42"/>
-        <v>54</v>
+        <f>AL58*AJ58</f>
+        <v>59.400000000000006</v>
       </c>
       <c r="AN58" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO58" s="5">
         <v>20</v>
@@ -9250,19 +9048,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ58" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
+        <f t="shared" ref="AQ58:AQ71" si="41">AN58*AO58*AP58</f>
+        <v>27.6</v>
       </c>
       <c r="AR58" s="5">
-        <f t="shared" si="34"/>
-        <v>72.400000000000006</v>
+        <f t="shared" ref="AR58:AR71" si="42">AM58+AQ58</f>
+        <v>87</v>
       </c>
       <c r="AS58" s="37">
-        <f t="shared" si="35"/>
-        <v>14.854395937628231</v>
+        <f t="shared" ref="AS58:AS71" si="43">AR58*302.5/G58</f>
+        <v>21.750097874999998</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -9270,20 +9068,20 @@
         <v>2024</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F59" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="0"/>
-        <v>604.99727751225123</v>
+        <v>1209.9945550245025</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>158</v>
@@ -9292,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>4</v>
@@ -9300,29 +9098,29 @@
       <c r="L59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M59" s="17">
-        <v>6.6</v>
-      </c>
-      <c r="N59" s="17">
-        <v>1</v>
-      </c>
-      <c r="O59" s="18">
-        <v>29</v>
-      </c>
-      <c r="P59" s="18">
-        <v>93</v>
-      </c>
-      <c r="Q59" s="18">
-        <v>442</v>
-      </c>
-      <c r="R59" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="S59" s="17">
-        <v>7.4</v>
-      </c>
-      <c r="T59" s="17">
-        <v>1.8</v>
+      <c r="M59" s="47">
+        <v>7.1</v>
+      </c>
+      <c r="N59" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="O59" s="48">
+        <v>30</v>
+      </c>
+      <c r="P59" s="48">
+        <v>41</v>
+      </c>
+      <c r="Q59" s="48">
+        <v>251</v>
+      </c>
+      <c r="R59" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="S59" s="47">
+        <v>7.3</v>
+      </c>
+      <c r="T59" s="47">
+        <v>1.5</v>
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
@@ -9330,56 +9128,56 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="35">
-        <v>1594</v>
+        <v>3236</v>
       </c>
       <c r="AA59" s="35">
-        <v>24.5</v>
+        <v>28.5</v>
       </c>
       <c r="AB59" s="24">
-        <f t="shared" si="36"/>
-        <v>1415.8470588235293</v>
+        <f t="shared" si="19"/>
+        <v>2722.0470588235294</v>
       </c>
       <c r="AC59" s="25">
-        <f t="shared" si="37"/>
-        <v>2.3402536035294115</v>
+        <f t="shared" si="39"/>
+        <v>2.2496357917647058</v>
       </c>
       <c r="AD59" s="25">
-        <f t="shared" si="38"/>
-        <v>707.92671506764691</v>
+        <f t="shared" si="40"/>
+        <v>680.51482700882343</v>
       </c>
       <c r="AE59" s="22">
-        <f t="shared" si="39"/>
-        <v>14.819000000000001</v>
+        <f t="shared" si="11"/>
+        <v>10.89</v>
       </c>
       <c r="AF59" s="22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG59" s="26">
-        <f t="shared" si="40"/>
-        <v>29.637866629600172</v>
+        <f t="shared" si="12"/>
+        <v>43.559803980882094</v>
       </c>
       <c r="AH59" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI59" s="7">
-        <v>4</v>
-      </c>
-      <c r="AJ59" s="7">
-        <v>5</v>
+        <v>0.33</v>
+      </c>
+      <c r="AI59" s="40">
+        <v>9</v>
+      </c>
+      <c r="AJ59" s="40">
+        <v>9</v>
       </c>
       <c r="AK59" s="5">
         <v>20</v>
       </c>
       <c r="AL59" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f>AK59*AH59</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="AM59" s="5">
-        <f t="shared" si="42"/>
-        <v>30</v>
+        <f>AL59*AJ59</f>
+        <v>59.400000000000006</v>
       </c>
       <c r="AN59" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO59" s="5">
         <v>20</v>
@@ -9388,19 +9186,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ59" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
+        <f t="shared" si="41"/>
+        <v>27.6</v>
       </c>
       <c r="AR59" s="5">
-        <f t="shared" si="34"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="42"/>
+        <v>87</v>
       </c>
       <c r="AS59" s="37">
-        <f t="shared" si="35"/>
-        <v>24.2001089</v>
+        <f t="shared" si="43"/>
+        <v>21.750097874999998</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -9408,20 +9206,20 @@
         <v>2024</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="0"/>
-        <v>1814.9918325367535</v>
+        <v>1209.9945550245025</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>158</v>
@@ -9438,29 +9236,29 @@
       <c r="L60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="N60" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="O60" s="18">
-        <v>36</v>
-      </c>
-      <c r="P60" s="18">
-        <v>105</v>
-      </c>
-      <c r="Q60" s="18">
-        <v>316</v>
-      </c>
-      <c r="R60" s="19">
-        <v>0.71</v>
-      </c>
-      <c r="S60" s="17">
-        <v>5.9</v>
-      </c>
-      <c r="T60" s="17">
-        <v>1.2</v>
+      <c r="M60" s="47">
+        <v>6.8</v>
+      </c>
+      <c r="N60" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="O60" s="48">
+        <v>28</v>
+      </c>
+      <c r="P60" s="48">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="48">
+        <v>348</v>
+      </c>
+      <c r="R60" s="49">
+        <v>0.21</v>
+      </c>
+      <c r="S60" s="47">
+        <v>7.7</v>
+      </c>
+      <c r="T60" s="47">
+        <v>1.7</v>
       </c>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
@@ -9468,56 +9266,56 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="35">
-        <v>4828</v>
+        <v>3045</v>
       </c>
       <c r="AA60" s="35">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="AB60" s="24">
-        <f t="shared" si="36"/>
-        <v>4373.6000000000004</v>
+        <f t="shared" si="19"/>
+        <v>2665.2705882352943</v>
       </c>
       <c r="AC60" s="25">
-        <f t="shared" si="37"/>
-        <v>2.4097078133333336</v>
+        <f t="shared" si="39"/>
+        <v>2.202712877647059</v>
       </c>
       <c r="AD60" s="25">
-        <f t="shared" si="38"/>
-        <v>728.93661353333334</v>
+        <f t="shared" si="40"/>
+        <v>666.3206454882353</v>
       </c>
       <c r="AE60" s="22">
-        <f t="shared" si="39"/>
-        <v>11.536000000000001</v>
+        <f t="shared" si="11"/>
+        <v>13.048000000000002</v>
       </c>
       <c r="AF60" s="22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AG60" s="26">
-        <f t="shared" si="40"/>
-        <v>69.215688529401618</v>
+        <f t="shared" si="12"/>
+        <v>51.999766001052997</v>
       </c>
       <c r="AH60" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI60" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="AI60" s="40">
+        <v>11</v>
+      </c>
+      <c r="AJ60" s="40">
         <v>12</v>
-      </c>
-      <c r="AJ60" s="7">
-        <v>13</v>
       </c>
       <c r="AK60" s="5">
         <v>20</v>
       </c>
       <c r="AL60" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f>AK60*AH60</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="AM60" s="5">
-        <f t="shared" si="42"/>
-        <v>78</v>
+        <f>AL60*AJ60</f>
+        <v>79.2</v>
       </c>
       <c r="AN60" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO60" s="5">
         <v>20</v>
@@ -9526,19 +9324,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ60" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
+        <f t="shared" si="41"/>
+        <v>27.6</v>
       </c>
       <c r="AR60" s="5">
-        <f t="shared" si="34"/>
-        <v>96.4</v>
+        <f t="shared" si="42"/>
+        <v>106.80000000000001</v>
       </c>
       <c r="AS60" s="37">
-        <f t="shared" si="35"/>
-        <v>16.066738966666669</v>
+        <f t="shared" si="43"/>
+        <v>26.70012015</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -9546,20 +9344,20 @@
         <v>2024</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F61" s="4">
-        <v>4000</v>
+        <v>3980</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" si="0"/>
-        <v>1209.9945550245025</v>
+        <v>1203.9445822493799</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>158</v>
@@ -9568,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>4</v>
@@ -9576,29 +9374,29 @@
       <c r="L61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M61" s="17">
-        <v>6.8</v>
-      </c>
-      <c r="N61" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="O61" s="18">
-        <v>43</v>
-      </c>
-      <c r="P61" s="18">
-        <v>92</v>
-      </c>
-      <c r="Q61" s="18">
-        <v>893</v>
-      </c>
-      <c r="R61" s="19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S61" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="T61" s="17">
-        <v>2</v>
+      <c r="M61" s="47">
+        <v>7.3</v>
+      </c>
+      <c r="N61" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="O61" s="48">
+        <v>20</v>
+      </c>
+      <c r="P61" s="48">
+        <v>31</v>
+      </c>
+      <c r="Q61" s="48">
+        <v>656</v>
+      </c>
+      <c r="R61" s="49">
+        <v>0.22</v>
+      </c>
+      <c r="S61" s="47">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T61" s="47">
+        <v>1.9</v>
       </c>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
@@ -9606,56 +9404,56 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="35">
-        <v>3284</v>
+        <v>3158</v>
       </c>
       <c r="AA61" s="35">
-        <v>21.1</v>
+        <v>26.3</v>
       </c>
       <c r="AB61" s="24">
-        <f t="shared" si="36"/>
-        <v>3048.3247058823531</v>
+        <f t="shared" si="19"/>
+        <v>2738.1717647058822</v>
       </c>
       <c r="AC61" s="25">
-        <f t="shared" si="37"/>
-        <v>2.5192879531764705</v>
+        <f t="shared" si="39"/>
+        <v>2.2743337235589713</v>
       </c>
       <c r="AD61" s="25">
-        <f t="shared" si="38"/>
-        <v>762.08460583588237</v>
+        <f t="shared" si="40"/>
+        <v>687.98595137658879</v>
       </c>
       <c r="AE61" s="22">
-        <f t="shared" si="39"/>
-        <v>22.312999999999999</v>
+        <f t="shared" si="11"/>
+        <v>20.080000000000002</v>
       </c>
       <c r="AF61" s="22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG61" s="26">
-        <f t="shared" si="40"/>
-        <v>79.999640001620008</v>
+        <f t="shared" si="12"/>
+        <v>51.739767171047731</v>
       </c>
       <c r="AH61" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI61" s="7">
-        <v>9</v>
-      </c>
-      <c r="AJ61" s="7">
-        <v>9</v>
+        <v>0.33</v>
+      </c>
+      <c r="AI61" s="40">
+        <v>10</v>
+      </c>
+      <c r="AJ61" s="40">
+        <v>15</v>
       </c>
       <c r="AK61" s="5">
         <v>20</v>
       </c>
       <c r="AL61" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f>AK61*AH61</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="AM61" s="5">
-        <f t="shared" si="42"/>
-        <v>54</v>
+        <f>AL61*AJ61</f>
+        <v>99.000000000000014</v>
       </c>
       <c r="AN61" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO61" s="5">
         <v>20</v>
@@ -9664,19 +9462,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ61" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
+        <f t="shared" si="41"/>
+        <v>27.6</v>
       </c>
       <c r="AR61" s="5">
-        <f t="shared" si="34"/>
-        <v>72.400000000000006</v>
+        <f t="shared" si="42"/>
+        <v>126.60000000000002</v>
       </c>
       <c r="AS61" s="37">
-        <f t="shared" si="35"/>
-        <v>18.100081449999998</v>
+        <f t="shared" si="43"/>
+        <v>31.809188366834178</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -9684,13 +9482,13 @@
         <v>2024</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F62" s="4">
         <v>4000</v>
@@ -9706,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>4</v>
@@ -9714,29 +9512,29 @@
       <c r="L62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="17">
-        <v>6.6</v>
-      </c>
-      <c r="N62" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="O62" s="18">
-        <v>24</v>
-      </c>
-      <c r="P62" s="18">
-        <v>105</v>
-      </c>
-      <c r="Q62" s="18">
-        <v>439</v>
-      </c>
-      <c r="R62" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="S62" s="17">
-        <v>13.4</v>
-      </c>
-      <c r="T62" s="17">
-        <v>3.3</v>
+      <c r="M62" s="47">
+        <v>6.7</v>
+      </c>
+      <c r="N62" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="O62" s="48">
+        <v>19</v>
+      </c>
+      <c r="P62" s="48">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="48">
+        <v>474</v>
+      </c>
+      <c r="R62" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="S62" s="47">
+        <v>7.1</v>
+      </c>
+      <c r="T62" s="47">
+        <v>1.7</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -9744,56 +9542,56 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="35">
-        <v>3229</v>
+        <v>2680</v>
       </c>
       <c r="AA62" s="35">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="AB62" s="24">
-        <f t="shared" si="36"/>
-        <v>2814.9282352941177</v>
+        <f t="shared" si="19"/>
+        <v>2301.6470588235293</v>
       </c>
       <c r="AC62" s="25">
-        <f t="shared" si="37"/>
-        <v>2.3263974400588237</v>
+        <f t="shared" si="39"/>
+        <v>1.9021962117647058</v>
       </c>
       <c r="AD62" s="25">
-        <f t="shared" si="38"/>
-        <v>703.73522561779407</v>
+        <f t="shared" si="40"/>
+        <v>575.41435405882351</v>
       </c>
       <c r="AE62" s="22">
-        <f t="shared" si="39"/>
-        <v>15.304</v>
+        <f t="shared" si="11"/>
+        <v>16.548999999999999</v>
       </c>
       <c r="AF62" s="22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG62" s="26">
-        <f t="shared" si="40"/>
-        <v>61.215724529239623</v>
+        <f t="shared" si="12"/>
+        <v>51.999766001052997</v>
       </c>
       <c r="AH62" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="AI62" s="7">
-        <v>9</v>
-      </c>
-      <c r="AJ62" s="7">
-        <v>9</v>
+        <v>0.33</v>
+      </c>
+      <c r="AI62" s="40">
+        <v>11</v>
+      </c>
+      <c r="AJ62" s="40">
+        <v>13</v>
       </c>
       <c r="AK62" s="5">
         <v>20</v>
       </c>
       <c r="AL62" s="5">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f>AK62*AH62</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="AM62" s="5">
-        <f t="shared" si="42"/>
-        <v>54</v>
+        <f>AL62*AJ62</f>
+        <v>85.800000000000011</v>
       </c>
       <c r="AN62" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO62" s="5">
         <v>20</v>
@@ -9802,19 +9600,19 @@
         <v>0.46</v>
       </c>
       <c r="AQ62" s="5">
-        <f t="shared" si="33"/>
-        <v>18.400000000000002</v>
+        <f t="shared" si="41"/>
+        <v>27.6</v>
       </c>
       <c r="AR62" s="5">
-        <f t="shared" si="34"/>
-        <v>72.400000000000006</v>
+        <f t="shared" si="42"/>
+        <v>113.4</v>
       </c>
       <c r="AS62" s="37">
-        <f t="shared" si="35"/>
-        <v>18.100081449999998</v>
+        <f t="shared" si="43"/>
+        <v>28.350127574999998</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -9822,20 +9620,20 @@
         <v>2024</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="4">
-        <v>3187</v>
+        <v>5000</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" si="0"/>
-        <v>964.06316171577225</v>
+        <v>1512.493193780628</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>158</v>
@@ -9844,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>4</v>
@@ -9856,25 +9654,25 @@
         <v>6.4</v>
       </c>
       <c r="N63" s="17">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="O63" s="18">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P63" s="18">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q63" s="18">
-        <v>216</v>
+        <v>1169</v>
       </c>
       <c r="R63" s="19">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="S63" s="17">
-        <v>5.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="T63" s="17">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -9882,777 +9680,1309 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="35">
-        <v>2420</v>
+        <v>3300</v>
       </c>
       <c r="AA63" s="35">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="AB63" s="24">
-        <f t="shared" si="36"/>
-        <v>2132.4470588235295</v>
+        <f t="shared" ref="AB63:AB71" si="44">Z63*(100-AA63)/(100-15)</f>
+        <v>2900.1176470588234</v>
       </c>
       <c r="AC63" s="25">
-        <f t="shared" si="37"/>
-        <v>2.2119370841100796</v>
+        <f t="shared" ref="AC63:AC71" si="45">AB63/G63</f>
+        <v>1.9174417835294117</v>
       </c>
       <c r="AD63" s="25">
-        <f t="shared" si="38"/>
-        <v>669.1109679432991</v>
+        <f t="shared" ref="AD63:AD71" si="46">AB63*302.5/G63</f>
+        <v>580.02613951764704</v>
       </c>
       <c r="AE63" s="22">
-        <f t="shared" si="39"/>
-        <v>10.844000000000001</v>
+        <f t="shared" ref="AE63:AE71" si="47">9.14-(0.109*O63)+(0.02*Q63)</f>
+        <v>29.576999999999998</v>
       </c>
       <c r="AF63" s="22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AG63" s="26">
-        <f t="shared" si="40"/>
-        <v>34.559672481473839</v>
+        <f t="shared" ref="AG63:AG71" si="48">IF(AE63&lt;AF63, AE63*G63/302.5, AF63*G63/302.5)</f>
+        <v>69.99968500141749</v>
       </c>
       <c r="AH63" s="5">
         <v>0.3</v>
       </c>
-      <c r="AI63" s="7">
-        <v>6</v>
+      <c r="AI63" s="40">
+        <v>11</v>
       </c>
       <c r="AJ63" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AK63" s="5">
         <v>20</v>
       </c>
       <c r="AL63" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AL63:AL71" si="49">AK63*AH63</f>
         <v>6</v>
       </c>
       <c r="AM63" s="5">
-        <f t="shared" si="42"/>
-        <v>36</v>
+        <f t="shared" ref="AM63:AM71" si="50">AL63*AJ63</f>
+        <v>72</v>
       </c>
       <c r="AN63" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO63" s="5">
         <v>20</v>
       </c>
       <c r="AP63" s="5">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="AQ63" s="5">
-        <f t="shared" si="33"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="41"/>
+        <v>27.6</v>
       </c>
       <c r="AR63" s="5">
-        <f t="shared" si="34"/>
-        <v>43.2</v>
+        <f t="shared" si="42"/>
+        <v>99.6</v>
       </c>
       <c r="AS63" s="37">
-        <f t="shared" si="35"/>
-        <v>13.555128459366175</v>
+        <f t="shared" si="43"/>
+        <v>19.92008964</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="B64" s="7">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>196</v>
+        <v>162</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35">
-        <v>1200</v>
-      </c>
-      <c r="H64" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="4">
         <v>0</v>
       </c>
-      <c r="J64" s="40"/>
+      <c r="J64" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="K64" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M64" s="35">
-        <v>5.3326190476190458</v>
-      </c>
-      <c r="N64" s="35">
-        <v>0.70547619047619059</v>
-      </c>
-      <c r="O64" s="35">
-        <v>36.88095238095238</v>
-      </c>
-      <c r="P64" s="35">
-        <v>168.4047619047619</v>
-      </c>
-      <c r="Q64" s="35">
-        <v>44.738095238095241</v>
-      </c>
-      <c r="R64" s="35">
-        <v>0.42785714285714282</v>
-      </c>
-      <c r="S64" s="35">
-        <v>5.0285714285714276</v>
-      </c>
-      <c r="T64" s="35">
-        <v>0.96190476190476171</v>
-      </c>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="M64" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="N64" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="O64" s="18">
+        <v>25</v>
+      </c>
+      <c r="P64" s="18">
+        <v>82</v>
+      </c>
+      <c r="Q64" s="18">
+        <v>746</v>
+      </c>
+      <c r="R64" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="S64" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T64" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
       <c r="Z64" s="35">
-        <v>2900</v>
+        <v>3390</v>
       </c>
       <c r="AA64" s="35">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="AB64" s="38">
-        <f t="shared" ref="AB64:AB81" si="43">Z64*(100-AA64)/(100-15)</f>
-        <v>2732.8235294117644</v>
+        <v>22.3</v>
+      </c>
+      <c r="AB64" s="24">
+        <f t="shared" si="44"/>
+        <v>3098.8588235294119</v>
+      </c>
+      <c r="AC64" s="25">
+        <f t="shared" si="45"/>
+        <v>2.5610518747058824</v>
+      </c>
+      <c r="AD64" s="25">
+        <f t="shared" si="46"/>
+        <v>774.71819209852936</v>
+      </c>
+      <c r="AE64" s="22">
+        <f t="shared" si="47"/>
+        <v>21.335000000000001</v>
+      </c>
+      <c r="AF64" s="22">
+        <v>15</v>
+      </c>
+      <c r="AG64" s="26">
+        <f t="shared" si="48"/>
+        <v>59.999730001214999</v>
+      </c>
+      <c r="AH64" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI64" s="40">
+        <v>9</v>
+      </c>
+      <c r="AJ64" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK64" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL64" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM64" s="5">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+      <c r="AN64" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO64" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP64" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ64" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR64" s="5">
+        <f t="shared" si="42"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS64" s="37">
+        <f t="shared" si="43"/>
+        <v>18.100081449999998</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4035</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="0"/>
+        <v>1220.5820073809668</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="N65" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="O65" s="18">
+        <v>26</v>
+      </c>
+      <c r="P65" s="18">
+        <v>28</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>153</v>
+      </c>
+      <c r="R65" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="S65" s="17">
+        <v>5.7</v>
+      </c>
+      <c r="T65" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="35">
+        <v>3061</v>
+      </c>
+      <c r="AA65" s="35">
+        <v>21.8</v>
+      </c>
+      <c r="AB65" s="24">
+        <f t="shared" si="44"/>
+        <v>2816.1200000000003</v>
+      </c>
+      <c r="AC65" s="25">
+        <f t="shared" si="45"/>
+        <v>2.3071944228004959</v>
+      </c>
+      <c r="AD65" s="25">
+        <f t="shared" si="46"/>
+        <v>697.92631289714996</v>
+      </c>
+      <c r="AE65" s="22">
+        <f t="shared" si="47"/>
+        <v>9.3660000000000014</v>
+      </c>
+      <c r="AF65" s="22">
+        <v>16</v>
+      </c>
+      <c r="AG65" s="26">
+        <f t="shared" si="48"/>
+        <v>37.791639937620289</v>
+      </c>
+      <c r="AH65" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI65" s="40">
+        <v>6</v>
+      </c>
+      <c r="AJ65" s="7">
+        <v>8</v>
+      </c>
+      <c r="AK65" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL65" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM65" s="5">
+        <f t="shared" si="50"/>
+        <v>48</v>
+      </c>
+      <c r="AN65" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO65" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP65" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ65" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR65" s="5">
+        <f t="shared" si="42"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AS65" s="37">
+        <f t="shared" si="43"/>
+        <v>16.456083965303591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4874</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="0"/>
+        <v>1474.3783652973561</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="17">
+        <v>5.7</v>
+      </c>
+      <c r="N66" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="O66" s="18">
+        <v>28</v>
+      </c>
+      <c r="P66" s="18">
+        <v>34</v>
+      </c>
+      <c r="Q66" s="18">
+        <v>188</v>
+      </c>
+      <c r="R66" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="S66" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="T66" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="35">
+        <v>3377</v>
+      </c>
+      <c r="AA66" s="35">
+        <v>20.8</v>
+      </c>
+      <c r="AB66" s="24">
+        <f t="shared" si="44"/>
+        <v>3146.5694117647063</v>
+      </c>
+      <c r="AC66" s="25">
+        <f t="shared" si="45"/>
+        <v>2.1341668365637601</v>
+      </c>
+      <c r="AD66" s="25">
+        <f t="shared" si="46"/>
+        <v>645.58546806053744</v>
+      </c>
+      <c r="AE66" s="22">
+        <f t="shared" si="47"/>
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="AF66" s="22">
+        <v>17</v>
+      </c>
+      <c r="AG66" s="26">
+        <f t="shared" si="48"/>
+        <v>47.998936004787986</v>
+      </c>
+      <c r="AH66" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI66" s="40">
+        <v>8</v>
+      </c>
+      <c r="AJ66" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK66" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL66" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM66" s="5">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+      <c r="AN66" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO66" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP66" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ66" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR66" s="5">
+        <f t="shared" si="42"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS66" s="37">
+        <f t="shared" si="43"/>
+        <v>14.854395937628231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" si="0"/>
+        <v>604.99727751225123</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="N67" s="17">
+        <v>1</v>
+      </c>
+      <c r="O67" s="18">
+        <v>29</v>
+      </c>
+      <c r="P67" s="18">
+        <v>93</v>
+      </c>
+      <c r="Q67" s="18">
+        <v>442</v>
+      </c>
+      <c r="R67" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="S67" s="17">
+        <v>7.4</v>
+      </c>
+      <c r="T67" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="35">
+        <v>1594</v>
+      </c>
+      <c r="AA67" s="35">
+        <v>24.5</v>
+      </c>
+      <c r="AB67" s="24">
+        <f t="shared" si="44"/>
+        <v>1415.8470588235293</v>
+      </c>
+      <c r="AC67" s="25">
+        <f t="shared" si="45"/>
+        <v>2.3402536035294115</v>
+      </c>
+      <c r="AD67" s="25">
+        <f t="shared" si="46"/>
+        <v>707.92671506764691</v>
+      </c>
+      <c r="AE67" s="22">
+        <f t="shared" si="47"/>
+        <v>14.819000000000001</v>
+      </c>
+      <c r="AF67" s="22">
+        <v>18</v>
+      </c>
+      <c r="AG67" s="26">
+        <f t="shared" si="48"/>
+        <v>29.637866629600172</v>
+      </c>
+      <c r="AH67" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI67" s="40">
+        <v>4</v>
+      </c>
+      <c r="AJ67" s="7">
+        <v>5</v>
+      </c>
+      <c r="AK67" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL67" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM67" s="5">
+        <f t="shared" si="50"/>
+        <v>30</v>
+      </c>
+      <c r="AN67" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO67" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP67" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ67" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR67" s="5">
+        <f t="shared" si="42"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="AS67" s="37">
+        <f t="shared" si="43"/>
+        <v>24.2001089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="0"/>
+        <v>1814.9918325367535</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="N68" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="O68" s="18">
+        <v>36</v>
+      </c>
+      <c r="P68" s="18">
+        <v>105</v>
+      </c>
+      <c r="Q68" s="18">
+        <v>316</v>
+      </c>
+      <c r="R68" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="S68" s="17">
+        <v>5.9</v>
+      </c>
+      <c r="T68" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="35">
+        <v>4828</v>
+      </c>
+      <c r="AA68" s="35">
+        <v>23</v>
+      </c>
+      <c r="AB68" s="24">
+        <f t="shared" si="44"/>
+        <v>4373.6000000000004</v>
+      </c>
+      <c r="AC68" s="25">
+        <f t="shared" si="45"/>
+        <v>2.4097078133333336</v>
+      </c>
+      <c r="AD68" s="25">
+        <f t="shared" si="46"/>
+        <v>728.93661353333334</v>
+      </c>
+      <c r="AE68" s="22">
+        <f t="shared" si="47"/>
+        <v>11.536000000000001</v>
+      </c>
+      <c r="AF68" s="22">
+        <v>19</v>
+      </c>
+      <c r="AG68" s="26">
+        <f t="shared" si="48"/>
+        <v>69.215688529401618</v>
+      </c>
+      <c r="AH68" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI68" s="40">
+        <v>12</v>
+      </c>
+      <c r="AJ68" s="7">
+        <v>13</v>
+      </c>
+      <c r="AK68" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL68" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM68" s="5">
+        <f t="shared" si="50"/>
+        <v>78</v>
+      </c>
+      <c r="AN68" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO68" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP68" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ68" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR68" s="5">
+        <f t="shared" si="42"/>
+        <v>96.4</v>
+      </c>
+      <c r="AS68" s="37">
+        <f t="shared" si="43"/>
+        <v>16.066738966666669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="N69" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="O69" s="18">
+        <v>43</v>
+      </c>
+      <c r="P69" s="18">
+        <v>92</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>893</v>
+      </c>
+      <c r="R69" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S69" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T69" s="17">
+        <v>2</v>
+      </c>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="35">
+        <v>3284</v>
+      </c>
+      <c r="AA69" s="35">
+        <v>21.1</v>
+      </c>
+      <c r="AB69" s="24">
+        <f t="shared" si="44"/>
+        <v>3048.3247058823531</v>
+      </c>
+      <c r="AC69" s="25">
+        <f t="shared" si="45"/>
+        <v>2.5192879531764705</v>
+      </c>
+      <c r="AD69" s="25">
+        <f t="shared" si="46"/>
+        <v>762.08460583588237</v>
+      </c>
+      <c r="AE69" s="22">
+        <f t="shared" si="47"/>
+        <v>22.312999999999999</v>
+      </c>
+      <c r="AF69" s="22">
+        <v>20</v>
+      </c>
+      <c r="AG69" s="26">
+        <f t="shared" si="48"/>
+        <v>79.999640001620008</v>
+      </c>
+      <c r="AH69" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI69" s="40">
+        <v>9</v>
+      </c>
+      <c r="AJ69" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK69" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL69" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM69" s="5">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+      <c r="AN69" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO69" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP69" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ69" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR69" s="5">
+        <f t="shared" si="42"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS69" s="37">
+        <f t="shared" si="43"/>
+        <v>18.100081449999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" si="0"/>
+        <v>1209.9945550245025</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="N70" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="O70" s="18">
+        <v>24</v>
+      </c>
+      <c r="P70" s="18">
+        <v>105</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>439</v>
+      </c>
+      <c r="R70" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="S70" s="17">
+        <v>13.4</v>
+      </c>
+      <c r="T70" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="35">
+        <v>3229</v>
+      </c>
+      <c r="AA70" s="35">
+        <v>25.9</v>
+      </c>
+      <c r="AB70" s="24">
+        <f t="shared" si="44"/>
+        <v>2814.9282352941177</v>
+      </c>
+      <c r="AC70" s="25">
+        <f t="shared" si="45"/>
+        <v>2.3263974400588237</v>
+      </c>
+      <c r="AD70" s="25">
+        <f t="shared" si="46"/>
+        <v>703.73522561779407</v>
+      </c>
+      <c r="AE70" s="22">
+        <f t="shared" si="47"/>
+        <v>15.304</v>
+      </c>
+      <c r="AF70" s="22">
+        <v>21</v>
+      </c>
+      <c r="AG70" s="26">
+        <f t="shared" si="48"/>
+        <v>61.215724529239623</v>
+      </c>
+      <c r="AH70" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI70" s="40">
+        <v>9</v>
+      </c>
+      <c r="AJ70" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK70" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL70" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM70" s="5">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+      <c r="AN70" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO70" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP70" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="AQ70" s="5">
+        <f t="shared" si="41"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="AR70" s="5">
+        <f t="shared" si="42"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AS70" s="37">
+        <f t="shared" si="43"/>
+        <v>18.100081449999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3187</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="0"/>
+        <v>964.06316171577225</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="N71" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="O71" s="18">
+        <v>24</v>
+      </c>
+      <c r="P71" s="18">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="18">
+        <v>216</v>
+      </c>
+      <c r="R71" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="S71" s="17">
+        <v>5.7</v>
+      </c>
+      <c r="T71" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="35">
+        <v>2420</v>
+      </c>
+      <c r="AA71" s="35">
+        <v>25.1</v>
+      </c>
+      <c r="AB71" s="24">
+        <f t="shared" si="44"/>
+        <v>2132.4470588235295</v>
+      </c>
+      <c r="AC71" s="25">
+        <f t="shared" si="45"/>
+        <v>2.2119370841100796</v>
+      </c>
+      <c r="AD71" s="25">
+        <f t="shared" si="46"/>
+        <v>669.1109679432991</v>
+      </c>
+      <c r="AE71" s="22">
+        <f t="shared" si="47"/>
+        <v>10.844000000000001</v>
+      </c>
+      <c r="AF71" s="22">
+        <v>22</v>
+      </c>
+      <c r="AG71" s="26">
+        <f t="shared" si="48"/>
+        <v>34.559672481473839</v>
+      </c>
+      <c r="AH71" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI71" s="40">
+        <v>6</v>
+      </c>
+      <c r="AJ71" s="7">
+        <v>6</v>
+      </c>
+      <c r="AK71" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL71" s="5">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="AM71" s="5">
+        <f t="shared" si="50"/>
+        <v>36</v>
+      </c>
+      <c r="AN71" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO71" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP71" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="AQ71" s="5">
+        <f t="shared" si="41"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AR71" s="5">
+        <f t="shared" si="42"/>
+        <v>43.2</v>
+      </c>
+      <c r="AS71" s="37">
+        <f t="shared" si="43"/>
+        <v>13.555128459366175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B65" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35">
-        <v>1200</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I65" s="43">
-        <v>0</v>
-      </c>
-      <c r="J65" s="40"/>
-      <c r="K65" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L65" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="M65" s="35">
-        <v>5.6479999999999997</v>
-      </c>
-      <c r="N65" s="35">
-        <v>0.59200000000000008</v>
-      </c>
-      <c r="O65" s="35">
-        <v>34.28</v>
-      </c>
-      <c r="P65" s="35">
-        <v>108.74000000000001</v>
-      </c>
-      <c r="Q65" s="35">
-        <v>59.8</v>
-      </c>
-      <c r="R65" s="35">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="S65" s="35">
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="T65" s="35">
-        <v>1.5719999999999998</v>
-      </c>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35">
-        <v>2715</v>
-      </c>
-      <c r="AA65" s="35">
-        <v>19</v>
-      </c>
-      <c r="AB65" s="38">
-        <f t="shared" si="43"/>
-        <v>2587.2352941176468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B66" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35">
-        <v>920</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I66" s="43">
-        <v>0</v>
-      </c>
-      <c r="J66" s="40"/>
-      <c r="K66" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M66" s="35">
-        <v>7.2781250000000028</v>
-      </c>
-      <c r="N66" s="35">
-        <v>0.49843750000000003</v>
-      </c>
-      <c r="O66" s="35">
-        <v>20.6875</v>
-      </c>
-      <c r="P66" s="35">
-        <v>33.5</v>
-      </c>
-      <c r="Q66" s="35">
-        <v>578.125</v>
-      </c>
-      <c r="R66" s="35">
-        <v>0.68031249999999999</v>
-      </c>
-      <c r="S66" s="35">
-        <v>8.4875000000000007</v>
-      </c>
-      <c r="T66" s="35">
-        <v>3.837499999999999</v>
-      </c>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35">
-        <v>2930</v>
-      </c>
-      <c r="AA66" s="35">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="AB66" s="38">
-        <f t="shared" si="43"/>
-        <v>2812.110588235294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A67" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35">
-        <v>920</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I67" s="43">
-        <v>0</v>
-      </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L67" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="M67" s="35">
-        <v>6.82</v>
-      </c>
-      <c r="N67" s="35">
-        <v>1.02</v>
-      </c>
-      <c r="O67" s="35">
-        <v>35.9</v>
-      </c>
-      <c r="P67" s="35">
-        <v>39.839999999999996</v>
-      </c>
-      <c r="Q67" s="35">
-        <v>130</v>
-      </c>
-      <c r="R67" s="35">
-        <v>0.6472</v>
-      </c>
-      <c r="S67" s="35">
-        <v>9.2780000000000022</v>
-      </c>
-      <c r="T67" s="35">
-        <v>4.1620000000000008</v>
-      </c>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35">
-        <v>2906</v>
-      </c>
-      <c r="AA67" s="35">
-        <v>23.5</v>
-      </c>
-      <c r="AB67" s="38">
-        <f t="shared" si="43"/>
-        <v>2615.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A68" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="41">
-        <v>2021</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35">
-        <v>930</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I68" s="43">
-        <v>0</v>
-      </c>
-      <c r="J68" s="40"/>
-      <c r="K68" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M68" s="35">
-        <v>6.9968749999999993</v>
-      </c>
-      <c r="N68" s="35">
-        <v>1.0603125</v>
-      </c>
-      <c r="O68" s="35">
-        <v>28.1875</v>
-      </c>
-      <c r="P68" s="35">
-        <v>466.78125</v>
-      </c>
-      <c r="Q68" s="35">
-        <v>393.4375</v>
-      </c>
-      <c r="R68" s="35">
-        <v>1.1924999999999999</v>
-      </c>
-      <c r="S68" s="35">
-        <v>9.9906249999999996</v>
-      </c>
-      <c r="T68" s="35">
-        <v>3.6656249999999999</v>
-      </c>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="38">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A69" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="41">
-        <v>2023</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35">
-        <v>930</v>
-      </c>
-      <c r="H69" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I69" s="43">
-        <v>0</v>
-      </c>
-      <c r="J69" s="40"/>
-      <c r="K69" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L69" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="M69" s="35">
-        <v>7.2200000000000006</v>
-      </c>
-      <c r="N69" s="35">
-        <v>0.6399999999999999</v>
-      </c>
-      <c r="O69" s="35">
-        <v>35.1</v>
-      </c>
-      <c r="P69" s="35">
-        <v>446.6</v>
-      </c>
-      <c r="Q69" s="35">
-        <v>150</v>
-      </c>
-      <c r="R69" s="35">
-        <v>0.90140000000000009</v>
-      </c>
-      <c r="S69" s="35">
-        <v>9.532</v>
-      </c>
-      <c r="T69" s="35">
-        <v>3.5140000000000002</v>
-      </c>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35">
-        <v>2715.6</v>
-      </c>
-      <c r="AA69" s="35">
-        <v>24.5</v>
-      </c>
-      <c r="AB69" s="38">
-        <f t="shared" si="43"/>
-        <v>2412.0917647058823</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A70" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="41">
-        <v>2021</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35">
-        <v>340</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I70" s="43">
-        <v>0</v>
-      </c>
-      <c r="J70" s="40"/>
-      <c r="K70" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L70" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="M70" s="35">
-        <v>7.2062499999999989</v>
-      </c>
-      <c r="N70" s="35">
-        <v>1.0075000000000001</v>
-      </c>
-      <c r="O70" s="35">
-        <v>29.6875</v>
-      </c>
-      <c r="P70" s="35">
-        <v>658.9375</v>
-      </c>
-      <c r="Q70" s="35">
-        <v>442</v>
-      </c>
-      <c r="R70" s="35">
-        <v>1.3387500000000001</v>
-      </c>
-      <c r="S70" s="35">
-        <v>10.343750000000002</v>
-      </c>
-      <c r="T70" s="35">
-        <v>4.0187499999999998</v>
-      </c>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="38">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A71" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="41">
-        <v>2023</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35">
-        <v>340</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I71" s="43">
-        <v>0</v>
-      </c>
-      <c r="J71" s="40"/>
-      <c r="K71" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L71" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="M71" s="35">
-        <v>7.4600000000000009</v>
-      </c>
-      <c r="N71" s="35">
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="O71" s="35">
-        <v>32.6</v>
-      </c>
-      <c r="P71" s="35">
-        <v>498.6</v>
-      </c>
-      <c r="Q71" s="35">
-        <v>150</v>
-      </c>
-      <c r="R71" s="35">
-        <v>0.96460000000000012</v>
-      </c>
-      <c r="S71" s="35">
-        <v>9.5540000000000003</v>
-      </c>
-      <c r="T71" s="35">
-        <v>3.6700000000000004</v>
-      </c>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35">
-        <v>1032.4000000000001</v>
-      </c>
-      <c r="AA71" s="35">
-        <v>23</v>
-      </c>
-      <c r="AB71" s="38">
-        <f t="shared" si="43"/>
-        <v>935.2329411764706</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A72" s="41" t="s">
-        <v>186</v>
       </c>
       <c r="B72" s="7">
         <v>2021</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35">
-        <v>780</v>
-      </c>
-      <c r="H72" s="43" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H72" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="42">
         <v>0</v>
       </c>
-      <c r="J72" s="40"/>
-      <c r="K72" s="41" t="s">
+      <c r="J72" s="39"/>
+      <c r="K72" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="M72" s="35">
-        <v>5.6003571428571419</v>
+        <v>5.3326190476190458</v>
       </c>
       <c r="N72" s="35">
-        <v>2.6676785714285716</v>
+        <v>0.70547619047619059</v>
       </c>
       <c r="O72" s="35">
-        <v>26.588571428571424</v>
+        <v>36.88095238095238</v>
       </c>
       <c r="P72" s="35">
-        <v>47.736358571428575</v>
+        <v>168.4047619047619</v>
       </c>
       <c r="Q72" s="35">
-        <v>73.542659142857147</v>
+        <v>44.738095238095241</v>
       </c>
       <c r="R72" s="35">
-        <v>0.88228185504971202</v>
+        <v>0.42785714285714282</v>
       </c>
       <c r="S72" s="35">
-        <v>4.780803036783575</v>
+        <v>5.0285714285714276</v>
       </c>
       <c r="T72" s="35">
-        <v>4.2057716049382714</v>
+        <v>0.96190476190476171</v>
       </c>
       <c r="U72" s="35"/>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="35"/>
+      <c r="Z72" s="35">
+        <v>2900</v>
+      </c>
+      <c r="AA72" s="35">
+        <v>19.899999999999999</v>
+      </c>
       <c r="AB72" s="38">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" ref="AB72:AB89" si="51">Z72*(100-AA72)/(100-15)</f>
+        <v>2732.8235294117644</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A73" s="41" t="s">
-        <v>186</v>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B73" s="7">
         <v>2023</v>
       </c>
-      <c r="C73" s="41" t="s">
-        <v>187</v>
+      <c r="C73" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E73" s="42" t="s">
-        <v>207</v>
+        <v>196</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35">
-        <v>780</v>
-      </c>
-      <c r="H73" s="43" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H73" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="42">
         <v>0</v>
       </c>
-      <c r="J73" s="40"/>
-      <c r="K73" s="41" t="s">
+      <c r="J73" s="39"/>
+      <c r="K73" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L73" s="41" t="s">
-        <v>132</v>
+      <c r="L73" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="M73" s="35">
-        <v>5.9180000000000001</v>
+        <v>5.6479999999999997</v>
       </c>
       <c r="N73" s="35">
-        <v>3.0529999999999999</v>
+        <v>0.59200000000000008</v>
       </c>
       <c r="O73" s="35">
-        <v>36.504000000000005</v>
+        <v>34.28</v>
       </c>
       <c r="P73" s="35">
-        <v>159.58735200000001</v>
+        <v>108.74000000000001</v>
       </c>
       <c r="Q73" s="35">
-        <v>659.81537159999993</v>
+        <v>59.8</v>
       </c>
       <c r="R73" s="35">
-        <v>1.1791314578005117</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="S73" s="35">
-        <v>5.6944261477045917</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="T73" s="35">
-        <v>4.0272345679012345</v>
+        <v>1.5719999999999998</v>
       </c>
       <c r="U73" s="35"/>
       <c r="V73" s="35"/>
@@ -10660,139 +10990,145 @@
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="35">
-        <v>2123</v>
-      </c>
-      <c r="AA73" s="35"/>
+        <v>2715</v>
+      </c>
+      <c r="AA73" s="35">
+        <v>19</v>
+      </c>
       <c r="AB73" s="38">
-        <f t="shared" si="43"/>
-        <v>2497.6470588235293</v>
+        <f t="shared" si="51"/>
+        <v>2587.2352941176468</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A74" s="41" t="s">
-        <v>186</v>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B74" s="7">
         <v>2021</v>
       </c>
-      <c r="C74" s="41" t="s">
-        <v>188</v>
+      <c r="C74" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="42" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35">
-        <v>1500</v>
-      </c>
-      <c r="H74" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="H74" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="42">
         <v>0</v>
       </c>
-      <c r="J74" s="40"/>
-      <c r="K74" s="41" t="s">
+      <c r="J74" s="39"/>
+      <c r="K74" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L74" s="41" t="s">
-        <v>132</v>
+      <c r="L74" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="M74" s="35">
-        <v>6.9335714285714278</v>
+        <v>7.2781250000000028</v>
       </c>
       <c r="N74" s="35">
-        <v>1.4784017857142857</v>
+        <v>0.49843750000000003</v>
       </c>
       <c r="O74" s="35">
-        <v>20.041607142857142</v>
+        <v>20.6875</v>
       </c>
       <c r="P74" s="35">
-        <v>26.008511428571428</v>
+        <v>33.5</v>
       </c>
       <c r="Q74" s="35">
-        <v>368.03743310714293</v>
+        <v>578.125</v>
       </c>
       <c r="R74" s="35">
-        <v>0.81245966335252073</v>
+        <v>0.68031249999999999</v>
       </c>
       <c r="S74" s="35">
-        <v>5.6817092600513259</v>
+        <v>8.4875000000000007</v>
       </c>
       <c r="T74" s="35">
-        <v>4.7754248971193407</v>
+        <v>3.837499999999999</v>
       </c>
       <c r="U74" s="35"/>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-      <c r="AA74" s="35"/>
+      <c r="Z74" s="35">
+        <v>2930</v>
+      </c>
+      <c r="AA74" s="35">
+        <v>18.420000000000002</v>
+      </c>
       <c r="AB74" s="38">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>2812.110588235294</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A75" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="41">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A75" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="7">
         <v>2023</v>
       </c>
-      <c r="C75" s="41" t="s">
-        <v>188</v>
+      <c r="C75" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>207</v>
+        <v>197</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35">
-        <v>1500</v>
-      </c>
-      <c r="H75" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="H75" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="42">
         <v>0</v>
       </c>
-      <c r="J75" s="40"/>
-      <c r="K75" s="41" t="s">
+      <c r="J75" s="39"/>
+      <c r="K75" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="41" t="s">
-        <v>132</v>
+      <c r="L75" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="M75" s="35">
-        <v>6.7200000000000006</v>
+        <v>6.82</v>
       </c>
       <c r="N75" s="35">
-        <v>2.0710000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="O75" s="35">
-        <v>25.456</v>
+        <v>35.9</v>
       </c>
       <c r="P75" s="35">
-        <v>104.00080800000001</v>
+        <v>39.839999999999996</v>
       </c>
       <c r="Q75" s="35">
-        <v>490.86220039999989</v>
+        <v>130</v>
       </c>
       <c r="R75" s="35">
-        <v>0.8704388746803069</v>
+        <v>0.6472</v>
       </c>
       <c r="S75" s="35">
-        <v>5.4246716566866269</v>
+        <v>9.2780000000000022</v>
       </c>
       <c r="T75" s="35">
-        <v>3.759761316872428</v>
+        <v>4.1620000000000008</v>
       </c>
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
@@ -10800,70 +11136,72 @@
       <c r="X75" s="35"/>
       <c r="Y75" s="35"/>
       <c r="Z75" s="35">
-        <v>4363.5</v>
-      </c>
-      <c r="AA75" s="35"/>
+        <v>2906</v>
+      </c>
+      <c r="AA75" s="35">
+        <v>23.5</v>
+      </c>
       <c r="AB75" s="38">
-        <f t="shared" si="43"/>
-        <v>5133.5294117647063</v>
+        <f t="shared" si="51"/>
+        <v>2615.4</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A76" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="41">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A76" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="40">
         <v>2021</v>
       </c>
-      <c r="C76" s="41" t="s">
-        <v>189</v>
+      <c r="C76" s="40" t="s">
+        <v>184</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>207</v>
+        <v>198</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35">
-        <v>1500</v>
-      </c>
-      <c r="H76" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="H76" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="42">
         <v>0</v>
       </c>
-      <c r="J76" s="40"/>
-      <c r="K76" s="41" t="s">
+      <c r="J76" s="39"/>
+      <c r="K76" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="41" t="s">
-        <v>132</v>
+      <c r="L76" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="M76" s="35">
-        <v>5.7139285714285704</v>
+        <v>6.9968749999999993</v>
       </c>
       <c r="N76" s="35">
-        <v>0.96583035714285725</v>
+        <v>1.0603125</v>
       </c>
       <c r="O76" s="35">
-        <v>21.112678571428571</v>
+        <v>28.1875</v>
       </c>
       <c r="P76" s="35">
-        <v>15.192187142857142</v>
+        <v>466.78125</v>
       </c>
       <c r="Q76" s="35">
-        <v>196.22658157142857</v>
+        <v>393.4375</v>
       </c>
       <c r="R76" s="35">
-        <v>0.63422505487237646</v>
+        <v>1.1924999999999999</v>
       </c>
       <c r="S76" s="35">
-        <v>4.534227705303679</v>
+        <v>9.9906249999999996</v>
       </c>
       <c r="T76" s="35">
-        <v>2.9819728101116985</v>
+        <v>3.6656249999999999</v>
       </c>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
@@ -10873,66 +11211,66 @@
       <c r="Z76" s="35"/>
       <c r="AA76" s="35"/>
       <c r="AB76" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A77" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B77" s="41">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A77" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="40">
         <v>2023</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>189</v>
+      <c r="C77" s="40" t="s">
+        <v>184</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>207</v>
+        <v>198</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35">
-        <v>1500</v>
-      </c>
-      <c r="H77" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="H77" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="42">
         <v>0</v>
       </c>
-      <c r="J77" s="40"/>
-      <c r="K77" s="41" t="s">
+      <c r="J77" s="39"/>
+      <c r="K77" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L77" s="41" t="s">
-        <v>132</v>
+      <c r="L77" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="M77" s="35">
-        <v>6.1859999999999999</v>
+        <v>7.2200000000000006</v>
       </c>
       <c r="N77" s="35">
-        <v>1.7987000000000002</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="O77" s="35">
-        <v>25.974</v>
+        <v>35.1</v>
       </c>
       <c r="P77" s="35">
-        <v>59.98334400000001</v>
+        <v>446.6</v>
       </c>
       <c r="Q77" s="35">
-        <v>562.50571960000002</v>
+        <v>150</v>
       </c>
       <c r="R77" s="35">
-        <v>0.87210690537084401</v>
+        <v>0.90140000000000009</v>
       </c>
       <c r="S77" s="35">
-        <v>5.2835479041916162</v>
+        <v>9.532</v>
       </c>
       <c r="T77" s="35">
-        <v>3.6557102880658432</v>
+        <v>3.5140000000000002</v>
       </c>
       <c r="U77" s="35"/>
       <c r="V77" s="35"/>
@@ -10940,141 +11278,141 @@
       <c r="X77" s="35"/>
       <c r="Y77" s="35"/>
       <c r="Z77" s="35">
-        <v>3833.3</v>
-      </c>
-      <c r="AA77" s="35"/>
+        <v>2715.6</v>
+      </c>
+      <c r="AA77" s="35">
+        <v>24.5</v>
+      </c>
       <c r="AB77" s="38">
-        <f t="shared" si="43"/>
-        <v>4509.7647058823532</v>
+        <f t="shared" si="51"/>
+        <v>2412.0917647058823</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A78" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" s="41">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A78" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="40">
         <v>2021</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>191</v>
+      <c r="C78" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35">
-        <v>900</v>
-      </c>
-      <c r="H78" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="H78" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="42">
         <v>0</v>
       </c>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41" t="s">
+      <c r="J78" s="39"/>
+      <c r="K78" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L78" s="7" t="s">
-        <v>19</v>
+      <c r="L78" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="M78" s="35">
-        <v>6.3064285714285715</v>
+        <v>7.2062499999999989</v>
       </c>
       <c r="N78" s="35">
-        <v>3.0889285714285712</v>
+        <v>1.0075000000000001</v>
       </c>
       <c r="O78" s="35">
-        <v>20.367142857142856</v>
+        <v>29.6875</v>
       </c>
       <c r="P78" s="35">
-        <v>39.005897142857137</v>
+        <v>658.9375</v>
       </c>
       <c r="Q78" s="35">
-        <v>285.8521890714286</v>
+        <v>442</v>
       </c>
       <c r="R78" s="35">
-        <v>1.0201121794871797</v>
+        <v>1.3387500000000001</v>
       </c>
       <c r="S78" s="35">
-        <v>6.800614841745082</v>
+        <v>10.343750000000002</v>
       </c>
       <c r="T78" s="35">
-        <v>5.5034556143445039</v>
+        <v>4.0187499999999998</v>
       </c>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
       <c r="X78" s="35"/>
       <c r="Y78" s="35"/>
-      <c r="Z78" s="35">
-        <v>2340</v>
-      </c>
+      <c r="Z78" s="35"/>
       <c r="AA78" s="35"/>
       <c r="AB78" s="38">
-        <f t="shared" si="43"/>
-        <v>2752.9411764705883</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A79" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" s="41">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="40">
         <v>2023</v>
       </c>
-      <c r="C79" s="41" t="s">
-        <v>191</v>
+      <c r="C79" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35">
-        <v>900</v>
-      </c>
-      <c r="H79" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="H79" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="42">
         <v>0</v>
       </c>
-      <c r="J79" s="40"/>
-      <c r="K79" s="41" t="s">
+      <c r="J79" s="39"/>
+      <c r="K79" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L79" s="41" t="s">
-        <v>19</v>
+      <c r="L79" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="M79" s="35">
-        <v>5.5600000000000005</v>
+        <v>7.4600000000000009</v>
       </c>
       <c r="N79" s="35">
-        <v>3.34</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="O79" s="35">
-        <v>29.2</v>
+        <v>32.6</v>
       </c>
       <c r="P79" s="35">
-        <v>62.4</v>
+        <v>498.6</v>
       </c>
       <c r="Q79" s="35">
-        <v>137.80000000000001</v>
+        <v>150</v>
       </c>
       <c r="R79" s="35">
-        <v>0.58799999999999997</v>
+        <v>0.96460000000000012</v>
       </c>
       <c r="S79" s="35">
-        <v>6.0579999999999998</v>
+        <v>9.5540000000000003</v>
       </c>
       <c r="T79" s="35">
-        <v>4.3899999999999997</v>
+        <v>3.6700000000000004</v>
       </c>
       <c r="U79" s="35"/>
       <c r="V79" s="35"/>
@@ -11082,143 +11420,141 @@
       <c r="X79" s="35"/>
       <c r="Y79" s="35"/>
       <c r="Z79" s="35">
-        <v>2179.6999999999998</v>
+        <v>1032.4000000000001</v>
       </c>
       <c r="AA79" s="35">
-        <v>21.3</v>
+        <v>23</v>
       </c>
       <c r="AB79" s="38">
-        <f t="shared" si="43"/>
-        <v>2018.1457647058821</v>
+        <f t="shared" si="51"/>
+        <v>935.2329411764706</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A80" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B80" s="41">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A80" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="7">
         <v>2021</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35">
-        <v>800</v>
-      </c>
-      <c r="H80" s="43" t="s">
+        <v>780</v>
+      </c>
+      <c r="H80" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I80" s="43">
+      <c r="I80" s="42">
         <v>0</v>
       </c>
-      <c r="J80" s="40"/>
-      <c r="K80" s="41" t="s">
+      <c r="J80" s="39"/>
+      <c r="K80" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="41" t="s">
-        <v>19</v>
+      <c r="L80" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="M80" s="35">
-        <v>6.1429166666666672</v>
+        <v>5.6003571428571419</v>
       </c>
       <c r="N80" s="35">
-        <v>3.4674999999999994</v>
+        <v>2.6676785714285716</v>
       </c>
       <c r="O80" s="35">
-        <v>23.595833333333331</v>
+        <v>26.588571428571424</v>
       </c>
       <c r="P80" s="35">
-        <v>45.096666666666671</v>
+        <v>47.736358571428575</v>
       </c>
       <c r="Q80" s="35">
-        <v>261.44458333333336</v>
+        <v>73.542659142857147</v>
       </c>
       <c r="R80" s="35">
-        <v>0.76874999999999993</v>
+        <v>0.88228185504971202</v>
       </c>
       <c r="S80" s="35">
-        <v>5.77</v>
+        <v>4.780803036783575</v>
       </c>
       <c r="T80" s="35">
-        <v>4.6783333333333328</v>
+        <v>4.2057716049382714</v>
       </c>
       <c r="U80" s="35"/>
       <c r="V80" s="35"/>
       <c r="W80" s="35"/>
       <c r="X80" s="35"/>
       <c r="Y80" s="35"/>
-      <c r="Z80" s="35">
-        <v>1977</v>
-      </c>
+      <c r="Z80" s="35"/>
       <c r="AA80" s="35"/>
       <c r="AB80" s="38">
-        <f t="shared" si="43"/>
-        <v>2325.8823529411766</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A81" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B81" s="41">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A81" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="7">
         <v>2023</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>193</v>
+      <c r="C81" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" s="42" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35">
-        <v>800</v>
-      </c>
-      <c r="H81" s="43" t="s">
+        <v>780</v>
+      </c>
+      <c r="H81" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I81" s="43">
+      <c r="I81" s="42">
         <v>0</v>
       </c>
-      <c r="J81" s="40"/>
-      <c r="K81" s="41" t="s">
+      <c r="J81" s="39"/>
+      <c r="K81" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="41" t="s">
-        <v>19</v>
+      <c r="L81" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="M81" s="35">
-        <v>5.66</v>
+        <v>5.9180000000000001</v>
       </c>
       <c r="N81" s="35">
-        <v>4.12</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="O81" s="35">
-        <v>25.8</v>
+        <v>36.504000000000005</v>
       </c>
       <c r="P81" s="35">
-        <v>51.4</v>
+        <v>159.58735200000001</v>
       </c>
       <c r="Q81" s="35">
-        <v>318.8</v>
+        <v>659.81537159999993</v>
       </c>
       <c r="R81" s="35">
-        <v>0.68399999999999994</v>
+        <v>1.1791314578005117</v>
       </c>
       <c r="S81" s="35">
-        <v>5.3480000000000008</v>
+        <v>5.6944261477045917</v>
       </c>
       <c r="T81" s="35">
-        <v>4.4239999999999995</v>
+        <v>4.0272345679012345</v>
       </c>
       <c r="U81" s="35"/>
       <c r="V81" s="35"/>
@@ -11226,13 +11562,579 @@
       <c r="X81" s="35"/>
       <c r="Y81" s="35"/>
       <c r="Z81" s="35">
+        <v>2123</v>
+      </c>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="38">
+        <f t="shared" si="51"/>
+        <v>2497.6470588235293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A82" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35">
+        <v>1500</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I82" s="42">
+        <v>0</v>
+      </c>
+      <c r="J82" s="39"/>
+      <c r="K82" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M82" s="35">
+        <v>6.9335714285714278</v>
+      </c>
+      <c r="N82" s="35">
+        <v>1.4784017857142857</v>
+      </c>
+      <c r="O82" s="35">
+        <v>20.041607142857142</v>
+      </c>
+      <c r="P82" s="35">
+        <v>26.008511428571428</v>
+      </c>
+      <c r="Q82" s="35">
+        <v>368.03743310714293</v>
+      </c>
+      <c r="R82" s="35">
+        <v>0.81245966335252073</v>
+      </c>
+      <c r="S82" s="35">
+        <v>5.6817092600513259</v>
+      </c>
+      <c r="T82" s="35">
+        <v>4.7754248971193407</v>
+      </c>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="38">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="40">
+        <v>2023</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35">
+        <v>1500</v>
+      </c>
+      <c r="H83" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I83" s="42">
+        <v>0</v>
+      </c>
+      <c r="J83" s="39"/>
+      <c r="K83" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M83" s="35">
+        <v>6.7200000000000006</v>
+      </c>
+      <c r="N83" s="35">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="O83" s="35">
+        <v>25.456</v>
+      </c>
+      <c r="P83" s="35">
+        <v>104.00080800000001</v>
+      </c>
+      <c r="Q83" s="35">
+        <v>490.86220039999989</v>
+      </c>
+      <c r="R83" s="35">
+        <v>0.8704388746803069</v>
+      </c>
+      <c r="S83" s="35">
+        <v>5.4246716566866269</v>
+      </c>
+      <c r="T83" s="35">
+        <v>3.759761316872428</v>
+      </c>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35">
+        <v>4363.5</v>
+      </c>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="38">
+        <f t="shared" si="51"/>
+        <v>5133.5294117647063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="40">
+        <v>2021</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35">
+        <v>1500</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I84" s="42">
+        <v>0</v>
+      </c>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M84" s="35">
+        <v>5.7139285714285704</v>
+      </c>
+      <c r="N84" s="35">
+        <v>0.96583035714285725</v>
+      </c>
+      <c r="O84" s="35">
+        <v>21.112678571428571</v>
+      </c>
+      <c r="P84" s="35">
+        <v>15.192187142857142</v>
+      </c>
+      <c r="Q84" s="35">
+        <v>196.22658157142857</v>
+      </c>
+      <c r="R84" s="35">
+        <v>0.63422505487237646</v>
+      </c>
+      <c r="S84" s="35">
+        <v>4.534227705303679</v>
+      </c>
+      <c r="T84" s="35">
+        <v>2.9819728101116985</v>
+      </c>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="38">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A85" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="40">
+        <v>2023</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35">
+        <v>1500</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I85" s="42">
+        <v>0</v>
+      </c>
+      <c r="J85" s="39"/>
+      <c r="K85" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L85" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="M85" s="35">
+        <v>6.1859999999999999</v>
+      </c>
+      <c r="N85" s="35">
+        <v>1.7987000000000002</v>
+      </c>
+      <c r="O85" s="35">
+        <v>25.974</v>
+      </c>
+      <c r="P85" s="35">
+        <v>59.98334400000001</v>
+      </c>
+      <c r="Q85" s="35">
+        <v>562.50571960000002</v>
+      </c>
+      <c r="R85" s="35">
+        <v>0.87210690537084401</v>
+      </c>
+      <c r="S85" s="35">
+        <v>5.2835479041916162</v>
+      </c>
+      <c r="T85" s="35">
+        <v>3.6557102880658432</v>
+      </c>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35">
+        <v>3833.3</v>
+      </c>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="38">
+        <f t="shared" si="51"/>
+        <v>4509.7647058823532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="40">
+        <v>2021</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35">
+        <v>900</v>
+      </c>
+      <c r="H86" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="42">
+        <v>0</v>
+      </c>
+      <c r="J86" s="39"/>
+      <c r="K86" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="35">
+        <v>6.3064285714285715</v>
+      </c>
+      <c r="N86" s="35">
+        <v>3.0889285714285712</v>
+      </c>
+      <c r="O86" s="35">
+        <v>20.367142857142856</v>
+      </c>
+      <c r="P86" s="35">
+        <v>39.005897142857137</v>
+      </c>
+      <c r="Q86" s="35">
+        <v>285.8521890714286</v>
+      </c>
+      <c r="R86" s="35">
+        <v>1.0201121794871797</v>
+      </c>
+      <c r="S86" s="35">
+        <v>6.800614841745082</v>
+      </c>
+      <c r="T86" s="35">
+        <v>5.5034556143445039</v>
+      </c>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35">
+        <v>2340</v>
+      </c>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="38">
+        <f t="shared" si="51"/>
+        <v>2752.9411764705883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A87" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="40">
+        <v>2023</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35">
+        <v>900</v>
+      </c>
+      <c r="H87" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="42">
+        <v>0</v>
+      </c>
+      <c r="J87" s="39"/>
+      <c r="K87" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="35">
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="N87" s="35">
+        <v>3.34</v>
+      </c>
+      <c r="O87" s="35">
+        <v>29.2</v>
+      </c>
+      <c r="P87" s="35">
+        <v>62.4</v>
+      </c>
+      <c r="Q87" s="35">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="R87" s="35">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="S87" s="35">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="T87" s="35">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35">
+        <v>2179.6999999999998</v>
+      </c>
+      <c r="AA87" s="35">
+        <v>21.3</v>
+      </c>
+      <c r="AB87" s="38">
+        <f t="shared" si="51"/>
+        <v>2018.1457647058821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="40">
+        <v>2021</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35">
+        <v>800</v>
+      </c>
+      <c r="H88" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I88" s="42">
+        <v>0</v>
+      </c>
+      <c r="J88" s="39"/>
+      <c r="K88" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="35">
+        <v>6.1429166666666672</v>
+      </c>
+      <c r="N88" s="35">
+        <v>3.4674999999999994</v>
+      </c>
+      <c r="O88" s="35">
+        <v>23.595833333333331</v>
+      </c>
+      <c r="P88" s="35">
+        <v>45.096666666666671</v>
+      </c>
+      <c r="Q88" s="35">
+        <v>261.44458333333336</v>
+      </c>
+      <c r="R88" s="35">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="S88" s="35">
+        <v>5.77</v>
+      </c>
+      <c r="T88" s="35">
+        <v>4.6783333333333328</v>
+      </c>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35">
+        <v>1977</v>
+      </c>
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="38">
+        <f t="shared" si="51"/>
+        <v>2325.8823529411766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="40">
+        <v>2023</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35">
+        <v>800</v>
+      </c>
+      <c r="H89" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I89" s="42">
+        <v>0</v>
+      </c>
+      <c r="J89" s="39"/>
+      <c r="K89" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="35">
+        <v>5.66</v>
+      </c>
+      <c r="N89" s="35">
+        <v>4.12</v>
+      </c>
+      <c r="O89" s="35">
+        <v>25.8</v>
+      </c>
+      <c r="P89" s="35">
+        <v>51.4</v>
+      </c>
+      <c r="Q89" s="35">
+        <v>318.8</v>
+      </c>
+      <c r="R89" s="35">
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="S89" s="35">
+        <v>5.3480000000000008</v>
+      </c>
+      <c r="T89" s="35">
+        <v>4.4239999999999995</v>
+      </c>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35">
         <v>1493</v>
       </c>
-      <c r="AA81" s="35">
+      <c r="AA89" s="35">
         <v>23.4</v>
       </c>
-      <c r="AB81" s="38">
-        <f t="shared" si="43"/>
+      <c r="AB89" s="38">
+        <f t="shared" si="51"/>
         <v>1345.4564705882351</v>
       </c>
     </row>
@@ -11244,16 +12146,69 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FFCDB8-1FDF-4894-91FE-D5B39978BEF2}">
+  <dimension ref="E12:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>520</v>
+      </c>
+      <c r="H12">
+        <f>F12*E13/E12</f>
+        <v>786.5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2.4</v>
+      </c>
+      <c r="H15">
+        <f>F15*E16/E15</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>520*302.5/200</f>
+        <v>786.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2072995-9573-4763-8ef9-ccd2211cdc67" xsi:nil="true"/>
@@ -11262,6 +12217,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11506,26 +12470,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88214A36-1175-4AAE-9765-8CA40D79A332}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A31E2-40FF-443E-B7FA-B151C676481F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A31E2-40FF-443E-B7FA-B151C676481F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88214A36-1175-4AAE-9765-8CA40D79A332}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
